--- a/code_v2/summary_data/result.xlsx
+++ b/code_v2/summary_data/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RY\git\hierarchical-gene\code_v2\summary_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D84D90-05E3-4AAF-B873-7BC88C50E4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D623C1E3-6545-4CD8-9FCD-DDFBD6348DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" activeTab="1" xr2:uid="{EBE4CFCB-469C-4867-8775-907539EE1541}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" xr2:uid="{EBE4CFCB-469C-4867-8775-907539EE1541}"/>
   </bookViews>
   <sheets>
     <sheet name="n=500_p=8-3_q=4-2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="26">
   <si>
     <t>balance
 type</t>
@@ -277,16 +277,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9D3AE6-56CA-42EC-92E1-A32B46A3D8A1}">
   <dimension ref="A1:AL290"/>
   <sheetViews>
-    <sheetView topLeftCell="N113" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T139" sqref="T139"/>
+    <sheetView tabSelected="1" topLeftCell="N7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -727,13 +727,13 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="19">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19">
-        <v>1</v>
-      </c>
-      <c r="C2" s="19">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17">
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -763,13 +763,13 @@
       <c r="L2" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N2" s="19">
-        <v>2</v>
-      </c>
-      <c r="O2" s="18">
-        <v>1</v>
-      </c>
-      <c r="P2" s="18">
+      <c r="N2" s="17">
+        <v>2</v>
+      </c>
+      <c r="O2" s="19">
+        <v>1</v>
+      </c>
+      <c r="P2" s="19">
         <v>4</v>
       </c>
       <c r="Q2" s="11" t="s">
@@ -799,13 +799,13 @@
       <c r="Y2" s="12">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AA2" s="19">
+      <c r="AA2" s="17">
         <v>3</v>
       </c>
-      <c r="AB2" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="18">
+      <c r="AB2" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="19">
         <v>4</v>
       </c>
       <c r="AD2" s="9" t="s">
@@ -837,9 +837,9 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
@@ -867,9 +867,9 @@
       <c r="L3" s="4">
         <v>3.2573913611296701E-3</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
       <c r="Q3" s="2" t="s">
         <v>19</v>
       </c>
@@ -897,9 +897,9 @@
       <c r="Y3" s="4">
         <v>1.2544281421158199E-3</v>
       </c>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
       <c r="AD3" s="2" t="s">
         <v>19</v>
       </c>
@@ -929,9 +929,9 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
@@ -959,9 +959,9 @@
       <c r="L4" s="4">
         <v>1.1029581E-2</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
       <c r="Q4" s="2" t="s">
         <v>14</v>
       </c>
@@ -989,9 +989,9 @@
       <c r="Y4" s="4">
         <v>0.12626270000000001</v>
       </c>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
       <c r="AD4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1021,9 +1021,9 @@
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1051,9 +1051,9 @@
       <c r="L5" s="4">
         <v>2.3114084519999998</v>
       </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
       <c r="Q5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1081,9 +1081,9 @@
       <c r="Y5" s="4">
         <v>2.1625823999999998</v>
       </c>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
       <c r="AD5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1113,9 +1113,9 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1143,9 +1143,9 @@
       <c r="L6" s="4">
         <v>2.4000908600000002</v>
       </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
       <c r="Q6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1173,9 +1173,9 @@
       <c r="Y6" s="4">
         <v>2.3797085</v>
       </c>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
       <c r="AD6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1205,9 +1205,9 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1229,9 +1229,9 @@
       <c r="L7" s="4">
         <v>0.128</v>
       </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
       <c r="Q7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1253,9 +1253,9 @@
       <c r="Y7" s="4">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
       <c r="AD7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1279,9 +1279,9 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1303,9 +1303,9 @@
       <c r="L8" s="4">
         <v>2.4419679649999999</v>
       </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
       <c r="Q8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1327,9 +1327,9 @@
       <c r="Y8" s="4">
         <v>2.4508101</v>
       </c>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
       <c r="AD8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1353,9 +1353,9 @@
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1377,9 +1377,9 @@
       <c r="L9" s="6">
         <v>2.4555734390000001</v>
       </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
       <c r="Q9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1401,9 +1401,9 @@
       <c r="Y9" s="6">
         <v>2.4518627999999998</v>
       </c>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
       <c r="AD9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1427,13 +1427,13 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
-        <v>1</v>
-      </c>
-      <c r="B10" s="18">
-        <v>2</v>
-      </c>
-      <c r="C10" s="18">
+      <c r="A10" s="17">
+        <v>1</v>
+      </c>
+      <c r="B10" s="19">
+        <v>2</v>
+      </c>
+      <c r="C10" s="19">
         <v>4</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -1463,13 +1463,13 @@
       <c r="L10" s="12">
         <v>0.183</v>
       </c>
-      <c r="N10" s="19">
-        <v>2</v>
-      </c>
-      <c r="O10" s="18">
-        <v>2</v>
-      </c>
-      <c r="P10" s="18">
+      <c r="N10" s="17">
+        <v>2</v>
+      </c>
+      <c r="O10" s="19">
+        <v>2</v>
+      </c>
+      <c r="P10" s="19">
         <v>4</v>
       </c>
       <c r="Q10" s="11" t="s">
@@ -1499,13 +1499,13 @@
       <c r="Y10" s="12">
         <v>0.11700000000000001</v>
       </c>
-      <c r="AA10" s="18">
+      <c r="AA10" s="19">
         <v>3</v>
       </c>
-      <c r="AB10" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="18">
+      <c r="AB10" s="19">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="19">
         <v>4</v>
       </c>
       <c r="AD10" s="11" t="s">
@@ -1537,9 +1537,9 @@
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1567,9 +1567,9 @@
       <c r="L11" s="4">
         <v>7.1128534862121102E-3</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
       <c r="Q11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1597,9 +1597,9 @@
       <c r="Y11" s="4">
         <v>1.1391810450488099E-3</v>
       </c>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
       <c r="AD11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1629,9 +1629,9 @@
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1659,9 +1659,9 @@
       <c r="L12" s="4">
         <v>1.1029581E-2</v>
       </c>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
       <c r="Q12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1689,9 +1689,9 @@
       <c r="Y12" s="4">
         <v>0.87840470000000004</v>
       </c>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
       <c r="AD12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1721,9 +1721,9 @@
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1751,9 +1751,9 @@
       <c r="L13" s="4">
         <v>2.3114084519999998</v>
       </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
       <c r="Q13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1781,9 +1781,9 @@
       <c r="Y13" s="4">
         <v>8.2694804000000008</v>
       </c>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
       <c r="AD13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1813,9 +1813,9 @@
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1843,9 +1843,9 @@
       <c r="L14" s="4">
         <v>2.4000908600000002</v>
       </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
       <c r="Q14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1873,9 +1873,9 @@
       <c r="Y14" s="4">
         <v>10.112000800000001</v>
       </c>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
       <c r="AD14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1905,9 +1905,9 @@
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1929,9 +1929,9 @@
       <c r="L15" s="4">
         <v>0.51</v>
       </c>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
       <c r="Q15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1953,9 +1953,9 @@
       <c r="Y15" s="4">
         <v>1.284</v>
       </c>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
       <c r="AD15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1979,9 +1979,9 @@
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2003,9 +2003,9 @@
       <c r="L16" s="4">
         <v>2.4419679649999999</v>
       </c>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
       <c r="Q16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2027,9 +2027,9 @@
       <c r="Y16" s="4">
         <v>10.6932793</v>
       </c>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
       <c r="AD16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2053,9 +2053,9 @@
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2077,9 +2077,9 @@
       <c r="L17" s="6">
         <v>2.4555734390000001</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
       <c r="Q17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2101,9 +2101,9 @@
       <c r="Y17" s="6">
         <v>10.4442507</v>
       </c>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
       <c r="AD17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2127,13 +2127,13 @@
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
-        <v>1</v>
-      </c>
-      <c r="B18" s="18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="A18" s="17">
+        <v>1</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1</v>
+      </c>
+      <c r="C18" s="19">
         <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -2163,13 +2163,13 @@
       <c r="L18" s="12">
         <v>1.2E-2</v>
       </c>
-      <c r="N18" s="19">
-        <v>2</v>
-      </c>
-      <c r="O18" s="18">
-        <v>1</v>
-      </c>
-      <c r="P18" s="18">
+      <c r="N18" s="17">
+        <v>2</v>
+      </c>
+      <c r="O18" s="19">
+        <v>1</v>
+      </c>
+      <c r="P18" s="19">
         <v>6</v>
       </c>
       <c r="Q18" s="11" t="s">
@@ -2199,13 +2199,13 @@
       <c r="Y18" s="12">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="AA18" s="18">
+      <c r="AA18" s="19">
         <v>3</v>
       </c>
-      <c r="AB18" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="18">
+      <c r="AB18" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="19">
         <v>6</v>
       </c>
       <c r="AD18" s="11" t="s">
@@ -2237,9 +2237,9 @@
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
@@ -2267,9 +2267,9 @@
       <c r="L19" s="4">
         <v>3.2573913611296701E-3</v>
       </c>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
       <c r="Q19" s="2" t="s">
         <v>19</v>
       </c>
@@ -2297,9 +2297,9 @@
       <c r="Y19" s="4">
         <v>1.2544281421158199E-3</v>
       </c>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
       <c r="AD19" s="2" t="s">
         <v>19</v>
       </c>
@@ -2329,9 +2329,9 @@
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2359,9 +2359,9 @@
       <c r="L20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
       <c r="Q20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2389,9 +2389,9 @@
       <c r="Y20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
       <c r="AD20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2421,9 +2421,9 @@
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2451,9 +2451,9 @@
       <c r="L21" s="4">
         <v>2.3114084500000001</v>
       </c>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
       <c r="Q21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2481,9 +2481,9 @@
       <c r="Y21" s="4">
         <v>2.1625823999999998</v>
       </c>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
       <c r="AD21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2513,9 +2513,9 @@
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2543,9 +2543,9 @@
       <c r="L22" s="4">
         <v>2.4000908600000002</v>
       </c>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
       <c r="Q22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2573,9 +2573,9 @@
       <c r="Y22" s="4">
         <v>2.3797085</v>
       </c>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
       <c r="AD22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2605,9 +2605,9 @@
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
@@ -2629,9 +2629,9 @@
       <c r="L23" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
       <c r="Q23" s="2" t="s">
         <v>4</v>
       </c>
@@ -2653,9 +2653,9 @@
       <c r="Y23" s="4">
         <v>0.16400000000000001</v>
       </c>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
       <c r="AD23" s="2" t="s">
         <v>4</v>
       </c>
@@ -2679,9 +2679,9 @@
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2697,9 +2697,9 @@
       <c r="J24" s="4">
         <v>8.6977740000000001E-3</v>
       </c>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
       <c r="Q24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2717,9 +2717,9 @@
       </c>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
       <c r="AD24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2739,9 +2739,9 @@
       <c r="AL24" s="4"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="5" t="s">
         <v>15</v>
       </c>
@@ -2759,9 +2759,9 @@
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
       <c r="Q25" s="5" t="s">
         <v>15</v>
       </c>
@@ -2779,9 +2779,9 @@
       </c>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
       <c r="AD25" s="5" t="s">
         <v>15</v>
       </c>
@@ -2801,13 +2801,13 @@
       <c r="AL25" s="6"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
-        <v>1</v>
-      </c>
-      <c r="B26" s="18">
-        <v>2</v>
-      </c>
-      <c r="C26" s="18">
+      <c r="A26" s="17">
+        <v>1</v>
+      </c>
+      <c r="B26" s="19">
+        <v>2</v>
+      </c>
+      <c r="C26" s="19">
         <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
@@ -2837,13 +2837,13 @@
       <c r="L26" s="12">
         <v>0.111</v>
       </c>
-      <c r="N26" s="19">
-        <v>2</v>
-      </c>
-      <c r="O26" s="18">
-        <v>2</v>
-      </c>
-      <c r="P26" s="18">
+      <c r="N26" s="17">
+        <v>2</v>
+      </c>
+      <c r="O26" s="19">
+        <v>2</v>
+      </c>
+      <c r="P26" s="19">
         <v>6</v>
       </c>
       <c r="Q26" s="11" t="s">
@@ -2873,13 +2873,13 @@
       <c r="Y26" s="12">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AA26" s="18">
+      <c r="AA26" s="19">
         <v>3</v>
       </c>
-      <c r="AB26" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC26" s="18">
+      <c r="AB26" s="19">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="19">
         <v>6</v>
       </c>
       <c r="AD26" s="11" t="s">
@@ -2911,9 +2911,9 @@
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
@@ -2941,9 +2941,9 @@
       <c r="L27" s="4">
         <v>7.1128534862121102E-3</v>
       </c>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
       <c r="Q27" s="2" t="s">
         <v>19</v>
       </c>
@@ -2971,9 +2971,9 @@
       <c r="Y27" s="4">
         <v>1.1391810450488099E-3</v>
       </c>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
       <c r="AD27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3003,9 +3003,9 @@
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="2" t="s">
         <v>14</v>
       </c>
@@ -3033,9 +3033,9 @@
       <c r="L28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
       <c r="Q28" s="2" t="s">
         <v>14</v>
       </c>
@@ -3063,9 +3063,9 @@
       <c r="Y28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
       <c r="AD28" s="2" t="s">
         <v>14</v>
       </c>
@@ -3095,9 +3095,9 @@
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="2" t="s">
         <v>18</v>
       </c>
@@ -3125,9 +3125,9 @@
       <c r="L29" s="4">
         <v>9.047183768</v>
       </c>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
       <c r="Q29" s="2" t="s">
         <v>18</v>
       </c>
@@ -3155,9 +3155,9 @@
       <c r="Y29" s="4">
         <v>8.2694804000000008</v>
       </c>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
       <c r="AD29" s="2" t="s">
         <v>18</v>
       </c>
@@ -3187,9 +3187,9 @@
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="2" t="s">
         <v>16</v>
       </c>
@@ -3217,9 +3217,9 @@
       <c r="L30" s="4">
         <v>9.2430258779999992</v>
       </c>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
       <c r="Q30" s="2" t="s">
         <v>16</v>
       </c>
@@ -3247,9 +3247,9 @@
       <c r="Y30" s="4">
         <v>10.112000800000001</v>
       </c>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
       <c r="AD30" s="2" t="s">
         <v>16</v>
       </c>
@@ -3279,9 +3279,9 @@
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="2" t="s">
         <v>4</v>
       </c>
@@ -3303,9 +3303,9 @@
       <c r="L31" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
       <c r="Q31" s="2" t="s">
         <v>4</v>
       </c>
@@ -3327,9 +3327,9 @@
       <c r="Y31" s="4">
         <v>0.316</v>
       </c>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
       <c r="AD31" s="2" t="s">
         <v>4</v>
       </c>
@@ -3353,9 +3353,9 @@
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="2" t="s">
         <v>17</v>
       </c>
@@ -3371,9 +3371,9 @@
       <c r="J32" s="4">
         <v>9.2121930000000005E-3</v>
       </c>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
       <c r="Q32" s="2" t="s">
         <v>17</v>
       </c>
@@ -3391,9 +3391,9 @@
       </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
       <c r="AD32" s="2" t="s">
         <v>17</v>
       </c>
@@ -3413,9 +3413,9 @@
       <c r="AL32" s="4"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="5" t="s">
         <v>15</v>
       </c>
@@ -3433,9 +3433,9 @@
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
       <c r="Q33" s="5" t="s">
         <v>15</v>
       </c>
@@ -3453,9 +3453,9 @@
       </c>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="20"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="18"/>
       <c r="AD33" s="5" t="s">
         <v>15</v>
       </c>
@@ -3543,13 +3543,13 @@
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N39" s="17">
-        <v>2</v>
-      </c>
-      <c r="O39" s="17">
-        <v>1</v>
-      </c>
-      <c r="P39" s="17">
+      <c r="N39" s="20">
+        <v>2</v>
+      </c>
+      <c r="O39" s="20">
+        <v>1</v>
+      </c>
+      <c r="P39" s="20">
         <v>4</v>
       </c>
       <c r="Q39" s="14" t="s">
@@ -3611,9 +3611,9 @@
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
       <c r="Q40" s="14" t="s">
         <v>19</v>
       </c>
@@ -3673,9 +3673,9 @@
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
       <c r="Q41" s="14" t="s">
         <v>14</v>
       </c>
@@ -3735,13 +3735,13 @@
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N42" s="17">
-        <v>2</v>
-      </c>
-      <c r="O42" s="17">
-        <v>2</v>
-      </c>
-      <c r="P42" s="17">
+      <c r="N42" s="20">
+        <v>2</v>
+      </c>
+      <c r="O42" s="20">
+        <v>2</v>
+      </c>
+      <c r="P42" s="20">
         <v>4</v>
       </c>
       <c r="Q42" s="14" t="s">
@@ -3803,9 +3803,9 @@
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
       <c r="Q43" s="14" t="s">
         <v>19</v>
       </c>
@@ -3865,9 +3865,9 @@
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
       <c r="Q44" s="14" t="s">
         <v>14</v>
       </c>
@@ -3921,13 +3921,13 @@
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N45" s="17">
-        <v>2</v>
-      </c>
-      <c r="O45" s="17">
-        <v>1</v>
-      </c>
-      <c r="P45" s="17">
+      <c r="N45" s="20">
+        <v>2</v>
+      </c>
+      <c r="O45" s="20">
+        <v>1</v>
+      </c>
+      <c r="P45" s="20">
         <v>6</v>
       </c>
       <c r="Q45" s="14" t="s">
@@ -3983,9 +3983,9 @@
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
       <c r="Q46" s="14" t="s">
         <v>19</v>
       </c>
@@ -4039,9 +4039,9 @@
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
       <c r="Q47" s="14" t="s">
         <v>14</v>
       </c>
@@ -4101,13 +4101,13 @@
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N48" s="17">
-        <v>2</v>
-      </c>
-      <c r="O48" s="17">
-        <v>2</v>
-      </c>
-      <c r="P48" s="17">
+      <c r="N48" s="20">
+        <v>2</v>
+      </c>
+      <c r="O48" s="20">
+        <v>2</v>
+      </c>
+      <c r="P48" s="20">
         <v>6</v>
       </c>
       <c r="Q48" s="14" t="s">
@@ -4169,9 +4169,9 @@
       </c>
     </row>
     <row r="49" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
       <c r="Q49" s="14" t="s">
         <v>19</v>
       </c>
@@ -4231,9 +4231,9 @@
       </c>
     </row>
     <row r="50" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
       <c r="Q50" s="14" t="s">
         <v>14</v>
       </c>
@@ -4293,13 +4293,13 @@
       </c>
     </row>
     <row r="51" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N51" s="17">
+      <c r="N51" s="20">
         <v>3</v>
       </c>
-      <c r="O51" s="17">
-        <v>1</v>
-      </c>
-      <c r="P51" s="17">
+      <c r="O51" s="20">
+        <v>1</v>
+      </c>
+      <c r="P51" s="20">
         <v>4</v>
       </c>
       <c r="Q51" s="14" t="s">
@@ -4361,9 +4361,9 @@
       </c>
     </row>
     <row r="52" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
       <c r="Q52" s="14" t="s">
         <v>19</v>
       </c>
@@ -4417,9 +4417,9 @@
       </c>
     </row>
     <row r="53" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
       <c r="Q53" s="14" t="s">
         <v>14</v>
       </c>
@@ -4473,13 +4473,13 @@
       </c>
     </row>
     <row r="54" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N54" s="17">
+      <c r="N54" s="20">
         <v>3</v>
       </c>
-      <c r="O54" s="17">
-        <v>2</v>
-      </c>
-      <c r="P54" s="17">
+      <c r="O54" s="20">
+        <v>2</v>
+      </c>
+      <c r="P54" s="20">
         <v>4</v>
       </c>
       <c r="Q54" s="14" t="s">
@@ -4535,9 +4535,9 @@
       </c>
     </row>
     <row r="55" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
       <c r="Q55" s="14" t="s">
         <v>19</v>
       </c>
@@ -4597,9 +4597,9 @@
       </c>
     </row>
     <row r="56" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
       <c r="Q56" s="14" t="s">
         <v>14</v>
       </c>
@@ -4659,13 +4659,13 @@
       </c>
     </row>
     <row r="57" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N57" s="17">
+      <c r="N57" s="20">
         <v>3</v>
       </c>
-      <c r="O57" s="17">
-        <v>1</v>
-      </c>
-      <c r="P57" s="17">
+      <c r="O57" s="20">
+        <v>1</v>
+      </c>
+      <c r="P57" s="20">
         <v>6</v>
       </c>
       <c r="Q57" s="14" t="s">
@@ -4727,9 +4727,9 @@
       </c>
     </row>
     <row r="58" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
       <c r="Q58" s="14" t="s">
         <v>19</v>
       </c>
@@ -4789,9 +4789,9 @@
       </c>
     </row>
     <row r="59" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
       <c r="Q59" s="14" t="s">
         <v>14</v>
       </c>
@@ -4851,13 +4851,13 @@
       </c>
     </row>
     <row r="60" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N60" s="17">
+      <c r="N60" s="20">
         <v>3</v>
       </c>
-      <c r="O60" s="17">
-        <v>2</v>
-      </c>
-      <c r="P60" s="17">
+      <c r="O60" s="20">
+        <v>2</v>
+      </c>
+      <c r="P60" s="20">
         <v>6</v>
       </c>
       <c r="Q60" s="14" t="s">
@@ -4913,9 +4913,9 @@
       </c>
     </row>
     <row r="61" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
       <c r="Q61" s="14" t="s">
         <v>19</v>
       </c>
@@ -4965,9 +4965,9 @@
       <c r="AJ61" s="14"/>
     </row>
     <row r="62" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
       <c r="Q62" s="14" t="s">
         <v>14</v>
       </c>
@@ -9354,42 +9354,14 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="N2:N9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="P2:P9"/>
-    <mergeCell ref="N10:N17"/>
-    <mergeCell ref="O10:O17"/>
-    <mergeCell ref="P10:P17"/>
-    <mergeCell ref="N18:N25"/>
-    <mergeCell ref="O18:O25"/>
-    <mergeCell ref="P18:P25"/>
-    <mergeCell ref="N26:N33"/>
-    <mergeCell ref="O26:O33"/>
-    <mergeCell ref="P26:P33"/>
-    <mergeCell ref="AA2:AA9"/>
-    <mergeCell ref="AB2:AB9"/>
-    <mergeCell ref="AC2:AC9"/>
-    <mergeCell ref="AA10:AA17"/>
-    <mergeCell ref="AB10:AB17"/>
-    <mergeCell ref="AC10:AC17"/>
-    <mergeCell ref="AB18:AB25"/>
-    <mergeCell ref="AC18:AC25"/>
-    <mergeCell ref="AA18:AA25"/>
-    <mergeCell ref="AA26:AA33"/>
-    <mergeCell ref="AB26:AB33"/>
-    <mergeCell ref="AC26:AC33"/>
+    <mergeCell ref="N54:N56"/>
+    <mergeCell ref="P54:P56"/>
+    <mergeCell ref="N57:N59"/>
+    <mergeCell ref="P57:P59"/>
+    <mergeCell ref="N60:N62"/>
+    <mergeCell ref="P60:P62"/>
+    <mergeCell ref="O57:O59"/>
+    <mergeCell ref="O60:O62"/>
     <mergeCell ref="O51:O53"/>
     <mergeCell ref="O54:O56"/>
     <mergeCell ref="P51:P53"/>
@@ -9406,14 +9378,42 @@
     <mergeCell ref="P48:P50"/>
     <mergeCell ref="O45:O47"/>
     <mergeCell ref="O48:O50"/>
-    <mergeCell ref="N54:N56"/>
-    <mergeCell ref="P54:P56"/>
-    <mergeCell ref="N57:N59"/>
-    <mergeCell ref="P57:P59"/>
-    <mergeCell ref="N60:N62"/>
-    <mergeCell ref="P60:P62"/>
-    <mergeCell ref="O57:O59"/>
-    <mergeCell ref="O60:O62"/>
+    <mergeCell ref="AB18:AB25"/>
+    <mergeCell ref="AC18:AC25"/>
+    <mergeCell ref="AA18:AA25"/>
+    <mergeCell ref="AA26:AA33"/>
+    <mergeCell ref="AB26:AB33"/>
+    <mergeCell ref="AC26:AC33"/>
+    <mergeCell ref="AA2:AA9"/>
+    <mergeCell ref="AB2:AB9"/>
+    <mergeCell ref="AC2:AC9"/>
+    <mergeCell ref="AA10:AA17"/>
+    <mergeCell ref="AB10:AB17"/>
+    <mergeCell ref="AC10:AC17"/>
+    <mergeCell ref="N18:N25"/>
+    <mergeCell ref="O18:O25"/>
+    <mergeCell ref="P18:P25"/>
+    <mergeCell ref="N26:N33"/>
+    <mergeCell ref="O26:O33"/>
+    <mergeCell ref="P26:P33"/>
+    <mergeCell ref="N2:N9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P2:P9"/>
+    <mergeCell ref="N10:N17"/>
+    <mergeCell ref="O10:O17"/>
+    <mergeCell ref="P10:P17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9422,10 +9422,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474392E9-0E45-4AEC-B8E4-8AB631FBD30B}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10006,6 +10006,110 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>0.05</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.5</v>
+      </c>
+      <c r="H25">
+        <v>0.626</v>
+      </c>
+      <c r="I25">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="J25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K25">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="L25">
+        <v>0.71599999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>0.35</v>
+      </c>
+      <c r="F26">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G26">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="H26">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="I26">
+        <v>0.376</v>
+      </c>
+      <c r="J26">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="K26">
+        <v>1.343</v>
+      </c>
+      <c r="L26">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0.499</v>
+      </c>
+      <c r="H27">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="K27">
+        <v>0.18</v>
+      </c>
+      <c r="L27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0.499</v>
+      </c>
+      <c r="H28">
+        <v>0.248</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="L28" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code_v2/summary_data/result.xlsx
+++ b/code_v2/summary_data/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RY\git\hierarchical-gene\code_v2\summary_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D623C1E3-6545-4CD8-9FCD-DDFBD6348DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83BE052-F98A-48E1-94DA-993EFDF0C63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" xr2:uid="{EBE4CFCB-469C-4867-8775-907539EE1541}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" activeTab="1" xr2:uid="{EBE4CFCB-469C-4867-8775-907539EE1541}"/>
   </bookViews>
   <sheets>
     <sheet name="n=500_p=8-3_q=4-2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="32">
   <si>
     <t>balance
 type</t>
@@ -129,6 +129,30 @@
   </si>
   <si>
     <t>bl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMR1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resiclust1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resiclust2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>respclust1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>respclust2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9D3AE6-56CA-42EC-92E1-A32B46A3D8A1}">
   <dimension ref="A1:AL290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O92" sqref="O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9422,10 +9446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474392E9-0E45-4AEC-B8E4-8AB631FBD30B}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10006,108 +10030,254 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E25">
-        <v>0.05</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>0.22</v>
+      </c>
+      <c r="F21">
+        <v>0.97</v>
+      </c>
+      <c r="G21">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.622</v>
+      </c>
+      <c r="I21">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="J21">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K21">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="L21">
+        <v>0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F26">
         <v>0.5</v>
       </c>
-      <c r="H25">
-        <v>0.626</v>
-      </c>
-      <c r="I25">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="J25">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="K25">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="L25">
-        <v>0.71599999999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E26">
-        <v>0.35</v>
-      </c>
-      <c r="F26">
-        <v>0.55000000000000004</v>
-      </c>
       <c r="G26">
-        <v>0.51300000000000001</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="H26">
-        <v>0.59499999999999997</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="I26">
-        <v>0.376</v>
+        <v>0.372</v>
       </c>
       <c r="J26">
-        <v>0.14199999999999999</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="K26">
-        <v>1.343</v>
+        <v>1.3009999999999999</v>
       </c>
       <c r="L26">
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0.499</v>
-      </c>
-      <c r="H27">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="K27">
-        <v>0.18</v>
-      </c>
-      <c r="L27" t="s">
+        <v>2.1349999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.98</v>
+      </c>
+      <c r="G28">
+        <v>0.51110219999999995</v>
+      </c>
+      <c r="H28">
+        <v>0.61958990000000003</v>
+      </c>
+      <c r="I28">
+        <v>2.1400033999999998E-2</v>
+      </c>
+      <c r="J28">
+        <v>1.5708298999999998E-2</v>
+      </c>
+      <c r="K28">
+        <v>0.35441879999999998</v>
+      </c>
+      <c r="L28">
+        <v>0.40726449999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0.49982559999999998</v>
+      </c>
+      <c r="H29">
+        <v>0.49876939999999997</v>
+      </c>
+      <c r="I29">
+        <v>1.5012459999999999E-3</v>
+      </c>
+      <c r="J29">
+        <v>0.45245792200000001</v>
+      </c>
+      <c r="K29">
+        <v>0.1833756</v>
+      </c>
+      <c r="L29">
+        <v>0.49871690000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0.5000038</v>
+      </c>
+      <c r="H30">
+        <v>0.4985443</v>
+      </c>
+      <c r="I30">
+        <v>1.4965810000000001E-3</v>
+      </c>
+      <c r="J30">
+        <v>0.45347870200000001</v>
+      </c>
+      <c r="K30">
+        <v>0.17942379999999999</v>
+      </c>
+      <c r="L30">
+        <v>0.2362736</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0.499</v>
-      </c>
-      <c r="H28">
-        <v>0.248</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="F31">
+        <v>0.98</v>
+      </c>
+      <c r="G31" t="s">
         <v>13</v>
+      </c>
+      <c r="H31">
+        <v>0.6181122</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31">
+        <v>2.0272595000000001E-2</v>
+      </c>
+      <c r="K31">
+        <v>0.35441879999999998</v>
+      </c>
+      <c r="L31">
+        <v>0.40726469999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32">
+        <v>0.59658659999999997</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32">
+        <v>7.6320520000000003E-3</v>
+      </c>
+      <c r="K32">
+        <v>1.0191543999999999</v>
+      </c>
+      <c r="L32">
+        <v>0.89660819999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33">
+        <v>0.59511320000000001</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33">
+        <v>8.7428079999999995E-3</v>
+      </c>
+      <c r="K33">
+        <v>0.94828840000000003</v>
+      </c>
+      <c r="L33">
+        <v>1.0277118000000001</v>
       </c>
     </row>
   </sheetData>

--- a/code_v2/summary_data/result.xlsx
+++ b/code_v2/summary_data/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RY\git\hierarchical-gene\code_v2\summary_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83BE052-F98A-48E1-94DA-993EFDF0C63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEE84AA-58AF-46D2-878E-B443AC0640D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" activeTab="1" xr2:uid="{EBE4CFCB-469C-4867-8775-907539EE1541}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="34">
   <si>
     <t>balance
 type</t>
@@ -153,6 +153,14 @@
   </si>
   <si>
     <t>respclust2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未运行完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和file结果不符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9448,8 +9456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474392E9-0E45-4AEC-B8E4-8AB631FBD30B}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10134,6 +10142,9 @@
       <c r="L28">
         <v>0.40726449999999997</v>
       </c>
+      <c r="M28" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
@@ -10146,22 +10157,25 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.49982559999999998</v>
+        <v>0.4996314</v>
       </c>
       <c r="H29">
-        <v>0.49876939999999997</v>
+        <v>0.49861270000000002</v>
       </c>
       <c r="I29">
-        <v>1.5012459999999999E-3</v>
+        <v>1.5362559999999999E-3</v>
       </c>
       <c r="J29">
-        <v>0.45245792200000001</v>
+        <v>0.45310223199999999</v>
       </c>
       <c r="K29">
-        <v>0.1833756</v>
+        <v>0.18516199999999999</v>
       </c>
       <c r="L29">
-        <v>0.49871690000000002</v>
+        <v>0.4722713</v>
+      </c>
+      <c r="M29" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -10175,22 +10189,22 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0.5000038</v>
+        <v>0.49987609999999999</v>
       </c>
       <c r="H30">
-        <v>0.4985443</v>
+        <v>0.49874869999999999</v>
       </c>
       <c r="I30">
-        <v>1.4965810000000001E-3</v>
+        <v>1.3176419999999999E-3</v>
       </c>
       <c r="J30">
-        <v>0.45347870200000001</v>
+        <v>0.45335917199999998</v>
       </c>
       <c r="K30">
-        <v>0.17942379999999999</v>
+        <v>0.1819547</v>
       </c>
       <c r="L30">
-        <v>0.2362736</v>
+        <v>0.24773890000000001</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -10221,6 +10235,9 @@
       <c r="L31">
         <v>0.40726469999999998</v>
       </c>
+      <c r="M31" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
@@ -10236,19 +10253,19 @@
         <v>13</v>
       </c>
       <c r="H32">
-        <v>0.59658659999999997</v>
+        <v>0.59760919999999995</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
       </c>
       <c r="J32">
-        <v>7.6320520000000003E-3</v>
+        <v>7.8452420000000005E-3</v>
       </c>
       <c r="K32">
-        <v>1.0191543999999999</v>
+        <v>0.99845050000000002</v>
       </c>
       <c r="L32">
-        <v>0.89660819999999997</v>
+        <v>0.80892180000000002</v>
       </c>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.3">
@@ -10265,19 +10282,19 @@
         <v>13</v>
       </c>
       <c r="H33">
-        <v>0.59511320000000001</v>
+        <v>0.59809959999999995</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>
       </c>
       <c r="J33">
-        <v>8.7428079999999995E-3</v>
+        <v>1.0433082E-2</v>
       </c>
       <c r="K33">
-        <v>0.94828840000000003</v>
+        <v>0.89865110000000004</v>
       </c>
       <c r="L33">
-        <v>1.0277118000000001</v>
+        <v>0.82901279999999999</v>
       </c>
     </row>
   </sheetData>

--- a/code_v2/summary_data/result.xlsx
+++ b/code_v2/summary_data/result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RY\git\hierarchical-gene\code_v2\summary_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEE84AA-58AF-46D2-878E-B443AC0640D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F25731-2A87-445D-81BF-36FFB6A82173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" activeTab="1" xr2:uid="{EBE4CFCB-469C-4867-8775-907539EE1541}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="43">
   <si>
     <t>balance
 type</t>
@@ -161,6 +161,36 @@
   </si>
   <si>
     <t>和file结果不符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rownumber=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMR1</t>
+  </si>
+  <si>
+    <t>FMR2</t>
+  </si>
+  <si>
+    <t>resiclust1</t>
+  </si>
+  <si>
+    <t>resiclust2</t>
+  </si>
+  <si>
+    <t>respclust1</t>
+  </si>
+  <si>
+    <t>respclust2</t>
+  </si>
+  <si>
+    <t>oracle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成，服务器运行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -309,16 +339,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9D3AE6-56CA-42EC-92E1-A32B46A3D8A1}">
   <dimension ref="A1:AL290"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O92" sqref="O92"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -759,13 +789,13 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19">
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -795,13 +825,13 @@
       <c r="L2" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N2" s="17">
-        <v>2</v>
-      </c>
-      <c r="O2" s="19">
-        <v>1</v>
-      </c>
-      <c r="P2" s="19">
+      <c r="N2" s="19">
+        <v>2</v>
+      </c>
+      <c r="O2" s="18">
+        <v>1</v>
+      </c>
+      <c r="P2" s="18">
         <v>4</v>
       </c>
       <c r="Q2" s="11" t="s">
@@ -831,13 +861,13 @@
       <c r="Y2" s="12">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AA2" s="17">
+      <c r="AA2" s="19">
         <v>3</v>
       </c>
-      <c r="AB2" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="19">
+      <c r="AB2" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="18">
         <v>4</v>
       </c>
       <c r="AD2" s="9" t="s">
@@ -869,9 +899,9 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
@@ -899,9 +929,9 @@
       <c r="L3" s="4">
         <v>3.2573913611296701E-3</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
       <c r="Q3" s="2" t="s">
         <v>19</v>
       </c>
@@ -929,9 +959,9 @@
       <c r="Y3" s="4">
         <v>1.2544281421158199E-3</v>
       </c>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
       <c r="AD3" s="2" t="s">
         <v>19</v>
       </c>
@@ -961,9 +991,9 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
@@ -991,9 +1021,9 @@
       <c r="L4" s="4">
         <v>1.1029581E-2</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
       <c r="Q4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1021,9 +1051,9 @@
       <c r="Y4" s="4">
         <v>0.12626270000000001</v>
       </c>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
       <c r="AD4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1053,9 +1083,9 @@
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1083,9 +1113,9 @@
       <c r="L5" s="4">
         <v>2.3114084519999998</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
       <c r="Q5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1113,9 +1143,9 @@
       <c r="Y5" s="4">
         <v>2.1625823999999998</v>
       </c>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
       <c r="AD5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1145,9 +1175,9 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1175,9 +1205,9 @@
       <c r="L6" s="4">
         <v>2.4000908600000002</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
       <c r="Q6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1205,9 +1235,9 @@
       <c r="Y6" s="4">
         <v>2.3797085</v>
       </c>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
       <c r="AD6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1237,9 +1267,9 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1261,9 +1291,9 @@
       <c r="L7" s="4">
         <v>0.128</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
       <c r="Q7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1285,9 +1315,9 @@
       <c r="Y7" s="4">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
       <c r="AD7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1311,9 +1341,9 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1335,9 +1365,9 @@
       <c r="L8" s="4">
         <v>2.4419679649999999</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
       <c r="Q8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1359,9 +1389,9 @@
       <c r="Y8" s="4">
         <v>2.4508101</v>
       </c>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
       <c r="AD8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1385,9 +1415,9 @@
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1409,9 +1439,9 @@
       <c r="L9" s="6">
         <v>2.4555734390000001</v>
       </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
       <c r="Q9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1433,9 +1463,9 @@
       <c r="Y9" s="6">
         <v>2.4518627999999998</v>
       </c>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
       <c r="AD9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1459,13 +1489,13 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
-        <v>1</v>
-      </c>
-      <c r="B10" s="19">
-        <v>2</v>
-      </c>
-      <c r="C10" s="19">
+      <c r="A10" s="19">
+        <v>1</v>
+      </c>
+      <c r="B10" s="18">
+        <v>2</v>
+      </c>
+      <c r="C10" s="18">
         <v>4</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -1495,13 +1525,13 @@
       <c r="L10" s="12">
         <v>0.183</v>
       </c>
-      <c r="N10" s="17">
-        <v>2</v>
-      </c>
-      <c r="O10" s="19">
-        <v>2</v>
-      </c>
-      <c r="P10" s="19">
+      <c r="N10" s="19">
+        <v>2</v>
+      </c>
+      <c r="O10" s="18">
+        <v>2</v>
+      </c>
+      <c r="P10" s="18">
         <v>4</v>
       </c>
       <c r="Q10" s="11" t="s">
@@ -1531,13 +1561,13 @@
       <c r="Y10" s="12">
         <v>0.11700000000000001</v>
       </c>
-      <c r="AA10" s="19">
+      <c r="AA10" s="18">
         <v>3</v>
       </c>
-      <c r="AB10" s="19">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="19">
+      <c r="AB10" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="18">
         <v>4</v>
       </c>
       <c r="AD10" s="11" t="s">
@@ -1569,9 +1599,9 @@
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1599,9 +1629,9 @@
       <c r="L11" s="4">
         <v>7.1128534862121102E-3</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
       <c r="Q11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1629,9 +1659,9 @@
       <c r="Y11" s="4">
         <v>1.1391810450488099E-3</v>
       </c>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
       <c r="AD11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1661,9 +1691,9 @@
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1691,9 +1721,9 @@
       <c r="L12" s="4">
         <v>1.1029581E-2</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
       <c r="Q12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1721,9 +1751,9 @@
       <c r="Y12" s="4">
         <v>0.87840470000000004</v>
       </c>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
       <c r="AD12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1753,9 +1783,9 @@
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1783,9 +1813,9 @@
       <c r="L13" s="4">
         <v>2.3114084519999998</v>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
       <c r="Q13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1813,9 +1843,9 @@
       <c r="Y13" s="4">
         <v>8.2694804000000008</v>
       </c>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
       <c r="AD13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1845,9 +1875,9 @@
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1875,9 +1905,9 @@
       <c r="L14" s="4">
         <v>2.4000908600000002</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
       <c r="Q14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1905,9 +1935,9 @@
       <c r="Y14" s="4">
         <v>10.112000800000001</v>
       </c>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
       <c r="AD14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1937,9 +1967,9 @@
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1961,9 +1991,9 @@
       <c r="L15" s="4">
         <v>0.51</v>
       </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
       <c r="Q15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1985,9 +2015,9 @@
       <c r="Y15" s="4">
         <v>1.284</v>
       </c>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
       <c r="AD15" s="2" t="s">
         <v>4</v>
       </c>
@@ -2011,9 +2041,9 @@
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2035,9 +2065,9 @@
       <c r="L16" s="4">
         <v>2.4419679649999999</v>
       </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
       <c r="Q16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2059,9 +2089,9 @@
       <c r="Y16" s="4">
         <v>10.6932793</v>
       </c>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
       <c r="AD16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2085,9 +2115,9 @@
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2109,9 +2139,9 @@
       <c r="L17" s="6">
         <v>2.4555734390000001</v>
       </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
       <c r="Q17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2133,9 +2163,9 @@
       <c r="Y17" s="6">
         <v>10.4442507</v>
       </c>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
       <c r="AD17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2159,13 +2189,13 @@
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
-        <v>1</v>
-      </c>
-      <c r="B18" s="19">
-        <v>1</v>
-      </c>
-      <c r="C18" s="19">
+      <c r="A18" s="19">
+        <v>1</v>
+      </c>
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18">
         <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -2195,13 +2225,13 @@
       <c r="L18" s="12">
         <v>1.2E-2</v>
       </c>
-      <c r="N18" s="17">
-        <v>2</v>
-      </c>
-      <c r="O18" s="19">
-        <v>1</v>
-      </c>
-      <c r="P18" s="19">
+      <c r="N18" s="19">
+        <v>2</v>
+      </c>
+      <c r="O18" s="18">
+        <v>1</v>
+      </c>
+      <c r="P18" s="18">
         <v>6</v>
       </c>
       <c r="Q18" s="11" t="s">
@@ -2231,13 +2261,13 @@
       <c r="Y18" s="12">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="AA18" s="19">
+      <c r="AA18" s="18">
         <v>3</v>
       </c>
-      <c r="AB18" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="19">
+      <c r="AB18" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="18">
         <v>6</v>
       </c>
       <c r="AD18" s="11" t="s">
@@ -2269,9 +2299,9 @@
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
@@ -2299,9 +2329,9 @@
       <c r="L19" s="4">
         <v>3.2573913611296701E-3</v>
       </c>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
       <c r="Q19" s="2" t="s">
         <v>19</v>
       </c>
@@ -2329,9 +2359,9 @@
       <c r="Y19" s="4">
         <v>1.2544281421158199E-3</v>
       </c>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
       <c r="AD19" s="2" t="s">
         <v>19</v>
       </c>
@@ -2361,9 +2391,9 @@
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2391,9 +2421,9 @@
       <c r="L20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
       <c r="Q20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2421,9 +2451,9 @@
       <c r="Y20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
       <c r="AD20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2453,9 +2483,9 @@
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2483,9 +2513,9 @@
       <c r="L21" s="4">
         <v>2.3114084500000001</v>
       </c>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
       <c r="Q21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2513,9 +2543,9 @@
       <c r="Y21" s="4">
         <v>2.1625823999999998</v>
       </c>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
       <c r="AD21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2545,9 +2575,9 @@
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2575,9 +2605,9 @@
       <c r="L22" s="4">
         <v>2.4000908600000002</v>
       </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
       <c r="Q22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2605,9 +2635,9 @@
       <c r="Y22" s="4">
         <v>2.3797085</v>
       </c>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
       <c r="AD22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2637,9 +2667,9 @@
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
@@ -2661,9 +2691,9 @@
       <c r="L23" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
       <c r="Q23" s="2" t="s">
         <v>4</v>
       </c>
@@ -2685,9 +2715,9 @@
       <c r="Y23" s="4">
         <v>0.16400000000000001</v>
       </c>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
       <c r="AD23" s="2" t="s">
         <v>4</v>
       </c>
@@ -2711,9 +2741,9 @@
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2729,9 +2759,9 @@
       <c r="J24" s="4">
         <v>8.6977740000000001E-3</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
       <c r="Q24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2749,9 +2779,9 @@
       </c>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
       <c r="AD24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2771,9 +2801,9 @@
       <c r="AL24" s="4"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="5" t="s">
         <v>15</v>
       </c>
@@ -2791,9 +2821,9 @@
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
       <c r="Q25" s="5" t="s">
         <v>15</v>
       </c>
@@ -2811,9 +2841,9 @@
       </c>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="18"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
       <c r="AD25" s="5" t="s">
         <v>15</v>
       </c>
@@ -2833,13 +2863,13 @@
       <c r="AL25" s="6"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
-        <v>1</v>
-      </c>
-      <c r="B26" s="19">
-        <v>2</v>
-      </c>
-      <c r="C26" s="19">
+      <c r="A26" s="19">
+        <v>1</v>
+      </c>
+      <c r="B26" s="18">
+        <v>2</v>
+      </c>
+      <c r="C26" s="18">
         <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
@@ -2869,13 +2899,13 @@
       <c r="L26" s="12">
         <v>0.111</v>
       </c>
-      <c r="N26" s="17">
-        <v>2</v>
-      </c>
-      <c r="O26" s="19">
-        <v>2</v>
-      </c>
-      <c r="P26" s="19">
+      <c r="N26" s="19">
+        <v>2</v>
+      </c>
+      <c r="O26" s="18">
+        <v>2</v>
+      </c>
+      <c r="P26" s="18">
         <v>6</v>
       </c>
       <c r="Q26" s="11" t="s">
@@ -2905,13 +2935,13 @@
       <c r="Y26" s="12">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AA26" s="19">
+      <c r="AA26" s="18">
         <v>3</v>
       </c>
-      <c r="AB26" s="19">
-        <v>2</v>
-      </c>
-      <c r="AC26" s="19">
+      <c r="AB26" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="18">
         <v>6</v>
       </c>
       <c r="AD26" s="11" t="s">
@@ -2943,9 +2973,9 @@
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
@@ -2973,9 +3003,9 @@
       <c r="L27" s="4">
         <v>7.1128534862121102E-3</v>
       </c>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
       <c r="Q27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3003,9 +3033,9 @@
       <c r="Y27" s="4">
         <v>1.1391810450488099E-3</v>
       </c>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
       <c r="AD27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3035,9 +3065,9 @@
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="2" t="s">
         <v>14</v>
       </c>
@@ -3065,9 +3095,9 @@
       <c r="L28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
       <c r="Q28" s="2" t="s">
         <v>14</v>
       </c>
@@ -3095,9 +3125,9 @@
       <c r="Y28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
       <c r="AD28" s="2" t="s">
         <v>14</v>
       </c>
@@ -3127,9 +3157,9 @@
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="2" t="s">
         <v>18</v>
       </c>
@@ -3157,9 +3187,9 @@
       <c r="L29" s="4">
         <v>9.047183768</v>
       </c>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
       <c r="Q29" s="2" t="s">
         <v>18</v>
       </c>
@@ -3187,9 +3217,9 @@
       <c r="Y29" s="4">
         <v>8.2694804000000008</v>
       </c>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
       <c r="AD29" s="2" t="s">
         <v>18</v>
       </c>
@@ -3219,9 +3249,9 @@
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="2" t="s">
         <v>16</v>
       </c>
@@ -3249,9 +3279,9 @@
       <c r="L30" s="4">
         <v>9.2430258779999992</v>
       </c>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
       <c r="Q30" s="2" t="s">
         <v>16</v>
       </c>
@@ -3279,9 +3309,9 @@
       <c r="Y30" s="4">
         <v>10.112000800000001</v>
       </c>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
       <c r="AD30" s="2" t="s">
         <v>16</v>
       </c>
@@ -3311,9 +3341,9 @@
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="2" t="s">
         <v>4</v>
       </c>
@@ -3335,9 +3365,9 @@
       <c r="L31" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
       <c r="Q31" s="2" t="s">
         <v>4</v>
       </c>
@@ -3359,9 +3389,9 @@
       <c r="Y31" s="4">
         <v>0.316</v>
       </c>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
       <c r="AD31" s="2" t="s">
         <v>4</v>
       </c>
@@ -3385,9 +3415,9 @@
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="2" t="s">
         <v>17</v>
       </c>
@@ -3403,9 +3433,9 @@
       <c r="J32" s="4">
         <v>9.2121930000000005E-3</v>
       </c>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
       <c r="Q32" s="2" t="s">
         <v>17</v>
       </c>
@@ -3423,9 +3453,9 @@
       </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
       <c r="AD32" s="2" t="s">
         <v>17</v>
       </c>
@@ -3445,9 +3475,9 @@
       <c r="AL32" s="4"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="5" t="s">
         <v>15</v>
       </c>
@@ -3465,9 +3495,9 @@
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
       <c r="Q33" s="5" t="s">
         <v>15</v>
       </c>
@@ -3485,9 +3515,9 @@
       </c>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
-      <c r="AA33" s="18"/>
-      <c r="AB33" s="18"/>
-      <c r="AC33" s="18"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
       <c r="AD33" s="5" t="s">
         <v>15</v>
       </c>
@@ -3575,13 +3605,13 @@
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N39" s="20">
-        <v>2</v>
-      </c>
-      <c r="O39" s="20">
-        <v>1</v>
-      </c>
-      <c r="P39" s="20">
+      <c r="N39" s="17">
+        <v>2</v>
+      </c>
+      <c r="O39" s="17">
+        <v>1</v>
+      </c>
+      <c r="P39" s="17">
         <v>4</v>
       </c>
       <c r="Q39" s="14" t="s">
@@ -3643,9 +3673,9 @@
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
       <c r="Q40" s="14" t="s">
         <v>19</v>
       </c>
@@ -3705,9 +3735,9 @@
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
       <c r="Q41" s="14" t="s">
         <v>14</v>
       </c>
@@ -3767,13 +3797,13 @@
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N42" s="20">
-        <v>2</v>
-      </c>
-      <c r="O42" s="20">
-        <v>2</v>
-      </c>
-      <c r="P42" s="20">
+      <c r="N42" s="17">
+        <v>2</v>
+      </c>
+      <c r="O42" s="17">
+        <v>2</v>
+      </c>
+      <c r="P42" s="17">
         <v>4</v>
       </c>
       <c r="Q42" s="14" t="s">
@@ -3835,9 +3865,9 @@
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
       <c r="Q43" s="14" t="s">
         <v>19</v>
       </c>
@@ -3897,9 +3927,9 @@
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
       <c r="Q44" s="14" t="s">
         <v>14</v>
       </c>
@@ -3953,13 +3983,13 @@
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N45" s="20">
-        <v>2</v>
-      </c>
-      <c r="O45" s="20">
-        <v>1</v>
-      </c>
-      <c r="P45" s="20">
+      <c r="N45" s="17">
+        <v>2</v>
+      </c>
+      <c r="O45" s="17">
+        <v>1</v>
+      </c>
+      <c r="P45" s="17">
         <v>6</v>
       </c>
       <c r="Q45" s="14" t="s">
@@ -4015,9 +4045,9 @@
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
       <c r="Q46" s="14" t="s">
         <v>19</v>
       </c>
@@ -4071,9 +4101,9 @@
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
       <c r="Q47" s="14" t="s">
         <v>14</v>
       </c>
@@ -4133,13 +4163,13 @@
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N48" s="20">
-        <v>2</v>
-      </c>
-      <c r="O48" s="20">
-        <v>2</v>
-      </c>
-      <c r="P48" s="20">
+      <c r="N48" s="17">
+        <v>2</v>
+      </c>
+      <c r="O48" s="17">
+        <v>2</v>
+      </c>
+      <c r="P48" s="17">
         <v>6</v>
       </c>
       <c r="Q48" s="14" t="s">
@@ -4201,9 +4231,9 @@
       </c>
     </row>
     <row r="49" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
       <c r="Q49" s="14" t="s">
         <v>19</v>
       </c>
@@ -4263,9 +4293,9 @@
       </c>
     </row>
     <row r="50" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
       <c r="Q50" s="14" t="s">
         <v>14</v>
       </c>
@@ -4325,13 +4355,13 @@
       </c>
     </row>
     <row r="51" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N51" s="20">
+      <c r="N51" s="17">
         <v>3</v>
       </c>
-      <c r="O51" s="20">
-        <v>1</v>
-      </c>
-      <c r="P51" s="20">
+      <c r="O51" s="17">
+        <v>1</v>
+      </c>
+      <c r="P51" s="17">
         <v>4</v>
       </c>
       <c r="Q51" s="14" t="s">
@@ -4393,9 +4423,9 @@
       </c>
     </row>
     <row r="52" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
       <c r="Q52" s="14" t="s">
         <v>19</v>
       </c>
@@ -4449,9 +4479,9 @@
       </c>
     </row>
     <row r="53" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
       <c r="Q53" s="14" t="s">
         <v>14</v>
       </c>
@@ -4505,13 +4535,13 @@
       </c>
     </row>
     <row r="54" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N54" s="20">
+      <c r="N54" s="17">
         <v>3</v>
       </c>
-      <c r="O54" s="20">
-        <v>2</v>
-      </c>
-      <c r="P54" s="20">
+      <c r="O54" s="17">
+        <v>2</v>
+      </c>
+      <c r="P54" s="17">
         <v>4</v>
       </c>
       <c r="Q54" s="14" t="s">
@@ -4567,9 +4597,9 @@
       </c>
     </row>
     <row r="55" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
       <c r="Q55" s="14" t="s">
         <v>19</v>
       </c>
@@ -4629,9 +4659,9 @@
       </c>
     </row>
     <row r="56" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
       <c r="Q56" s="14" t="s">
         <v>14</v>
       </c>
@@ -4691,13 +4721,13 @@
       </c>
     </row>
     <row r="57" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N57" s="20">
+      <c r="N57" s="17">
         <v>3</v>
       </c>
-      <c r="O57" s="20">
-        <v>1</v>
-      </c>
-      <c r="P57" s="20">
+      <c r="O57" s="17">
+        <v>1</v>
+      </c>
+      <c r="P57" s="17">
         <v>6</v>
       </c>
       <c r="Q57" s="14" t="s">
@@ -4759,9 +4789,9 @@
       </c>
     </row>
     <row r="58" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
       <c r="Q58" s="14" t="s">
         <v>19</v>
       </c>
@@ -4821,9 +4851,9 @@
       </c>
     </row>
     <row r="59" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
       <c r="Q59" s="14" t="s">
         <v>14</v>
       </c>
@@ -4883,13 +4913,13 @@
       </c>
     </row>
     <row r="60" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N60" s="20">
+      <c r="N60" s="17">
         <v>3</v>
       </c>
-      <c r="O60" s="20">
-        <v>2</v>
-      </c>
-      <c r="P60" s="20">
+      <c r="O60" s="17">
+        <v>2</v>
+      </c>
+      <c r="P60" s="17">
         <v>6</v>
       </c>
       <c r="Q60" s="14" t="s">
@@ -4945,9 +4975,9 @@
       </c>
     </row>
     <row r="61" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
       <c r="Q61" s="14" t="s">
         <v>19</v>
       </c>
@@ -4997,9 +5027,9 @@
       <c r="AJ61" s="14"/>
     </row>
     <row r="62" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
       <c r="Q62" s="14" t="s">
         <v>14</v>
       </c>
@@ -9386,14 +9416,42 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="N54:N56"/>
-    <mergeCell ref="P54:P56"/>
-    <mergeCell ref="N57:N59"/>
-    <mergeCell ref="P57:P59"/>
-    <mergeCell ref="N60:N62"/>
-    <mergeCell ref="P60:P62"/>
-    <mergeCell ref="O57:O59"/>
-    <mergeCell ref="O60:O62"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="N2:N9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P2:P9"/>
+    <mergeCell ref="N10:N17"/>
+    <mergeCell ref="O10:O17"/>
+    <mergeCell ref="P10:P17"/>
+    <mergeCell ref="N18:N25"/>
+    <mergeCell ref="O18:O25"/>
+    <mergeCell ref="P18:P25"/>
+    <mergeCell ref="N26:N33"/>
+    <mergeCell ref="O26:O33"/>
+    <mergeCell ref="P26:P33"/>
+    <mergeCell ref="AA2:AA9"/>
+    <mergeCell ref="AB2:AB9"/>
+    <mergeCell ref="AC2:AC9"/>
+    <mergeCell ref="AA10:AA17"/>
+    <mergeCell ref="AB10:AB17"/>
+    <mergeCell ref="AC10:AC17"/>
+    <mergeCell ref="AB18:AB25"/>
+    <mergeCell ref="AC18:AC25"/>
+    <mergeCell ref="AA18:AA25"/>
+    <mergeCell ref="AA26:AA33"/>
+    <mergeCell ref="AB26:AB33"/>
+    <mergeCell ref="AC26:AC33"/>
     <mergeCell ref="O51:O53"/>
     <mergeCell ref="O54:O56"/>
     <mergeCell ref="P51:P53"/>
@@ -9410,42 +9468,14 @@
     <mergeCell ref="P48:P50"/>
     <mergeCell ref="O45:O47"/>
     <mergeCell ref="O48:O50"/>
-    <mergeCell ref="AB18:AB25"/>
-    <mergeCell ref="AC18:AC25"/>
-    <mergeCell ref="AA18:AA25"/>
-    <mergeCell ref="AA26:AA33"/>
-    <mergeCell ref="AB26:AB33"/>
-    <mergeCell ref="AC26:AC33"/>
-    <mergeCell ref="AA2:AA9"/>
-    <mergeCell ref="AB2:AB9"/>
-    <mergeCell ref="AC2:AC9"/>
-    <mergeCell ref="AA10:AA17"/>
-    <mergeCell ref="AB10:AB17"/>
-    <mergeCell ref="AC10:AC17"/>
-    <mergeCell ref="N18:N25"/>
-    <mergeCell ref="O18:O25"/>
-    <mergeCell ref="P18:P25"/>
-    <mergeCell ref="N26:N33"/>
-    <mergeCell ref="O26:O33"/>
-    <mergeCell ref="P26:P33"/>
-    <mergeCell ref="N2:N9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="P2:P9"/>
-    <mergeCell ref="N10:N17"/>
-    <mergeCell ref="O10:O17"/>
-    <mergeCell ref="P10:P17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="N54:N56"/>
+    <mergeCell ref="P54:P56"/>
+    <mergeCell ref="N57:N59"/>
+    <mergeCell ref="P57:P59"/>
+    <mergeCell ref="N60:N62"/>
+    <mergeCell ref="P60:P62"/>
+    <mergeCell ref="O57:O59"/>
+    <mergeCell ref="O60:O62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9454,15 +9484,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474392E9-0E45-4AEC-B8E4-8AB631FBD30B}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="34.83203125" customWidth="1"/>
+    <col min="1" max="12" width="8.6640625" style="2"/>
+    <col min="13" max="13" width="34.83203125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28" x14ac:dyDescent="0.3">
@@ -9545,26 +9577,11 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
@@ -9592,12 +9609,8 @@
       <c r="L4" s="4">
         <v>0.77909430000000002</v>
       </c>
-      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
@@ -9625,12 +9638,8 @@
       <c r="L5" s="4">
         <v>7.2701903000000003</v>
       </c>
-      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
@@ -9658,12 +9667,8 @@
       <c r="L6" s="4">
         <v>2.2622437</v>
       </c>
-      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
@@ -9685,12 +9690,8 @@
       <c r="L7" s="4">
         <v>0.84699999999999998</v>
       </c>
-      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
@@ -9712,12 +9713,8 @@
       <c r="L8" s="4">
         <v>22.8695159</v>
       </c>
-      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
@@ -9739,22 +9736,6 @@
       <c r="L9" s="4">
         <v>28.652950300000001</v>
       </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -9798,9 +9779,6 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
@@ -9828,13 +9806,8 @@
       <c r="L12" s="4">
         <v>2.85</v>
       </c>
-      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -9843,7 +9816,6 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -9887,9 +9859,6 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
@@ -9917,13 +9886,8 @@
       <c r="L15" s="4">
         <v>0.32600000000000001</v>
       </c>
-      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -9932,7 +9896,6 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
@@ -9976,9 +9939,6 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
         <v>4</v>
       </c>
@@ -10006,13 +9966,8 @@
       <c r="L18" s="4">
         <v>0.80600000000000005</v>
       </c>
-      <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -10021,280 +9976,509 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
         <v>4</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E21">
+      <c r="E31" s="2">
         <v>0.22</v>
       </c>
-      <c r="F21">
-        <v>0.97</v>
-      </c>
-      <c r="G21">
+      <c r="F31" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="G31" s="2">
         <v>0.50800000000000001</v>
       </c>
-      <c r="H21">
-        <v>0.622</v>
-      </c>
-      <c r="I21">
+      <c r="H31" s="2">
+        <v>0.623</v>
+      </c>
+      <c r="I31" s="2">
         <v>0.36599999999999999</v>
       </c>
-      <c r="J21">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="K21">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="L21">
-        <v>0.51800000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="J31" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="2">
+        <v>9.5388917734878596E-3</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1.51701127232555E-2</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.509324</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.61830839999999998</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1.7839302000000001E-2</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1.3347727E-2</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.37302750000000001</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.42100369999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.4996314</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.49861270000000002</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1.5362559999999999E-3</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.45310223199999999</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.18516199999999999</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.4722713</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.49987609999999999</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.49874869999999999</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1.3176419999999999E-3</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.45335917199999998</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.1819547</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.24773890000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.61756960000000005</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1.5629875000000001E-2</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.37302750000000001</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0.42100379999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.59760919999999995</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="2">
+        <v>7.8452420000000005E-3</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.99845050000000002</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.80892180000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.59809959999999995</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1.0433082E-2</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0.89865110000000004</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0.82901279999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2">
         <v>4</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E26">
+      <c r="E39" s="2">
         <v>0.42499999999999999</v>
       </c>
-      <c r="F26">
+      <c r="F39" s="2">
         <v>0.5</v>
       </c>
-      <c r="G26">
+      <c r="G39" s="2">
         <v>0.51100000000000001</v>
       </c>
-      <c r="H26">
+      <c r="H39" s="2">
         <v>0.60299999999999998</v>
       </c>
-      <c r="I26">
+      <c r="I39" s="2">
         <v>0.372</v>
       </c>
-      <c r="J26">
+      <c r="J39" s="2">
         <v>0.11600000000000001</v>
       </c>
-      <c r="K26">
+      <c r="K39" s="2">
         <v>1.3009999999999999</v>
       </c>
-      <c r="L26">
+      <c r="L39" s="2">
         <v>2.1349999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D40" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D41" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
         <v>0.98</v>
       </c>
-      <c r="G28">
+      <c r="G41" s="2">
         <v>0.51110219999999995</v>
       </c>
-      <c r="H28">
+      <c r="H41" s="2">
         <v>0.61958990000000003</v>
       </c>
-      <c r="I28">
+      <c r="I41" s="2">
         <v>2.1400033999999998E-2</v>
       </c>
-      <c r="J28">
+      <c r="J41" s="2">
         <v>1.5708298999999998E-2</v>
       </c>
-      <c r="K28">
+      <c r="K41" s="2">
         <v>0.35441879999999998</v>
       </c>
-      <c r="L28">
+      <c r="L41" s="2">
         <v>0.40726449999999997</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M41" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D29" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
         <v>0.4996314</v>
       </c>
-      <c r="H29">
+      <c r="H42" s="2">
         <v>0.49861270000000002</v>
       </c>
-      <c r="I29">
+      <c r="I42" s="2">
         <v>1.5362559999999999E-3</v>
       </c>
-      <c r="J29">
+      <c r="J42" s="2">
         <v>0.45310223199999999</v>
       </c>
-      <c r="K29">
+      <c r="K42" s="2">
         <v>0.18516199999999999</v>
       </c>
-      <c r="L29">
+      <c r="L42" s="2">
         <v>0.4722713</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M42" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D30" t="s">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
         <v>0.49987609999999999</v>
       </c>
-      <c r="H30">
+      <c r="H43" s="2">
         <v>0.49874869999999999</v>
       </c>
-      <c r="I30">
+      <c r="I43" s="2">
         <v>1.3176419999999999E-3</v>
       </c>
-      <c r="J30">
+      <c r="J43" s="2">
         <v>0.45335917199999998</v>
       </c>
-      <c r="K30">
+      <c r="K43" s="2">
         <v>0.1819547</v>
       </c>
-      <c r="L30">
+      <c r="L43" s="2">
         <v>0.24773890000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D31" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D44" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F31">
+      <c r="F44" s="2">
         <v>0.98</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H31">
+      <c r="H44" s="2">
         <v>0.6181122</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J31">
+      <c r="J44" s="2">
         <v>2.0272595000000001E-2</v>
       </c>
-      <c r="K31">
+      <c r="K44" s="2">
         <v>0.35441879999999998</v>
       </c>
-      <c r="L31">
+      <c r="L44" s="2">
         <v>0.40726469999999998</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M44" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D32" t="s">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H32">
+      <c r="H45" s="2">
         <v>0.59760919999999995</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J32">
+      <c r="J45" s="2">
         <v>7.8452420000000005E-3</v>
       </c>
-      <c r="K32">
+      <c r="K45" s="2">
         <v>0.99845050000000002</v>
       </c>
-      <c r="L32">
+      <c r="L45" s="2">
         <v>0.80892180000000002</v>
       </c>
     </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D33" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D46" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E46" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H33">
+      <c r="H46" s="2">
         <v>0.59809959999999995</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I46" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J33">
+      <c r="J46" s="2">
         <v>1.0433082E-2</v>
       </c>
-      <c r="K33">
+      <c r="K46" s="2">
         <v>0.89865110000000004</v>
       </c>
-      <c r="L33">
+      <c r="L46" s="2">
         <v>0.82901279999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0.376</v>
+      </c>
+      <c r="J47" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0.497</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2</v>
+      </c>
+      <c r="C52" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/code_v2/summary_data/result.xlsx
+++ b/code_v2/summary_data/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RY\git\hierarchical-gene\code_v2\summary_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F25731-2A87-445D-81BF-36FFB6A82173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D9B0B2-8899-4D07-932E-5B03374B7D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" activeTab="1" xr2:uid="{EBE4CFCB-469C-4867-8775-907539EE1541}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="43">
   <si>
     <t>balance
 type</t>
@@ -9484,10 +9484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474392E9-0E45-4AEC-B8E4-8AB631FBD30B}">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9990,28 +9990,28 @@
       <c r="D31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <v>0.22</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <v>0.99</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="3">
         <v>0.50800000000000001</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="3">
         <v>0.623</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="3">
         <v>0.36599999999999999</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="3">
         <v>0.32400000000000001</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="3">
         <v>0.51500000000000001</v>
       </c>
     </row>
@@ -10019,191 +10019,197 @@
       <c r="D32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K32" s="2">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3">
         <v>9.5388917734878596E-3</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="3">
         <v>1.51701127232555E-2</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>0.99</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="3">
         <v>0.509324</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="3">
         <v>0.61830839999999998</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="3">
         <v>1.7839302000000001E-2</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="3">
         <v>1.3347727E-2</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="3">
         <v>0.37302750000000001</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="3">
         <v>0.42100369999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="2">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
         <v>0.4996314</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="3">
         <v>0.49861270000000002</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="3">
         <v>1.5362559999999999E-3</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="3">
         <v>0.45310223199999999</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="3">
         <v>0.18516199999999999</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="3">
         <v>0.4722713</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>0.49987609999999999</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="3">
         <v>0.49874869999999999</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="3">
         <v>1.3176419999999999E-3</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="3">
         <v>0.45335917199999998</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="3">
         <v>0.1819547</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="3">
         <v>0.24773890000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="2">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3">
         <v>0.99</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="2">
+      <c r="G36" s="3"/>
+      <c r="H36" s="3">
         <v>0.61756960000000005</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="2">
+      <c r="I36" s="3"/>
+      <c r="J36" s="3">
         <v>1.5629875000000001E-2</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="3">
         <v>0.37302750000000001</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="3">
         <v>0.42100379999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="2">
+      <c r="E37" s="3"/>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3">
         <v>0.59760919999999995</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="2">
+      <c r="I37" s="3"/>
+      <c r="J37" s="3">
         <v>7.8452420000000005E-3</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="3">
         <v>0.99845050000000002</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="3">
         <v>0.80892180000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3">
+        <v>0.59809959999999995</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3">
+        <v>1.0433082E-2</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0.89865110000000004</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0.82901279999999999</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="2">
-        <v>1</v>
-      </c>
-      <c r="G38" s="2" t="s">
+      <c r="P38" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="Q38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="2">
-        <v>0.59809959999999995</v>
-      </c>
-      <c r="I38" s="2" t="s">
+      <c r="R38" s="2">
+        <v>0.61756960000000005</v>
+      </c>
+      <c r="S38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J38" s="2">
-        <v>1.0433082E-2</v>
-      </c>
-      <c r="K38" s="2">
-        <v>0.89865110000000004</v>
-      </c>
-      <c r="L38" s="2">
-        <v>0.82901279999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -10216,220 +10222,300 @@
       <c r="D39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="3">
         <v>0.42499999999999999</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="3">
         <v>0.5</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="3">
         <v>0.51100000000000001</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="3">
         <v>0.60299999999999998</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="3">
         <v>0.372</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="3">
         <v>1.3009999999999999</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="3">
         <v>2.1349999999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0.509324</v>
+      </c>
+      <c r="R39" s="2">
+        <v>0.61830839999999998</v>
+      </c>
+      <c r="S39" s="2">
+        <v>1.7839302000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D40" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="N40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P40" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R40" s="2">
+        <v>0.59760919999999995</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D41" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0.51110219999999995</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0.61958990000000003</v>
-      </c>
-      <c r="I41" s="2">
-        <v>2.1400033999999998E-2</v>
-      </c>
-      <c r="J41" s="2">
-        <v>1.5708298999999998E-2</v>
-      </c>
-      <c r="K41" s="2">
-        <v>0.35441879999999998</v>
-      </c>
-      <c r="L41" s="2">
-        <v>0.40726449999999997</v>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.50999640000000002</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.61889470000000002</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1.9203184000000002E-2</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1.4781588999999999E-2</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1.4676290000000001</v>
+      </c>
+      <c r="L41" s="3">
+        <v>1.6576139999999999</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O41" s="2">
+        <v>1</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0.4996314</v>
+      </c>
+      <c r="R41" s="2">
+        <v>0.49861270000000002</v>
+      </c>
+      <c r="S41" s="2">
+        <v>1.5362559999999999E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="2">
-        <v>1</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0.4996314</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0.49861270000000002</v>
-      </c>
-      <c r="I42" s="2">
-        <v>1.5362559999999999E-3</v>
-      </c>
-      <c r="J42" s="2">
-        <v>0.45310223199999999</v>
-      </c>
-      <c r="K42" s="2">
-        <v>0.18516199999999999</v>
-      </c>
-      <c r="L42" s="2">
-        <v>0.4722713</v>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.49965769999999998</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.49907449999999998</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1.6990779999999999E-3</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0.45216907899999997</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1.0738019999999999</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1.6345989999999999</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P42" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R42" s="2">
+        <v>0.59809959999999995</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2">
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.49992760000000003</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.49863289999999999</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1.530238E-3</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0.45410774999999998</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1.0995760000000001</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1.3235920000000001</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2">
         <v>0.49987609999999999</v>
       </c>
-      <c r="H43" s="2">
+      <c r="R43" s="2">
         <v>0.49874869999999999</v>
       </c>
-      <c r="I43" s="2">
+      <c r="S43" s="2">
         <v>1.3176419999999999E-3</v>
       </c>
-      <c r="J43" s="2">
-        <v>0.45335917199999998</v>
-      </c>
-      <c r="K43" s="2">
-        <v>0.1819547</v>
-      </c>
-      <c r="L43" s="2">
-        <v>0.24773890000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D44" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0.6181122</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J44" s="2">
-        <v>2.0272595000000001E-2</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0.35441879999999998</v>
-      </c>
-      <c r="L44" s="2">
-        <v>0.40726469999999998</v>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3">
+        <v>0.61823050000000002</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3">
+        <v>1.7036754000000001E-2</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1.4676290000000001</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1.6576150000000001</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="2">
-        <v>1</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0.59760919999999995</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J45" s="2">
-        <v>7.8452420000000005E-3</v>
-      </c>
-      <c r="K45" s="2">
-        <v>0.99845050000000002</v>
-      </c>
-      <c r="L45" s="2">
-        <v>0.80892180000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E45" s="3"/>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3">
+        <v>0.59646010000000005</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3">
+        <v>5.2598829999999999E-3</v>
+      </c>
+      <c r="K45" s="3">
+        <v>5.5891390000000003</v>
+      </c>
+      <c r="L45" s="3">
+        <v>5.431514</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D46" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="2">
-        <v>1</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0.59809959999999995</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J46" s="2">
-        <v>1.0433082E-2</v>
-      </c>
-      <c r="K46" s="2">
-        <v>0.89865110000000004</v>
-      </c>
-      <c r="L46" s="2">
-        <v>0.82901279999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E46" s="3"/>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3">
+        <v>0.59716279999999999</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3">
+        <v>9.9719060000000009E-3</v>
+      </c>
+      <c r="K46" s="3">
+        <v>4.4678139999999997</v>
+      </c>
+      <c r="L46" s="3">
+        <v>3.479406</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>1</v>
       </c>
@@ -10442,35 +10528,75 @@
       <c r="D47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="3">
         <v>0.44</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="3">
         <v>0.93300000000000005</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="3">
         <v>0.50700000000000001</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="3">
         <v>0.61899999999999999</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="3">
         <v>0.376</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="3">
         <v>0.30499999999999999</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47" s="3">
         <v>0.497</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>1</v>
       </c>
@@ -10480,6 +10606,94 @@
       <c r="C52" s="2">
         <v>6</v>
       </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/code_v2/summary_data/result.xlsx
+++ b/code_v2/summary_data/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RY\git\hierarchical-gene\code_v2\summary_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D9B0B2-8899-4D07-932E-5B03374B7D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC780A17-631F-40D1-8358-7FABC66F22DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" activeTab="1" xr2:uid="{EBE4CFCB-469C-4867-8775-907539EE1541}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="38">
   <si>
     <t>balance
 type</t>
@@ -116,18 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>per_sub 表现太差需要重新实验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSE_main/sub 表现太差需要重新调参实验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,14 +141,6 @@
   </si>
   <si>
     <t>respclust2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未运行完</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和file结果不符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -190,7 +170,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未完成，服务器运行</t>
+    <t>NaN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -287,7 +267,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -339,6 +319,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -349,6 +332,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -668,7 +684,7 @@
   <dimension ref="A1:AL290"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -789,13 +805,13 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="19">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19">
-        <v>1</v>
-      </c>
-      <c r="C2" s="19">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20">
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -825,13 +841,13 @@
       <c r="L2" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N2" s="19">
+      <c r="N2" s="20">
         <v>2</v>
       </c>
-      <c r="O2" s="18">
-        <v>1</v>
-      </c>
-      <c r="P2" s="18">
+      <c r="O2" s="19">
+        <v>1</v>
+      </c>
+      <c r="P2" s="19">
         <v>4</v>
       </c>
       <c r="Q2" s="11" t="s">
@@ -861,13 +877,13 @@
       <c r="Y2" s="12">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AA2" s="19">
+      <c r="AA2" s="20">
         <v>3</v>
       </c>
-      <c r="AB2" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="18">
+      <c r="AB2" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="19">
         <v>4</v>
       </c>
       <c r="AD2" s="9" t="s">
@@ -899,9 +915,9 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
@@ -929,9 +945,9 @@
       <c r="L3" s="4">
         <v>3.2573913611296701E-3</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="2" t="s">
         <v>19</v>
       </c>
@@ -959,9 +975,9 @@
       <c r="Y3" s="4">
         <v>1.2544281421158199E-3</v>
       </c>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
       <c r="AD3" s="2" t="s">
         <v>19</v>
       </c>
@@ -991,9 +1007,9 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1021,9 +1037,9 @@
       <c r="L4" s="4">
         <v>1.1029581E-2</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
       <c r="Q4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1051,9 +1067,9 @@
       <c r="Y4" s="4">
         <v>0.12626270000000001</v>
       </c>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
       <c r="AD4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1083,9 +1099,9 @@
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1113,9 +1129,9 @@
       <c r="L5" s="4">
         <v>2.3114084519999998</v>
       </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
       <c r="Q5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1143,9 +1159,9 @@
       <c r="Y5" s="4">
         <v>2.1625823999999998</v>
       </c>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
       <c r="AD5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1175,9 +1191,9 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1205,9 +1221,9 @@
       <c r="L6" s="4">
         <v>2.4000908600000002</v>
       </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
       <c r="Q6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1235,9 +1251,9 @@
       <c r="Y6" s="4">
         <v>2.3797085</v>
       </c>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
       <c r="AD6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1267,9 +1283,9 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1291,9 +1307,9 @@
       <c r="L7" s="4">
         <v>0.128</v>
       </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
       <c r="Q7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1315,9 +1331,9 @@
       <c r="Y7" s="4">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
       <c r="AD7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1341,9 +1357,9 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1365,9 +1381,9 @@
       <c r="L8" s="4">
         <v>2.4419679649999999</v>
       </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
       <c r="Q8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1389,9 +1405,9 @@
       <c r="Y8" s="4">
         <v>2.4508101</v>
       </c>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
       <c r="AD8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1415,9 +1431,9 @@
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1439,9 +1455,9 @@
       <c r="L9" s="6">
         <v>2.4555734390000001</v>
       </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
       <c r="Q9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1463,9 +1479,9 @@
       <c r="Y9" s="6">
         <v>2.4518627999999998</v>
       </c>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
       <c r="AD9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1489,13 +1505,13 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
-        <v>1</v>
-      </c>
-      <c r="B10" s="18">
+      <c r="A10" s="20">
+        <v>1</v>
+      </c>
+      <c r="B10" s="19">
         <v>2</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="19">
         <v>4</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -1525,13 +1541,13 @@
       <c r="L10" s="12">
         <v>0.183</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="20">
         <v>2</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="19">
         <v>2</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="19">
         <v>4</v>
       </c>
       <c r="Q10" s="11" t="s">
@@ -1561,13 +1577,13 @@
       <c r="Y10" s="12">
         <v>0.11700000000000001</v>
       </c>
-      <c r="AA10" s="18">
+      <c r="AA10" s="19">
         <v>3</v>
       </c>
-      <c r="AB10" s="18">
+      <c r="AB10" s="19">
         <v>2</v>
       </c>
-      <c r="AC10" s="18">
+      <c r="AC10" s="19">
         <v>4</v>
       </c>
       <c r="AD10" s="11" t="s">
@@ -1599,9 +1615,9 @@
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1629,9 +1645,9 @@
       <c r="L11" s="4">
         <v>7.1128534862121102E-3</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
       <c r="Q11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1659,9 +1675,9 @@
       <c r="Y11" s="4">
         <v>1.1391810450488099E-3</v>
       </c>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
       <c r="AD11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1691,9 +1707,9 @@
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1721,9 +1737,9 @@
       <c r="L12" s="4">
         <v>1.1029581E-2</v>
       </c>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
       <c r="Q12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1751,9 +1767,9 @@
       <c r="Y12" s="4">
         <v>0.87840470000000004</v>
       </c>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
       <c r="AD12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1783,9 +1799,9 @@
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1813,9 +1829,9 @@
       <c r="L13" s="4">
         <v>2.3114084519999998</v>
       </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
       <c r="Q13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1843,9 +1859,9 @@
       <c r="Y13" s="4">
         <v>8.2694804000000008</v>
       </c>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
       <c r="AD13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1875,9 +1891,9 @@
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1905,9 +1921,9 @@
       <c r="L14" s="4">
         <v>2.4000908600000002</v>
       </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
       <c r="Q14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1935,9 +1951,9 @@
       <c r="Y14" s="4">
         <v>10.112000800000001</v>
       </c>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
       <c r="AD14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1967,9 +1983,9 @@
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1991,9 +2007,9 @@
       <c r="L15" s="4">
         <v>0.51</v>
       </c>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
       <c r="Q15" s="2" t="s">
         <v>4</v>
       </c>
@@ -2015,9 +2031,9 @@
       <c r="Y15" s="4">
         <v>1.284</v>
       </c>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
       <c r="AD15" s="2" t="s">
         <v>4</v>
       </c>
@@ -2041,9 +2057,9 @@
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2065,9 +2081,9 @@
       <c r="L16" s="4">
         <v>2.4419679649999999</v>
       </c>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
       <c r="Q16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2089,9 +2105,9 @@
       <c r="Y16" s="4">
         <v>10.6932793</v>
       </c>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
       <c r="AD16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2115,9 +2131,9 @@
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2139,9 +2155,9 @@
       <c r="L17" s="6">
         <v>2.4555734390000001</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
       <c r="Q17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2163,9 +2179,9 @@
       <c r="Y17" s="6">
         <v>10.4442507</v>
       </c>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
       <c r="AD17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2189,13 +2205,13 @@
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
-        <v>1</v>
-      </c>
-      <c r="B18" s="18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="A18" s="20">
+        <v>1</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1</v>
+      </c>
+      <c r="C18" s="19">
         <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -2225,13 +2241,13 @@
       <c r="L18" s="12">
         <v>1.2E-2</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N18" s="20">
         <v>2</v>
       </c>
-      <c r="O18" s="18">
-        <v>1</v>
-      </c>
-      <c r="P18" s="18">
+      <c r="O18" s="19">
+        <v>1</v>
+      </c>
+      <c r="P18" s="19">
         <v>6</v>
       </c>
       <c r="Q18" s="11" t="s">
@@ -2261,13 +2277,13 @@
       <c r="Y18" s="12">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="AA18" s="18">
+      <c r="AA18" s="19">
         <v>3</v>
       </c>
-      <c r="AB18" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="18">
+      <c r="AB18" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="19">
         <v>6</v>
       </c>
       <c r="AD18" s="11" t="s">
@@ -2299,9 +2315,9 @@
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
@@ -2329,9 +2345,9 @@
       <c r="L19" s="4">
         <v>3.2573913611296701E-3</v>
       </c>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
       <c r="Q19" s="2" t="s">
         <v>19</v>
       </c>
@@ -2359,9 +2375,9 @@
       <c r="Y19" s="4">
         <v>1.2544281421158199E-3</v>
       </c>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
       <c r="AD19" s="2" t="s">
         <v>19</v>
       </c>
@@ -2391,9 +2407,9 @@
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2421,9 +2437,9 @@
       <c r="L20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
       <c r="Q20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2451,9 +2467,9 @@
       <c r="Y20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
       <c r="AD20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2483,9 +2499,9 @@
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2513,9 +2529,9 @@
       <c r="L21" s="4">
         <v>2.3114084500000001</v>
       </c>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
       <c r="Q21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2543,9 +2559,9 @@
       <c r="Y21" s="4">
         <v>2.1625823999999998</v>
       </c>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
       <c r="AD21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2575,9 +2591,9 @@
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2605,9 +2621,9 @@
       <c r="L22" s="4">
         <v>2.4000908600000002</v>
       </c>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
       <c r="Q22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2635,9 +2651,9 @@
       <c r="Y22" s="4">
         <v>2.3797085</v>
       </c>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
       <c r="AD22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2667,9 +2683,9 @@
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
@@ -2691,9 +2707,9 @@
       <c r="L23" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
       <c r="Q23" s="2" t="s">
         <v>4</v>
       </c>
@@ -2715,9 +2731,9 @@
       <c r="Y23" s="4">
         <v>0.16400000000000001</v>
       </c>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
       <c r="AD23" s="2" t="s">
         <v>4</v>
       </c>
@@ -2741,9 +2757,9 @@
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2759,9 +2775,9 @@
       <c r="J24" s="4">
         <v>8.6977740000000001E-3</v>
       </c>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
       <c r="Q24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2779,9 +2795,9 @@
       </c>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
       <c r="AD24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2801,9 +2817,9 @@
       <c r="AL24" s="4"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="5" t="s">
         <v>15</v>
       </c>
@@ -2821,9 +2837,9 @@
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
       <c r="Q25" s="5" t="s">
         <v>15</v>
       </c>
@@ -2841,9 +2857,9 @@
       </c>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
       <c r="AD25" s="5" t="s">
         <v>15</v>
       </c>
@@ -2863,13 +2879,13 @@
       <c r="AL25" s="6"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
-        <v>1</v>
-      </c>
-      <c r="B26" s="18">
+      <c r="A26" s="20">
+        <v>1</v>
+      </c>
+      <c r="B26" s="19">
         <v>2</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="19">
         <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
@@ -2899,13 +2915,13 @@
       <c r="L26" s="12">
         <v>0.111</v>
       </c>
-      <c r="N26" s="19">
+      <c r="N26" s="20">
         <v>2</v>
       </c>
-      <c r="O26" s="18">
+      <c r="O26" s="19">
         <v>2</v>
       </c>
-      <c r="P26" s="18">
+      <c r="P26" s="19">
         <v>6</v>
       </c>
       <c r="Q26" s="11" t="s">
@@ -2935,13 +2951,13 @@
       <c r="Y26" s="12">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AA26" s="18">
+      <c r="AA26" s="19">
         <v>3</v>
       </c>
-      <c r="AB26" s="18">
+      <c r="AB26" s="19">
         <v>2</v>
       </c>
-      <c r="AC26" s="18">
+      <c r="AC26" s="19">
         <v>6</v>
       </c>
       <c r="AD26" s="11" t="s">
@@ -2973,9 +2989,9 @@
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3003,9 +3019,9 @@
       <c r="L27" s="4">
         <v>7.1128534862121102E-3</v>
       </c>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
       <c r="Q27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3033,9 +3049,9 @@
       <c r="Y27" s="4">
         <v>1.1391810450488099E-3</v>
       </c>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
       <c r="AD27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3065,9 +3081,9 @@
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="2" t="s">
         <v>14</v>
       </c>
@@ -3095,9 +3111,9 @@
       <c r="L28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
       <c r="Q28" s="2" t="s">
         <v>14</v>
       </c>
@@ -3125,9 +3141,9 @@
       <c r="Y28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
       <c r="AD28" s="2" t="s">
         <v>14</v>
       </c>
@@ -3157,9 +3173,9 @@
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="2" t="s">
         <v>18</v>
       </c>
@@ -3187,9 +3203,9 @@
       <c r="L29" s="4">
         <v>9.047183768</v>
       </c>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
       <c r="Q29" s="2" t="s">
         <v>18</v>
       </c>
@@ -3217,9 +3233,9 @@
       <c r="Y29" s="4">
         <v>8.2694804000000008</v>
       </c>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
       <c r="AD29" s="2" t="s">
         <v>18</v>
       </c>
@@ -3249,9 +3265,9 @@
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="2" t="s">
         <v>16</v>
       </c>
@@ -3279,9 +3295,9 @@
       <c r="L30" s="4">
         <v>9.2430258779999992</v>
       </c>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
       <c r="Q30" s="2" t="s">
         <v>16</v>
       </c>
@@ -3309,9 +3325,9 @@
       <c r="Y30" s="4">
         <v>10.112000800000001</v>
       </c>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
       <c r="AD30" s="2" t="s">
         <v>16</v>
       </c>
@@ -3341,9 +3357,9 @@
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="2" t="s">
         <v>4</v>
       </c>
@@ -3365,9 +3381,9 @@
       <c r="L31" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
       <c r="Q31" s="2" t="s">
         <v>4</v>
       </c>
@@ -3389,9 +3405,9 @@
       <c r="Y31" s="4">
         <v>0.316</v>
       </c>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
       <c r="AD31" s="2" t="s">
         <v>4</v>
       </c>
@@ -3415,9 +3431,9 @@
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="2" t="s">
         <v>17</v>
       </c>
@@ -3433,9 +3449,9 @@
       <c r="J32" s="4">
         <v>9.2121930000000005E-3</v>
       </c>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
       <c r="Q32" s="2" t="s">
         <v>17</v>
       </c>
@@ -3453,9 +3469,9 @@
       </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
       <c r="AD32" s="2" t="s">
         <v>17</v>
       </c>
@@ -3475,9 +3491,9 @@
       <c r="AL32" s="4"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="5" t="s">
         <v>15</v>
       </c>
@@ -3495,9 +3511,9 @@
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="5" t="s">
         <v>15</v>
       </c>
@@ -3515,9 +3531,9 @@
       </c>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="20"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
       <c r="AD33" s="5" t="s">
         <v>15</v>
       </c>
@@ -3538,7 +3554,7 @@
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="N38" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O38" s="16" t="s">
         <v>21</v>
@@ -3568,7 +3584,7 @@
         <v>10</v>
       </c>
       <c r="Y38" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z38" s="16" t="s">
         <v>21</v>
@@ -3605,13 +3621,13 @@
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N39" s="17">
+      <c r="N39" s="18">
         <v>2</v>
       </c>
-      <c r="O39" s="17">
-        <v>1</v>
-      </c>
-      <c r="P39" s="17">
+      <c r="O39" s="18">
+        <v>1</v>
+      </c>
+      <c r="P39" s="18">
         <v>4</v>
       </c>
       <c r="Q39" s="14" t="s">
@@ -3673,9 +3689,9 @@
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
       <c r="Q40" s="14" t="s">
         <v>19</v>
       </c>
@@ -3735,9 +3751,9 @@
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
       <c r="Q41" s="14" t="s">
         <v>14</v>
       </c>
@@ -3797,13 +3813,13 @@
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N42" s="17">
+      <c r="N42" s="18">
         <v>2</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O42" s="18">
         <v>2</v>
       </c>
-      <c r="P42" s="17">
+      <c r="P42" s="18">
         <v>4</v>
       </c>
       <c r="Q42" s="14" t="s">
@@ -3865,9 +3881,9 @@
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
       <c r="Q43" s="14" t="s">
         <v>19</v>
       </c>
@@ -3927,9 +3943,9 @@
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
       <c r="Q44" s="14" t="s">
         <v>14</v>
       </c>
@@ -3983,13 +3999,13 @@
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N45" s="17">
+      <c r="N45" s="18">
         <v>2</v>
       </c>
-      <c r="O45" s="17">
-        <v>1</v>
-      </c>
-      <c r="P45" s="17">
+      <c r="O45" s="18">
+        <v>1</v>
+      </c>
+      <c r="P45" s="18">
         <v>6</v>
       </c>
       <c r="Q45" s="14" t="s">
@@ -4045,9 +4061,9 @@
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
       <c r="Q46" s="14" t="s">
         <v>19</v>
       </c>
@@ -4101,9 +4117,9 @@
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
       <c r="Q47" s="14" t="s">
         <v>14</v>
       </c>
@@ -4163,13 +4179,13 @@
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N48" s="17">
+      <c r="N48" s="18">
         <v>2</v>
       </c>
-      <c r="O48" s="17">
+      <c r="O48" s="18">
         <v>2</v>
       </c>
-      <c r="P48" s="17">
+      <c r="P48" s="18">
         <v>6</v>
       </c>
       <c r="Q48" s="14" t="s">
@@ -4231,9 +4247,9 @@
       </c>
     </row>
     <row r="49" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
       <c r="Q49" s="14" t="s">
         <v>19</v>
       </c>
@@ -4293,9 +4309,9 @@
       </c>
     </row>
     <row r="50" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
       <c r="Q50" s="14" t="s">
         <v>14</v>
       </c>
@@ -4355,13 +4371,13 @@
       </c>
     </row>
     <row r="51" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N51" s="17">
+      <c r="N51" s="18">
         <v>3</v>
       </c>
-      <c r="O51" s="17">
-        <v>1</v>
-      </c>
-      <c r="P51" s="17">
+      <c r="O51" s="18">
+        <v>1</v>
+      </c>
+      <c r="P51" s="18">
         <v>4</v>
       </c>
       <c r="Q51" s="14" t="s">
@@ -4423,9 +4439,9 @@
       </c>
     </row>
     <row r="52" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
       <c r="Q52" s="14" t="s">
         <v>19</v>
       </c>
@@ -4479,9 +4495,9 @@
       </c>
     </row>
     <row r="53" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
       <c r="Q53" s="14" t="s">
         <v>14</v>
       </c>
@@ -4535,13 +4551,13 @@
       </c>
     </row>
     <row r="54" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N54" s="17">
+      <c r="N54" s="18">
         <v>3</v>
       </c>
-      <c r="O54" s="17">
+      <c r="O54" s="18">
         <v>2</v>
       </c>
-      <c r="P54" s="17">
+      <c r="P54" s="18">
         <v>4</v>
       </c>
       <c r="Q54" s="14" t="s">
@@ -4597,9 +4613,9 @@
       </c>
     </row>
     <row r="55" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
       <c r="Q55" s="14" t="s">
         <v>19</v>
       </c>
@@ -4659,9 +4675,9 @@
       </c>
     </row>
     <row r="56" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
       <c r="Q56" s="14" t="s">
         <v>14</v>
       </c>
@@ -4721,13 +4737,13 @@
       </c>
     </row>
     <row r="57" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N57" s="17">
+      <c r="N57" s="18">
         <v>3</v>
       </c>
-      <c r="O57" s="17">
-        <v>1</v>
-      </c>
-      <c r="P57" s="17">
+      <c r="O57" s="18">
+        <v>1</v>
+      </c>
+      <c r="P57" s="18">
         <v>6</v>
       </c>
       <c r="Q57" s="14" t="s">
@@ -4789,9 +4805,9 @@
       </c>
     </row>
     <row r="58" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
       <c r="Q58" s="14" t="s">
         <v>19</v>
       </c>
@@ -4851,9 +4867,9 @@
       </c>
     </row>
     <row r="59" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
       <c r="Q59" s="14" t="s">
         <v>14</v>
       </c>
@@ -4913,13 +4929,13 @@
       </c>
     </row>
     <row r="60" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N60" s="17">
+      <c r="N60" s="18">
         <v>3</v>
       </c>
-      <c r="O60" s="17">
+      <c r="O60" s="18">
         <v>2</v>
       </c>
-      <c r="P60" s="17">
+      <c r="P60" s="18">
         <v>6</v>
       </c>
       <c r="Q60" s="14" t="s">
@@ -4975,9 +4991,9 @@
       </c>
     </row>
     <row r="61" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
       <c r="Q61" s="14" t="s">
         <v>19</v>
       </c>
@@ -5027,9 +5043,9 @@
       <c r="AJ61" s="14"/>
     </row>
     <row r="62" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
       <c r="Q62" s="14" t="s">
         <v>14</v>
       </c>
@@ -9484,10 +9500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474392E9-0E45-4AEC-B8E4-8AB631FBD30B}">
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:M291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9497,8 +9513,8 @@
     <col min="14" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -9535,1076 +9551,1455 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="23">
+        <v>0.22</v>
+      </c>
+      <c r="F2" s="23">
+        <v>0.99</v>
+      </c>
+      <c r="G2" s="23">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="H2" s="23">
+        <v>0.623</v>
+      </c>
+      <c r="I2" s="23">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="J2" s="23">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K2" s="23">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="L2" s="23">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="25">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.64900000000000002</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="K2" s="4">
-        <v>9.4E-2</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="F4" s="25">
+        <v>1</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0.50913350000000002</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0.63084609999999997</v>
+      </c>
+      <c r="I4" s="25">
+        <v>1.7347202999999999E-2</v>
+      </c>
+      <c r="J4" s="25">
+        <v>1.1768684999999999E-2</v>
+      </c>
+      <c r="K4" s="25">
+        <v>0.37205460000000001</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0.41108850000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.49982179999999998</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.49930730000000001</v>
+      </c>
+      <c r="I5" s="25">
+        <v>1.646698E-3</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0.42982942800000001</v>
+      </c>
+      <c r="K5" s="25">
+        <v>0.18188789999999999</v>
+      </c>
+      <c r="L5" s="25">
+        <v>0.52504569999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.49945869999999998</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0.49923440000000002</v>
+      </c>
+      <c r="I6" s="25">
+        <v>1.3033529999999999E-3</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0.42916938999999998</v>
+      </c>
+      <c r="K6" s="25">
+        <v>0.18187690000000001</v>
+      </c>
+      <c r="L6" s="25">
+        <v>0.25677929999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="2" t="s">
+      <c r="F7" s="25">
+        <v>1</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0.63084609999999997</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="25">
+        <v>1.1768684999999999E-2</v>
+      </c>
+      <c r="K7" s="25">
+        <v>0.37205460000000001</v>
+      </c>
+      <c r="L7" s="25">
+        <v>0.41108850000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="25">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0.60874200000000001</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="25">
+        <v>9.9180250000000005E-3</v>
+      </c>
+      <c r="K8" s="25">
+        <v>1.0096540000000001</v>
+      </c>
+      <c r="L8" s="25">
+        <v>0.81780949999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="26">
+        <v>1</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="26">
+        <v>0.60957229999999996</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="26">
+        <v>1.0052073E-2</v>
+      </c>
+      <c r="K9" s="26">
+        <v>0.9179254</v>
+      </c>
+      <c r="L9" s="26">
+        <v>0.75462720000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="27">
+        <v>1</v>
+      </c>
+      <c r="B10" s="27">
+        <v>2</v>
+      </c>
+      <c r="C10" s="27">
+        <v>4</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F10" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="I10" s="28">
+        <v>0.372</v>
+      </c>
+      <c r="J10" s="28">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="K10" s="28">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="L10" s="28">
+        <v>2.1349999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="30">
+        <v>0.875</v>
+      </c>
+      <c r="F11" s="30">
+        <v>1</v>
+      </c>
+      <c r="G11" s="30">
+        <v>0.98434370000000004</v>
+      </c>
+      <c r="H11" s="30">
+        <v>1</v>
+      </c>
+      <c r="I11" s="30">
+        <v>0.96867150000000002</v>
+      </c>
+      <c r="J11" s="30">
+        <v>1</v>
+      </c>
+      <c r="K11" s="30">
+        <v>8.8676499999999997E-4</v>
+      </c>
+      <c r="L11" s="30">
+        <v>1.765144E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="30">
+        <v>0</v>
+      </c>
+      <c r="F12" s="30">
+        <v>0.98</v>
+      </c>
+      <c r="G12" s="30">
+        <v>0.51089589999999996</v>
+      </c>
+      <c r="H12" s="30">
+        <v>0.6326387</v>
+      </c>
+      <c r="I12" s="30">
+        <v>2.0993962000000001E-2</v>
+      </c>
+      <c r="J12" s="30">
+        <v>1.4544471999999999E-2</v>
+      </c>
+      <c r="K12" s="30">
+        <v>1.465184</v>
+      </c>
+      <c r="L12" s="30">
+        <v>1.616798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="30">
+        <v>1</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0</v>
+      </c>
+      <c r="G13" s="30">
+        <v>0.4996758</v>
+      </c>
+      <c r="H13" s="30">
+        <v>0.49938690000000002</v>
+      </c>
+      <c r="I13" s="30">
+        <v>1.7441170000000001E-3</v>
+      </c>
+      <c r="J13" s="30">
+        <v>0.42798228999999999</v>
+      </c>
+      <c r="K13" s="30">
+        <v>1.089083</v>
+      </c>
+      <c r="L13" s="30">
+        <v>1.6087819999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="30">
+        <v>1</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="30">
+        <v>0.60731420000000003</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="30">
+        <v>9.3500730000000004E-3</v>
+      </c>
+      <c r="K14" s="30">
+        <v>4.6205939999999996</v>
+      </c>
+      <c r="L14" s="30">
+        <v>3.6521439999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="30">
+        <v>0.98</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="30">
+        <v>0.63104329999999997</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="30">
+        <v>1.8190031999999998E-2</v>
+      </c>
+      <c r="K15" s="30">
+        <v>1.465184</v>
+      </c>
+      <c r="L15" s="30">
+        <v>1.6168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="30">
+        <v>1</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="30">
+        <v>0.60802330000000004</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="30">
+        <v>5.913041E-3</v>
+      </c>
+      <c r="K16" s="30">
+        <v>6.0716320000000001</v>
+      </c>
+      <c r="L16" s="30">
+        <v>5.0696870000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="32">
+        <v>1</v>
+      </c>
+      <c r="F17" s="32">
+        <v>0</v>
+      </c>
+      <c r="G17" s="32">
+        <v>0.49956509999999998</v>
+      </c>
+      <c r="H17" s="32">
+        <v>0.49921520000000003</v>
+      </c>
+      <c r="I17" s="32">
+        <v>1.1173590000000001E-3</v>
+      </c>
+      <c r="J17" s="32">
+        <v>0.42918186800000002</v>
+      </c>
+      <c r="K17" s="32">
+        <v>1.077871</v>
+      </c>
+      <c r="L17" s="32">
+        <v>1.319957</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
+        <v>1</v>
+      </c>
+      <c r="B18" s="17">
+        <v>1</v>
+      </c>
+      <c r="C18" s="17">
+        <v>6</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0.44</v>
+      </c>
+      <c r="F18" s="23">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="G18" s="23">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="H18" s="23">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="I18" s="23">
+        <v>0.376</v>
+      </c>
+      <c r="J18" s="23">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K18" s="23">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="L18" s="23">
+        <v>0.497</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E20" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="25">
+        <v>1</v>
+      </c>
+      <c r="F21" s="25">
         <v>0</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G21" s="25">
+        <v>0.49982179999999998</v>
+      </c>
+      <c r="H21" s="25">
+        <v>0.49930730000000001</v>
+      </c>
+      <c r="I21" s="25">
+        <v>1.646698E-3</v>
+      </c>
+      <c r="J21" s="25">
+        <v>0.42982942800000001</v>
+      </c>
+      <c r="K21" s="25">
+        <v>0.18188789999999999</v>
+      </c>
+      <c r="L21" s="25">
+        <v>0.52504569999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="25">
+        <v>1</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0.49945869999999998</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0.49923440000000002</v>
+      </c>
+      <c r="I22" s="25">
+        <v>1.3033529999999999E-3</v>
+      </c>
+      <c r="J22" s="25">
+        <v>0.42916938999999998</v>
+      </c>
+      <c r="K22" s="25">
+        <v>0.18187690000000001</v>
+      </c>
+      <c r="L22" s="25">
+        <v>0.25677929999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="25">
+        <v>1</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="25">
+        <v>0.62990139999999994</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="25">
+        <v>9.3516680000000005E-3</v>
+      </c>
+      <c r="K23" s="25">
+        <v>0.34950740000000002</v>
+      </c>
+      <c r="L23" s="25">
+        <v>0.38780579999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="25">
+        <v>0</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="25">
+        <v>0.64835659999999995</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="25">
+        <v>7.0043659999999997E-3</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="26">
+        <v>0</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="26">
+        <v>0.64776330000000004</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="26">
+        <v>7.7433759999999997E-3</v>
+      </c>
+      <c r="K25" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
+        <v>1</v>
+      </c>
+      <c r="B26" s="17">
+        <v>2</v>
+      </c>
+      <c r="C26" s="17">
+        <v>6</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.748</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="J26" s="2">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="L26" s="2">
+        <v>2.351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="30">
+        <v>0.875</v>
+      </c>
+      <c r="F27" s="30">
+        <v>1</v>
+      </c>
+      <c r="G27" s="30">
+        <v>0.98434370000000004</v>
+      </c>
+      <c r="H27" s="30">
+        <v>1</v>
+      </c>
+      <c r="I27" s="30">
+        <v>0.96867150000000002</v>
+      </c>
+      <c r="J27" s="30">
+        <v>1</v>
+      </c>
+      <c r="K27" s="30">
+        <v>8.8676499999999997E-4</v>
+      </c>
+      <c r="L27" s="30">
+        <v>1.765144E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="25">
+        <v>1</v>
+      </c>
+      <c r="F29" s="25">
+        <v>0</v>
+      </c>
+      <c r="G29" s="25">
+        <v>0.4996758</v>
+      </c>
+      <c r="H29" s="25">
+        <v>0.49938690000000002</v>
+      </c>
+      <c r="I29" s="25">
+        <v>1.7441170000000001E-3</v>
+      </c>
+      <c r="J29" s="25">
+        <v>0.42798228999999999</v>
+      </c>
+      <c r="K29" s="25">
+        <v>1.089083</v>
+      </c>
+      <c r="L29" s="25">
+        <v>1.6087819999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="25">
+        <v>1</v>
+      </c>
+      <c r="F30" s="25">
+        <v>0</v>
+      </c>
+      <c r="G30" s="25">
+        <v>0.49956509999999998</v>
+      </c>
+      <c r="H30" s="25">
+        <v>0.49921520000000003</v>
+      </c>
+      <c r="I30" s="25">
+        <v>1.1173590000000001E-3</v>
+      </c>
+      <c r="J30" s="25">
+        <v>0.42918186800000002</v>
+      </c>
+      <c r="K30" s="25">
+        <v>1.077871</v>
+      </c>
+      <c r="L30" s="25">
+        <v>1.319957</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="25">
+        <v>1</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="25">
+        <v>0.63056509999999999</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="25">
+        <v>1.101893E-2</v>
+      </c>
+      <c r="K31" s="25">
+        <v>1.512615</v>
+      </c>
+      <c r="L31" s="25">
+        <v>1.785126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="25">
+        <v>0</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="25">
+        <v>0.64915979999999995</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="25">
+        <v>4.2808849999999999E-3</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="26">
+        <v>0</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="26">
+        <v>0.6488874</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="26">
+        <v>7.7437679999999998E-3</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.48514679999999999</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.61891649999999998</v>
+      </c>
+      <c r="I38" s="3">
+        <v>2.3543147E-2</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1.641768E-2</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0.35473640000000001</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0.40268789999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="3">
         <v>0.97</v>
       </c>
-      <c r="G4" s="4">
-        <v>0.62375170000000002</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.7345526</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.24678225100000001</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.29781519000000001</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0.81303060000000005</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0.77909430000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D5" s="2" t="s">
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.50299190000000005</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.50264589999999998</v>
+      </c>
+      <c r="I39" s="3">
+        <v>7.1949529999999996E-3</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0.46699624000000001</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.16584389999999999</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0.69085589999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.5001428</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.49940010000000001</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1.310224E-3</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0.46965412000000001</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0.16423289999999999</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0.25546540000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.61891649999999998</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1.641768E-2</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0.35473640000000001</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0.40268809999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.60306510000000002</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4.6320840000000002E-2</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0.88409870000000002</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0.57254910000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.59942859999999998</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1.275333E-2</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0.90193089999999998</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0.65962609999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2</v>
+      </c>
+      <c r="C44" s="2">
+        <v>6</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.48614220000000002</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.61971670000000001</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2.51334E-2</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1.7100230000000001E-2</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1.404069</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1.58856</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D47" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="4">
-        <v>0.50052509999999995</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.49551410000000001</v>
-      </c>
-      <c r="I5" s="4">
-        <v>2.5313340000000001E-3</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.43493484999999998</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1.5116731999999999</v>
-      </c>
-      <c r="L5" s="4">
-        <v>7.2701903000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D6" s="2" t="s">
+      <c r="G47" s="3">
+        <v>0.5006024</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.50041639999999998</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2.7489929999999999E-3</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0.46782070999999997</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1.0430090000000001</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1.795995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="4">
-        <v>0.49998720000000002</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.49386930000000001</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1.577029E-3</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.43707062000000002</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1.550916</v>
-      </c>
-      <c r="L6" s="4">
-        <v>2.2622437</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D7" s="2" t="s">
+      <c r="G48" s="3">
+        <v>0.50019760000000002</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.49942180000000003</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1.1534959999999999E-3</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0.4690993</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1.0126869999999999</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1.3115190000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4">
-        <v>0.72</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="K7" s="4">
-        <v>1.0529999999999999</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0.84699999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D8" s="2" t="s">
+      <c r="E49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0.61852850000000004</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2.188992E-2</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1.404069</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1.588557</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4">
-        <v>0.60307370000000005</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4">
-        <v>3.497815E-2</v>
-      </c>
-      <c r="K8" s="4">
-        <v>19.454789099999999</v>
-      </c>
-      <c r="L8" s="4">
-        <v>22.8695159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D9" s="2" t="s">
+      <c r="E50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0.60410399999999997</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="3">
+        <v>4.5042060000000002E-2</v>
+      </c>
+      <c r="K50" s="3">
+        <v>3.9956119999999999</v>
+      </c>
+      <c r="L50" s="3">
+        <v>3.2229019999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4">
-        <v>0.59951180000000004</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4">
-        <v>4.1565850000000001E-2</v>
-      </c>
-      <c r="K9" s="4">
-        <v>28.920835499999999</v>
-      </c>
-      <c r="L9" s="4">
-        <v>28.652950300000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="K11" s="4">
-        <v>2.3620000000000001</v>
-      </c>
-      <c r="L11" s="4">
-        <v>4.2720000000000002</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="E51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="H51" s="3">
+        <v>0.59895620000000005</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="4">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="K12" s="4">
-        <v>3.7050000000000001</v>
-      </c>
-      <c r="L12" s="4">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.746</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0.252</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0.308</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0.32600000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0.436</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="K17" s="4">
-        <v>1.599</v>
-      </c>
-      <c r="L17" s="4">
-        <v>4.8789999999999996</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0.80600000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2">
-        <v>4</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0.623</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="J31" s="3">
-        <v>1.4E-2</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="L31" s="3">
-        <v>0.51500000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3">
-        <v>9.5388917734878596E-3</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1.51701127232555E-2</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0.509324</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0.61830839999999998</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1.7839302000000001E-2</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1.3347727E-2</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0.37302750000000001</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0.42100369999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0.4996314</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0.49861270000000002</v>
-      </c>
-      <c r="I34" s="3">
-        <v>1.5362559999999999E-3</v>
-      </c>
-      <c r="J34" s="3">
-        <v>0.45310223199999999</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0.18516199999999999</v>
-      </c>
-      <c r="L34" s="3">
-        <v>0.4722713</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0.49987609999999999</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0.49874869999999999</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1.3176419999999999E-3</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0.45335917199999998</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0.1819547</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0.24773890000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3">
-        <v>0.61756960000000005</v>
-      </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3">
-        <v>1.5629875000000001E-2</v>
-      </c>
-      <c r="K36" s="3">
-        <v>0.37302750000000001</v>
-      </c>
-      <c r="L36" s="3">
-        <v>0.42100379999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3">
-        <v>0.59760919999999995</v>
-      </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3">
-        <v>7.8452420000000005E-3</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0.99845050000000002</v>
-      </c>
-      <c r="L37" s="3">
-        <v>0.80892180000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3">
-        <v>0.59809959999999995</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3">
-        <v>1.0433082E-2</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0.89865110000000004</v>
-      </c>
-      <c r="L38" s="3">
-        <v>0.82901279999999999</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P38" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R38" s="2">
-        <v>0.61756960000000005</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2">
-        <v>2</v>
-      </c>
-      <c r="C39" s="2">
-        <v>4</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="I39" s="3">
-        <v>0.372</v>
-      </c>
-      <c r="J39" s="3">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="K39" s="3">
-        <v>1.3009999999999999</v>
-      </c>
-      <c r="L39" s="3">
-        <v>2.1349999999999998</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O39" s="2">
-        <v>0</v>
-      </c>
-      <c r="P39" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>0.509324</v>
-      </c>
-      <c r="R39" s="2">
-        <v>0.61830839999999998</v>
-      </c>
-      <c r="S39" s="2">
-        <v>1.7839302000000001E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="N40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P40" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R40" s="2">
-        <v>0.59760919999999995</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0.50999640000000002</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0.61889470000000002</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1.9203184000000002E-2</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1.4781588999999999E-2</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1.4676290000000001</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1.6576139999999999</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O41" s="2">
-        <v>1</v>
-      </c>
-      <c r="P41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>0.4996314</v>
-      </c>
-      <c r="R41" s="2">
-        <v>0.49861270000000002</v>
-      </c>
-      <c r="S41" s="2">
-        <v>1.5362559999999999E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D42" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0.49965769999999998</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0.49907449999999998</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1.6990779999999999E-3</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0.45216907899999997</v>
-      </c>
-      <c r="K42" s="3">
-        <v>1.0738019999999999</v>
-      </c>
-      <c r="L42" s="3">
-        <v>1.6345989999999999</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P42" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R42" s="2">
-        <v>0.59809959999999995</v>
-      </c>
-      <c r="S42" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0.49992760000000003</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0.49863289999999999</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1.530238E-3</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0.45410774999999998</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1.0995760000000001</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1.3235920000000001</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O43" s="2">
-        <v>1</v>
-      </c>
-      <c r="P43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>0.49987609999999999</v>
-      </c>
-      <c r="R43" s="2">
-        <v>0.49874869999999999</v>
-      </c>
-      <c r="S43" s="2">
-        <v>1.3176419999999999E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D44" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3">
-        <v>0.61823050000000002</v>
-      </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3">
-        <v>1.7036754000000001E-2</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1.4676290000000001</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1.6576150000000001</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3">
-        <v>0.59646010000000005</v>
-      </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3">
-        <v>5.2598829999999999E-3</v>
-      </c>
-      <c r="K45" s="3">
-        <v>5.5891390000000003</v>
-      </c>
-      <c r="L45" s="3">
-        <v>5.431514</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3">
-        <v>0.59716279999999999</v>
-      </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3">
-        <v>9.9719060000000009E-3</v>
-      </c>
-      <c r="K46" s="3">
-        <v>4.4678139999999997</v>
-      </c>
-      <c r="L46" s="3">
-        <v>3.479406</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>1</v>
-      </c>
-      <c r="B47" s="2">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2">
-        <v>6</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0.376</v>
-      </c>
-      <c r="J47" s="3">
-        <v>2.4E-2</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0.497</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
+      <c r="J51" s="3">
+        <v>1.253521E-2</v>
+      </c>
+      <c r="K51" s="3">
+        <v>4.3594790000000003</v>
+      </c>
+      <c r="L51" s="3">
+        <v>3.5113289999999999</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" s="2">
         <v>2</v>
       </c>
       <c r="C52" s="2">
         <v>6</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -10616,6 +11011,9 @@
       <c r="L52" s="3"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D53" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -10626,6 +11024,9 @@
       <c r="L53" s="3"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D54" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -10636,56 +11037,163 @@
       <c r="L54" s="3"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
+      <c r="D55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0.50299190000000005</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0.50264589999999998</v>
+      </c>
+      <c r="I55" s="3">
+        <v>7.1949529999999996E-3</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0.46699624299999998</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0.16584389999999999</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0.69085589999999997</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
+      <c r="D56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0.5001428</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0.49940010000000001</v>
+      </c>
+      <c r="I56" s="3">
+        <v>1.310224E-3</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0.46965411699999998</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0.16423289999999999</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0.25546540000000001</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
+      <c r="D57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0.61811769999999999</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3.5187431999999998E-2</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0.34959499999999999</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0.39149319999999999</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
+      <c r="D58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0.64135560000000003</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3.8120754999999999E-2</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
+      <c r="D59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0.63485599999999998</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="3">
+        <v>9.5159560000000008E-3</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>2</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2</v>
+      </c>
+      <c r="C60" s="2">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -10695,6 +11203,2147 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0.5006024</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0.50041639999999998</v>
+      </c>
+      <c r="I63" s="3">
+        <v>2.7489929999999999E-3</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0.46782070799999997</v>
+      </c>
+      <c r="K63" s="3">
+        <v>1.0430090000000001</v>
+      </c>
+      <c r="L63" s="3">
+        <v>1.795995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0.50019760000000002</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0.49942180000000003</v>
+      </c>
+      <c r="I64" s="3">
+        <v>1.1534959999999999E-3</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0.46909929700000003</v>
+      </c>
+      <c r="K64" s="3">
+        <v>1.0126869999999999</v>
+      </c>
+      <c r="L64" s="3">
+        <v>1.3115190000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0.62055879999999997</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" s="3">
+        <v>2.0735995E-2</v>
+      </c>
+      <c r="K65" s="3">
+        <v>1.46031</v>
+      </c>
+      <c r="L65" s="3">
+        <v>1.648676</v>
+      </c>
+    </row>
+    <row r="66" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0.64036340000000003</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3.9284652000000003E-2</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="3">
+        <v>0.63417820000000003</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" s="3">
+        <v>9.7139489999999995E-3</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="100" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+    </row>
+    <row r="103" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+    </row>
+    <row r="104" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+    </row>
+    <row r="105" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+    </row>
+    <row r="106" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+    </row>
+    <row r="107" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+    </row>
+    <row r="108" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+    </row>
+    <row r="109" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+    </row>
+    <row r="110" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+    </row>
+    <row r="111" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+    </row>
+    <row r="112" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+    </row>
+    <row r="113" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+    </row>
+    <row r="114" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+    </row>
+    <row r="115" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+    </row>
+    <row r="116" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+    </row>
+    <row r="117" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+    </row>
+    <row r="118" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+    </row>
+    <row r="119" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
+    </row>
+    <row r="120" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+    </row>
+    <row r="121" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+    </row>
+    <row r="122" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+    </row>
+    <row r="123" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+    </row>
+    <row r="124" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+    </row>
+    <row r="125" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+    </row>
+    <row r="126" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+    </row>
+    <row r="127" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+    </row>
+    <row r="128" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+    </row>
+    <row r="129" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+    </row>
+    <row r="130" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
+    </row>
+    <row r="131" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+    </row>
+    <row r="132" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
+    </row>
+    <row r="133" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
+    </row>
+    <row r="134" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+    </row>
+    <row r="135" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
+    </row>
+    <row r="136" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
+      <c r="L136" s="3"/>
+    </row>
+    <row r="137" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
+    </row>
+    <row r="138" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+      <c r="L138" s="3"/>
+    </row>
+    <row r="139" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
+      <c r="L139" s="3"/>
+    </row>
+    <row r="140" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
+      <c r="K140" s="3"/>
+      <c r="L140" s="3"/>
+    </row>
+    <row r="141" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
+      <c r="K141" s="3"/>
+      <c r="L141" s="3"/>
+    </row>
+    <row r="142" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
+      <c r="L142" s="3"/>
+    </row>
+    <row r="143" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
+      <c r="K143" s="3"/>
+      <c r="L143" s="3"/>
+    </row>
+    <row r="144" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3"/>
+      <c r="K144" s="3"/>
+      <c r="L144" s="3"/>
+    </row>
+    <row r="145" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
+      <c r="L145" s="3"/>
+    </row>
+    <row r="146" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="3"/>
+    </row>
+    <row r="147" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
+    </row>
+    <row r="148" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="3"/>
+    </row>
+    <row r="149" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+      <c r="L149" s="3"/>
+    </row>
+    <row r="150" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
+      <c r="L150" s="3"/>
+    </row>
+    <row r="151" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
+      <c r="L151" s="3"/>
+    </row>
+    <row r="152" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+      <c r="L152" s="3"/>
+    </row>
+    <row r="153" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3"/>
+      <c r="L153" s="3"/>
+    </row>
+    <row r="154" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+      <c r="K154" s="3"/>
+      <c r="L154" s="3"/>
+    </row>
+    <row r="155" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+      <c r="K155" s="3"/>
+      <c r="L155" s="3"/>
+    </row>
+    <row r="156" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="3"/>
+      <c r="K156" s="3"/>
+      <c r="L156" s="3"/>
+    </row>
+    <row r="157" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3"/>
+      <c r="L157" s="3"/>
+    </row>
+    <row r="158" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3"/>
+      <c r="K158" s="3"/>
+      <c r="L158" s="3"/>
+    </row>
+    <row r="159" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
+      <c r="L159" s="3"/>
+    </row>
+    <row r="160" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+      <c r="K160" s="3"/>
+      <c r="L160" s="3"/>
+    </row>
+    <row r="161" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+      <c r="K161" s="3"/>
+      <c r="L161" s="3"/>
+    </row>
+    <row r="162" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+      <c r="K162" s="3"/>
+      <c r="L162" s="3"/>
+    </row>
+    <row r="163" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3"/>
+      <c r="K163" s="3"/>
+      <c r="L163" s="3"/>
+    </row>
+    <row r="164" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3"/>
+      <c r="K164" s="3"/>
+      <c r="L164" s="3"/>
+    </row>
+    <row r="165" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="3"/>
+      <c r="K165" s="3"/>
+      <c r="L165" s="3"/>
+    </row>
+    <row r="166" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3"/>
+      <c r="K166" s="3"/>
+      <c r="L166" s="3"/>
+    </row>
+    <row r="167" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="3"/>
+      <c r="K167" s="3"/>
+      <c r="L167" s="3"/>
+    </row>
+    <row r="168" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+      <c r="J168" s="3"/>
+      <c r="K168" s="3"/>
+      <c r="L168" s="3"/>
+    </row>
+    <row r="169" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3"/>
+      <c r="K169" s="3"/>
+      <c r="L169" s="3"/>
+    </row>
+    <row r="170" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3"/>
+      <c r="L170" s="3"/>
+    </row>
+    <row r="171" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
+      <c r="K171" s="3"/>
+      <c r="L171" s="3"/>
+    </row>
+    <row r="172" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3"/>
+      <c r="J172" s="3"/>
+      <c r="K172" s="3"/>
+      <c r="L172" s="3"/>
+    </row>
+    <row r="173" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3"/>
+      <c r="K173" s="3"/>
+      <c r="L173" s="3"/>
+    </row>
+    <row r="174" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3"/>
+      <c r="L174" s="3"/>
+    </row>
+    <row r="175" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="3"/>
+      <c r="K175" s="3"/>
+      <c r="L175" s="3"/>
+    </row>
+    <row r="176" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+      <c r="J176" s="3"/>
+      <c r="K176" s="3"/>
+      <c r="L176" s="3"/>
+    </row>
+    <row r="177" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+      <c r="J177" s="3"/>
+      <c r="K177" s="3"/>
+      <c r="L177" s="3"/>
+    </row>
+    <row r="178" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3"/>
+      <c r="J178" s="3"/>
+      <c r="K178" s="3"/>
+      <c r="L178" s="3"/>
+    </row>
+    <row r="179" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="3"/>
+      <c r="J179" s="3"/>
+      <c r="K179" s="3"/>
+      <c r="L179" s="3"/>
+    </row>
+    <row r="180" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
+      <c r="J180" s="3"/>
+      <c r="K180" s="3"/>
+      <c r="L180" s="3"/>
+    </row>
+    <row r="181" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3"/>
+      <c r="J181" s="3"/>
+      <c r="K181" s="3"/>
+      <c r="L181" s="3"/>
+    </row>
+    <row r="182" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+      <c r="I182" s="3"/>
+      <c r="J182" s="3"/>
+      <c r="K182" s="3"/>
+      <c r="L182" s="3"/>
+    </row>
+    <row r="183" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
+      <c r="K183" s="3"/>
+      <c r="L183" s="3"/>
+    </row>
+    <row r="184" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
+      <c r="K184" s="3"/>
+      <c r="L184" s="3"/>
+    </row>
+    <row r="185" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3"/>
+      <c r="K185" s="3"/>
+      <c r="L185" s="3"/>
+    </row>
+    <row r="186" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
+      <c r="K186" s="3"/>
+      <c r="L186" s="3"/>
+    </row>
+    <row r="187" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
+      <c r="I187" s="3"/>
+      <c r="J187" s="3"/>
+      <c r="K187" s="3"/>
+      <c r="L187" s="3"/>
+    </row>
+    <row r="188" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3"/>
+      <c r="K188" s="3"/>
+      <c r="L188" s="3"/>
+    </row>
+    <row r="189" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="3"/>
+      <c r="J189" s="3"/>
+      <c r="K189" s="3"/>
+      <c r="L189" s="3"/>
+    </row>
+    <row r="190" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="3"/>
+      <c r="K190" s="3"/>
+      <c r="L190" s="3"/>
+    </row>
+    <row r="191" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3"/>
+      <c r="K191" s="3"/>
+      <c r="L191" s="3"/>
+    </row>
+    <row r="192" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="3"/>
+      <c r="J192" s="3"/>
+      <c r="K192" s="3"/>
+      <c r="L192" s="3"/>
+    </row>
+    <row r="193" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
+      <c r="L193" s="3"/>
+    </row>
+    <row r="194" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="3"/>
+      <c r="J194" s="3"/>
+      <c r="K194" s="3"/>
+      <c r="L194" s="3"/>
+    </row>
+    <row r="195" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="3"/>
+      <c r="J195" s="3"/>
+      <c r="K195" s="3"/>
+      <c r="L195" s="3"/>
+    </row>
+    <row r="196" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="3"/>
+      <c r="K196" s="3"/>
+      <c r="L196" s="3"/>
+    </row>
+    <row r="197" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3"/>
+      <c r="K197" s="3"/>
+      <c r="L197" s="3"/>
+    </row>
+    <row r="198" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="3"/>
+      <c r="K198" s="3"/>
+      <c r="L198" s="3"/>
+    </row>
+    <row r="199" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="3"/>
+      <c r="K199" s="3"/>
+      <c r="L199" s="3"/>
+    </row>
+    <row r="200" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="3"/>
+      <c r="K200" s="3"/>
+      <c r="L200" s="3"/>
+    </row>
+    <row r="201" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+      <c r="I201" s="3"/>
+      <c r="J201" s="3"/>
+      <c r="K201" s="3"/>
+      <c r="L201" s="3"/>
+    </row>
+    <row r="202" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="3"/>
+      <c r="J202" s="3"/>
+      <c r="K202" s="3"/>
+      <c r="L202" s="3"/>
+    </row>
+    <row r="203" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="3"/>
+      <c r="J203" s="3"/>
+      <c r="K203" s="3"/>
+      <c r="L203" s="3"/>
+    </row>
+    <row r="204" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="3"/>
+      <c r="K204" s="3"/>
+      <c r="L204" s="3"/>
+    </row>
+    <row r="205" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
+      <c r="J205" s="3"/>
+      <c r="K205" s="3"/>
+      <c r="L205" s="3"/>
+    </row>
+    <row r="206" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="3"/>
+      <c r="K206" s="3"/>
+      <c r="L206" s="3"/>
+    </row>
+    <row r="207" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
+      <c r="J207" s="3"/>
+      <c r="K207" s="3"/>
+      <c r="L207" s="3"/>
+    </row>
+    <row r="208" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="3"/>
+      <c r="J208" s="3"/>
+      <c r="K208" s="3"/>
+      <c r="L208" s="3"/>
+    </row>
+    <row r="209" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
+      <c r="J209" s="3"/>
+      <c r="K209" s="3"/>
+      <c r="L209" s="3"/>
+    </row>
+    <row r="210" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
+      <c r="I210" s="3"/>
+      <c r="J210" s="3"/>
+      <c r="K210" s="3"/>
+      <c r="L210" s="3"/>
+    </row>
+    <row r="211" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+      <c r="I211" s="3"/>
+      <c r="J211" s="3"/>
+      <c r="K211" s="3"/>
+      <c r="L211" s="3"/>
+    </row>
+    <row r="212" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3"/>
+      <c r="I212" s="3"/>
+      <c r="J212" s="3"/>
+      <c r="K212" s="3"/>
+      <c r="L212" s="3"/>
+    </row>
+    <row r="213" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="3"/>
+      <c r="I213" s="3"/>
+      <c r="J213" s="3"/>
+      <c r="K213" s="3"/>
+      <c r="L213" s="3"/>
+    </row>
+    <row r="214" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="3"/>
+      <c r="I214" s="3"/>
+      <c r="J214" s="3"/>
+      <c r="K214" s="3"/>
+      <c r="L214" s="3"/>
+    </row>
+    <row r="215" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="3"/>
+      <c r="I215" s="3"/>
+      <c r="J215" s="3"/>
+      <c r="K215" s="3"/>
+      <c r="L215" s="3"/>
+    </row>
+    <row r="216" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
+      <c r="I216" s="3"/>
+      <c r="J216" s="3"/>
+      <c r="K216" s="3"/>
+      <c r="L216" s="3"/>
+    </row>
+    <row r="217" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
+      <c r="I217" s="3"/>
+      <c r="J217" s="3"/>
+      <c r="K217" s="3"/>
+      <c r="L217" s="3"/>
+    </row>
+    <row r="218" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3"/>
+      <c r="I218" s="3"/>
+      <c r="J218" s="3"/>
+      <c r="K218" s="3"/>
+      <c r="L218" s="3"/>
+    </row>
+    <row r="219" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
+      <c r="I219" s="3"/>
+      <c r="J219" s="3"/>
+      <c r="K219" s="3"/>
+      <c r="L219" s="3"/>
+    </row>
+    <row r="220" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
+      <c r="J220" s="3"/>
+      <c r="K220" s="3"/>
+      <c r="L220" s="3"/>
+    </row>
+    <row r="221" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3"/>
+      <c r="I221" s="3"/>
+      <c r="J221" s="3"/>
+      <c r="K221" s="3"/>
+      <c r="L221" s="3"/>
+    </row>
+    <row r="222" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3"/>
+      <c r="I222" s="3"/>
+      <c r="J222" s="3"/>
+      <c r="K222" s="3"/>
+      <c r="L222" s="3"/>
+    </row>
+    <row r="223" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E223" s="3"/>
+      <c r="F223" s="3"/>
+      <c r="G223" s="3"/>
+      <c r="H223" s="3"/>
+      <c r="I223" s="3"/>
+      <c r="J223" s="3"/>
+      <c r="K223" s="3"/>
+      <c r="L223" s="3"/>
+    </row>
+    <row r="224" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E224" s="3"/>
+      <c r="F224" s="3"/>
+      <c r="G224" s="3"/>
+      <c r="H224" s="3"/>
+      <c r="I224" s="3"/>
+      <c r="J224" s="3"/>
+      <c r="K224" s="3"/>
+      <c r="L224" s="3"/>
+    </row>
+    <row r="225" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E225" s="3"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3"/>
+      <c r="I225" s="3"/>
+      <c r="J225" s="3"/>
+      <c r="K225" s="3"/>
+      <c r="L225" s="3"/>
+    </row>
+    <row r="226" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E226" s="3"/>
+      <c r="F226" s="3"/>
+      <c r="G226" s="3"/>
+      <c r="H226" s="3"/>
+      <c r="I226" s="3"/>
+      <c r="J226" s="3"/>
+      <c r="K226" s="3"/>
+      <c r="L226" s="3"/>
+    </row>
+    <row r="227" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E227" s="3"/>
+      <c r="F227" s="3"/>
+      <c r="G227" s="3"/>
+      <c r="H227" s="3"/>
+      <c r="I227" s="3"/>
+      <c r="J227" s="3"/>
+      <c r="K227" s="3"/>
+      <c r="L227" s="3"/>
+    </row>
+    <row r="228" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E228" s="3"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
+      <c r="I228" s="3"/>
+      <c r="J228" s="3"/>
+      <c r="K228" s="3"/>
+      <c r="L228" s="3"/>
+    </row>
+    <row r="229" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E229" s="3"/>
+      <c r="F229" s="3"/>
+      <c r="G229" s="3"/>
+      <c r="H229" s="3"/>
+      <c r="I229" s="3"/>
+      <c r="J229" s="3"/>
+      <c r="K229" s="3"/>
+      <c r="L229" s="3"/>
+    </row>
+    <row r="230" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E230" s="3"/>
+      <c r="F230" s="3"/>
+      <c r="G230" s="3"/>
+      <c r="H230" s="3"/>
+      <c r="I230" s="3"/>
+      <c r="J230" s="3"/>
+      <c r="K230" s="3"/>
+      <c r="L230" s="3"/>
+    </row>
+    <row r="231" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E231" s="3"/>
+      <c r="F231" s="3"/>
+      <c r="G231" s="3"/>
+      <c r="H231" s="3"/>
+      <c r="I231" s="3"/>
+      <c r="J231" s="3"/>
+      <c r="K231" s="3"/>
+      <c r="L231" s="3"/>
+    </row>
+    <row r="232" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E232" s="3"/>
+      <c r="F232" s="3"/>
+      <c r="G232" s="3"/>
+      <c r="H232" s="3"/>
+      <c r="I232" s="3"/>
+      <c r="J232" s="3"/>
+      <c r="K232" s="3"/>
+      <c r="L232" s="3"/>
+    </row>
+    <row r="233" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E233" s="3"/>
+      <c r="F233" s="3"/>
+      <c r="G233" s="3"/>
+      <c r="H233" s="3"/>
+      <c r="I233" s="3"/>
+      <c r="J233" s="3"/>
+      <c r="K233" s="3"/>
+      <c r="L233" s="3"/>
+    </row>
+    <row r="234" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3"/>
+      <c r="I234" s="3"/>
+      <c r="J234" s="3"/>
+      <c r="K234" s="3"/>
+      <c r="L234" s="3"/>
+    </row>
+    <row r="235" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E235" s="3"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3"/>
+      <c r="H235" s="3"/>
+      <c r="I235" s="3"/>
+      <c r="J235" s="3"/>
+      <c r="K235" s="3"/>
+      <c r="L235" s="3"/>
+    </row>
+    <row r="236" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E236" s="3"/>
+      <c r="F236" s="3"/>
+      <c r="G236" s="3"/>
+      <c r="H236" s="3"/>
+      <c r="I236" s="3"/>
+      <c r="J236" s="3"/>
+      <c r="K236" s="3"/>
+      <c r="L236" s="3"/>
+    </row>
+    <row r="237" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E237" s="3"/>
+      <c r="F237" s="3"/>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
+      <c r="I237" s="3"/>
+      <c r="J237" s="3"/>
+      <c r="K237" s="3"/>
+      <c r="L237" s="3"/>
+    </row>
+    <row r="238" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E238" s="3"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
+      <c r="I238" s="3"/>
+      <c r="J238" s="3"/>
+      <c r="K238" s="3"/>
+      <c r="L238" s="3"/>
+    </row>
+    <row r="239" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E239" s="3"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="3"/>
+      <c r="H239" s="3"/>
+      <c r="I239" s="3"/>
+      <c r="J239" s="3"/>
+      <c r="K239" s="3"/>
+      <c r="L239" s="3"/>
+    </row>
+    <row r="240" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E240" s="3"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
+      <c r="I240" s="3"/>
+      <c r="J240" s="3"/>
+      <c r="K240" s="3"/>
+      <c r="L240" s="3"/>
+    </row>
+    <row r="241" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E241" s="3"/>
+      <c r="F241" s="3"/>
+      <c r="G241" s="3"/>
+      <c r="H241" s="3"/>
+      <c r="I241" s="3"/>
+      <c r="J241" s="3"/>
+      <c r="K241" s="3"/>
+      <c r="L241" s="3"/>
+    </row>
+    <row r="242" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E242" s="3"/>
+      <c r="F242" s="3"/>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
+      <c r="I242" s="3"/>
+      <c r="J242" s="3"/>
+      <c r="K242" s="3"/>
+      <c r="L242" s="3"/>
+    </row>
+    <row r="243" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E243" s="3"/>
+      <c r="F243" s="3"/>
+      <c r="G243" s="3"/>
+      <c r="H243" s="3"/>
+      <c r="I243" s="3"/>
+      <c r="J243" s="3"/>
+      <c r="K243" s="3"/>
+      <c r="L243" s="3"/>
+    </row>
+    <row r="244" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E244" s="3"/>
+      <c r="F244" s="3"/>
+      <c r="G244" s="3"/>
+      <c r="H244" s="3"/>
+      <c r="I244" s="3"/>
+      <c r="J244" s="3"/>
+      <c r="K244" s="3"/>
+      <c r="L244" s="3"/>
+    </row>
+    <row r="245" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E245" s="3"/>
+      <c r="F245" s="3"/>
+      <c r="G245" s="3"/>
+      <c r="H245" s="3"/>
+      <c r="I245" s="3"/>
+      <c r="J245" s="3"/>
+      <c r="K245" s="3"/>
+      <c r="L245" s="3"/>
+    </row>
+    <row r="246" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E246" s="3"/>
+      <c r="F246" s="3"/>
+      <c r="G246" s="3"/>
+      <c r="H246" s="3"/>
+      <c r="I246" s="3"/>
+      <c r="J246" s="3"/>
+      <c r="K246" s="3"/>
+      <c r="L246" s="3"/>
+    </row>
+    <row r="247" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E247" s="3"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="3"/>
+      <c r="H247" s="3"/>
+      <c r="I247" s="3"/>
+      <c r="J247" s="3"/>
+      <c r="K247" s="3"/>
+      <c r="L247" s="3"/>
+    </row>
+    <row r="248" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E248" s="3"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="3"/>
+      <c r="H248" s="3"/>
+      <c r="I248" s="3"/>
+      <c r="J248" s="3"/>
+      <c r="K248" s="3"/>
+      <c r="L248" s="3"/>
+    </row>
+    <row r="249" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E249" s="3"/>
+      <c r="F249" s="3"/>
+      <c r="G249" s="3"/>
+      <c r="H249" s="3"/>
+      <c r="I249" s="3"/>
+      <c r="J249" s="3"/>
+      <c r="K249" s="3"/>
+      <c r="L249" s="3"/>
+    </row>
+    <row r="250" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E250" s="3"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="3"/>
+      <c r="H250" s="3"/>
+      <c r="I250" s="3"/>
+      <c r="J250" s="3"/>
+      <c r="K250" s="3"/>
+      <c r="L250" s="3"/>
+    </row>
+    <row r="251" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E251" s="3"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="3"/>
+      <c r="H251" s="3"/>
+      <c r="I251" s="3"/>
+      <c r="J251" s="3"/>
+      <c r="K251" s="3"/>
+      <c r="L251" s="3"/>
+    </row>
+    <row r="252" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E252" s="3"/>
+      <c r="F252" s="3"/>
+      <c r="G252" s="3"/>
+      <c r="H252" s="3"/>
+      <c r="I252" s="3"/>
+      <c r="J252" s="3"/>
+      <c r="K252" s="3"/>
+      <c r="L252" s="3"/>
+    </row>
+    <row r="253" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E253" s="3"/>
+      <c r="F253" s="3"/>
+      <c r="G253" s="3"/>
+      <c r="H253" s="3"/>
+      <c r="I253" s="3"/>
+      <c r="J253" s="3"/>
+      <c r="K253" s="3"/>
+      <c r="L253" s="3"/>
+    </row>
+    <row r="254" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E254" s="3"/>
+      <c r="F254" s="3"/>
+      <c r="G254" s="3"/>
+      <c r="H254" s="3"/>
+      <c r="I254" s="3"/>
+      <c r="J254" s="3"/>
+      <c r="K254" s="3"/>
+      <c r="L254" s="3"/>
+    </row>
+    <row r="255" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E255" s="3"/>
+      <c r="F255" s="3"/>
+      <c r="G255" s="3"/>
+      <c r="H255" s="3"/>
+      <c r="I255" s="3"/>
+      <c r="J255" s="3"/>
+      <c r="K255" s="3"/>
+      <c r="L255" s="3"/>
+    </row>
+    <row r="256" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E256" s="3"/>
+      <c r="F256" s="3"/>
+      <c r="G256" s="3"/>
+      <c r="H256" s="3"/>
+      <c r="I256" s="3"/>
+      <c r="J256" s="3"/>
+      <c r="K256" s="3"/>
+      <c r="L256" s="3"/>
+    </row>
+    <row r="257" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E257" s="3"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="3"/>
+      <c r="H257" s="3"/>
+      <c r="I257" s="3"/>
+      <c r="J257" s="3"/>
+      <c r="K257" s="3"/>
+      <c r="L257" s="3"/>
+    </row>
+    <row r="258" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E258" s="3"/>
+      <c r="F258" s="3"/>
+      <c r="G258" s="3"/>
+      <c r="H258" s="3"/>
+      <c r="I258" s="3"/>
+      <c r="J258" s="3"/>
+      <c r="K258" s="3"/>
+      <c r="L258" s="3"/>
+    </row>
+    <row r="259" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E259" s="3"/>
+      <c r="F259" s="3"/>
+      <c r="G259" s="3"/>
+      <c r="H259" s="3"/>
+      <c r="I259" s="3"/>
+      <c r="J259" s="3"/>
+      <c r="K259" s="3"/>
+      <c r="L259" s="3"/>
+    </row>
+    <row r="260" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E260" s="3"/>
+      <c r="F260" s="3"/>
+      <c r="G260" s="3"/>
+      <c r="H260" s="3"/>
+      <c r="I260" s="3"/>
+      <c r="J260" s="3"/>
+      <c r="K260" s="3"/>
+      <c r="L260" s="3"/>
+    </row>
+    <row r="261" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E261" s="3"/>
+      <c r="F261" s="3"/>
+      <c r="G261" s="3"/>
+      <c r="H261" s="3"/>
+      <c r="I261" s="3"/>
+      <c r="J261" s="3"/>
+      <c r="K261" s="3"/>
+      <c r="L261" s="3"/>
+    </row>
+    <row r="262" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E262" s="3"/>
+      <c r="F262" s="3"/>
+      <c r="G262" s="3"/>
+      <c r="H262" s="3"/>
+      <c r="I262" s="3"/>
+      <c r="J262" s="3"/>
+      <c r="K262" s="3"/>
+      <c r="L262" s="3"/>
+    </row>
+    <row r="263" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E263" s="3"/>
+      <c r="F263" s="3"/>
+      <c r="G263" s="3"/>
+      <c r="H263" s="3"/>
+      <c r="I263" s="3"/>
+      <c r="J263" s="3"/>
+      <c r="K263" s="3"/>
+      <c r="L263" s="3"/>
+    </row>
+    <row r="264" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E264" s="3"/>
+      <c r="F264" s="3"/>
+      <c r="G264" s="3"/>
+      <c r="H264" s="3"/>
+      <c r="I264" s="3"/>
+      <c r="J264" s="3"/>
+      <c r="K264" s="3"/>
+      <c r="L264" s="3"/>
+    </row>
+    <row r="265" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E265" s="3"/>
+      <c r="F265" s="3"/>
+      <c r="G265" s="3"/>
+      <c r="H265" s="3"/>
+      <c r="I265" s="3"/>
+      <c r="J265" s="3"/>
+      <c r="K265" s="3"/>
+      <c r="L265" s="3"/>
+    </row>
+    <row r="266" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E266" s="3"/>
+      <c r="F266" s="3"/>
+      <c r="G266" s="3"/>
+      <c r="H266" s="3"/>
+      <c r="I266" s="3"/>
+      <c r="J266" s="3"/>
+      <c r="K266" s="3"/>
+      <c r="L266" s="3"/>
+    </row>
+    <row r="267" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E267" s="3"/>
+      <c r="F267" s="3"/>
+      <c r="G267" s="3"/>
+      <c r="H267" s="3"/>
+      <c r="I267" s="3"/>
+      <c r="J267" s="3"/>
+      <c r="K267" s="3"/>
+      <c r="L267" s="3"/>
+    </row>
+    <row r="268" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E268" s="3"/>
+      <c r="F268" s="3"/>
+      <c r="G268" s="3"/>
+      <c r="H268" s="3"/>
+      <c r="I268" s="3"/>
+      <c r="J268" s="3"/>
+      <c r="K268" s="3"/>
+      <c r="L268" s="3"/>
+    </row>
+    <row r="269" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E269" s="3"/>
+      <c r="F269" s="3"/>
+      <c r="G269" s="3"/>
+      <c r="H269" s="3"/>
+      <c r="I269" s="3"/>
+      <c r="J269" s="3"/>
+      <c r="K269" s="3"/>
+      <c r="L269" s="3"/>
+    </row>
+    <row r="270" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E270" s="3"/>
+      <c r="F270" s="3"/>
+      <c r="G270" s="3"/>
+      <c r="H270" s="3"/>
+      <c r="I270" s="3"/>
+      <c r="J270" s="3"/>
+      <c r="K270" s="3"/>
+      <c r="L270" s="3"/>
+    </row>
+    <row r="271" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E271" s="3"/>
+      <c r="F271" s="3"/>
+      <c r="G271" s="3"/>
+      <c r="H271" s="3"/>
+      <c r="I271" s="3"/>
+      <c r="J271" s="3"/>
+      <c r="K271" s="3"/>
+      <c r="L271" s="3"/>
+    </row>
+    <row r="272" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E272" s="3"/>
+      <c r="F272" s="3"/>
+      <c r="G272" s="3"/>
+      <c r="H272" s="3"/>
+      <c r="I272" s="3"/>
+      <c r="J272" s="3"/>
+      <c r="K272" s="3"/>
+      <c r="L272" s="3"/>
+    </row>
+    <row r="273" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E273" s="3"/>
+      <c r="F273" s="3"/>
+      <c r="G273" s="3"/>
+      <c r="H273" s="3"/>
+      <c r="I273" s="3"/>
+      <c r="J273" s="3"/>
+      <c r="K273" s="3"/>
+      <c r="L273" s="3"/>
+    </row>
+    <row r="274" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E274" s="3"/>
+      <c r="F274" s="3"/>
+      <c r="G274" s="3"/>
+      <c r="H274" s="3"/>
+      <c r="I274" s="3"/>
+      <c r="J274" s="3"/>
+      <c r="K274" s="3"/>
+      <c r="L274" s="3"/>
+    </row>
+    <row r="275" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E275" s="3"/>
+      <c r="F275" s="3"/>
+      <c r="G275" s="3"/>
+      <c r="H275" s="3"/>
+      <c r="I275" s="3"/>
+      <c r="J275" s="3"/>
+      <c r="K275" s="3"/>
+      <c r="L275" s="3"/>
+    </row>
+    <row r="276" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E276" s="3"/>
+      <c r="F276" s="3"/>
+      <c r="G276" s="3"/>
+      <c r="H276" s="3"/>
+      <c r="I276" s="3"/>
+      <c r="J276" s="3"/>
+      <c r="K276" s="3"/>
+      <c r="L276" s="3"/>
+    </row>
+    <row r="277" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E277" s="3"/>
+      <c r="F277" s="3"/>
+      <c r="G277" s="3"/>
+      <c r="H277" s="3"/>
+      <c r="I277" s="3"/>
+      <c r="J277" s="3"/>
+      <c r="K277" s="3"/>
+      <c r="L277" s="3"/>
+    </row>
+    <row r="278" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E278" s="3"/>
+      <c r="F278" s="3"/>
+      <c r="G278" s="3"/>
+      <c r="H278" s="3"/>
+      <c r="I278" s="3"/>
+      <c r="J278" s="3"/>
+      <c r="K278" s="3"/>
+      <c r="L278" s="3"/>
+    </row>
+    <row r="279" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E279" s="3"/>
+      <c r="F279" s="3"/>
+      <c r="G279" s="3"/>
+      <c r="H279" s="3"/>
+      <c r="I279" s="3"/>
+      <c r="J279" s="3"/>
+      <c r="K279" s="3"/>
+      <c r="L279" s="3"/>
+    </row>
+    <row r="280" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E280" s="3"/>
+      <c r="F280" s="3"/>
+      <c r="G280" s="3"/>
+      <c r="H280" s="3"/>
+      <c r="I280" s="3"/>
+      <c r="J280" s="3"/>
+      <c r="K280" s="3"/>
+      <c r="L280" s="3"/>
+    </row>
+    <row r="281" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E281" s="3"/>
+      <c r="F281" s="3"/>
+      <c r="G281" s="3"/>
+      <c r="H281" s="3"/>
+      <c r="I281" s="3"/>
+      <c r="J281" s="3"/>
+      <c r="K281" s="3"/>
+      <c r="L281" s="3"/>
+    </row>
+    <row r="282" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E282" s="3"/>
+      <c r="F282" s="3"/>
+      <c r="G282" s="3"/>
+      <c r="H282" s="3"/>
+      <c r="I282" s="3"/>
+      <c r="J282" s="3"/>
+      <c r="K282" s="3"/>
+      <c r="L282" s="3"/>
+    </row>
+    <row r="283" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E283" s="3"/>
+      <c r="F283" s="3"/>
+      <c r="G283" s="3"/>
+      <c r="H283" s="3"/>
+      <c r="I283" s="3"/>
+      <c r="J283" s="3"/>
+      <c r="K283" s="3"/>
+      <c r="L283" s="3"/>
+    </row>
+    <row r="284" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E284" s="3"/>
+      <c r="F284" s="3"/>
+      <c r="G284" s="3"/>
+      <c r="H284" s="3"/>
+      <c r="I284" s="3"/>
+      <c r="J284" s="3"/>
+      <c r="K284" s="3"/>
+      <c r="L284" s="3"/>
+    </row>
+    <row r="285" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E285" s="3"/>
+      <c r="F285" s="3"/>
+      <c r="G285" s="3"/>
+      <c r="H285" s="3"/>
+      <c r="I285" s="3"/>
+      <c r="J285" s="3"/>
+      <c r="K285" s="3"/>
+      <c r="L285" s="3"/>
+    </row>
+    <row r="286" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E286" s="3"/>
+      <c r="F286" s="3"/>
+      <c r="G286" s="3"/>
+      <c r="H286" s="3"/>
+      <c r="I286" s="3"/>
+      <c r="J286" s="3"/>
+      <c r="K286" s="3"/>
+      <c r="L286" s="3"/>
+    </row>
+    <row r="287" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E287" s="3"/>
+      <c r="F287" s="3"/>
+      <c r="G287" s="3"/>
+      <c r="H287" s="3"/>
+      <c r="I287" s="3"/>
+      <c r="J287" s="3"/>
+      <c r="K287" s="3"/>
+      <c r="L287" s="3"/>
+    </row>
+    <row r="288" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E288" s="3"/>
+      <c r="F288" s="3"/>
+      <c r="G288" s="3"/>
+      <c r="H288" s="3"/>
+      <c r="I288" s="3"/>
+      <c r="J288" s="3"/>
+      <c r="K288" s="3"/>
+      <c r="L288" s="3"/>
+    </row>
+    <row r="289" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E289" s="3"/>
+      <c r="F289" s="3"/>
+      <c r="G289" s="3"/>
+      <c r="H289" s="3"/>
+      <c r="I289" s="3"/>
+      <c r="J289" s="3"/>
+      <c r="K289" s="3"/>
+      <c r="L289" s="3"/>
+    </row>
+    <row r="290" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E290" s="3"/>
+      <c r="F290" s="3"/>
+      <c r="G290" s="3"/>
+      <c r="H290" s="3"/>
+      <c r="I290" s="3"/>
+      <c r="J290" s="3"/>
+      <c r="K290" s="3"/>
+      <c r="L290" s="3"/>
+    </row>
+    <row r="291" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E291" s="3"/>
+      <c r="F291" s="3"/>
+      <c r="G291" s="3"/>
+      <c r="H291" s="3"/>
+      <c r="I291" s="3"/>
+      <c r="J291" s="3"/>
+      <c r="K291" s="3"/>
+      <c r="L291" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code_v2/summary_data/result.xlsx
+++ b/code_v2/summary_data/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RY\git\hierarchical-gene\code_v2\summary_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC780A17-631F-40D1-8358-7FABC66F22DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D681B5DA-5B01-4390-BA55-1CD3B27F33A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" activeTab="1" xr2:uid="{EBE4CFCB-469C-4867-8775-907539EE1541}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="40">
   <si>
     <t>balance
 type</t>
@@ -173,6 +173,14 @@
     <t>NaN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>row_number = 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>row_number = 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -267,7 +275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,9 +327,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -337,9 +342,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -347,12 +349,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -364,7 +360,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -805,13 +816,13 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20">
-        <v>1</v>
-      </c>
-      <c r="C2" s="20">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19">
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -841,13 +852,13 @@
       <c r="L2" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="19">
         <v>2</v>
       </c>
-      <c r="O2" s="19">
-        <v>1</v>
-      </c>
-      <c r="P2" s="19">
+      <c r="O2" s="18">
+        <v>1</v>
+      </c>
+      <c r="P2" s="18">
         <v>4</v>
       </c>
       <c r="Q2" s="11" t="s">
@@ -877,13 +888,13 @@
       <c r="Y2" s="12">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AA2" s="20">
+      <c r="AA2" s="19">
         <v>3</v>
       </c>
-      <c r="AB2" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="19">
+      <c r="AB2" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="18">
         <v>4</v>
       </c>
       <c r="AD2" s="9" t="s">
@@ -915,9 +926,9 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
@@ -945,9 +956,9 @@
       <c r="L3" s="4">
         <v>3.2573913611296701E-3</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
       <c r="Q3" s="2" t="s">
         <v>19</v>
       </c>
@@ -975,9 +986,9 @@
       <c r="Y3" s="4">
         <v>1.2544281421158199E-3</v>
       </c>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
       <c r="AD3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1007,9 +1018,9 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1037,9 +1048,9 @@
       <c r="L4" s="4">
         <v>1.1029581E-2</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
       <c r="Q4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1067,9 +1078,9 @@
       <c r="Y4" s="4">
         <v>0.12626270000000001</v>
       </c>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
       <c r="AD4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1099,9 +1110,9 @@
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1129,9 +1140,9 @@
       <c r="L5" s="4">
         <v>2.3114084519999998</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
       <c r="Q5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1159,9 +1170,9 @@
       <c r="Y5" s="4">
         <v>2.1625823999999998</v>
       </c>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
       <c r="AD5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1191,9 +1202,9 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1221,9 +1232,9 @@
       <c r="L6" s="4">
         <v>2.4000908600000002</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
       <c r="Q6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1251,9 +1262,9 @@
       <c r="Y6" s="4">
         <v>2.3797085</v>
       </c>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
       <c r="AD6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1283,9 +1294,9 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1307,9 +1318,9 @@
       <c r="L7" s="4">
         <v>0.128</v>
       </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
       <c r="Q7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1331,9 +1342,9 @@
       <c r="Y7" s="4">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
       <c r="AD7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1357,9 +1368,9 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1381,9 +1392,9 @@
       <c r="L8" s="4">
         <v>2.4419679649999999</v>
       </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
       <c r="Q8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1405,9 +1416,9 @@
       <c r="Y8" s="4">
         <v>2.4508101</v>
       </c>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
       <c r="AD8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1431,9 +1442,9 @@
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1455,9 +1466,9 @@
       <c r="L9" s="6">
         <v>2.4555734390000001</v>
       </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
       <c r="Q9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1479,9 +1490,9 @@
       <c r="Y9" s="6">
         <v>2.4518627999999998</v>
       </c>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
       <c r="AD9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1505,13 +1516,13 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
-        <v>1</v>
-      </c>
-      <c r="B10" s="19">
+      <c r="A10" s="19">
+        <v>1</v>
+      </c>
+      <c r="B10" s="18">
         <v>2</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <v>4</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -1541,13 +1552,13 @@
       <c r="L10" s="12">
         <v>0.183</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="19">
         <v>2</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="18">
         <v>2</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="18">
         <v>4</v>
       </c>
       <c r="Q10" s="11" t="s">
@@ -1577,13 +1588,13 @@
       <c r="Y10" s="12">
         <v>0.11700000000000001</v>
       </c>
-      <c r="AA10" s="19">
+      <c r="AA10" s="18">
         <v>3</v>
       </c>
-      <c r="AB10" s="19">
+      <c r="AB10" s="18">
         <v>2</v>
       </c>
-      <c r="AC10" s="19">
+      <c r="AC10" s="18">
         <v>4</v>
       </c>
       <c r="AD10" s="11" t="s">
@@ -1615,9 +1626,9 @@
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1645,9 +1656,9 @@
       <c r="L11" s="4">
         <v>7.1128534862121102E-3</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
       <c r="Q11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1675,9 +1686,9 @@
       <c r="Y11" s="4">
         <v>1.1391810450488099E-3</v>
       </c>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
       <c r="AD11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1707,9 +1718,9 @@
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1737,9 +1748,9 @@
       <c r="L12" s="4">
         <v>1.1029581E-2</v>
       </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
       <c r="Q12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1767,9 +1778,9 @@
       <c r="Y12" s="4">
         <v>0.87840470000000004</v>
       </c>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
       <c r="AD12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1799,9 +1810,9 @@
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1829,9 +1840,9 @@
       <c r="L13" s="4">
         <v>2.3114084519999998</v>
       </c>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
       <c r="Q13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1859,9 +1870,9 @@
       <c r="Y13" s="4">
         <v>8.2694804000000008</v>
       </c>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
       <c r="AD13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1891,9 +1902,9 @@
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1921,9 +1932,9 @@
       <c r="L14" s="4">
         <v>2.4000908600000002</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
       <c r="Q14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1951,9 +1962,9 @@
       <c r="Y14" s="4">
         <v>10.112000800000001</v>
       </c>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
       <c r="AD14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1983,9 +1994,9 @@
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
@@ -2007,9 +2018,9 @@
       <c r="L15" s="4">
         <v>0.51</v>
       </c>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
       <c r="Q15" s="2" t="s">
         <v>4</v>
       </c>
@@ -2031,9 +2042,9 @@
       <c r="Y15" s="4">
         <v>1.284</v>
       </c>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
       <c r="AD15" s="2" t="s">
         <v>4</v>
       </c>
@@ -2057,9 +2068,9 @@
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2081,9 +2092,9 @@
       <c r="L16" s="4">
         <v>2.4419679649999999</v>
       </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
       <c r="Q16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2105,9 +2116,9 @@
       <c r="Y16" s="4">
         <v>10.6932793</v>
       </c>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
       <c r="AD16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2131,9 +2142,9 @@
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2155,9 +2166,9 @@
       <c r="L17" s="6">
         <v>2.4555734390000001</v>
       </c>
-      <c r="N17" s="20"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
       <c r="Q17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2179,9 +2190,9 @@
       <c r="Y17" s="6">
         <v>10.4442507</v>
       </c>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
       <c r="AD17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2205,13 +2216,13 @@
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="20">
-        <v>1</v>
-      </c>
-      <c r="B18" s="19">
-        <v>1</v>
-      </c>
-      <c r="C18" s="19">
+      <c r="A18" s="19">
+        <v>1</v>
+      </c>
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18">
         <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -2241,13 +2252,13 @@
       <c r="L18" s="12">
         <v>1.2E-2</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="19">
         <v>2</v>
       </c>
-      <c r="O18" s="19">
-        <v>1</v>
-      </c>
-      <c r="P18" s="19">
+      <c r="O18" s="18">
+        <v>1</v>
+      </c>
+      <c r="P18" s="18">
         <v>6</v>
       </c>
       <c r="Q18" s="11" t="s">
@@ -2277,13 +2288,13 @@
       <c r="Y18" s="12">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="AA18" s="19">
+      <c r="AA18" s="18">
         <v>3</v>
       </c>
-      <c r="AB18" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="19">
+      <c r="AB18" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="18">
         <v>6</v>
       </c>
       <c r="AD18" s="11" t="s">
@@ -2315,9 +2326,9 @@
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
@@ -2345,9 +2356,9 @@
       <c r="L19" s="4">
         <v>3.2573913611296701E-3</v>
       </c>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
       <c r="Q19" s="2" t="s">
         <v>19</v>
       </c>
@@ -2375,9 +2386,9 @@
       <c r="Y19" s="4">
         <v>1.2544281421158199E-3</v>
       </c>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
       <c r="AD19" s="2" t="s">
         <v>19</v>
       </c>
@@ -2407,9 +2418,9 @@
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2437,9 +2448,9 @@
       <c r="L20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
       <c r="Q20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2467,9 +2478,9 @@
       <c r="Y20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
       <c r="AD20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2499,9 +2510,9 @@
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2529,9 +2540,9 @@
       <c r="L21" s="4">
         <v>2.3114084500000001</v>
       </c>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
       <c r="Q21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2559,9 +2570,9 @@
       <c r="Y21" s="4">
         <v>2.1625823999999998</v>
       </c>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
       <c r="AD21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2591,9 +2602,9 @@
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2621,9 +2632,9 @@
       <c r="L22" s="4">
         <v>2.4000908600000002</v>
       </c>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
       <c r="Q22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2651,9 +2662,9 @@
       <c r="Y22" s="4">
         <v>2.3797085</v>
       </c>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
       <c r="AD22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2683,9 +2694,9 @@
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
@@ -2707,9 +2718,9 @@
       <c r="L23" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
       <c r="Q23" s="2" t="s">
         <v>4</v>
       </c>
@@ -2731,9 +2742,9 @@
       <c r="Y23" s="4">
         <v>0.16400000000000001</v>
       </c>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
       <c r="AD23" s="2" t="s">
         <v>4</v>
       </c>
@@ -2757,9 +2768,9 @@
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2775,9 +2786,9 @@
       <c r="J24" s="4">
         <v>8.6977740000000001E-3</v>
       </c>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
       <c r="Q24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2795,9 +2806,9 @@
       </c>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
       <c r="AD24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2817,9 +2828,9 @@
       <c r="AL24" s="4"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="5" t="s">
         <v>15</v>
       </c>
@@ -2837,9 +2848,9 @@
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
       <c r="Q25" s="5" t="s">
         <v>15</v>
       </c>
@@ -2857,9 +2868,9 @@
       </c>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
       <c r="AD25" s="5" t="s">
         <v>15</v>
       </c>
@@ -2879,13 +2890,13 @@
       <c r="AL25" s="6"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="20">
-        <v>1</v>
-      </c>
-      <c r="B26" s="19">
+      <c r="A26" s="19">
+        <v>1</v>
+      </c>
+      <c r="B26" s="18">
         <v>2</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="18">
         <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
@@ -2915,13 +2926,13 @@
       <c r="L26" s="12">
         <v>0.111</v>
       </c>
-      <c r="N26" s="20">
+      <c r="N26" s="19">
         <v>2</v>
       </c>
-      <c r="O26" s="19">
+      <c r="O26" s="18">
         <v>2</v>
       </c>
-      <c r="P26" s="19">
+      <c r="P26" s="18">
         <v>6</v>
       </c>
       <c r="Q26" s="11" t="s">
@@ -2951,13 +2962,13 @@
       <c r="Y26" s="12">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AA26" s="19">
+      <c r="AA26" s="18">
         <v>3</v>
       </c>
-      <c r="AB26" s="19">
+      <c r="AB26" s="18">
         <v>2</v>
       </c>
-      <c r="AC26" s="19">
+      <c r="AC26" s="18">
         <v>6</v>
       </c>
       <c r="AD26" s="11" t="s">
@@ -2989,9 +3000,9 @@
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3019,9 +3030,9 @@
       <c r="L27" s="4">
         <v>7.1128534862121102E-3</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
       <c r="Q27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3049,9 +3060,9 @@
       <c r="Y27" s="4">
         <v>1.1391810450488099E-3</v>
       </c>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
       <c r="AD27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3081,9 +3092,9 @@
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="2" t="s">
         <v>14</v>
       </c>
@@ -3111,9 +3122,9 @@
       <c r="L28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
       <c r="Q28" s="2" t="s">
         <v>14</v>
       </c>
@@ -3141,9 +3152,9 @@
       <c r="Y28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
       <c r="AD28" s="2" t="s">
         <v>14</v>
       </c>
@@ -3173,9 +3184,9 @@
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="2" t="s">
         <v>18</v>
       </c>
@@ -3203,9 +3214,9 @@
       <c r="L29" s="4">
         <v>9.047183768</v>
       </c>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
       <c r="Q29" s="2" t="s">
         <v>18</v>
       </c>
@@ -3233,9 +3244,9 @@
       <c r="Y29" s="4">
         <v>8.2694804000000008</v>
       </c>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
       <c r="AD29" s="2" t="s">
         <v>18</v>
       </c>
@@ -3265,9 +3276,9 @@
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="2" t="s">
         <v>16</v>
       </c>
@@ -3295,9 +3306,9 @@
       <c r="L30" s="4">
         <v>9.2430258779999992</v>
       </c>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
       <c r="Q30" s="2" t="s">
         <v>16</v>
       </c>
@@ -3325,9 +3336,9 @@
       <c r="Y30" s="4">
         <v>10.112000800000001</v>
       </c>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
       <c r="AD30" s="2" t="s">
         <v>16</v>
       </c>
@@ -3357,9 +3368,9 @@
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="2" t="s">
         <v>4</v>
       </c>
@@ -3381,9 +3392,9 @@
       <c r="L31" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
       <c r="Q31" s="2" t="s">
         <v>4</v>
       </c>
@@ -3405,9 +3416,9 @@
       <c r="Y31" s="4">
         <v>0.316</v>
       </c>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
       <c r="AD31" s="2" t="s">
         <v>4</v>
       </c>
@@ -3431,9 +3442,9 @@
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="2" t="s">
         <v>17</v>
       </c>
@@ -3449,9 +3460,9 @@
       <c r="J32" s="4">
         <v>9.2121930000000005E-3</v>
       </c>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
       <c r="Q32" s="2" t="s">
         <v>17</v>
       </c>
@@ -3469,9 +3480,9 @@
       </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
       <c r="AD32" s="2" t="s">
         <v>17</v>
       </c>
@@ -3491,9 +3502,9 @@
       <c r="AL32" s="4"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="5" t="s">
         <v>15</v>
       </c>
@@ -3511,9 +3522,9 @@
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
       <c r="Q33" s="5" t="s">
         <v>15</v>
       </c>
@@ -3531,9 +3542,9 @@
       </c>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
       <c r="AD33" s="5" t="s">
         <v>15</v>
       </c>
@@ -3621,13 +3632,13 @@
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N39" s="18">
+      <c r="N39" s="17">
         <v>2</v>
       </c>
-      <c r="O39" s="18">
-        <v>1</v>
-      </c>
-      <c r="P39" s="18">
+      <c r="O39" s="17">
+        <v>1</v>
+      </c>
+      <c r="P39" s="17">
         <v>4</v>
       </c>
       <c r="Q39" s="14" t="s">
@@ -3689,9 +3700,9 @@
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
       <c r="Q40" s="14" t="s">
         <v>19</v>
       </c>
@@ -3751,9 +3762,9 @@
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
       <c r="Q41" s="14" t="s">
         <v>14</v>
       </c>
@@ -3813,13 +3824,13 @@
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N42" s="18">
+      <c r="N42" s="17">
         <v>2</v>
       </c>
-      <c r="O42" s="18">
+      <c r="O42" s="17">
         <v>2</v>
       </c>
-      <c r="P42" s="18">
+      <c r="P42" s="17">
         <v>4</v>
       </c>
       <c r="Q42" s="14" t="s">
@@ -3881,9 +3892,9 @@
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
       <c r="Q43" s="14" t="s">
         <v>19</v>
       </c>
@@ -3943,9 +3954,9 @@
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
       <c r="Q44" s="14" t="s">
         <v>14</v>
       </c>
@@ -3999,13 +4010,13 @@
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N45" s="18">
+      <c r="N45" s="17">
         <v>2</v>
       </c>
-      <c r="O45" s="18">
-        <v>1</v>
-      </c>
-      <c r="P45" s="18">
+      <c r="O45" s="17">
+        <v>1</v>
+      </c>
+      <c r="P45" s="17">
         <v>6</v>
       </c>
       <c r="Q45" s="14" t="s">
@@ -4061,9 +4072,9 @@
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
       <c r="Q46" s="14" t="s">
         <v>19</v>
       </c>
@@ -4117,9 +4128,9 @@
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
       <c r="Q47" s="14" t="s">
         <v>14</v>
       </c>
@@ -4179,13 +4190,13 @@
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N48" s="18">
+      <c r="N48" s="17">
         <v>2</v>
       </c>
-      <c r="O48" s="18">
+      <c r="O48" s="17">
         <v>2</v>
       </c>
-      <c r="P48" s="18">
+      <c r="P48" s="17">
         <v>6</v>
       </c>
       <c r="Q48" s="14" t="s">
@@ -4247,9 +4258,9 @@
       </c>
     </row>
     <row r="49" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
       <c r="Q49" s="14" t="s">
         <v>19</v>
       </c>
@@ -4309,9 +4320,9 @@
       </c>
     </row>
     <row r="50" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
       <c r="Q50" s="14" t="s">
         <v>14</v>
       </c>
@@ -4371,13 +4382,13 @@
       </c>
     </row>
     <row r="51" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N51" s="18">
+      <c r="N51" s="17">
         <v>3</v>
       </c>
-      <c r="O51" s="18">
-        <v>1</v>
-      </c>
-      <c r="P51" s="18">
+      <c r="O51" s="17">
+        <v>1</v>
+      </c>
+      <c r="P51" s="17">
         <v>4</v>
       </c>
       <c r="Q51" s="14" t="s">
@@ -4439,9 +4450,9 @@
       </c>
     </row>
     <row r="52" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
       <c r="Q52" s="14" t="s">
         <v>19</v>
       </c>
@@ -4495,9 +4506,9 @@
       </c>
     </row>
     <row r="53" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
       <c r="Q53" s="14" t="s">
         <v>14</v>
       </c>
@@ -4551,13 +4562,13 @@
       </c>
     </row>
     <row r="54" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N54" s="18">
+      <c r="N54" s="17">
         <v>3</v>
       </c>
-      <c r="O54" s="18">
+      <c r="O54" s="17">
         <v>2</v>
       </c>
-      <c r="P54" s="18">
+      <c r="P54" s="17">
         <v>4</v>
       </c>
       <c r="Q54" s="14" t="s">
@@ -4613,9 +4624,9 @@
       </c>
     </row>
     <row r="55" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
       <c r="Q55" s="14" t="s">
         <v>19</v>
       </c>
@@ -4675,9 +4686,9 @@
       </c>
     </row>
     <row r="56" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
       <c r="Q56" s="14" t="s">
         <v>14</v>
       </c>
@@ -4737,13 +4748,13 @@
       </c>
     </row>
     <row r="57" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N57" s="18">
+      <c r="N57" s="17">
         <v>3</v>
       </c>
-      <c r="O57" s="18">
-        <v>1</v>
-      </c>
-      <c r="P57" s="18">
+      <c r="O57" s="17">
+        <v>1</v>
+      </c>
+      <c r="P57" s="17">
         <v>6</v>
       </c>
       <c r="Q57" s="14" t="s">
@@ -4805,9 +4816,9 @@
       </c>
     </row>
     <row r="58" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
       <c r="Q58" s="14" t="s">
         <v>19</v>
       </c>
@@ -4867,9 +4878,9 @@
       </c>
     </row>
     <row r="59" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
       <c r="Q59" s="14" t="s">
         <v>14</v>
       </c>
@@ -4929,13 +4940,13 @@
       </c>
     </row>
     <row r="60" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N60" s="18">
+      <c r="N60" s="17">
         <v>3</v>
       </c>
-      <c r="O60" s="18">
+      <c r="O60" s="17">
         <v>2</v>
       </c>
-      <c r="P60" s="18">
+      <c r="P60" s="17">
         <v>6</v>
       </c>
       <c r="Q60" s="14" t="s">
@@ -4991,9 +5002,9 @@
       </c>
     </row>
     <row r="61" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N61" s="18"/>
-      <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
       <c r="Q61" s="14" t="s">
         <v>19</v>
       </c>
@@ -5043,9 +5054,9 @@
       <c r="AJ61" s="14"/>
     </row>
     <row r="62" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N62" s="18"/>
-      <c r="O62" s="18"/>
-      <c r="P62" s="18"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
       <c r="Q62" s="14" t="s">
         <v>14</v>
       </c>
@@ -9502,8 +9513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474392E9-0E45-4AEC-B8E4-8AB631FBD30B}">
   <dimension ref="A1:M291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9513,9 +9524,9 @@
     <col min="14" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>21</v>
@@ -9552,478 +9563,464 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18">
         <v>4</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="32">
         <v>0.22</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="32">
         <v>0.99</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="32">
         <v>0.50800000000000001</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="32">
         <v>0.623</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="32">
         <v>0.36599999999999999</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="32">
         <v>1.4E-2</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="32">
         <v>0.32400000000000001</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="32">
         <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
+      <c r="E3" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="F3" s="23">
+        <v>1</v>
+      </c>
+      <c r="G3" s="23">
+        <v>0.94989979999999996</v>
+      </c>
+      <c r="H3" s="23">
+        <v>1</v>
+      </c>
+      <c r="I3" s="23">
+        <v>1</v>
+      </c>
+      <c r="J3" s="23">
+        <v>1</v>
+      </c>
+      <c r="K3" s="23">
+        <v>1.5129399999999999E-2</v>
+      </c>
+      <c r="L3" s="23">
+        <v>7.0233279999999997E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="23">
         <v>0</v>
       </c>
-      <c r="F4" s="25">
-        <v>1</v>
-      </c>
-      <c r="G4" s="25">
+      <c r="F4" s="23">
+        <v>1</v>
+      </c>
+      <c r="G4" s="23">
         <v>0.50913350000000002</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="23">
         <v>0.63084609999999997</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="23">
         <v>1.7347202999999999E-2</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="23">
         <v>1.1768684999999999E-2</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="23">
         <v>0.37205460000000001</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="23">
         <v>0.41108850000000002</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="25">
-        <v>1</v>
-      </c>
-      <c r="F5" s="25">
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23">
         <v>0</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="23">
         <v>0.49982179999999998</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="23">
         <v>0.49930730000000001</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="23">
         <v>1.646698E-3</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="23">
         <v>0.42982942800000001</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="23">
         <v>0.18188789999999999</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="23">
         <v>0.52504569999999995</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="25">
-        <v>1</v>
-      </c>
-      <c r="F6" s="25">
+      <c r="E6" s="23">
+        <v>1</v>
+      </c>
+      <c r="F6" s="23">
         <v>0</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="23">
         <v>0.49945869999999998</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="23">
         <v>0.49923440000000002</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="23">
         <v>1.3033529999999999E-3</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="23">
         <v>0.42916938999999998</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="23">
         <v>0.18187690000000001</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="23">
         <v>0.25677929999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="25">
-        <v>1</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="25">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23">
+        <v>1</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23">
         <v>0.63084609999999997</v>
       </c>
-      <c r="I7" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="25">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23">
         <v>1.1768684999999999E-2</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="23">
         <v>0.37205460000000001</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="23">
         <v>0.41108850000000002</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="25">
-        <v>1</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="25">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23">
+        <v>1</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23">
         <v>0.60874200000000001</v>
       </c>
-      <c r="I8" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="25">
+      <c r="I8" s="23"/>
+      <c r="J8" s="23">
         <v>9.9180250000000005E-3</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="23">
         <v>1.0096540000000001</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="23">
         <v>0.81780949999999997</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="26">
-        <v>1</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="26">
+      <c r="E9" s="24"/>
+      <c r="F9" s="24">
+        <v>1</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24">
         <v>0.60957229999999996</v>
       </c>
-      <c r="I9" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="26">
+      <c r="I9" s="24"/>
+      <c r="J9" s="24">
         <v>1.0052073E-2</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="24">
         <v>0.9179254</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="24">
         <v>0.75462720000000005</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="27">
-        <v>1</v>
-      </c>
-      <c r="B10" s="27">
+      <c r="A10" s="29">
+        <v>1</v>
+      </c>
+      <c r="B10" s="29">
         <v>2</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="29">
         <v>4</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="32">
         <v>0.42499999999999999</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="32">
         <v>0.5</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="32">
         <v>0.51100000000000001</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="32">
         <v>0.60299999999999998</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="32">
         <v>0.372</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="32">
         <v>0.11600000000000001</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="32">
         <v>1.3009999999999999</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="32">
         <v>2.1349999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="26">
         <v>0.875</v>
       </c>
-      <c r="F11" s="30">
-        <v>1</v>
-      </c>
-      <c r="G11" s="30">
+      <c r="F11" s="26">
+        <v>1</v>
+      </c>
+      <c r="G11" s="26">
         <v>0.98434370000000004</v>
       </c>
-      <c r="H11" s="30">
-        <v>1</v>
-      </c>
-      <c r="I11" s="30">
+      <c r="H11" s="26">
+        <v>1</v>
+      </c>
+      <c r="I11" s="26">
         <v>0.96867150000000002</v>
       </c>
-      <c r="J11" s="30">
-        <v>1</v>
-      </c>
-      <c r="K11" s="30">
+      <c r="J11" s="26">
+        <v>1</v>
+      </c>
+      <c r="K11" s="26">
         <v>8.8676499999999997E-4</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="26">
         <v>1.765144E-3</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="26">
         <v>0</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="26">
         <v>0.98</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="26">
         <v>0.51089589999999996</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="26">
         <v>0.6326387</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="26">
         <v>2.0993962000000001E-2</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="26">
         <v>1.4544471999999999E-2</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="26">
         <v>1.465184</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="26">
         <v>1.616798</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="30">
-        <v>1</v>
-      </c>
-      <c r="F13" s="30">
+      <c r="E13" s="26">
+        <v>1</v>
+      </c>
+      <c r="F13" s="26">
         <v>0</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="26">
         <v>0.4996758</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="26">
         <v>0.49938690000000002</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="26">
         <v>1.7441170000000001E-3</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="26">
         <v>0.42798228999999999</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="26">
         <v>1.089083</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="26">
         <v>1.6087819999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="30">
-        <v>1</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="30">
-        <v>0.60731420000000003</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="30">
-        <v>9.3500730000000004E-3</v>
-      </c>
-      <c r="K14" s="30">
-        <v>4.6205939999999996</v>
-      </c>
-      <c r="L14" s="30">
-        <v>3.6521439999999998</v>
+      <c r="E14" s="26">
+        <v>1</v>
+      </c>
+      <c r="F14" s="26">
+        <v>0</v>
+      </c>
+      <c r="G14" s="26">
+        <v>0.49956509999999998</v>
+      </c>
+      <c r="H14" s="26">
+        <v>0.49921520000000003</v>
+      </c>
+      <c r="I14" s="26">
+        <v>1.1173590000000001E-3</v>
+      </c>
+      <c r="J14" s="26">
+        <v>0.42918186800000002</v>
+      </c>
+      <c r="K14" s="26">
+        <v>1.077871</v>
+      </c>
+      <c r="L14" s="26">
+        <v>1.319957</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="30">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26">
         <v>0.98</v>
       </c>
-      <c r="G15" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="30">
+      <c r="G15" s="26"/>
+      <c r="H15" s="26">
         <v>0.63104329999999997</v>
       </c>
-      <c r="I15" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="30">
+      <c r="I15" s="26"/>
+      <c r="J15" s="26">
         <v>1.8190031999999998E-2</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K15" s="26">
         <v>1.465184</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="26">
         <v>1.6168</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="30">
-        <v>1</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="30">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26">
+        <v>1</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26">
         <v>0.60802330000000004</v>
       </c>
-      <c r="I16" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="30">
+      <c r="I16" s="26"/>
+      <c r="J16" s="26">
         <v>5.913041E-3</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="26">
         <v>6.0716320000000001</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="26">
         <v>5.0696870000000001</v>
       </c>
     </row>
@@ -10031,69 +10028,63 @@
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="32">
-        <v>1</v>
-      </c>
-      <c r="F17" s="32">
-        <v>0</v>
-      </c>
-      <c r="G17" s="32">
-        <v>0.49956509999999998</v>
-      </c>
-      <c r="H17" s="32">
-        <v>0.49921520000000003</v>
-      </c>
-      <c r="I17" s="32">
-        <v>1.1173590000000001E-3</v>
-      </c>
-      <c r="J17" s="32">
-        <v>0.42918186800000002</v>
-      </c>
-      <c r="K17" s="32">
-        <v>1.077871</v>
-      </c>
-      <c r="L17" s="32">
-        <v>1.319957</v>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26">
+        <v>1</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26">
+        <v>0.60731420000000003</v>
+      </c>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26">
+        <v>9.3500730000000004E-3</v>
+      </c>
+      <c r="K17" s="26">
+        <v>4.6205939999999996</v>
+      </c>
+      <c r="L17" s="26">
+        <v>3.6521439999999998</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
-        <v>1</v>
-      </c>
-      <c r="B18" s="17">
-        <v>1</v>
-      </c>
-      <c r="C18" s="17">
+      <c r="A18" s="18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18">
         <v>6</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="32">
         <v>0.44</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="32">
         <v>0.93300000000000005</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="32">
         <v>0.50700000000000001</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="32">
         <v>0.61899999999999999</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="32">
         <v>0.376</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="32">
         <v>2.4E-2</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="32">
         <v>0.30499999999999999</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="32">
         <v>0.497</v>
       </c>
       <c r="M18" s="2" t="s">
@@ -10101,511 +10092,510 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="E19" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="F19" s="23">
+        <v>1</v>
+      </c>
+      <c r="G19" s="23">
+        <v>0.94989979999999996</v>
+      </c>
+      <c r="H19" s="23">
+        <v>1</v>
+      </c>
+      <c r="I19" s="23">
+        <v>1</v>
+      </c>
+      <c r="J19" s="23">
+        <v>1</v>
+      </c>
+      <c r="K19" s="23">
+        <v>1.5129399999999999E-2</v>
+      </c>
+      <c r="L19" s="23">
+        <v>7.0233279999999997E-3</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="L20" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="25">
-        <v>1</v>
-      </c>
-      <c r="F21" s="25">
+      <c r="E21" s="23">
+        <v>1</v>
+      </c>
+      <c r="F21" s="23">
         <v>0</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="23">
         <v>0.49982179999999998</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="23">
         <v>0.49930730000000001</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="23">
         <v>1.646698E-3</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="23">
         <v>0.42982942800000001</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="23">
         <v>0.18188789999999999</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="23">
         <v>0.52504569999999995</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="25">
-        <v>1</v>
-      </c>
-      <c r="F22" s="25">
+      <c r="E22" s="23">
+        <v>1</v>
+      </c>
+      <c r="F22" s="23">
         <v>0</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="23">
         <v>0.49945869999999998</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="23">
         <v>0.49923440000000002</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="23">
         <v>1.3033529999999999E-3</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22" s="23">
         <v>0.42916938999999998</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K22" s="23">
         <v>0.18187690000000001</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="23">
         <v>0.25677929999999999</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="25">
-        <v>1</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="25">
+      <c r="E23" s="23"/>
+      <c r="F23" s="23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23">
         <v>0.62990139999999994</v>
       </c>
-      <c r="I23" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="25">
+      <c r="I23" s="23"/>
+      <c r="J23" s="23">
         <v>9.3516680000000005E-3</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23" s="23">
         <v>0.34950740000000002</v>
       </c>
-      <c r="L23" s="25">
+      <c r="L23" s="23">
         <v>0.38780579999999998</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="25">
+      <c r="E24" s="23"/>
+      <c r="F24" s="23">
         <v>0</v>
       </c>
-      <c r="G24" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="25">
+      <c r="G24" s="23"/>
+      <c r="H24" s="23">
         <v>0.64835659999999995</v>
       </c>
-      <c r="I24" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="25">
+      <c r="I24" s="23"/>
+      <c r="J24" s="23">
         <v>7.0043659999999997E-3</v>
       </c>
-      <c r="K24" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="25" t="s">
-        <v>13</v>
-      </c>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="26">
+      <c r="E25" s="24"/>
+      <c r="F25" s="24">
         <v>0</v>
       </c>
-      <c r="G25" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="26">
+      <c r="G25" s="24"/>
+      <c r="H25" s="24">
         <v>0.64776330000000004</v>
       </c>
-      <c r="I25" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="26">
+      <c r="I25" s="24"/>
+      <c r="J25" s="24">
         <v>7.7433759999999997E-3</v>
       </c>
-      <c r="K25" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="L25" s="26" t="s">
-        <v>13</v>
-      </c>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
-        <v>1</v>
-      </c>
-      <c r="B26" s="17">
+      <c r="A26" s="18">
+        <v>1</v>
+      </c>
+      <c r="B26" s="18">
         <v>2</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="18">
         <v>6</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="32">
         <v>0.33100000000000002</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="32">
         <v>0.748</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="32">
         <v>0.50600000000000001</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="32">
         <v>0.60899999999999999</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="32">
         <v>0.35</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="32">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="32">
         <v>1.4350000000000001</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="32">
         <v>2.351</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="26">
         <v>0.875</v>
       </c>
-      <c r="F27" s="30">
-        <v>1</v>
-      </c>
-      <c r="G27" s="30">
+      <c r="F27" s="26">
+        <v>1</v>
+      </c>
+      <c r="G27" s="26">
         <v>0.98434370000000004</v>
       </c>
-      <c r="H27" s="30">
-        <v>1</v>
-      </c>
-      <c r="I27" s="30">
+      <c r="H27" s="26">
+        <v>1</v>
+      </c>
+      <c r="I27" s="26">
         <v>0.96867150000000002</v>
       </c>
-      <c r="J27" s="30">
-        <v>1</v>
-      </c>
-      <c r="K27" s="30">
+      <c r="J27" s="26">
+        <v>1</v>
+      </c>
+      <c r="K27" s="26">
         <v>8.8676499999999997E-4</v>
       </c>
-      <c r="L27" s="30">
+      <c r="L27" s="26">
         <v>1.765144E-3</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="I28" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="J28" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L28" s="25" t="s">
+      <c r="L28" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="25">
-        <v>1</v>
-      </c>
-      <c r="F29" s="25">
+      <c r="E29" s="23">
+        <v>1</v>
+      </c>
+      <c r="F29" s="23">
         <v>0</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="23">
         <v>0.4996758</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="23">
         <v>0.49938690000000002</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="23">
         <v>1.7441170000000001E-3</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="23">
         <v>0.42798228999999999</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K29" s="23">
         <v>1.089083</v>
       </c>
-      <c r="L29" s="25">
+      <c r="L29" s="23">
         <v>1.6087819999999999</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="25">
-        <v>1</v>
-      </c>
-      <c r="F30" s="25">
+      <c r="E30" s="23">
+        <v>1</v>
+      </c>
+      <c r="F30" s="23">
         <v>0</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="23">
         <v>0.49956509999999998</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="23">
         <v>0.49921520000000003</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I30" s="23">
         <v>1.1173590000000001E-3</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J30" s="23">
         <v>0.42918186800000002</v>
       </c>
-      <c r="K30" s="25">
+      <c r="K30" s="23">
         <v>1.077871</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L30" s="23">
         <v>1.319957</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="25">
-        <v>1</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="25">
+      <c r="E31" s="23"/>
+      <c r="F31" s="23">
+        <v>1</v>
+      </c>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23">
         <v>0.63056509999999999</v>
       </c>
-      <c r="I31" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="25">
+      <c r="I31" s="23"/>
+      <c r="J31" s="23">
         <v>1.101893E-2</v>
       </c>
-      <c r="K31" s="25">
+      <c r="K31" s="23">
         <v>1.512615</v>
       </c>
-      <c r="L31" s="25">
+      <c r="L31" s="23">
         <v>1.785126</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="25">
+      <c r="E32" s="23"/>
+      <c r="F32" s="23">
         <v>0</v>
       </c>
-      <c r="G32" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="25">
+      <c r="G32" s="23"/>
+      <c r="H32" s="23">
         <v>0.64915979999999995</v>
       </c>
-      <c r="I32" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="25">
+      <c r="I32" s="23"/>
+      <c r="J32" s="23">
         <v>4.2808849999999999E-3</v>
       </c>
-      <c r="K32" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="L32" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="26">
+      <c r="E33" s="24"/>
+      <c r="F33" s="24">
         <v>0</v>
       </c>
-      <c r="G33" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="26">
+      <c r="G33" s="24"/>
+      <c r="H33" s="24">
         <v>0.6488874</v>
       </c>
-      <c r="I33" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="26">
+      <c r="I33" s="24"/>
+      <c r="J33" s="24">
         <v>7.7437679999999998E-3</v>
       </c>
-      <c r="K33" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="L33" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>2</v>
       </c>
       <c r="B36" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="2">
-        <v>6</v>
-      </c>
-      <c r="D36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E36" s="33">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="F36" s="33">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="G36" s="33">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="H36" s="33">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="I36" s="33">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="J36" s="33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K36" s="33">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="L36" s="33">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E37" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.88855510000000004</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3">
+        <v>1</v>
+      </c>
+      <c r="K37" s="3">
+        <v>4.218152E-2</v>
+      </c>
+      <c r="L37" s="3">
+        <v>1.1510090000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D38" s="2" t="s">
         <v>14</v>
       </c>
@@ -10634,7 +10624,7 @@
         <v>0.40268789999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D39" s="2" t="s">
         <v>18</v>
       </c>
@@ -10663,7 +10653,7 @@
         <v>0.69085589999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D40" s="2" t="s">
         <v>16</v>
       </c>
@@ -10692,7 +10682,7 @@
         <v>0.25546540000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D41" s="2" t="s">
         <v>4</v>
       </c>
@@ -10721,7 +10711,7 @@
         <v>0.40268809999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D42" s="2" t="s">
         <v>17</v>
       </c>
@@ -10750,7 +10740,7 @@
         <v>0.57254910000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D43" s="2" t="s">
         <v>15</v>
       </c>
@@ -10779,7 +10769,7 @@
         <v>0.65962609999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>2</v>
       </c>
@@ -10787,21 +10777,40 @@
         <v>2</v>
       </c>
       <c r="C44" s="2">
-        <v>6</v>
-      </c>
-      <c r="D44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E44" s="33">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="F44" s="33">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="G44" s="33">
+        <v>0.54</v>
+      </c>
+      <c r="H44" s="33">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="I44" s="33">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="J44" s="33">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="K44" s="33">
+        <v>1.294</v>
+      </c>
+      <c r="L44" s="33">
+        <v>2.8039999999999998</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D45" s="2" t="s">
         <v>36</v>
       </c>
@@ -10814,7 +10823,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D46" s="2" t="s">
         <v>14</v>
       </c>
@@ -10843,7 +10852,7 @@
         <v>1.58856</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D47" s="2" t="s">
         <v>18</v>
       </c>
@@ -10872,7 +10881,7 @@
         <v>1.795995</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D48" s="2" t="s">
         <v>16</v>
       </c>
@@ -10901,7 +10910,7 @@
         <v>1.3115190000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D49" s="2" t="s">
         <v>4</v>
       </c>
@@ -10930,7 +10939,7 @@
         <v>1.588557</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D50" s="2" t="s">
         <v>17</v>
       </c>
@@ -10959,7 +10968,7 @@
         <v>3.2229019999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D51" s="2" t="s">
         <v>15</v>
       </c>
@@ -10988,55 +10997,106 @@
         <v>3.5113289999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>2</v>
       </c>
       <c r="B52" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" s="2">
         <v>6</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E52" s="33">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F52" s="33">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G52" s="33">
+        <v>0.54</v>
+      </c>
+      <c r="H52" s="33">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="I52" s="33">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="J52" s="33">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K52" s="33">
+        <v>0.309</v>
+      </c>
+      <c r="L52" s="33">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D53" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E53" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0.88855510000000004</v>
+      </c>
+      <c r="H53" s="3">
+        <v>1</v>
+      </c>
+      <c r="I53" s="3">
+        <v>1</v>
+      </c>
+      <c r="J53" s="3">
+        <v>1</v>
+      </c>
+      <c r="K53" s="3">
+        <v>4.218152E-2</v>
+      </c>
+      <c r="L53" s="3">
+        <v>1.1510090000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D55" s="2" t="s">
         <v>18</v>
       </c>
@@ -11065,7 +11125,7 @@
         <v>0.69085589999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D56" s="2" t="s">
         <v>16</v>
       </c>
@@ -11094,7 +11154,7 @@
         <v>0.25546540000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D57" s="2" t="s">
         <v>4</v>
       </c>
@@ -11123,7 +11183,7 @@
         <v>0.39149319999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D58" s="2" t="s">
         <v>17</v>
       </c>
@@ -11152,7 +11212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D59" s="2" t="s">
         <v>15</v>
       </c>
@@ -11181,7 +11241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>2</v>
       </c>
@@ -11191,19 +11251,38 @@
       <c r="C60" s="2">
         <v>6</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E60" s="33">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="F60" s="33">
+        <v>0.63</v>
+      </c>
+      <c r="G60" s="33">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="H60" s="33">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="I60" s="33">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="J60" s="33">
+        <v>0.151</v>
+      </c>
+      <c r="K60" s="33">
+        <v>1.321</v>
+      </c>
+      <c r="L60" s="33">
+        <v>2.4830000000000001</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D61" s="2" t="s">
         <v>36</v>
       </c>
@@ -11216,20 +11295,36 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D62" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D63" s="2" t="s">
         <v>18</v>
       </c>
@@ -11258,7 +11353,7 @@
         <v>1.795995</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D64" s="2" t="s">
         <v>16</v>
       </c>
@@ -11287,7 +11382,7 @@
         <v>1.3115190000000001</v>
       </c>
     </row>
-    <row r="65" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D65" s="2" t="s">
         <v>4</v>
       </c>
@@ -11316,7 +11411,7 @@
         <v>1.648676</v>
       </c>
     </row>
-    <row r="66" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D66" s="2" t="s">
         <v>17</v>
       </c>
@@ -11345,7 +11440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D67" s="2" t="s">
         <v>15</v>
       </c>
@@ -11374,7 +11469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -11384,7 +11479,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -11394,7 +11489,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -11404,7 +11499,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -11414,7 +11509,19 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>3</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2">
+        <v>4</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -11424,47 +11531,821 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="100" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-    </row>
-    <row r="103" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-    </row>
-    <row r="104" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D73" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0.509324</v>
+      </c>
+      <c r="H74" s="3">
+        <v>0.61830839999999998</v>
+      </c>
+      <c r="I74" s="3">
+        <v>1.7839302000000001E-2</v>
+      </c>
+      <c r="J74" s="3">
+        <v>1.3347727E-2</v>
+      </c>
+      <c r="K74" s="3">
+        <v>0.37302750000000001</v>
+      </c>
+      <c r="L74" s="3">
+        <v>0.42100369999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0.4996314</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0.49861270000000002</v>
+      </c>
+      <c r="I75" s="3">
+        <v>1.5362559999999999E-3</v>
+      </c>
+      <c r="J75" s="3">
+        <v>0.45310223199999999</v>
+      </c>
+      <c r="K75" s="3">
+        <v>0.18516199999999999</v>
+      </c>
+      <c r="L75" s="3">
+        <v>0.4722713</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0.49987609999999999</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0.49874869999999999</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1.3176419999999999E-3</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0.45335917199999998</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0.1819547</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0.24773890000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0.61756960000000005</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" s="3">
+        <v>1.5629875000000001E-2</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0.37302750000000001</v>
+      </c>
+      <c r="L77" s="3">
+        <v>0.42100379999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0.59760919999999995</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" s="3">
+        <v>7.8452420000000005E-3</v>
+      </c>
+      <c r="K78" s="3">
+        <v>0.99845050000000002</v>
+      </c>
+      <c r="L78" s="3">
+        <v>0.80892180000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0.59809959999999995</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" s="3">
+        <v>1.0433082E-2</v>
+      </c>
+      <c r="K79" s="3">
+        <v>0.89865110000000004</v>
+      </c>
+      <c r="L79" s="3">
+        <v>0.82901279999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>3</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2</v>
+      </c>
+      <c r="C80" s="2">
+        <v>4</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D81" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0.50999640000000002</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0.61889470000000002</v>
+      </c>
+      <c r="I82" s="3">
+        <v>1.9203184000000002E-2</v>
+      </c>
+      <c r="J82" s="3">
+        <v>1.4781588999999999E-2</v>
+      </c>
+      <c r="K82" s="3">
+        <v>1.4676290000000001</v>
+      </c>
+      <c r="L82" s="3">
+        <v>1.6576139999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0.49965769999999998</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0.49907449999999998</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1.6990779999999999E-3</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0.45216907899999997</v>
+      </c>
+      <c r="K83" s="3">
+        <v>1.0738019999999999</v>
+      </c>
+      <c r="L83" s="3">
+        <v>1.6345989999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="3">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0</v>
+      </c>
+      <c r="G84" s="3">
+        <v>0.49992760000000003</v>
+      </c>
+      <c r="H84" s="3">
+        <v>0.49863289999999999</v>
+      </c>
+      <c r="I84" s="3">
+        <v>1.530238E-3</v>
+      </c>
+      <c r="J84" s="3">
+        <v>0.45410774999999998</v>
+      </c>
+      <c r="K84" s="3">
+        <v>1.0995760000000001</v>
+      </c>
+      <c r="L84" s="3">
+        <v>1.3235920000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="3">
+        <v>0.61823050000000002</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" s="3">
+        <v>1.7036754000000001E-2</v>
+      </c>
+      <c r="K85" s="3">
+        <v>1.4676290000000001</v>
+      </c>
+      <c r="L85" s="3">
+        <v>1.6576150000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="3">
+        <v>0.59646010000000005</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="3">
+        <v>5.2598829999999999E-3</v>
+      </c>
+      <c r="K86" s="3">
+        <v>5.5891390000000003</v>
+      </c>
+      <c r="L86" s="3">
+        <v>5.431514</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="3">
+        <v>1</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" s="3">
+        <v>0.59716279999999999</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" s="3">
+        <v>9.9719060000000009E-3</v>
+      </c>
+      <c r="K87" s="3">
+        <v>4.4678139999999997</v>
+      </c>
+      <c r="L87" s="3">
+        <v>3.479406</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>3</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2">
+        <v>6</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D89" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="3">
+        <v>1</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0.4996314</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0.49861270000000002</v>
+      </c>
+      <c r="I91" s="3">
+        <v>1.5362559999999999E-3</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0.45310223199999999</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0.18516199999999999</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0.4722713</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" s="3">
+        <v>1</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0.49987609999999999</v>
+      </c>
+      <c r="H92" s="3">
+        <v>0.49874869999999999</v>
+      </c>
+      <c r="I92" s="3">
+        <v>1.3176419999999999E-3</v>
+      </c>
+      <c r="J92" s="3">
+        <v>0.45335917199999998</v>
+      </c>
+      <c r="K92" s="3">
+        <v>0.1819547</v>
+      </c>
+      <c r="L92" s="3">
+        <v>0.24773890000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="3">
+        <v>0.6175832</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="3">
+        <v>1.2067694E-2</v>
+      </c>
+      <c r="K93" s="3">
+        <v>0.33534170000000002</v>
+      </c>
+      <c r="L93" s="3">
+        <v>0.43632710000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0.63480899999999996</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="3">
+        <v>5.9267809999999999E-3</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="3">
+        <v>0.63306189999999996</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" s="3">
+        <v>7.6598179999999997E-3</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>3</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2</v>
+      </c>
+      <c r="C96" s="2">
+        <v>6</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D97" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0.49965769999999998</v>
+      </c>
+      <c r="H99" s="3">
+        <v>0.49907449999999998</v>
+      </c>
+      <c r="I99" s="3">
+        <v>1.6990779999999999E-3</v>
+      </c>
+      <c r="J99" s="3">
+        <v>0.45216907899999997</v>
+      </c>
+      <c r="K99" s="3">
+        <v>1.0738019999999999</v>
+      </c>
+      <c r="L99" s="3">
+        <v>1.6345989999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0.49992760000000003</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0.49863289999999999</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1.530238E-3</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0.45410774999999998</v>
+      </c>
+      <c r="K100" s="3">
+        <v>1.0995760000000001</v>
+      </c>
+      <c r="L100" s="3">
+        <v>1.3235920000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0.62117169999999999</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J101" s="3">
+        <v>2.133641E-2</v>
+      </c>
+      <c r="K101" s="3">
+        <v>1.4469719999999999</v>
+      </c>
+      <c r="L101" s="3">
+        <v>1.593059</v>
+      </c>
+    </row>
+    <row r="102" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0.63331740000000003</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" s="3">
+        <v>5.060335E-3</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="3">
+        <v>0</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" s="3">
+        <v>0.63432569999999999</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J103" s="3">
+        <v>8.7049750000000002E-3</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -11474,7 +12355,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -11484,7 +12365,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -11494,7 +12375,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -11504,7 +12385,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -11514,7 +12395,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -11524,7 +12405,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -11534,7 +12415,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -11544,7 +12425,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
@@ -13345,7 +14226,22 @@
       <c r="L291" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:C17"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/code_v2/summary_data/result.xlsx
+++ b/code_v2/summary_data/result.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RY\git\hierarchical-gene\code_v2\summary_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D681B5DA-5B01-4390-BA55-1CD3B27F33A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAA07A4-3E1A-46C5-B6CE-1CE5BB5FF94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" activeTab="1" xr2:uid="{EBE4CFCB-469C-4867-8775-907539EE1541}"/>
   </bookViews>
   <sheets>
     <sheet name="n=500_p=8-3_q=4-2" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="n=500_p=80-3_q=40-2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="42">
   <si>
     <t>balance
 type</t>
@@ -181,6 +181,14 @@
     <t>row_number = 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>row_number = 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>row_number = 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -275,7 +283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -377,6 +385,9 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9D3AE6-56CA-42EC-92E1-A32B46A3D8A1}">
   <dimension ref="A1:AL290"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9511,20 +9522,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474392E9-0E45-4AEC-B8E4-8AB631FBD30B}">
-  <dimension ref="A1:M291"/>
+  <dimension ref="A1:AM291"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:V22"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="12" width="8.6640625" style="2"/>
-    <col min="13" max="13" width="34.83203125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="2"/>
+    <col min="13" max="13" width="23.08203125" style="2" customWidth="1"/>
+    <col min="14" max="24" width="8.6640625" style="2"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="25.1640625" style="2" customWidth="1"/>
+    <col min="27" max="38" width="8.6640625" style="2"/>
+    <col min="39" max="39" width="24.83203125" style="2" customWidth="1"/>
+    <col min="40" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
@@ -9561,8 +9577,80 @@
       <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -9599,8 +9687,86 @@
       <c r="L2" s="32">
         <v>0.51500000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N2" s="2">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="33">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="S2" s="33">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="T2" s="33">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="U2" s="33">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="V2" s="33">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="W2" s="33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X2" s="33">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="Y2" s="33">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="33">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="AF2" s="33">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="AG2" s="33">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="AH2" s="33">
+        <v>0.61</v>
+      </c>
+      <c r="AI2" s="33">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="AJ2" s="33">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="AK2" s="33">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AL2" s="33">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -9631,8 +9797,62 @@
       <c r="L3" s="23">
         <v>7.0233279999999997E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.88855510000000004</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="3">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3">
+        <v>1</v>
+      </c>
+      <c r="X3" s="3">
+        <v>4.218152E-2</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>1.1510090000000001E-2</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>0.91057960000000004</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>0.82107819999999998</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>2.5128239999999999E-3</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>7.2313899999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -9663,8 +9883,62 @@
       <c r="L4" s="23">
         <v>0.41108850000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.48514679999999999</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0.61891649999999998</v>
+      </c>
+      <c r="V4" s="3">
+        <v>2.3543147E-2</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1.641768E-2</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0.35473640000000001</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0.40268789999999999</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>0.509324</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>0.61830839999999998</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>1.7839302000000001E-2</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>1.3347727E-2</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>0.37302750000000001</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>0.42100369999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -9695,8 +9969,62 @@
       <c r="L5" s="23">
         <v>0.52504569999999995</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.50299190000000005</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.50264589999999998</v>
+      </c>
+      <c r="V5" s="3">
+        <v>7.1949529999999996E-3</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0.46699624000000001</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0.16584389999999999</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0.69085589999999997</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>0.4996314</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>0.49861270000000002</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>1.5362559999999999E-3</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>0.45310223199999999</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>0.18516199999999999</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>0.4722713</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -9727,8 +10055,62 @@
       <c r="L6" s="23">
         <v>0.25677929999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="3">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0.5001428</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.49940010000000001</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1.310224E-3</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.46965412000000001</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0.16423289999999999</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0.25546540000000001</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>0.49987609999999999</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>0.49874869999999999</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>1.3176419999999999E-3</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>0.45335917199999998</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>0.1819547</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>0.24773890000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -9753,8 +10135,50 @@
       <c r="L7" s="23">
         <v>0.41108850000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3">
+        <v>0.61891649999999998</v>
+      </c>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3">
+        <v>1.641768E-2</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0.35473640000000001</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0.40268809999999999</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3">
+        <v>0.61756960000000005</v>
+      </c>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3">
+        <v>1.5629875000000001E-2</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>0.37302750000000001</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>0.42100379999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
@@ -9779,8 +10203,50 @@
       <c r="L8" s="23">
         <v>0.81780949999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3">
+        <v>0.60306510000000002</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3">
+        <v>4.6320840000000002E-2</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0.88409870000000002</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0.57254910000000003</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3">
+        <v>0.59760919999999995</v>
+      </c>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3">
+        <v>7.8452420000000005E-3</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>0.99845050000000002</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>0.80892180000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -9805,8 +10271,50 @@
       <c r="L9" s="24">
         <v>0.75462720000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3">
+        <v>1</v>
+      </c>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3">
+        <v>0.59942859999999998</v>
+      </c>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3">
+        <v>1.275333E-2</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0.90193089999999998</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0.65962609999999999</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3">
+        <v>0.59809959999999995</v>
+      </c>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3">
+        <v>1.0433082E-2</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>0.89865110000000004</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>0.82901279999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <v>1</v>
       </c>
@@ -9843,8 +10351,86 @@
       <c r="L10" s="32">
         <v>2.1349999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N10" s="2">
+        <v>2</v>
+      </c>
+      <c r="O10" s="2">
+        <v>2</v>
+      </c>
+      <c r="P10" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="33">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="S10" s="33">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="T10" s="33">
+        <v>0.54</v>
+      </c>
+      <c r="U10" s="33">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="V10" s="33">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="W10" s="33">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="X10" s="33">
+        <v>1.294</v>
+      </c>
+      <c r="Y10" s="33">
+        <v>2.8039999999999998</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE10" s="33">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="AF10" s="33">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="AG10" s="33">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="AH10" s="33">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="AI10" s="33">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="AJ10" s="33">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="AK10" s="33">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="AL10" s="33">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -9875,8 +10461,62 @@
       <c r="L11" s="26">
         <v>1.765144E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="S11" s="3">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0.98882239999999999</v>
+      </c>
+      <c r="U11" s="3">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0.97765299999999999</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3">
+        <v>2.4284129999999999E-3</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>8.4551399999999999E-3</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>0.82115910000000003</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>0.6420361</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>4.2946480000000002E-2</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>4.6618519999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -9907,8 +10547,62 @@
       <c r="L12" s="26">
         <v>1.616798</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0.48614220000000002</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0.61971670000000001</v>
+      </c>
+      <c r="V12" s="3">
+        <v>2.51334E-2</v>
+      </c>
+      <c r="W12" s="3">
+        <v>1.7100230000000001E-2</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1.404069</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1.58856</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>0.50999640000000002</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>0.61889470000000002</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>1.9203184000000002E-2</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>1.4781588999999999E-2</v>
+      </c>
+      <c r="AK12" s="3">
+        <v>1.4676290000000001</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>1.6576139999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -9939,8 +10633,62 @@
       <c r="L13" s="26">
         <v>1.6087819999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="3">
+        <v>1</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0.5006024</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0.50041639999999998</v>
+      </c>
+      <c r="V13" s="3">
+        <v>2.7489929999999999E-3</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0.46782070999999997</v>
+      </c>
+      <c r="X13" s="3">
+        <v>1.0430090000000001</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>1.795995</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0.49965769999999998</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>0.49907449999999998</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>1.6990779999999999E-3</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>0.45216907899999997</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>1.0738019999999999</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>1.6345989999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -9971,8 +10719,62 @@
       <c r="L14" s="26">
         <v>1.319957</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0.50019760000000002</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0.49942180000000003</v>
+      </c>
+      <c r="V14" s="3">
+        <v>1.1534959999999999E-3</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0.4690993</v>
+      </c>
+      <c r="X14" s="3">
+        <v>1.0126869999999999</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>1.3115190000000001</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>0.49992760000000003</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>0.49863289999999999</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>1.530238E-3</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>0.45410774999999998</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>1.0995760000000001</v>
+      </c>
+      <c r="AL14" s="3">
+        <v>1.3235920000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -9997,8 +10799,50 @@
       <c r="L15" s="26">
         <v>1.6168</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3">
+        <v>0.61852850000000004</v>
+      </c>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3">
+        <v>2.188992E-2</v>
+      </c>
+      <c r="X15" s="3">
+        <v>1.404069</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>1.588557</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3">
+        <v>0.61823050000000002</v>
+      </c>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3">
+        <v>1.7036754000000001E-2</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>1.4676290000000001</v>
+      </c>
+      <c r="AL15" s="3">
+        <v>1.6576150000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -10023,8 +10867,50 @@
       <c r="L16" s="26">
         <v>5.0696870000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3">
+        <v>1</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3">
+        <v>0.60410399999999997</v>
+      </c>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3">
+        <v>4.5042060000000002E-2</v>
+      </c>
+      <c r="X16" s="3">
+        <v>3.9956119999999999</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>3.2229019999999999</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3">
+        <v>0.59646010000000005</v>
+      </c>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3">
+        <v>5.2598829999999999E-3</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>5.5891390000000003</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>5.431514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -10049,8 +10935,50 @@
       <c r="L17" s="26">
         <v>3.6521439999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3">
+        <v>1</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3">
+        <v>0.59895620000000005</v>
+      </c>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3">
+        <v>1.253521E-2</v>
+      </c>
+      <c r="X17" s="3">
+        <v>4.3594790000000003</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>3.5113289999999999</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3">
+        <v>0.59716279999999999</v>
+      </c>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3">
+        <v>9.9719060000000009E-3</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>4.4678139999999997</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>3.479406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>1</v>
       </c>
@@ -10090,8 +11018,86 @@
       <c r="M18" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="2">
+        <v>2</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="33">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="S18" s="33">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="T18" s="33">
+        <v>0.54</v>
+      </c>
+      <c r="U18" s="33">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="V18" s="33">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="W18" s="33">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="X18" s="33">
+        <v>0.309</v>
+      </c>
+      <c r="Y18" s="33">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>6</v>
+      </c>
+      <c r="AD18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE18" s="33">
+        <v>0.31</v>
+      </c>
+      <c r="AF18" s="33">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="AG18" s="33">
+        <v>0.505</v>
+      </c>
+      <c r="AH18" s="33">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="AI18" s="33">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="AJ18" s="33">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="AK18" s="33">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="AL18" s="33">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="28"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -10122,8 +11128,62 @@
       <c r="L19" s="23">
         <v>7.0233279999999997E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="S19" s="3">
+        <v>1</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0.88855510000000004</v>
+      </c>
+      <c r="U19" s="3">
+        <v>1</v>
+      </c>
+      <c r="V19" s="3">
+        <v>1</v>
+      </c>
+      <c r="W19" s="3">
+        <v>1</v>
+      </c>
+      <c r="X19" s="3">
+        <v>4.218152E-2</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>1.1510090000000001E-2</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>0.91057960000000004</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>0.82107819999999998</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="3">
+        <v>2.5128239999999999E-3</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>7.2313899999999999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="28"/>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
@@ -10154,8 +11214,62 @@
       <c r="L20" s="23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -10186,8 +11300,62 @@
       <c r="L21" s="23">
         <v>0.52504569999999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0.50299190000000005</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0.50264589999999998</v>
+      </c>
+      <c r="V21" s="3">
+        <v>7.1949529999999996E-3</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0.46699624299999998</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0.16584389999999999</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0.69085589999999997</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>0.4996314</v>
+      </c>
+      <c r="AH21" s="3">
+        <v>0.49861270000000002</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>1.5362559999999999E-3</v>
+      </c>
+      <c r="AJ21" s="3">
+        <v>0.45310223199999999</v>
+      </c>
+      <c r="AK21" s="3">
+        <v>0.18516199999999999</v>
+      </c>
+      <c r="AL21" s="3">
+        <v>0.4722713</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="28"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -10218,8 +11386,62 @@
       <c r="L22" s="23">
         <v>0.25677929999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" s="3">
+        <v>1</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0.5001428</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0.49940010000000001</v>
+      </c>
+      <c r="V22" s="3">
+        <v>1.310224E-3</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0.46965411699999998</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0.16423289999999999</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0.25546540000000001</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>0.49987609999999999</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>0.49874869999999999</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>1.3176419999999999E-3</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>0.45335917199999998</v>
+      </c>
+      <c r="AK22" s="3">
+        <v>0.1819547</v>
+      </c>
+      <c r="AL22" s="3">
+        <v>0.24773890000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -10244,8 +11466,50 @@
       <c r="L23" s="23">
         <v>0.38780579999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3">
+        <v>0.61811769999999999</v>
+      </c>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3">
+        <v>3.5187431999999998E-2</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0.34959499999999999</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0.39149319999999999</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3">
+        <v>0.6175832</v>
+      </c>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3">
+        <v>1.2067694E-2</v>
+      </c>
+      <c r="AK23" s="3">
+        <v>0.33534170000000002</v>
+      </c>
+      <c r="AL23" s="3">
+        <v>0.43632710000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="28"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -10266,8 +11530,42 @@
       </c>
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3">
+        <v>0.64135560000000003</v>
+      </c>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3">
+        <v>3.8120754999999999E-2</v>
+      </c>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="AD24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3">
+        <v>0.63480899999999996</v>
+      </c>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3">
+        <v>5.9267809999999999E-3</v>
+      </c>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -10288,8 +11586,42 @@
       </c>
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3">
+        <v>0.63485599999999998</v>
+      </c>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3">
+        <v>9.5159560000000008E-3</v>
+      </c>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="AD25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3">
+        <v>0.63306189999999996</v>
+      </c>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3">
+        <v>7.6598179999999997E-3</v>
+      </c>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>1</v>
       </c>
@@ -10326,8 +11658,86 @@
       <c r="L26" s="32">
         <v>2.351</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26" s="2">
+        <v>2</v>
+      </c>
+      <c r="O26" s="2">
+        <v>2</v>
+      </c>
+      <c r="P26" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="33">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="S26" s="33">
+        <v>0.63</v>
+      </c>
+      <c r="T26" s="33">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="U26" s="33">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="V26" s="33">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="W26" s="33">
+        <v>0.151</v>
+      </c>
+      <c r="X26" s="33">
+        <v>1.321</v>
+      </c>
+      <c r="Y26" s="33">
+        <v>2.4830000000000001</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>6</v>
+      </c>
+      <c r="AD26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE26" s="33">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AF26" s="33">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="33">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="AH26" s="33">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="AI26" s="33">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="AJ26" s="33">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AK26" s="33">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="AL26" s="33">
+        <v>2.206</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
@@ -10358,8 +11768,62 @@
       <c r="L27" s="26">
         <v>1.765144E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="S27" s="3">
+        <v>1</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0.98882239999999999</v>
+      </c>
+      <c r="U27" s="3">
+        <v>1</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0.97765299999999999</v>
+      </c>
+      <c r="W27" s="3">
+        <v>1</v>
+      </c>
+      <c r="X27" s="3">
+        <v>2.4284129999999999E-3</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>8.4551399999999999E-3</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>0.82115910000000003</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>0.6420361</v>
+      </c>
+      <c r="AJ27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="3">
+        <v>4.2946480000000002E-2</v>
+      </c>
+      <c r="AL27" s="3">
+        <v>4.6618519999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
@@ -10390,8 +11854,62 @@
       <c r="L28" s="23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL28" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
@@ -10422,8 +11940,62 @@
       <c r="L29" s="23">
         <v>1.6087819999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R29" s="3">
+        <v>1</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0.5006024</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0.50041639999999998</v>
+      </c>
+      <c r="V29" s="3">
+        <v>2.7489929999999999E-3</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0.46782070799999997</v>
+      </c>
+      <c r="X29" s="3">
+        <v>1.0430090000000001</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>1.795995</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>0.49965769999999998</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>0.49907449999999998</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>1.6990779999999999E-3</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>0.45216907899999997</v>
+      </c>
+      <c r="AK29" s="3">
+        <v>1.0738019999999999</v>
+      </c>
+      <c r="AL29" s="3">
+        <v>1.6345989999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
@@ -10454,8 +12026,62 @@
       <c r="L30" s="23">
         <v>1.319957</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R30" s="3">
+        <v>1</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0.50019760000000002</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0.49942180000000003</v>
+      </c>
+      <c r="V30" s="3">
+        <v>1.1534959999999999E-3</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0.46909929700000003</v>
+      </c>
+      <c r="X30" s="3">
+        <v>1.0126869999999999</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>1.3115190000000001</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>0.49992760000000003</v>
+      </c>
+      <c r="AH30" s="3">
+        <v>0.49863289999999999</v>
+      </c>
+      <c r="AI30" s="3">
+        <v>1.530238E-3</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>0.45410774999999998</v>
+      </c>
+      <c r="AK30" s="3">
+        <v>1.0995760000000001</v>
+      </c>
+      <c r="AL30" s="3">
+        <v>1.3235920000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
@@ -10480,8 +12106,50 @@
       <c r="L31" s="23">
         <v>1.785126</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3">
+        <v>1</v>
+      </c>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3">
+        <v>0.62055879999999997</v>
+      </c>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3">
+        <v>2.0735995E-2</v>
+      </c>
+      <c r="X31" s="3">
+        <v>1.46031</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>1.648676</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3">
+        <v>0.62117169999999999</v>
+      </c>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3">
+        <v>2.133641E-2</v>
+      </c>
+      <c r="AK31" s="3">
+        <v>1.4469719999999999</v>
+      </c>
+      <c r="AL31" s="3">
+        <v>1.593059</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -10502,8 +12170,42 @@
       </c>
       <c r="K32" s="23"/>
       <c r="L32" s="23"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3">
+        <v>0.64036340000000003</v>
+      </c>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3">
+        <v>3.9284652000000003E-2</v>
+      </c>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="AD32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3">
+        <v>0.63331740000000003</v>
+      </c>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3">
+        <v>5.060335E-3</v>
+      </c>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -10524,2168 +12226,3464 @@
       </c>
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>2</v>
-      </c>
-      <c r="B36" s="2">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2">
+      <c r="Q33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3">
+        <v>0.63417820000000003</v>
+      </c>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3">
+        <v>9.7139489999999995E-3</v>
+      </c>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="AD33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3">
+        <v>0.63432569999999999</v>
+      </c>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3">
+        <v>8.7049750000000002E-3</v>
+      </c>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A41" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A42" s="25">
+        <v>1</v>
+      </c>
+      <c r="B42" s="25">
+        <v>1</v>
+      </c>
+      <c r="C42" s="25">
         <v>4</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D42" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E42" s="26">
+        <v>0.22</v>
+      </c>
+      <c r="F42" s="26">
+        <v>0.99</v>
+      </c>
+      <c r="G42" s="26">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="H42" s="26">
+        <v>0.623</v>
+      </c>
+      <c r="I42" s="26">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="J42" s="26">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K42" s="26">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="L42" s="26">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A43" s="25">
+        <v>1</v>
+      </c>
+      <c r="B43" s="25">
+        <v>1</v>
+      </c>
+      <c r="C43" s="25">
+        <v>4</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="F43" s="26">
+        <v>1</v>
+      </c>
+      <c r="G43" s="26">
+        <v>0.94989979999999996</v>
+      </c>
+      <c r="H43" s="26">
+        <v>1</v>
+      </c>
+      <c r="I43" s="26">
+        <v>1</v>
+      </c>
+      <c r="J43" s="26">
+        <v>1</v>
+      </c>
+      <c r="K43" s="26">
+        <v>1.5129399999999999E-2</v>
+      </c>
+      <c r="L43" s="26">
+        <v>7.0233279999999997E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A44" s="25">
+        <v>1</v>
+      </c>
+      <c r="B44" s="25">
+        <v>1</v>
+      </c>
+      <c r="C44" s="25">
+        <v>4</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="26">
+        <v>0</v>
+      </c>
+      <c r="F44" s="26">
+        <v>1</v>
+      </c>
+      <c r="G44" s="26">
+        <v>0.50913350000000002</v>
+      </c>
+      <c r="H44" s="26">
+        <v>0.63084609999999997</v>
+      </c>
+      <c r="I44" s="26">
+        <v>1.7347202999999999E-2</v>
+      </c>
+      <c r="J44" s="26">
+        <v>1.1768684999999999E-2</v>
+      </c>
+      <c r="K44" s="26">
+        <v>0.37205460000000001</v>
+      </c>
+      <c r="L44" s="26">
+        <v>0.41108850000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A45" s="25">
+        <v>1</v>
+      </c>
+      <c r="B45" s="25">
+        <v>1</v>
+      </c>
+      <c r="C45" s="25">
+        <v>4</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="26">
+        <v>1</v>
+      </c>
+      <c r="F45" s="26">
+        <v>0</v>
+      </c>
+      <c r="G45" s="26">
+        <v>0.49982179999999998</v>
+      </c>
+      <c r="H45" s="26">
+        <v>0.49930730000000001</v>
+      </c>
+      <c r="I45" s="26">
+        <v>1.646698E-3</v>
+      </c>
+      <c r="J45" s="26">
+        <v>0.42982942800000001</v>
+      </c>
+      <c r="K45" s="26">
+        <v>0.18188789999999999</v>
+      </c>
+      <c r="L45" s="26">
+        <v>0.52504569999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A46" s="25">
+        <v>1</v>
+      </c>
+      <c r="B46" s="25">
+        <v>1</v>
+      </c>
+      <c r="C46" s="25">
+        <v>4</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="26">
+        <v>1</v>
+      </c>
+      <c r="F46" s="26">
+        <v>0</v>
+      </c>
+      <c r="G46" s="26">
+        <v>0.49945869999999998</v>
+      </c>
+      <c r="H46" s="26">
+        <v>0.49923440000000002</v>
+      </c>
+      <c r="I46" s="26">
+        <v>1.3033529999999999E-3</v>
+      </c>
+      <c r="J46" s="26">
+        <v>0.42916938999999998</v>
+      </c>
+      <c r="K46" s="26">
+        <v>0.18187690000000001</v>
+      </c>
+      <c r="L46" s="26">
+        <v>0.25677929999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A47" s="25">
+        <v>1</v>
+      </c>
+      <c r="B47" s="25">
+        <v>1</v>
+      </c>
+      <c r="C47" s="25">
+        <v>4</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26">
+        <v>1</v>
+      </c>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26">
+        <v>0.63084609999999997</v>
+      </c>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26">
+        <v>1.1768684999999999E-2</v>
+      </c>
+      <c r="K47" s="26">
+        <v>0.37205460000000001</v>
+      </c>
+      <c r="L47" s="26">
+        <v>0.41108850000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A48" s="25">
+        <v>1</v>
+      </c>
+      <c r="B48" s="25">
+        <v>1</v>
+      </c>
+      <c r="C48" s="25">
+        <v>4</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26">
+        <v>1</v>
+      </c>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26">
+        <v>0.60874200000000001</v>
+      </c>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26">
+        <v>9.9180250000000005E-3</v>
+      </c>
+      <c r="K48" s="26">
+        <v>1.0096540000000001</v>
+      </c>
+      <c r="L48" s="26">
+        <v>0.81780949999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="25">
+        <v>1</v>
+      </c>
+      <c r="B49" s="25">
+        <v>1</v>
+      </c>
+      <c r="C49" s="25">
+        <v>4</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26">
+        <v>1</v>
+      </c>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26">
+        <v>0.60957229999999996</v>
+      </c>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26">
+        <v>1.0052073E-2</v>
+      </c>
+      <c r="K49" s="26">
+        <v>0.9179254</v>
+      </c>
+      <c r="L49" s="26">
+        <v>0.75462720000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="25">
+        <v>1</v>
+      </c>
+      <c r="B50" s="25">
+        <v>2</v>
+      </c>
+      <c r="C50" s="25">
+        <v>4</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="26">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F50" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="26">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="H50" s="26">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="I50" s="26">
+        <v>0.372</v>
+      </c>
+      <c r="J50" s="26">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="K50" s="26">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="L50" s="26">
+        <v>2.1349999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="25">
+        <v>1</v>
+      </c>
+      <c r="B51" s="25">
+        <v>2</v>
+      </c>
+      <c r="C51" s="25">
+        <v>4</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="26">
+        <v>0.875</v>
+      </c>
+      <c r="F51" s="26">
+        <v>1</v>
+      </c>
+      <c r="G51" s="26">
+        <v>0.98434370000000004</v>
+      </c>
+      <c r="H51" s="26">
+        <v>1</v>
+      </c>
+      <c r="I51" s="26">
+        <v>0.96867150000000002</v>
+      </c>
+      <c r="J51" s="26">
+        <v>1</v>
+      </c>
+      <c r="K51" s="26">
+        <v>8.8676499999999997E-4</v>
+      </c>
+      <c r="L51" s="26">
+        <v>1.765144E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="25">
+        <v>1</v>
+      </c>
+      <c r="B52" s="25">
+        <v>2</v>
+      </c>
+      <c r="C52" s="25">
+        <v>4</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="26">
+        <v>0</v>
+      </c>
+      <c r="F52" s="26">
+        <v>0.98</v>
+      </c>
+      <c r="G52" s="26">
+        <v>0.51089589999999996</v>
+      </c>
+      <c r="H52" s="26">
+        <v>0.6326387</v>
+      </c>
+      <c r="I52" s="26">
+        <v>2.0993962000000001E-2</v>
+      </c>
+      <c r="J52" s="26">
+        <v>1.4544471999999999E-2</v>
+      </c>
+      <c r="K52" s="26">
+        <v>1.465184</v>
+      </c>
+      <c r="L52" s="26">
+        <v>1.616798</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="25">
+        <v>1</v>
+      </c>
+      <c r="B53" s="25">
+        <v>2</v>
+      </c>
+      <c r="C53" s="25">
+        <v>4</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="26">
+        <v>1</v>
+      </c>
+      <c r="F53" s="26">
+        <v>0</v>
+      </c>
+      <c r="G53" s="26">
+        <v>0.4996758</v>
+      </c>
+      <c r="H53" s="26">
+        <v>0.49938690000000002</v>
+      </c>
+      <c r="I53" s="26">
+        <v>1.7441170000000001E-3</v>
+      </c>
+      <c r="J53" s="26">
+        <v>0.42798228999999999</v>
+      </c>
+      <c r="K53" s="26">
+        <v>1.089083</v>
+      </c>
+      <c r="L53" s="26">
+        <v>1.6087819999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="25">
+        <v>1</v>
+      </c>
+      <c r="B54" s="25">
+        <v>2</v>
+      </c>
+      <c r="C54" s="25">
+        <v>4</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="26">
+        <v>1</v>
+      </c>
+      <c r="F54" s="26">
+        <v>0</v>
+      </c>
+      <c r="G54" s="26">
+        <v>0.49956509999999998</v>
+      </c>
+      <c r="H54" s="26">
+        <v>0.49921520000000003</v>
+      </c>
+      <c r="I54" s="26">
+        <v>1.1173590000000001E-3</v>
+      </c>
+      <c r="J54" s="26">
+        <v>0.42918186800000002</v>
+      </c>
+      <c r="K54" s="26">
+        <v>1.077871</v>
+      </c>
+      <c r="L54" s="26">
+        <v>1.319957</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="25">
+        <v>1</v>
+      </c>
+      <c r="B55" s="25">
+        <v>2</v>
+      </c>
+      <c r="C55" s="25">
+        <v>4</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26">
+        <v>0.98</v>
+      </c>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26">
+        <v>0.63104329999999997</v>
+      </c>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26">
+        <v>1.8190031999999998E-2</v>
+      </c>
+      <c r="K55" s="26">
+        <v>1.465184</v>
+      </c>
+      <c r="L55" s="26">
+        <v>1.6168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="25">
+        <v>1</v>
+      </c>
+      <c r="B56" s="25">
+        <v>2</v>
+      </c>
+      <c r="C56" s="25">
+        <v>4</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26">
+        <v>1</v>
+      </c>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26">
+        <v>0.60802330000000004</v>
+      </c>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26">
+        <v>5.913041E-3</v>
+      </c>
+      <c r="K56" s="26">
+        <v>6.0716320000000001</v>
+      </c>
+      <c r="L56" s="26">
+        <v>5.0696870000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="25">
+        <v>1</v>
+      </c>
+      <c r="B57" s="25">
+        <v>2</v>
+      </c>
+      <c r="C57" s="25">
+        <v>4</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26">
+        <v>1</v>
+      </c>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26">
+        <v>0.60731420000000003</v>
+      </c>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26">
+        <v>9.3500730000000004E-3</v>
+      </c>
+      <c r="K57" s="26">
+        <v>4.6205939999999996</v>
+      </c>
+      <c r="L57" s="26">
+        <v>3.6521439999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="25">
+        <v>1</v>
+      </c>
+      <c r="B58" s="25">
+        <v>1</v>
+      </c>
+      <c r="C58" s="25">
+        <v>6</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="26">
+        <v>0.44</v>
+      </c>
+      <c r="F58" s="26">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="G58" s="26">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="H58" s="26">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="I58" s="26">
+        <v>0.376</v>
+      </c>
+      <c r="J58" s="26">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K58" s="26">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="L58" s="26">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="25">
+        <v>1</v>
+      </c>
+      <c r="B59" s="25">
+        <v>1</v>
+      </c>
+      <c r="C59" s="25">
+        <v>6</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="F59" s="26">
+        <v>1</v>
+      </c>
+      <c r="G59" s="26">
+        <v>0.94989979999999996</v>
+      </c>
+      <c r="H59" s="26">
+        <v>1</v>
+      </c>
+      <c r="I59" s="26">
+        <v>1</v>
+      </c>
+      <c r="J59" s="26">
+        <v>1</v>
+      </c>
+      <c r="K59" s="26">
+        <v>1.5129399999999999E-2</v>
+      </c>
+      <c r="L59" s="26">
+        <v>7.0233279999999997E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="25">
+        <v>1</v>
+      </c>
+      <c r="B60" s="25">
+        <v>1</v>
+      </c>
+      <c r="C60" s="25">
+        <v>6</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I60" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J60" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K60" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="L60" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="25">
+        <v>1</v>
+      </c>
+      <c r="B61" s="25">
+        <v>1</v>
+      </c>
+      <c r="C61" s="25">
+        <v>6</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="26">
+        <v>1</v>
+      </c>
+      <c r="F61" s="26">
+        <v>0</v>
+      </c>
+      <c r="G61" s="26">
+        <v>0.49982179999999998</v>
+      </c>
+      <c r="H61" s="26">
+        <v>0.49930730000000001</v>
+      </c>
+      <c r="I61" s="26">
+        <v>1.646698E-3</v>
+      </c>
+      <c r="J61" s="26">
+        <v>0.42982942800000001</v>
+      </c>
+      <c r="K61" s="26">
+        <v>0.18188789999999999</v>
+      </c>
+      <c r="L61" s="26">
+        <v>0.52504569999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="25">
+        <v>1</v>
+      </c>
+      <c r="B62" s="25">
+        <v>1</v>
+      </c>
+      <c r="C62" s="25">
+        <v>6</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="26">
+        <v>1</v>
+      </c>
+      <c r="F62" s="26">
+        <v>0</v>
+      </c>
+      <c r="G62" s="26">
+        <v>0.49945869999999998</v>
+      </c>
+      <c r="H62" s="26">
+        <v>0.49923440000000002</v>
+      </c>
+      <c r="I62" s="26">
+        <v>1.3033529999999999E-3</v>
+      </c>
+      <c r="J62" s="26">
+        <v>0.42916938999999998</v>
+      </c>
+      <c r="K62" s="26">
+        <v>0.18187690000000001</v>
+      </c>
+      <c r="L62" s="26">
+        <v>0.25677929999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="25">
+        <v>1</v>
+      </c>
+      <c r="B63" s="25">
+        <v>1</v>
+      </c>
+      <c r="C63" s="25">
+        <v>6</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26">
+        <v>1</v>
+      </c>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26">
+        <v>0.62990139999999994</v>
+      </c>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26">
+        <v>9.3516680000000005E-3</v>
+      </c>
+      <c r="K63" s="26">
+        <v>0.34950740000000002</v>
+      </c>
+      <c r="L63" s="26">
+        <v>0.38780579999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="25">
+        <v>1</v>
+      </c>
+      <c r="B64" s="25">
+        <v>1</v>
+      </c>
+      <c r="C64" s="25">
+        <v>6</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26">
+        <v>0</v>
+      </c>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26">
+        <v>0.64835659999999995</v>
+      </c>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26">
+        <v>7.0043659999999997E-3</v>
+      </c>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="25">
+        <v>1</v>
+      </c>
+      <c r="B65" s="25">
+        <v>1</v>
+      </c>
+      <c r="C65" s="25">
+        <v>6</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26">
+        <v>0</v>
+      </c>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26">
+        <v>0.64776330000000004</v>
+      </c>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26">
+        <v>7.7433759999999997E-3</v>
+      </c>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="25">
+        <v>1</v>
+      </c>
+      <c r="B66" s="25">
+        <v>2</v>
+      </c>
+      <c r="C66" s="25">
+        <v>6</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="26">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="F66" s="26">
+        <v>0.748</v>
+      </c>
+      <c r="G66" s="26">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="H66" s="26">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="I66" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="J66" s="26">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="K66" s="26">
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="L66" s="26">
+        <v>2.351</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="25">
+        <v>1</v>
+      </c>
+      <c r="B67" s="25">
+        <v>2</v>
+      </c>
+      <c r="C67" s="25">
+        <v>6</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="26">
+        <v>0.875</v>
+      </c>
+      <c r="F67" s="26">
+        <v>1</v>
+      </c>
+      <c r="G67" s="26">
+        <v>0.98434370000000004</v>
+      </c>
+      <c r="H67" s="26">
+        <v>1</v>
+      </c>
+      <c r="I67" s="26">
+        <v>0.96867150000000002</v>
+      </c>
+      <c r="J67" s="26">
+        <v>1</v>
+      </c>
+      <c r="K67" s="26">
+        <v>8.8676499999999997E-4</v>
+      </c>
+      <c r="L67" s="26">
+        <v>1.765144E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="25">
+        <v>1</v>
+      </c>
+      <c r="B68" s="25">
+        <v>2</v>
+      </c>
+      <c r="C68" s="25">
+        <v>6</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G68" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I68" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J68" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K68" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="L68" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="25">
+        <v>1</v>
+      </c>
+      <c r="B69" s="25">
+        <v>2</v>
+      </c>
+      <c r="C69" s="25">
+        <v>6</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="26">
+        <v>1</v>
+      </c>
+      <c r="F69" s="26">
+        <v>0</v>
+      </c>
+      <c r="G69" s="26">
+        <v>0.4996758</v>
+      </c>
+      <c r="H69" s="26">
+        <v>0.49938690000000002</v>
+      </c>
+      <c r="I69" s="26">
+        <v>1.7441170000000001E-3</v>
+      </c>
+      <c r="J69" s="26">
+        <v>0.42798228999999999</v>
+      </c>
+      <c r="K69" s="26">
+        <v>1.089083</v>
+      </c>
+      <c r="L69" s="26">
+        <v>1.6087819999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="25">
+        <v>1</v>
+      </c>
+      <c r="B70" s="25">
+        <v>2</v>
+      </c>
+      <c r="C70" s="25">
+        <v>6</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="26">
+        <v>1</v>
+      </c>
+      <c r="F70" s="26">
+        <v>0</v>
+      </c>
+      <c r="G70" s="26">
+        <v>0.49956509999999998</v>
+      </c>
+      <c r="H70" s="26">
+        <v>0.49921520000000003</v>
+      </c>
+      <c r="I70" s="26">
+        <v>1.1173590000000001E-3</v>
+      </c>
+      <c r="J70" s="26">
+        <v>0.42918186800000002</v>
+      </c>
+      <c r="K70" s="26">
+        <v>1.077871</v>
+      </c>
+      <c r="L70" s="26">
+        <v>1.319957</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="25">
+        <v>1</v>
+      </c>
+      <c r="B71" s="25">
+        <v>2</v>
+      </c>
+      <c r="C71" s="25">
+        <v>6</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26">
+        <v>1</v>
+      </c>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26">
+        <v>0.63056509999999999</v>
+      </c>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26">
+        <v>1.101893E-2</v>
+      </c>
+      <c r="K71" s="26">
+        <v>1.512615</v>
+      </c>
+      <c r="L71" s="26">
+        <v>1.785126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="25">
+        <v>1</v>
+      </c>
+      <c r="B72" s="25">
+        <v>2</v>
+      </c>
+      <c r="C72" s="25">
+        <v>6</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26">
+        <v>0</v>
+      </c>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26">
+        <v>0.64915979999999995</v>
+      </c>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26">
+        <v>4.2808849999999999E-3</v>
+      </c>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="25">
+        <v>1</v>
+      </c>
+      <c r="B73" s="25">
+        <v>2</v>
+      </c>
+      <c r="C73" s="25">
+        <v>6</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26">
+        <v>0</v>
+      </c>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26">
+        <v>0.6488874</v>
+      </c>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26">
+        <v>7.7437679999999998E-3</v>
+      </c>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="25">
+        <v>2</v>
+      </c>
+      <c r="B74" s="25">
+        <v>1</v>
+      </c>
+      <c r="C74" s="25">
+        <v>4</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="26">
         <v>0.30199999999999999</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F74" s="26">
         <v>0.81699999999999995</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G74" s="26">
         <v>0.54400000000000004</v>
       </c>
-      <c r="H36" s="33">
+      <c r="H74" s="26">
         <v>0.60599999999999998</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I74" s="26">
         <v>0.57199999999999995</v>
       </c>
-      <c r="J36" s="33">
+      <c r="J74" s="26">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K36" s="33">
+      <c r="K74" s="26">
         <v>0.30299999999999999</v>
       </c>
-      <c r="L36" s="33">
+      <c r="L74" s="26">
         <v>0.58899999999999997</v>
       </c>
-      <c r="M36" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D37" s="2" t="s">
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="25">
+        <v>2</v>
+      </c>
+      <c r="B75" s="25">
+        <v>1</v>
+      </c>
+      <c r="C75" s="25">
+        <v>4</v>
+      </c>
+      <c r="D75" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E75" s="26">
         <v>0.75</v>
       </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="F75" s="26">
+        <v>1</v>
+      </c>
+      <c r="G75" s="26">
         <v>0.88855510000000004</v>
       </c>
-      <c r="H37" s="3">
-        <v>1</v>
-      </c>
-      <c r="I37" s="3">
-        <v>1</v>
-      </c>
-      <c r="J37" s="3">
-        <v>1</v>
-      </c>
-      <c r="K37" s="3">
+      <c r="H75" s="26">
+        <v>1</v>
+      </c>
+      <c r="I75" s="26">
+        <v>1</v>
+      </c>
+      <c r="J75" s="26">
+        <v>1</v>
+      </c>
+      <c r="K75" s="26">
         <v>4.218152E-2</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L75" s="26">
         <v>1.1510090000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D38" s="2" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="25">
+        <v>2</v>
+      </c>
+      <c r="B76" s="25">
+        <v>1</v>
+      </c>
+      <c r="C76" s="25">
+        <v>4</v>
+      </c>
+      <c r="D76" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="E76" s="26">
+        <v>0</v>
+      </c>
+      <c r="F76" s="26">
+        <v>1</v>
+      </c>
+      <c r="G76" s="26">
         <v>0.48514679999999999</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H76" s="26">
         <v>0.61891649999999998</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I76" s="26">
         <v>2.3543147E-2</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J76" s="26">
         <v>1.641768E-2</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K76" s="26">
         <v>0.35473640000000001</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L76" s="26">
         <v>0.40268789999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D39" s="2" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="25">
+        <v>2</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1</v>
+      </c>
+      <c r="C77" s="25">
+        <v>4</v>
+      </c>
+      <c r="D77" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E77" s="26">
         <v>0.97</v>
       </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3">
+      <c r="F77" s="26">
+        <v>0</v>
+      </c>
+      <c r="G77" s="26">
         <v>0.50299190000000005</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H77" s="26">
         <v>0.50264589999999998</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I77" s="26">
         <v>7.1949529999999996E-3</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J77" s="26">
         <v>0.46699624000000001</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K77" s="26">
         <v>0.16584389999999999</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L77" s="26">
         <v>0.69085589999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D40" s="2" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="25">
+        <v>2</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1</v>
+      </c>
+      <c r="C78" s="25">
+        <v>4</v>
+      </c>
+      <c r="D78" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3">
+      <c r="E78" s="26">
+        <v>1</v>
+      </c>
+      <c r="F78" s="26">
+        <v>0</v>
+      </c>
+      <c r="G78" s="26">
         <v>0.5001428</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H78" s="26">
         <v>0.49940010000000001</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I78" s="26">
         <v>1.310224E-3</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J78" s="26">
         <v>0.46965412000000001</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K78" s="26">
         <v>0.16423289999999999</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L78" s="26">
         <v>0.25546540000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D41" s="2" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="25">
+        <v>2</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1</v>
+      </c>
+      <c r="C79" s="25">
         <v>4</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="D79" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26">
+        <v>1</v>
+      </c>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26">
         <v>0.61891649999999998</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="I79" s="26"/>
+      <c r="J79" s="26">
         <v>1.641768E-2</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K79" s="26">
         <v>0.35473640000000001</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L79" s="26">
         <v>0.40268809999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D42" s="2" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="25">
+        <v>2</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1</v>
+      </c>
+      <c r="C80" s="25">
+        <v>4</v>
+      </c>
+      <c r="D80" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="E80" s="26"/>
+      <c r="F80" s="26">
+        <v>1</v>
+      </c>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26">
         <v>0.60306510000000002</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="I80" s="26"/>
+      <c r="J80" s="26">
         <v>4.6320840000000002E-2</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K80" s="26">
         <v>0.88409870000000002</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L80" s="26">
         <v>0.57254910000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D43" s="2" t="s">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="25">
+        <v>2</v>
+      </c>
+      <c r="B81" s="25">
+        <v>1</v>
+      </c>
+      <c r="C81" s="25">
+        <v>4</v>
+      </c>
+      <c r="D81" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="E81" s="26"/>
+      <c r="F81" s="26">
+        <v>1</v>
+      </c>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26">
         <v>0.59942859999999998</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="I81" s="26"/>
+      <c r="J81" s="26">
         <v>1.275333E-2</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K81" s="26">
         <v>0.90193089999999998</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L81" s="26">
         <v>0.65962609999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>2</v>
-      </c>
-      <c r="B44" s="2">
-        <v>2</v>
-      </c>
-      <c r="C44" s="2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="25">
+        <v>2</v>
+      </c>
+      <c r="B82" s="25">
+        <v>2</v>
+      </c>
+      <c r="C82" s="25">
         <v>4</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D82" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="33">
+      <c r="E82" s="26">
         <v>0.41699999999999998</v>
       </c>
-      <c r="F44" s="33">
+      <c r="F82" s="26">
         <v>0.58099999999999996</v>
       </c>
-      <c r="G44" s="33">
+      <c r="G82" s="26">
         <v>0.54</v>
       </c>
-      <c r="H44" s="33">
+      <c r="H82" s="26">
         <v>0.58199999999999996</v>
       </c>
-      <c r="I44" s="33">
+      <c r="I82" s="26">
         <v>0.50900000000000001</v>
       </c>
-      <c r="J44" s="33">
+      <c r="J82" s="26">
         <v>0.16400000000000001</v>
       </c>
-      <c r="K44" s="33">
+      <c r="K82" s="26">
         <v>1.294</v>
       </c>
-      <c r="L44" s="33">
+      <c r="L82" s="26">
         <v>2.8039999999999998</v>
       </c>
-      <c r="M44" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D45" s="2" t="s">
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="25">
+        <v>2</v>
+      </c>
+      <c r="B83" s="25">
+        <v>2</v>
+      </c>
+      <c r="C83" s="25">
+        <v>4</v>
+      </c>
+      <c r="D83" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D46" s="2" t="s">
+      <c r="E83" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="F83" s="26">
+        <v>1</v>
+      </c>
+      <c r="G83" s="26">
+        <v>0.98882239999999999</v>
+      </c>
+      <c r="H83" s="26">
+        <v>1</v>
+      </c>
+      <c r="I83" s="26">
+        <v>0.97765299999999999</v>
+      </c>
+      <c r="J83" s="26">
+        <v>1</v>
+      </c>
+      <c r="K83" s="26">
+        <v>2.4284129999999999E-3</v>
+      </c>
+      <c r="L83" s="26">
+        <v>8.4551399999999999E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="25">
+        <v>2</v>
+      </c>
+      <c r="B84" s="25">
+        <v>2</v>
+      </c>
+      <c r="C84" s="25">
+        <v>4</v>
+      </c>
+      <c r="D84" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="E84" s="26">
+        <v>0</v>
+      </c>
+      <c r="F84" s="26">
         <v>0.98</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G84" s="26">
         <v>0.48614220000000002</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H84" s="26">
         <v>0.61971670000000001</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I84" s="26">
         <v>2.51334E-2</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J84" s="26">
         <v>1.7100230000000001E-2</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K84" s="26">
         <v>1.404069</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L84" s="26">
         <v>1.58856</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D47" s="2" t="s">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="25">
+        <v>2</v>
+      </c>
+      <c r="B85" s="25">
+        <v>2</v>
+      </c>
+      <c r="C85" s="25">
+        <v>4</v>
+      </c>
+      <c r="D85" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="E85" s="26">
+        <v>1</v>
+      </c>
+      <c r="F85" s="26">
+        <v>0</v>
+      </c>
+      <c r="G85" s="26">
         <v>0.5006024</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H85" s="26">
         <v>0.50041639999999998</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I85" s="26">
         <v>2.7489929999999999E-3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J85" s="26">
         <v>0.46782070999999997</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K85" s="26">
         <v>1.0430090000000001</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L85" s="26">
         <v>1.795995</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D48" s="2" t="s">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="25">
+        <v>2</v>
+      </c>
+      <c r="B86" s="25">
+        <v>2</v>
+      </c>
+      <c r="C86" s="25">
+        <v>4</v>
+      </c>
+      <c r="D86" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="E86" s="26">
+        <v>1</v>
+      </c>
+      <c r="F86" s="26">
+        <v>0</v>
+      </c>
+      <c r="G86" s="26">
         <v>0.50019760000000002</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H86" s="26">
         <v>0.49942180000000003</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I86" s="26">
         <v>1.1534959999999999E-3</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J86" s="26">
         <v>0.4690993</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K86" s="26">
         <v>1.0126869999999999</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L86" s="26">
         <v>1.3115190000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D49" s="2" t="s">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="25">
+        <v>2</v>
+      </c>
+      <c r="B87" s="25">
+        <v>2</v>
+      </c>
+      <c r="C87" s="25">
         <v>4</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="D87" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26">
         <v>0.98</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="G87" s="26"/>
+      <c r="H87" s="26">
         <v>0.61852850000000004</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="I87" s="26"/>
+      <c r="J87" s="26">
         <v>2.188992E-2</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K87" s="26">
         <v>1.404069</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L87" s="26">
         <v>1.588557</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D50" s="2" t="s">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="25">
+        <v>2</v>
+      </c>
+      <c r="B88" s="25">
+        <v>2</v>
+      </c>
+      <c r="C88" s="25">
+        <v>4</v>
+      </c>
+      <c r="D88" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="3">
+      <c r="E88" s="26"/>
+      <c r="F88" s="26">
+        <v>1</v>
+      </c>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26">
         <v>0.60410399999999997</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J50" s="3">
+      <c r="I88" s="26"/>
+      <c r="J88" s="26">
         <v>4.5042060000000002E-2</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K88" s="26">
         <v>3.9956119999999999</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L88" s="26">
         <v>3.2229019999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D51" s="2" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="25">
+        <v>2</v>
+      </c>
+      <c r="B89" s="25">
+        <v>2</v>
+      </c>
+      <c r="C89" s="25">
+        <v>4</v>
+      </c>
+      <c r="D89" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="3">
-        <v>1</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="3">
+      <c r="E89" s="26"/>
+      <c r="F89" s="26">
+        <v>1</v>
+      </c>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26">
         <v>0.59895620000000005</v>
       </c>
-      <c r="I51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J51" s="3">
+      <c r="I89" s="26"/>
+      <c r="J89" s="26">
         <v>1.253521E-2</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K89" s="26">
         <v>4.3594790000000003</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L89" s="26">
         <v>3.5113289999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>2</v>
-      </c>
-      <c r="B52" s="2">
-        <v>1</v>
-      </c>
-      <c r="C52" s="2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="25">
+        <v>2</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1</v>
+      </c>
+      <c r="C90" s="25">
         <v>6</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D90" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="33">
+      <c r="E90" s="26">
         <v>0.24299999999999999</v>
       </c>
-      <c r="F52" s="33">
+      <c r="F90" s="26">
         <v>0.85699999999999998</v>
       </c>
-      <c r="G52" s="33">
+      <c r="G90" s="26">
         <v>0.54</v>
       </c>
-      <c r="H52" s="33">
+      <c r="H90" s="26">
         <v>0.60699999999999998</v>
       </c>
-      <c r="I52" s="33">
+      <c r="I90" s="26">
         <v>0.57299999999999995</v>
       </c>
-      <c r="J52" s="33">
+      <c r="J90" s="26">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="K52" s="33">
+      <c r="K90" s="26">
         <v>0.309</v>
       </c>
-      <c r="L52" s="33">
+      <c r="L90" s="26">
         <v>0.58099999999999996</v>
       </c>
-      <c r="M52" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D53" s="2" t="s">
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="25">
+        <v>2</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1</v>
+      </c>
+      <c r="C91" s="25">
+        <v>6</v>
+      </c>
+      <c r="D91" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E91" s="26">
         <v>0.75</v>
       </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3">
+      <c r="F91" s="26">
+        <v>1</v>
+      </c>
+      <c r="G91" s="26">
         <v>0.88855510000000004</v>
       </c>
-      <c r="H53" s="3">
-        <v>1</v>
-      </c>
-      <c r="I53" s="3">
-        <v>1</v>
-      </c>
-      <c r="J53" s="3">
-        <v>1</v>
-      </c>
-      <c r="K53" s="3">
+      <c r="H91" s="26">
+        <v>1</v>
+      </c>
+      <c r="I91" s="26">
+        <v>1</v>
+      </c>
+      <c r="J91" s="26">
+        <v>1</v>
+      </c>
+      <c r="K91" s="26">
         <v>4.218152E-2</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L91" s="26">
         <v>1.1510090000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D54" s="2" t="s">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="25">
+        <v>2</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1</v>
+      </c>
+      <c r="C92" s="25">
+        <v>6</v>
+      </c>
+      <c r="D92" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E92" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F92" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G92" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H92" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I92" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J92" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="K92" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L54" s="3" t="s">
+      <c r="L92" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D55" s="2" t="s">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="25">
+        <v>2</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1</v>
+      </c>
+      <c r="C93" s="25">
+        <v>6</v>
+      </c>
+      <c r="D93" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E93" s="26">
         <v>0.97</v>
       </c>
-      <c r="F55" s="3">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3">
+      <c r="F93" s="26">
+        <v>0</v>
+      </c>
+      <c r="G93" s="26">
         <v>0.50299190000000005</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H93" s="26">
         <v>0.50264589999999998</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I93" s="26">
         <v>7.1949529999999996E-3</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J93" s="26">
         <v>0.46699624299999998</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K93" s="26">
         <v>0.16584389999999999</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L93" s="26">
         <v>0.69085589999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D56" s="2" t="s">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="25">
+        <v>2</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1</v>
+      </c>
+      <c r="C94" s="25">
+        <v>6</v>
+      </c>
+      <c r="D94" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="3">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3">
+      <c r="E94" s="26">
+        <v>1</v>
+      </c>
+      <c r="F94" s="26">
+        <v>0</v>
+      </c>
+      <c r="G94" s="26">
         <v>0.5001428</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H94" s="26">
         <v>0.49940010000000001</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I94" s="26">
         <v>1.310224E-3</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J94" s="26">
         <v>0.46965411699999998</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K94" s="26">
         <v>0.16423289999999999</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L94" s="26">
         <v>0.25546540000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D57" s="2" t="s">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="25">
+        <v>2</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1</v>
+      </c>
+      <c r="C95" s="25">
+        <v>6</v>
+      </c>
+      <c r="D95" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="E95" s="26"/>
+      <c r="F95" s="26">
         <v>0.9375</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="G95" s="26"/>
+      <c r="H95" s="26">
         <v>0.61811769999999999</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="I95" s="26"/>
+      <c r="J95" s="26">
         <v>3.5187431999999998E-2</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K95" s="26">
         <v>0.34959499999999999</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L95" s="26">
         <v>0.39149319999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D58" s="2" t="s">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="25">
+        <v>2</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1</v>
+      </c>
+      <c r="C96" s="25">
+        <v>6</v>
+      </c>
+      <c r="D96" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="E96" s="26"/>
+      <c r="F96" s="26">
+        <v>0</v>
+      </c>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26">
         <v>0.64135560000000003</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="I96" s="26"/>
+      <c r="J96" s="26">
         <v>3.8120754999999999E-2</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D59" s="2" t="s">
+      <c r="K96" s="26"/>
+      <c r="L96" s="26"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="25">
+        <v>2</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1</v>
+      </c>
+      <c r="C97" s="25">
+        <v>6</v>
+      </c>
+      <c r="D97" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="E97" s="26"/>
+      <c r="F97" s="26">
+        <v>0</v>
+      </c>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26">
         <v>0.63485599999999998</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="I97" s="26"/>
+      <c r="J97" s="26">
         <v>9.5159560000000008E-3</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>2</v>
-      </c>
-      <c r="B60" s="2">
-        <v>2</v>
-      </c>
-      <c r="C60" s="2">
+      <c r="K97" s="26"/>
+      <c r="L97" s="26"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="25">
+        <v>2</v>
+      </c>
+      <c r="B98" s="25">
+        <v>2</v>
+      </c>
+      <c r="C98" s="25">
         <v>6</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D98" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="33">
+      <c r="E98" s="26">
         <v>0.51900000000000002</v>
       </c>
-      <c r="F60" s="33">
+      <c r="F98" s="26">
         <v>0.63</v>
       </c>
-      <c r="G60" s="33">
+      <c r="G98" s="26">
         <v>0.53900000000000003</v>
       </c>
-      <c r="H60" s="33">
+      <c r="H98" s="26">
         <v>0.58599999999999997</v>
       </c>
-      <c r="I60" s="33">
+      <c r="I98" s="26">
         <v>0.40699999999999997</v>
       </c>
-      <c r="J60" s="33">
+      <c r="J98" s="26">
         <v>0.151</v>
       </c>
-      <c r="K60" s="33">
+      <c r="K98" s="26">
         <v>1.321</v>
       </c>
-      <c r="L60" s="33">
+      <c r="L98" s="26">
         <v>2.4830000000000001</v>
       </c>
-      <c r="M60" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D61" s="2" t="s">
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="25">
+        <v>2</v>
+      </c>
+      <c r="B99" s="25">
+        <v>2</v>
+      </c>
+      <c r="C99" s="25">
+        <v>6</v>
+      </c>
+      <c r="D99" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D62" s="2" t="s">
+      <c r="E99" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="F99" s="26">
+        <v>1</v>
+      </c>
+      <c r="G99" s="26">
+        <v>0.98882239999999999</v>
+      </c>
+      <c r="H99" s="26">
+        <v>1</v>
+      </c>
+      <c r="I99" s="26">
+        <v>0.97765299999999999</v>
+      </c>
+      <c r="J99" s="26">
+        <v>1</v>
+      </c>
+      <c r="K99" s="26">
+        <v>2.4284129999999999E-3</v>
+      </c>
+      <c r="L99" s="26">
+        <v>8.4551399999999999E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="25">
+        <v>2</v>
+      </c>
+      <c r="B100" s="25">
+        <v>2</v>
+      </c>
+      <c r="C100" s="25">
+        <v>6</v>
+      </c>
+      <c r="D100" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E100" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F100" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G100" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H100" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="I100" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="J100" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="K100" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L62" s="3" t="s">
+      <c r="L100" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D63" s="2" t="s">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="25">
+        <v>2</v>
+      </c>
+      <c r="B101" s="25">
+        <v>2</v>
+      </c>
+      <c r="C101" s="25">
+        <v>6</v>
+      </c>
+      <c r="D101" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="3">
-        <v>1</v>
-      </c>
-      <c r="F63" s="3">
-        <v>0</v>
-      </c>
-      <c r="G63" s="3">
+      <c r="E101" s="26">
+        <v>1</v>
+      </c>
+      <c r="F101" s="26">
+        <v>0</v>
+      </c>
+      <c r="G101" s="26">
         <v>0.5006024</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H101" s="26">
         <v>0.50041639999999998</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I101" s="26">
         <v>2.7489929999999999E-3</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J101" s="26">
         <v>0.46782070799999997</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K101" s="26">
         <v>1.0430090000000001</v>
       </c>
-      <c r="L63" s="3">
+      <c r="L101" s="26">
         <v>1.795995</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D64" s="2" t="s">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="25">
+        <v>2</v>
+      </c>
+      <c r="B102" s="25">
+        <v>2</v>
+      </c>
+      <c r="C102" s="25">
+        <v>6</v>
+      </c>
+      <c r="D102" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3">
-        <v>0</v>
-      </c>
-      <c r="G64" s="3">
+      <c r="E102" s="26">
+        <v>1</v>
+      </c>
+      <c r="F102" s="26">
+        <v>0</v>
+      </c>
+      <c r="G102" s="26">
         <v>0.50019760000000002</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H102" s="26">
         <v>0.49942180000000003</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I102" s="26">
         <v>1.1534959999999999E-3</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J102" s="26">
         <v>0.46909929700000003</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K102" s="26">
         <v>1.0126869999999999</v>
       </c>
-      <c r="L64" s="3">
+      <c r="L102" s="26">
         <v>1.3115190000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D65" s="2" t="s">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="25">
+        <v>2</v>
+      </c>
+      <c r="B103" s="25">
+        <v>2</v>
+      </c>
+      <c r="C103" s="25">
+        <v>6</v>
+      </c>
+      <c r="D103" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="3">
-        <v>1</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="3">
+      <c r="E103" s="26"/>
+      <c r="F103" s="26">
+        <v>1</v>
+      </c>
+      <c r="G103" s="26"/>
+      <c r="H103" s="26">
         <v>0.62055879999999997</v>
       </c>
-      <c r="I65" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J65" s="3">
+      <c r="I103" s="26"/>
+      <c r="J103" s="26">
         <v>2.0735995E-2</v>
       </c>
-      <c r="K65" s="3">
+      <c r="K103" s="26">
         <v>1.46031</v>
       </c>
-      <c r="L65" s="3">
+      <c r="L103" s="26">
         <v>1.648676</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D66" s="2" t="s">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="25">
+        <v>2</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2</v>
+      </c>
+      <c r="C104" s="25">
+        <v>6</v>
+      </c>
+      <c r="D104" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="E104" s="26"/>
+      <c r="F104" s="26">
+        <v>0</v>
+      </c>
+      <c r="G104" s="26"/>
+      <c r="H104" s="26">
         <v>0.64036340000000003</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="I104" s="26"/>
+      <c r="J104" s="26">
         <v>3.9284652000000003E-2</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D67" s="2" t="s">
+      <c r="K104" s="26"/>
+      <c r="L104" s="26"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="25">
+        <v>2</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2</v>
+      </c>
+      <c r="C105" s="25">
+        <v>6</v>
+      </c>
+      <c r="D105" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="3">
-        <v>0</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="3">
+      <c r="E105" s="26"/>
+      <c r="F105" s="26">
+        <v>0</v>
+      </c>
+      <c r="G105" s="26"/>
+      <c r="H105" s="26">
         <v>0.63417820000000003</v>
       </c>
-      <c r="I67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J67" s="3">
+      <c r="I105" s="26"/>
+      <c r="J105" s="26">
         <v>9.7139489999999995E-3</v>
       </c>
-      <c r="K67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="K105" s="26"/>
+      <c r="L105" s="26"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="25">
         <v>3</v>
       </c>
-      <c r="B72" s="2">
-        <v>1</v>
-      </c>
-      <c r="C72" s="2">
+      <c r="B106" s="25">
+        <v>1</v>
+      </c>
+      <c r="C106" s="25">
         <v>4</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D106" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D73" s="2" t="s">
+      <c r="E106" s="26">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="F106" s="26">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="G106" s="26">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="H106" s="26">
+        <v>0.61</v>
+      </c>
+      <c r="I106" s="26">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="J106" s="26">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="K106" s="26">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="L106" s="26">
+        <v>0.60699999999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="25">
+        <v>3</v>
+      </c>
+      <c r="B107" s="25">
+        <v>1</v>
+      </c>
+      <c r="C107" s="25">
+        <v>4</v>
+      </c>
+      <c r="D107" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D74" s="2" t="s">
+      <c r="E107" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="F107" s="26">
+        <v>1</v>
+      </c>
+      <c r="G107" s="26">
+        <v>0.91057960000000004</v>
+      </c>
+      <c r="H107" s="26">
+        <v>1</v>
+      </c>
+      <c r="I107" s="26">
+        <v>0.82107819999999998</v>
+      </c>
+      <c r="J107" s="26">
+        <v>1</v>
+      </c>
+      <c r="K107" s="26">
+        <v>2.5128239999999999E-3</v>
+      </c>
+      <c r="L107" s="26">
+        <v>7.2313899999999999E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="25">
+        <v>3</v>
+      </c>
+      <c r="B108" s="25">
+        <v>1</v>
+      </c>
+      <c r="C108" s="25">
+        <v>4</v>
+      </c>
+      <c r="D108" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="3">
-        <v>0</v>
-      </c>
-      <c r="F74" s="3">
+      <c r="E108" s="26">
+        <v>0</v>
+      </c>
+      <c r="F108" s="26">
         <v>0.99</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G108" s="26">
         <v>0.509324</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H108" s="26">
         <v>0.61830839999999998</v>
       </c>
-      <c r="I74" s="3">
+      <c r="I108" s="26">
         <v>1.7839302000000001E-2</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J108" s="26">
         <v>1.3347727E-2</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K108" s="26">
         <v>0.37302750000000001</v>
       </c>
-      <c r="L74" s="3">
+      <c r="L108" s="26">
         <v>0.42100369999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D75" s="2" t="s">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="25">
+        <v>3</v>
+      </c>
+      <c r="B109" s="25">
+        <v>1</v>
+      </c>
+      <c r="C109" s="25">
+        <v>4</v>
+      </c>
+      <c r="D109" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="3">
-        <v>1</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0</v>
-      </c>
-      <c r="G75" s="3">
+      <c r="E109" s="26">
+        <v>1</v>
+      </c>
+      <c r="F109" s="26">
+        <v>0</v>
+      </c>
+      <c r="G109" s="26">
         <v>0.4996314</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H109" s="26">
         <v>0.49861270000000002</v>
       </c>
-      <c r="I75" s="3">
+      <c r="I109" s="26">
         <v>1.5362559999999999E-3</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J109" s="26">
         <v>0.45310223199999999</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K109" s="26">
         <v>0.18516199999999999</v>
       </c>
-      <c r="L75" s="3">
+      <c r="L109" s="26">
         <v>0.4722713</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D76" s="2" t="s">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="25">
+        <v>3</v>
+      </c>
+      <c r="B110" s="25">
+        <v>1</v>
+      </c>
+      <c r="C110" s="25">
+        <v>4</v>
+      </c>
+      <c r="D110" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E76" s="3">
-        <v>1</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="E110" s="26">
+        <v>1</v>
+      </c>
+      <c r="F110" s="26">
+        <v>0</v>
+      </c>
+      <c r="G110" s="26">
         <v>0.49987609999999999</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H110" s="26">
         <v>0.49874869999999999</v>
       </c>
-      <c r="I76" s="3">
+      <c r="I110" s="26">
         <v>1.3176419999999999E-3</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J110" s="26">
         <v>0.45335917199999998</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K110" s="26">
         <v>0.1819547</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L110" s="26">
         <v>0.24773890000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D77" s="2" t="s">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" s="25">
+        <v>3</v>
+      </c>
+      <c r="B111" s="25">
+        <v>1</v>
+      </c>
+      <c r="C111" s="25">
         <v>4</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="3">
+      <c r="D111" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26">
         <v>0.99</v>
       </c>
-      <c r="G77" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="3">
+      <c r="G111" s="26"/>
+      <c r="H111" s="26">
         <v>0.61756960000000005</v>
       </c>
-      <c r="I77" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J77" s="3">
+      <c r="I111" s="26"/>
+      <c r="J111" s="26">
         <v>1.5629875000000001E-2</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K111" s="26">
         <v>0.37302750000000001</v>
       </c>
-      <c r="L77" s="3">
+      <c r="L111" s="26">
         <v>0.42100379999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D78" s="2" t="s">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" s="25">
+        <v>3</v>
+      </c>
+      <c r="B112" s="25">
+        <v>1</v>
+      </c>
+      <c r="C112" s="25">
+        <v>4</v>
+      </c>
+      <c r="D112" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="3">
-        <v>1</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="3">
+      <c r="E112" s="26"/>
+      <c r="F112" s="26">
+        <v>1</v>
+      </c>
+      <c r="G112" s="26"/>
+      <c r="H112" s="26">
         <v>0.59760919999999995</v>
       </c>
-      <c r="I78" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J78" s="3">
+      <c r="I112" s="26"/>
+      <c r="J112" s="26">
         <v>7.8452420000000005E-3</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K112" s="26">
         <v>0.99845050000000002</v>
       </c>
-      <c r="L78" s="3">
+      <c r="L112" s="26">
         <v>0.80892180000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D79" s="2" t="s">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="25">
+        <v>3</v>
+      </c>
+      <c r="B113" s="25">
+        <v>1</v>
+      </c>
+      <c r="C113" s="25">
+        <v>4</v>
+      </c>
+      <c r="D113" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="3">
-        <v>1</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" s="3">
+      <c r="E113" s="26"/>
+      <c r="F113" s="26">
+        <v>1</v>
+      </c>
+      <c r="G113" s="26"/>
+      <c r="H113" s="26">
         <v>0.59809959999999995</v>
       </c>
-      <c r="I79" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J79" s="3">
+      <c r="I113" s="26"/>
+      <c r="J113" s="26">
         <v>1.0433082E-2</v>
       </c>
-      <c r="K79" s="3">
+      <c r="K113" s="26">
         <v>0.89865110000000004</v>
       </c>
-      <c r="L79" s="3">
+      <c r="L113" s="26">
         <v>0.82901279999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" s="25">
         <v>3</v>
       </c>
-      <c r="B80" s="2">
-        <v>2</v>
-      </c>
-      <c r="C80" s="2">
+      <c r="B114" s="25">
+        <v>2</v>
+      </c>
+      <c r="C114" s="25">
         <v>4</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D114" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D81" s="2" t="s">
+      <c r="E114" s="26">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="F114" s="26">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="G114" s="26">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="H114" s="26">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="I114" s="26">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="J114" s="26">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K114" s="26">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="L114" s="26">
+        <v>1.4550000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" s="25">
+        <v>3</v>
+      </c>
+      <c r="B115" s="25">
+        <v>2</v>
+      </c>
+      <c r="C115" s="25">
+        <v>4</v>
+      </c>
+      <c r="D115" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D82" s="2" t="s">
+      <c r="E115" s="26">
+        <v>0</v>
+      </c>
+      <c r="F115" s="26">
+        <v>1</v>
+      </c>
+      <c r="G115" s="26">
+        <v>0.82115910000000003</v>
+      </c>
+      <c r="H115" s="26">
+        <v>1</v>
+      </c>
+      <c r="I115" s="26">
+        <v>0.6420361</v>
+      </c>
+      <c r="J115" s="26">
+        <v>1</v>
+      </c>
+      <c r="K115" s="26">
+        <v>4.2946480000000002E-2</v>
+      </c>
+      <c r="L115" s="26">
+        <v>4.6618519999999997E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="25">
+        <v>3</v>
+      </c>
+      <c r="B116" s="25">
+        <v>2</v>
+      </c>
+      <c r="C116" s="25">
+        <v>4</v>
+      </c>
+      <c r="D116" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E82" s="3">
-        <v>0</v>
-      </c>
-      <c r="F82" s="3">
+      <c r="E116" s="26">
+        <v>0</v>
+      </c>
+      <c r="F116" s="26">
         <v>0.99</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G116" s="26">
         <v>0.50999640000000002</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H116" s="26">
         <v>0.61889470000000002</v>
       </c>
-      <c r="I82" s="3">
+      <c r="I116" s="26">
         <v>1.9203184000000002E-2</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J116" s="26">
         <v>1.4781588999999999E-2</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K116" s="26">
         <v>1.4676290000000001</v>
       </c>
-      <c r="L82" s="3">
+      <c r="L116" s="26">
         <v>1.6576139999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D83" s="2" t="s">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="25">
+        <v>3</v>
+      </c>
+      <c r="B117" s="25">
+        <v>2</v>
+      </c>
+      <c r="C117" s="25">
+        <v>4</v>
+      </c>
+      <c r="D117" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E83" s="3">
-        <v>1</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
+      <c r="E117" s="26">
+        <v>1</v>
+      </c>
+      <c r="F117" s="26">
+        <v>0</v>
+      </c>
+      <c r="G117" s="26">
         <v>0.49965769999999998</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H117" s="26">
         <v>0.49907449999999998</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I117" s="26">
         <v>1.6990779999999999E-3</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J117" s="26">
         <v>0.45216907899999997</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K117" s="26">
         <v>1.0738019999999999</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L117" s="26">
         <v>1.6345989999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D84" s="2" t="s">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" s="25">
+        <v>3</v>
+      </c>
+      <c r="B118" s="25">
+        <v>2</v>
+      </c>
+      <c r="C118" s="25">
+        <v>4</v>
+      </c>
+      <c r="D118" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E84" s="3">
-        <v>1</v>
-      </c>
-      <c r="F84" s="3">
-        <v>0</v>
-      </c>
-      <c r="G84" s="3">
+      <c r="E118" s="26">
+        <v>1</v>
+      </c>
+      <c r="F118" s="26">
+        <v>0</v>
+      </c>
+      <c r="G118" s="26">
         <v>0.49992760000000003</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H118" s="26">
         <v>0.49863289999999999</v>
       </c>
-      <c r="I84" s="3">
+      <c r="I118" s="26">
         <v>1.530238E-3</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J118" s="26">
         <v>0.45410774999999998</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K118" s="26">
         <v>1.0995760000000001</v>
       </c>
-      <c r="L84" s="3">
+      <c r="L118" s="26">
         <v>1.3235920000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D85" s="2" t="s">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="25">
+        <v>3</v>
+      </c>
+      <c r="B119" s="25">
+        <v>2</v>
+      </c>
+      <c r="C119" s="25">
         <v>4</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="3">
+      <c r="D119" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" s="26"/>
+      <c r="F119" s="26">
         <v>0.99</v>
       </c>
-      <c r="G85" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="3">
+      <c r="G119" s="26"/>
+      <c r="H119" s="26">
         <v>0.61823050000000002</v>
       </c>
-      <c r="I85" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J85" s="3">
+      <c r="I119" s="26"/>
+      <c r="J119" s="26">
         <v>1.7036754000000001E-2</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K119" s="26">
         <v>1.4676290000000001</v>
       </c>
-      <c r="L85" s="3">
+      <c r="L119" s="26">
         <v>1.6576150000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D86" s="2" t="s">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" s="25">
+        <v>3</v>
+      </c>
+      <c r="B120" s="25">
+        <v>2</v>
+      </c>
+      <c r="C120" s="25">
+        <v>4</v>
+      </c>
+      <c r="D120" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="3">
-        <v>1</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" s="3">
+      <c r="E120" s="26"/>
+      <c r="F120" s="26">
+        <v>1</v>
+      </c>
+      <c r="G120" s="26"/>
+      <c r="H120" s="26">
         <v>0.59646010000000005</v>
       </c>
-      <c r="I86" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J86" s="3">
+      <c r="I120" s="26"/>
+      <c r="J120" s="26">
         <v>5.2598829999999999E-3</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K120" s="26">
         <v>5.5891390000000003</v>
       </c>
-      <c r="L86" s="3">
+      <c r="L120" s="26">
         <v>5.431514</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D87" s="2" t="s">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" s="25">
+        <v>3</v>
+      </c>
+      <c r="B121" s="25">
+        <v>2</v>
+      </c>
+      <c r="C121" s="25">
+        <v>4</v>
+      </c>
+      <c r="D121" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="3">
-        <v>1</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="3">
+      <c r="E121" s="26"/>
+      <c r="F121" s="26">
+        <v>1</v>
+      </c>
+      <c r="G121" s="26"/>
+      <c r="H121" s="26">
         <v>0.59716279999999999</v>
       </c>
-      <c r="I87" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J87" s="3">
+      <c r="I121" s="26"/>
+      <c r="J121" s="26">
         <v>9.9719060000000009E-3</v>
       </c>
-      <c r="K87" s="3">
+      <c r="K121" s="26">
         <v>4.4678139999999997</v>
       </c>
-      <c r="L87" s="3">
+      <c r="L121" s="26">
         <v>3.479406</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" s="25">
         <v>3</v>
       </c>
-      <c r="B88" s="2">
-        <v>1</v>
-      </c>
-      <c r="C88" s="2">
+      <c r="B122" s="25">
+        <v>1</v>
+      </c>
+      <c r="C122" s="25">
         <v>6</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D122" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D89" s="2" t="s">
+      <c r="E122" s="26">
+        <v>0.31</v>
+      </c>
+      <c r="F122" s="26">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="G122" s="26">
+        <v>0.505</v>
+      </c>
+      <c r="H122" s="26">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="I122" s="26">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="J122" s="26">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="K122" s="26">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L122" s="26">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" s="25">
+        <v>3</v>
+      </c>
+      <c r="B123" s="25">
+        <v>1</v>
+      </c>
+      <c r="C123" s="25">
+        <v>6</v>
+      </c>
+      <c r="D123" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D90" s="2" t="s">
+      <c r="E123" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="F123" s="26">
+        <v>1</v>
+      </c>
+      <c r="G123" s="26">
+        <v>0.91057960000000004</v>
+      </c>
+      <c r="H123" s="26">
+        <v>1</v>
+      </c>
+      <c r="I123" s="26">
+        <v>0.82107819999999998</v>
+      </c>
+      <c r="J123" s="26">
+        <v>1</v>
+      </c>
+      <c r="K123" s="26">
+        <v>2.5128239999999999E-3</v>
+      </c>
+      <c r="L123" s="26">
+        <v>7.2313899999999999E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="25">
+        <v>3</v>
+      </c>
+      <c r="B124" s="25">
+        <v>1</v>
+      </c>
+      <c r="C124" s="25">
+        <v>6</v>
+      </c>
+      <c r="D124" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E124" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F124" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="G124" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="H124" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I90" s="3" t="s">
+      <c r="I124" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="J90" s="3" t="s">
+      <c r="J124" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K90" s="3" t="s">
+      <c r="K124" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L90" s="3" t="s">
+      <c r="L124" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D91" s="2" t="s">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="25">
+        <v>3</v>
+      </c>
+      <c r="B125" s="25">
+        <v>1</v>
+      </c>
+      <c r="C125" s="25">
+        <v>6</v>
+      </c>
+      <c r="D125" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E91" s="3">
-        <v>1</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="E125" s="26">
+        <v>1</v>
+      </c>
+      <c r="F125" s="26">
+        <v>0</v>
+      </c>
+      <c r="G125" s="26">
         <v>0.4996314</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H125" s="26">
         <v>0.49861270000000002</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I125" s="26">
         <v>1.5362559999999999E-3</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J125" s="26">
         <v>0.45310223199999999</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K125" s="26">
         <v>0.18516199999999999</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L125" s="26">
         <v>0.4722713</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D92" s="2" t="s">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="25">
+        <v>3</v>
+      </c>
+      <c r="B126" s="25">
+        <v>1</v>
+      </c>
+      <c r="C126" s="25">
+        <v>6</v>
+      </c>
+      <c r="D126" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E92" s="3">
-        <v>1</v>
-      </c>
-      <c r="F92" s="3">
-        <v>0</v>
-      </c>
-      <c r="G92" s="3">
+      <c r="E126" s="26">
+        <v>1</v>
+      </c>
+      <c r="F126" s="26">
+        <v>0</v>
+      </c>
+      <c r="G126" s="26">
         <v>0.49987609999999999</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H126" s="26">
         <v>0.49874869999999999</v>
       </c>
-      <c r="I92" s="3">
+      <c r="I126" s="26">
         <v>1.3176419999999999E-3</v>
       </c>
-      <c r="J92" s="3">
+      <c r="J126" s="26">
         <v>0.45335917199999998</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K126" s="26">
         <v>0.1819547</v>
       </c>
-      <c r="L92" s="3">
+      <c r="L126" s="26">
         <v>0.24773890000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D93" s="2" t="s">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="25">
+        <v>3</v>
+      </c>
+      <c r="B127" s="25">
+        <v>1</v>
+      </c>
+      <c r="C127" s="25">
+        <v>6</v>
+      </c>
+      <c r="D127" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="3">
-        <v>1</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="3">
+      <c r="E127" s="26"/>
+      <c r="F127" s="26">
+        <v>1</v>
+      </c>
+      <c r="G127" s="26"/>
+      <c r="H127" s="26">
         <v>0.6175832</v>
       </c>
-      <c r="I93" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J93" s="3">
+      <c r="I127" s="26"/>
+      <c r="J127" s="26">
         <v>1.2067694E-2</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K127" s="26">
         <v>0.33534170000000002</v>
       </c>
-      <c r="L93" s="3">
+      <c r="L127" s="26">
         <v>0.43632710000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D94" s="2" t="s">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="25">
+        <v>3</v>
+      </c>
+      <c r="B128" s="25">
+        <v>1</v>
+      </c>
+      <c r="C128" s="25">
+        <v>6</v>
+      </c>
+      <c r="D128" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="E128" s="26"/>
+      <c r="F128" s="26">
+        <v>0</v>
+      </c>
+      <c r="G128" s="26"/>
+      <c r="H128" s="26">
         <v>0.63480899999999996</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="I128" s="26"/>
+      <c r="J128" s="26">
         <v>5.9267809999999999E-3</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D95" s="2" t="s">
+      <c r="K128" s="26"/>
+      <c r="L128" s="26"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="25">
+        <v>3</v>
+      </c>
+      <c r="B129" s="25">
+        <v>1</v>
+      </c>
+      <c r="C129" s="25">
+        <v>6</v>
+      </c>
+      <c r="D129" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" s="3">
-        <v>0</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" s="3">
+      <c r="E129" s="26"/>
+      <c r="F129" s="26">
+        <v>0</v>
+      </c>
+      <c r="G129" s="26"/>
+      <c r="H129" s="26">
         <v>0.63306189999999996</v>
       </c>
-      <c r="I95" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J95" s="3">
+      <c r="I129" s="26"/>
+      <c r="J129" s="26">
         <v>7.6598179999999997E-3</v>
       </c>
-      <c r="K95" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L95" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+      <c r="K129" s="26"/>
+      <c r="L129" s="26"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" s="25">
         <v>3</v>
       </c>
-      <c r="B96" s="2">
-        <v>2</v>
-      </c>
-      <c r="C96" s="2">
+      <c r="B130" s="25">
+        <v>2</v>
+      </c>
+      <c r="C130" s="25">
         <v>6</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D130" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D97" s="2" t="s">
+      <c r="E130" s="26">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F130" s="26">
+        <v>1</v>
+      </c>
+      <c r="G130" s="26">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="H130" s="26">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="I130" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J130" s="26">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K130" s="26">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="L130" s="26">
+        <v>2.206</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" s="25">
+        <v>3</v>
+      </c>
+      <c r="B131" s="25">
+        <v>2</v>
+      </c>
+      <c r="C131" s="25">
+        <v>6</v>
+      </c>
+      <c r="D131" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D98" s="2" t="s">
+      <c r="E131" s="26">
+        <v>0</v>
+      </c>
+      <c r="F131" s="26">
+        <v>1</v>
+      </c>
+      <c r="G131" s="26">
+        <v>0.82115910000000003</v>
+      </c>
+      <c r="H131" s="26">
+        <v>1</v>
+      </c>
+      <c r="I131" s="26">
+        <v>0.6420361</v>
+      </c>
+      <c r="J131" s="26">
+        <v>1</v>
+      </c>
+      <c r="K131" s="26">
+        <v>4.2946480000000002E-2</v>
+      </c>
+      <c r="L131" s="26">
+        <v>4.6618519999999997E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="25">
+        <v>3</v>
+      </c>
+      <c r="B132" s="25">
+        <v>2</v>
+      </c>
+      <c r="C132" s="25">
+        <v>6</v>
+      </c>
+      <c r="D132" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E132" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="F132" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="G132" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="H98" s="3" t="s">
+      <c r="H132" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I98" s="3" t="s">
+      <c r="I132" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="J98" s="3" t="s">
+      <c r="J132" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K98" s="3" t="s">
+      <c r="K132" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L98" s="3" t="s">
+      <c r="L132" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D99" s="2" t="s">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" s="25">
+        <v>3</v>
+      </c>
+      <c r="B133" s="25">
+        <v>2</v>
+      </c>
+      <c r="C133" s="25">
+        <v>6</v>
+      </c>
+      <c r="D133" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="3">
-        <v>1</v>
-      </c>
-      <c r="F99" s="3">
-        <v>0</v>
-      </c>
-      <c r="G99" s="3">
+      <c r="E133" s="26">
+        <v>1</v>
+      </c>
+      <c r="F133" s="26">
+        <v>0</v>
+      </c>
+      <c r="G133" s="26">
         <v>0.49965769999999998</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H133" s="26">
         <v>0.49907449999999998</v>
       </c>
-      <c r="I99" s="3">
+      <c r="I133" s="26">
         <v>1.6990779999999999E-3</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J133" s="26">
         <v>0.45216907899999997</v>
       </c>
-      <c r="K99" s="3">
+      <c r="K133" s="26">
         <v>1.0738019999999999</v>
       </c>
-      <c r="L99" s="3">
+      <c r="L133" s="26">
         <v>1.6345989999999999</v>
       </c>
     </row>
-    <row r="100" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D100" s="2" t="s">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" s="25">
+        <v>3</v>
+      </c>
+      <c r="B134" s="25">
+        <v>2</v>
+      </c>
+      <c r="C134" s="25">
+        <v>6</v>
+      </c>
+      <c r="D134" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="3">
-        <v>1</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="E134" s="26">
+        <v>1</v>
+      </c>
+      <c r="F134" s="26">
+        <v>0</v>
+      </c>
+      <c r="G134" s="26">
         <v>0.49992760000000003</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H134" s="26">
         <v>0.49863289999999999</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I134" s="26">
         <v>1.530238E-3</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J134" s="26">
         <v>0.45410774999999998</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K134" s="26">
         <v>1.0995760000000001</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L134" s="26">
         <v>1.3235920000000001</v>
       </c>
     </row>
-    <row r="101" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D101" s="2" t="s">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" s="25">
+        <v>3</v>
+      </c>
+      <c r="B135" s="25">
+        <v>2</v>
+      </c>
+      <c r="C135" s="25">
+        <v>6</v>
+      </c>
+      <c r="D135" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="3">
-        <v>1</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="E135" s="26"/>
+      <c r="F135" s="26">
+        <v>1</v>
+      </c>
+      <c r="G135" s="26"/>
+      <c r="H135" s="26">
         <v>0.62117169999999999</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="I135" s="26"/>
+      <c r="J135" s="26">
         <v>2.133641E-2</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K135" s="26">
         <v>1.4469719999999999</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L135" s="26">
         <v>1.593059</v>
       </c>
     </row>
-    <row r="102" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D102" s="2" t="s">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" s="25">
+        <v>3</v>
+      </c>
+      <c r="B136" s="25">
+        <v>2</v>
+      </c>
+      <c r="C136" s="25">
+        <v>6</v>
+      </c>
+      <c r="D136" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="E136" s="26"/>
+      <c r="F136" s="26">
+        <v>0</v>
+      </c>
+      <c r="G136" s="26"/>
+      <c r="H136" s="26">
         <v>0.63331740000000003</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="I136" s="26"/>
+      <c r="J136" s="26">
         <v>5.060335E-3</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D103" s="2" t="s">
+      <c r="K136" s="26"/>
+      <c r="L136" s="26"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" s="25">
+        <v>3</v>
+      </c>
+      <c r="B137" s="25">
+        <v>2</v>
+      </c>
+      <c r="C137" s="25">
+        <v>6</v>
+      </c>
+      <c r="D137" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="3">
-        <v>0</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" s="3">
+      <c r="E137" s="26"/>
+      <c r="F137" s="26">
+        <v>0</v>
+      </c>
+      <c r="G137" s="26"/>
+      <c r="H137" s="26">
         <v>0.63432569999999999</v>
       </c>
-      <c r="I103" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J103" s="3">
+      <c r="I137" s="26"/>
+      <c r="J137" s="26">
         <v>8.7049750000000002E-3</v>
       </c>
-      <c r="K103" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L103" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-    </row>
-    <row r="105" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-    </row>
-    <row r="106" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-    </row>
-    <row r="107" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-    </row>
-    <row r="108" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-    </row>
-    <row r="109" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-    </row>
-    <row r="110" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-    </row>
-    <row r="111" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-    </row>
-    <row r="112" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-    </row>
-    <row r="113" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
-    </row>
-    <row r="114" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
-    </row>
-    <row r="115" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
-    </row>
-    <row r="116" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
-    </row>
-    <row r="117" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
-      <c r="L117" s="3"/>
-    </row>
-    <row r="118" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
-      <c r="L118" s="3"/>
-    </row>
-    <row r="119" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
-    </row>
-    <row r="120" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
-      <c r="L120" s="3"/>
-    </row>
-    <row r="121" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
-      <c r="K121" s="3"/>
-      <c r="L121" s="3"/>
-    </row>
-    <row r="122" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
-      <c r="K122" s="3"/>
-      <c r="L122" s="3"/>
-    </row>
-    <row r="123" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
-      <c r="K123" s="3"/>
-      <c r="L123" s="3"/>
-    </row>
-    <row r="124" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
-      <c r="K124" s="3"/>
-      <c r="L124" s="3"/>
-    </row>
-    <row r="125" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3"/>
-      <c r="L125" s="3"/>
-    </row>
-    <row r="126" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
-      <c r="L126" s="3"/>
-    </row>
-    <row r="127" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
-      <c r="L127" s="3"/>
-    </row>
-    <row r="128" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
-      <c r="L128" s="3"/>
-    </row>
-    <row r="129" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
-      <c r="L129" s="3"/>
-    </row>
-    <row r="130" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
-      <c r="L130" s="3"/>
-    </row>
-    <row r="131" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3"/>
-      <c r="L131" s="3"/>
-    </row>
-    <row r="132" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="3"/>
-    </row>
-    <row r="133" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
-      <c r="L133" s="3"/>
-    </row>
-    <row r="134" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
-      <c r="L134" s="3"/>
-    </row>
-    <row r="135" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="3"/>
-      <c r="L135" s="3"/>
-    </row>
-    <row r="136" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-      <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
-      <c r="K136" s="3"/>
-      <c r="L136" s="3"/>
-    </row>
-    <row r="137" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
-      <c r="K137" s="3"/>
-      <c r="L137" s="3"/>
-    </row>
-    <row r="138" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="K137" s="26"/>
+      <c r="L137" s="26"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
@@ -12695,7 +15693,7 @@
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
     </row>
-    <row r="139" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -12705,7 +15703,7 @@
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
     </row>
-    <row r="140" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
@@ -12715,7 +15713,7 @@
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
     </row>
-    <row r="141" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
@@ -12725,7 +15723,7 @@
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
     </row>
-    <row r="142" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
@@ -12735,7 +15733,7 @@
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
     </row>
-    <row r="143" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
@@ -12745,7 +15743,7 @@
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
     </row>
-    <row r="144" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>

--- a/code_v2/summary_data/result.xlsx
+++ b/code_v2/summary_data/result.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RY\git\hierarchical-gene\code_v2\summary_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAA07A4-3E1A-46C5-B6CE-1CE5BB5FF94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460C27A2-BE5A-4BEA-8E38-40C4B190D016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" activeTab="1" xr2:uid="{EBE4CFCB-469C-4867-8775-907539EE1541}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" activeTab="2" xr2:uid="{EBE4CFCB-469C-4867-8775-907539EE1541}"/>
   </bookViews>
   <sheets>
     <sheet name="n=500_p=8-3_q=4-2" sheetId="1" r:id="rId1"/>
     <sheet name="n=500_p=80-3_q=40-2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="43">
   <si>
     <t>balance
 type</t>
@@ -189,6 +191,10 @@
     <t>row_number = 8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>rownumber=8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -240,7 +246,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -277,13 +283,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -335,10 +372,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -347,16 +399,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -365,29 +426,23 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -827,13 +882,13 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="19">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19">
-        <v>1</v>
-      </c>
-      <c r="C2" s="19">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24">
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -863,13 +918,13 @@
       <c r="L2" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N2" s="19">
-        <v>2</v>
-      </c>
-      <c r="O2" s="18">
-        <v>1</v>
-      </c>
-      <c r="P2" s="18">
+      <c r="N2" s="24">
+        <v>2</v>
+      </c>
+      <c r="O2" s="26">
+        <v>1</v>
+      </c>
+      <c r="P2" s="26">
         <v>4</v>
       </c>
       <c r="Q2" s="11" t="s">
@@ -899,13 +954,13 @@
       <c r="Y2" s="12">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AA2" s="19">
+      <c r="AA2" s="24">
         <v>3</v>
       </c>
-      <c r="AB2" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="18">
+      <c r="AB2" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="26">
         <v>4</v>
       </c>
       <c r="AD2" s="9" t="s">
@@ -937,9 +992,9 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
@@ -967,9 +1022,9 @@
       <c r="L3" s="4">
         <v>3.2573913611296701E-3</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="2" t="s">
         <v>19</v>
       </c>
@@ -997,9 +1052,9 @@
       <c r="Y3" s="4">
         <v>1.2544281421158199E-3</v>
       </c>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
       <c r="AD3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1029,9 +1084,9 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1059,9 +1114,9 @@
       <c r="L4" s="4">
         <v>1.1029581E-2</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
       <c r="Q4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1089,9 +1144,9 @@
       <c r="Y4" s="4">
         <v>0.12626270000000001</v>
       </c>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
       <c r="AD4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1121,9 +1176,9 @@
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1151,9 +1206,9 @@
       <c r="L5" s="4">
         <v>2.3114084519999998</v>
       </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
       <c r="Q5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1181,9 +1236,9 @@
       <c r="Y5" s="4">
         <v>2.1625823999999998</v>
       </c>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
       <c r="AD5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1213,9 +1268,9 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1243,9 +1298,9 @@
       <c r="L6" s="4">
         <v>2.4000908600000002</v>
       </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
       <c r="Q6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1273,9 +1328,9 @@
       <c r="Y6" s="4">
         <v>2.3797085</v>
       </c>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
       <c r="AD6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1305,9 +1360,9 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1329,9 +1384,9 @@
       <c r="L7" s="4">
         <v>0.128</v>
       </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
       <c r="Q7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1353,9 +1408,9 @@
       <c r="Y7" s="4">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
       <c r="AD7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1379,9 +1434,9 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1403,9 +1458,9 @@
       <c r="L8" s="4">
         <v>2.4419679649999999</v>
       </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
       <c r="Q8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1427,9 +1482,9 @@
       <c r="Y8" s="4">
         <v>2.4508101</v>
       </c>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
       <c r="AD8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1453,9 +1508,9 @@
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1477,9 +1532,9 @@
       <c r="L9" s="6">
         <v>2.4555734390000001</v>
       </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
       <c r="Q9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1501,9 +1556,9 @@
       <c r="Y9" s="6">
         <v>2.4518627999999998</v>
       </c>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
       <c r="AD9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1527,13 +1582,13 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
-        <v>1</v>
-      </c>
-      <c r="B10" s="18">
-        <v>2</v>
-      </c>
-      <c r="C10" s="18">
+      <c r="A10" s="24">
+        <v>1</v>
+      </c>
+      <c r="B10" s="26">
+        <v>2</v>
+      </c>
+      <c r="C10" s="26">
         <v>4</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -1563,13 +1618,13 @@
       <c r="L10" s="12">
         <v>0.183</v>
       </c>
-      <c r="N10" s="19">
-        <v>2</v>
-      </c>
-      <c r="O10" s="18">
-        <v>2</v>
-      </c>
-      <c r="P10" s="18">
+      <c r="N10" s="24">
+        <v>2</v>
+      </c>
+      <c r="O10" s="26">
+        <v>2</v>
+      </c>
+      <c r="P10" s="26">
         <v>4</v>
       </c>
       <c r="Q10" s="11" t="s">
@@ -1599,13 +1654,13 @@
       <c r="Y10" s="12">
         <v>0.11700000000000001</v>
       </c>
-      <c r="AA10" s="18">
+      <c r="AA10" s="26">
         <v>3</v>
       </c>
-      <c r="AB10" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="18">
+      <c r="AB10" s="26">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="26">
         <v>4</v>
       </c>
       <c r="AD10" s="11" t="s">
@@ -1637,9 +1692,9 @@
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1667,9 +1722,9 @@
       <c r="L11" s="4">
         <v>7.1128534862121102E-3</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
       <c r="Q11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1697,9 +1752,9 @@
       <c r="Y11" s="4">
         <v>1.1391810450488099E-3</v>
       </c>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
       <c r="AD11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1729,9 +1784,9 @@
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1759,9 +1814,9 @@
       <c r="L12" s="4">
         <v>1.1029581E-2</v>
       </c>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
       <c r="Q12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1789,9 +1844,9 @@
       <c r="Y12" s="4">
         <v>0.87840470000000004</v>
       </c>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
       <c r="AD12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1821,9 +1876,9 @@
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1851,9 +1906,9 @@
       <c r="L13" s="4">
         <v>2.3114084519999998</v>
       </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
       <c r="Q13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1881,9 +1936,9 @@
       <c r="Y13" s="4">
         <v>8.2694804000000008</v>
       </c>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
       <c r="AD13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1913,9 +1968,9 @@
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1943,9 +1998,9 @@
       <c r="L14" s="4">
         <v>2.4000908600000002</v>
       </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
       <c r="Q14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1973,9 +2028,9 @@
       <c r="Y14" s="4">
         <v>10.112000800000001</v>
       </c>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
       <c r="AD14" s="2" t="s">
         <v>16</v>
       </c>
@@ -2005,9 +2060,9 @@
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
@@ -2029,9 +2084,9 @@
       <c r="L15" s="4">
         <v>0.51</v>
       </c>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
       <c r="Q15" s="2" t="s">
         <v>4</v>
       </c>
@@ -2053,9 +2108,9 @@
       <c r="Y15" s="4">
         <v>1.284</v>
       </c>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
       <c r="AD15" s="2" t="s">
         <v>4</v>
       </c>
@@ -2079,9 +2134,9 @@
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2103,9 +2158,9 @@
       <c r="L16" s="4">
         <v>2.4419679649999999</v>
       </c>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
       <c r="Q16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2127,9 +2182,9 @@
       <c r="Y16" s="4">
         <v>10.6932793</v>
       </c>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
       <c r="AD16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2153,9 +2208,9 @@
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2177,9 +2232,9 @@
       <c r="L17" s="6">
         <v>2.4555734390000001</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
       <c r="Q17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2201,9 +2256,9 @@
       <c r="Y17" s="6">
         <v>10.4442507</v>
       </c>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
       <c r="AD17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2227,13 +2282,13 @@
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
-        <v>1</v>
-      </c>
-      <c r="B18" s="18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="A18" s="24">
+        <v>1</v>
+      </c>
+      <c r="B18" s="26">
+        <v>1</v>
+      </c>
+      <c r="C18" s="26">
         <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -2263,13 +2318,13 @@
       <c r="L18" s="12">
         <v>1.2E-2</v>
       </c>
-      <c r="N18" s="19">
-        <v>2</v>
-      </c>
-      <c r="O18" s="18">
-        <v>1</v>
-      </c>
-      <c r="P18" s="18">
+      <c r="N18" s="24">
+        <v>2</v>
+      </c>
+      <c r="O18" s="26">
+        <v>1</v>
+      </c>
+      <c r="P18" s="26">
         <v>6</v>
       </c>
       <c r="Q18" s="11" t="s">
@@ -2299,13 +2354,13 @@
       <c r="Y18" s="12">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="AA18" s="18">
+      <c r="AA18" s="26">
         <v>3</v>
       </c>
-      <c r="AB18" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="18">
+      <c r="AB18" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="26">
         <v>6</v>
       </c>
       <c r="AD18" s="11" t="s">
@@ -2337,9 +2392,9 @@
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
@@ -2367,9 +2422,9 @@
       <c r="L19" s="4">
         <v>3.2573913611296701E-3</v>
       </c>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
       <c r="Q19" s="2" t="s">
         <v>19</v>
       </c>
@@ -2397,9 +2452,9 @@
       <c r="Y19" s="4">
         <v>1.2544281421158199E-3</v>
       </c>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
       <c r="AD19" s="2" t="s">
         <v>19</v>
       </c>
@@ -2429,9 +2484,9 @@
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2459,9 +2514,9 @@
       <c r="L20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
       <c r="Q20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2489,9 +2544,9 @@
       <c r="Y20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
       <c r="AD20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2521,9 +2576,9 @@
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2551,9 +2606,9 @@
       <c r="L21" s="4">
         <v>2.3114084500000001</v>
       </c>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
       <c r="Q21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2581,9 +2636,9 @@
       <c r="Y21" s="4">
         <v>2.1625823999999998</v>
       </c>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
       <c r="AD21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2613,9 +2668,9 @@
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2643,9 +2698,9 @@
       <c r="L22" s="4">
         <v>2.4000908600000002</v>
       </c>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
       <c r="Q22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2673,9 +2728,9 @@
       <c r="Y22" s="4">
         <v>2.3797085</v>
       </c>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
       <c r="AD22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2705,9 +2760,9 @@
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
@@ -2729,9 +2784,9 @@
       <c r="L23" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
       <c r="Q23" s="2" t="s">
         <v>4</v>
       </c>
@@ -2753,9 +2808,9 @@
       <c r="Y23" s="4">
         <v>0.16400000000000001</v>
       </c>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="24"/>
       <c r="AD23" s="2" t="s">
         <v>4</v>
       </c>
@@ -2779,9 +2834,9 @@
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2797,9 +2852,9 @@
       <c r="J24" s="4">
         <v>8.6977740000000001E-3</v>
       </c>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
       <c r="Q24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2817,9 +2872,9 @@
       </c>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
       <c r="AD24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2839,9 +2894,9 @@
       <c r="AL24" s="4"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="5" t="s">
         <v>15</v>
       </c>
@@ -2859,9 +2914,9 @@
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
       <c r="Q25" s="5" t="s">
         <v>15</v>
       </c>
@@ -2879,9 +2934,9 @@
       </c>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
       <c r="AD25" s="5" t="s">
         <v>15</v>
       </c>
@@ -2901,13 +2956,13 @@
       <c r="AL25" s="6"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
-        <v>1</v>
-      </c>
-      <c r="B26" s="18">
-        <v>2</v>
-      </c>
-      <c r="C26" s="18">
+      <c r="A26" s="24">
+        <v>1</v>
+      </c>
+      <c r="B26" s="26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="26">
         <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
@@ -2937,13 +2992,13 @@
       <c r="L26" s="12">
         <v>0.111</v>
       </c>
-      <c r="N26" s="19">
-        <v>2</v>
-      </c>
-      <c r="O26" s="18">
-        <v>2</v>
-      </c>
-      <c r="P26" s="18">
+      <c r="N26" s="24">
+        <v>2</v>
+      </c>
+      <c r="O26" s="26">
+        <v>2</v>
+      </c>
+      <c r="P26" s="26">
         <v>6</v>
       </c>
       <c r="Q26" s="11" t="s">
@@ -2973,13 +3028,13 @@
       <c r="Y26" s="12">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AA26" s="18">
+      <c r="AA26" s="26">
         <v>3</v>
       </c>
-      <c r="AB26" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC26" s="18">
+      <c r="AB26" s="26">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="26">
         <v>6</v>
       </c>
       <c r="AD26" s="11" t="s">
@@ -3011,9 +3066,9 @@
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3041,9 +3096,9 @@
       <c r="L27" s="4">
         <v>7.1128534862121102E-3</v>
       </c>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
       <c r="Q27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3071,9 +3126,9 @@
       <c r="Y27" s="4">
         <v>1.1391810450488099E-3</v>
       </c>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
       <c r="AD27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3103,9 +3158,9 @@
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="2" t="s">
         <v>14</v>
       </c>
@@ -3133,9 +3188,9 @@
       <c r="L28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
       <c r="Q28" s="2" t="s">
         <v>14</v>
       </c>
@@ -3163,9 +3218,9 @@
       <c r="Y28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
       <c r="AD28" s="2" t="s">
         <v>14</v>
       </c>
@@ -3195,9 +3250,9 @@
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="2" t="s">
         <v>18</v>
       </c>
@@ -3225,9 +3280,9 @@
       <c r="L29" s="4">
         <v>9.047183768</v>
       </c>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
       <c r="Q29" s="2" t="s">
         <v>18</v>
       </c>
@@ -3255,9 +3310,9 @@
       <c r="Y29" s="4">
         <v>8.2694804000000008</v>
       </c>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
+      <c r="AA29" s="24"/>
+      <c r="AB29" s="24"/>
+      <c r="AC29" s="24"/>
       <c r="AD29" s="2" t="s">
         <v>18</v>
       </c>
@@ -3287,9 +3342,9 @@
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="2" t="s">
         <v>16</v>
       </c>
@@ -3317,9 +3372,9 @@
       <c r="L30" s="4">
         <v>9.2430258779999992</v>
       </c>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
       <c r="Q30" s="2" t="s">
         <v>16</v>
       </c>
@@ -3347,9 +3402,9 @@
       <c r="Y30" s="4">
         <v>10.112000800000001</v>
       </c>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19"/>
+      <c r="AA30" s="24"/>
+      <c r="AB30" s="24"/>
+      <c r="AC30" s="24"/>
       <c r="AD30" s="2" t="s">
         <v>16</v>
       </c>
@@ -3379,9 +3434,9 @@
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="2" t="s">
         <v>4</v>
       </c>
@@ -3403,9 +3458,9 @@
       <c r="L31" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
       <c r="Q31" s="2" t="s">
         <v>4</v>
       </c>
@@ -3427,9 +3482,9 @@
       <c r="Y31" s="4">
         <v>0.316</v>
       </c>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
       <c r="AD31" s="2" t="s">
         <v>4</v>
       </c>
@@ -3453,9 +3508,9 @@
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="2" t="s">
         <v>17</v>
       </c>
@@ -3471,9 +3526,9 @@
       <c r="J32" s="4">
         <v>9.2121930000000005E-3</v>
       </c>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
       <c r="Q32" s="2" t="s">
         <v>17</v>
       </c>
@@ -3491,9 +3546,9 @@
       </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19"/>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="24"/>
+      <c r="AC32" s="24"/>
       <c r="AD32" s="2" t="s">
         <v>17</v>
       </c>
@@ -3513,9 +3568,9 @@
       <c r="AL32" s="4"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="5" t="s">
         <v>15</v>
       </c>
@@ -3533,9 +3588,9 @@
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
       <c r="Q33" s="5" t="s">
         <v>15</v>
       </c>
@@ -3553,9 +3608,9 @@
       </c>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="20"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="25"/>
       <c r="AD33" s="5" t="s">
         <v>15</v>
       </c>
@@ -3643,13 +3698,13 @@
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N39" s="17">
-        <v>2</v>
-      </c>
-      <c r="O39" s="17">
-        <v>1</v>
-      </c>
-      <c r="P39" s="17">
+      <c r="N39" s="27">
+        <v>2</v>
+      </c>
+      <c r="O39" s="27">
+        <v>1</v>
+      </c>
+      <c r="P39" s="27">
         <v>4</v>
       </c>
       <c r="Q39" s="14" t="s">
@@ -3711,9 +3766,9 @@
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
       <c r="Q40" s="14" t="s">
         <v>19</v>
       </c>
@@ -3773,9 +3828,9 @@
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
       <c r="Q41" s="14" t="s">
         <v>14</v>
       </c>
@@ -3835,13 +3890,13 @@
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N42" s="17">
-        <v>2</v>
-      </c>
-      <c r="O42" s="17">
-        <v>2</v>
-      </c>
-      <c r="P42" s="17">
+      <c r="N42" s="27">
+        <v>2</v>
+      </c>
+      <c r="O42" s="27">
+        <v>2</v>
+      </c>
+      <c r="P42" s="27">
         <v>4</v>
       </c>
       <c r="Q42" s="14" t="s">
@@ -3903,9 +3958,9 @@
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
       <c r="Q43" s="14" t="s">
         <v>19</v>
       </c>
@@ -3965,9 +4020,9 @@
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
       <c r="Q44" s="14" t="s">
         <v>14</v>
       </c>
@@ -4021,13 +4076,13 @@
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N45" s="17">
-        <v>2</v>
-      </c>
-      <c r="O45" s="17">
-        <v>1</v>
-      </c>
-      <c r="P45" s="17">
+      <c r="N45" s="27">
+        <v>2</v>
+      </c>
+      <c r="O45" s="27">
+        <v>1</v>
+      </c>
+      <c r="P45" s="27">
         <v>6</v>
       </c>
       <c r="Q45" s="14" t="s">
@@ -4083,9 +4138,9 @@
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
       <c r="Q46" s="14" t="s">
         <v>19</v>
       </c>
@@ -4139,9 +4194,9 @@
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
       <c r="Q47" s="14" t="s">
         <v>14</v>
       </c>
@@ -4201,13 +4256,13 @@
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N48" s="17">
-        <v>2</v>
-      </c>
-      <c r="O48" s="17">
-        <v>2</v>
-      </c>
-      <c r="P48" s="17">
+      <c r="N48" s="27">
+        <v>2</v>
+      </c>
+      <c r="O48" s="27">
+        <v>2</v>
+      </c>
+      <c r="P48" s="27">
         <v>6</v>
       </c>
       <c r="Q48" s="14" t="s">
@@ -4269,9 +4324,9 @@
       </c>
     </row>
     <row r="49" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
       <c r="Q49" s="14" t="s">
         <v>19</v>
       </c>
@@ -4331,9 +4386,9 @@
       </c>
     </row>
     <row r="50" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
       <c r="Q50" s="14" t="s">
         <v>14</v>
       </c>
@@ -4393,13 +4448,13 @@
       </c>
     </row>
     <row r="51" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N51" s="17">
+      <c r="N51" s="27">
         <v>3</v>
       </c>
-      <c r="O51" s="17">
-        <v>1</v>
-      </c>
-      <c r="P51" s="17">
+      <c r="O51" s="27">
+        <v>1</v>
+      </c>
+      <c r="P51" s="27">
         <v>4</v>
       </c>
       <c r="Q51" s="14" t="s">
@@ -4461,9 +4516,9 @@
       </c>
     </row>
     <row r="52" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
       <c r="Q52" s="14" t="s">
         <v>19</v>
       </c>
@@ -4517,9 +4572,9 @@
       </c>
     </row>
     <row r="53" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
       <c r="Q53" s="14" t="s">
         <v>14</v>
       </c>
@@ -4573,13 +4628,13 @@
       </c>
     </row>
     <row r="54" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N54" s="17">
+      <c r="N54" s="27">
         <v>3</v>
       </c>
-      <c r="O54" s="17">
-        <v>2</v>
-      </c>
-      <c r="P54" s="17">
+      <c r="O54" s="27">
+        <v>2</v>
+      </c>
+      <c r="P54" s="27">
         <v>4</v>
       </c>
       <c r="Q54" s="14" t="s">
@@ -4635,9 +4690,9 @@
       </c>
     </row>
     <row r="55" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
       <c r="Q55" s="14" t="s">
         <v>19</v>
       </c>
@@ -4697,9 +4752,9 @@
       </c>
     </row>
     <row r="56" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="27"/>
       <c r="Q56" s="14" t="s">
         <v>14</v>
       </c>
@@ -4759,13 +4814,13 @@
       </c>
     </row>
     <row r="57" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N57" s="17">
+      <c r="N57" s="27">
         <v>3</v>
       </c>
-      <c r="O57" s="17">
-        <v>1</v>
-      </c>
-      <c r="P57" s="17">
+      <c r="O57" s="27">
+        <v>1</v>
+      </c>
+      <c r="P57" s="27">
         <v>6</v>
       </c>
       <c r="Q57" s="14" t="s">
@@ -4827,9 +4882,9 @@
       </c>
     </row>
     <row r="58" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
       <c r="Q58" s="14" t="s">
         <v>19</v>
       </c>
@@ -4889,9 +4944,9 @@
       </c>
     </row>
     <row r="59" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
       <c r="Q59" s="14" t="s">
         <v>14</v>
       </c>
@@ -4951,13 +5006,13 @@
       </c>
     </row>
     <row r="60" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N60" s="17">
+      <c r="N60" s="27">
         <v>3</v>
       </c>
-      <c r="O60" s="17">
-        <v>2</v>
-      </c>
-      <c r="P60" s="17">
+      <c r="O60" s="27">
+        <v>2</v>
+      </c>
+      <c r="P60" s="27">
         <v>6</v>
       </c>
       <c r="Q60" s="14" t="s">
@@ -5013,9 +5068,9 @@
       </c>
     </row>
     <row r="61" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="27"/>
       <c r="Q61" s="14" t="s">
         <v>19</v>
       </c>
@@ -5065,9 +5120,9 @@
       <c r="AJ61" s="14"/>
     </row>
     <row r="62" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="27"/>
       <c r="Q62" s="14" t="s">
         <v>14</v>
       </c>
@@ -9454,42 +9509,14 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="N2:N9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="P2:P9"/>
-    <mergeCell ref="N10:N17"/>
-    <mergeCell ref="O10:O17"/>
-    <mergeCell ref="P10:P17"/>
-    <mergeCell ref="N18:N25"/>
-    <mergeCell ref="O18:O25"/>
-    <mergeCell ref="P18:P25"/>
-    <mergeCell ref="N26:N33"/>
-    <mergeCell ref="O26:O33"/>
-    <mergeCell ref="P26:P33"/>
-    <mergeCell ref="AA2:AA9"/>
-    <mergeCell ref="AB2:AB9"/>
-    <mergeCell ref="AC2:AC9"/>
-    <mergeCell ref="AA10:AA17"/>
-    <mergeCell ref="AB10:AB17"/>
-    <mergeCell ref="AC10:AC17"/>
-    <mergeCell ref="AB18:AB25"/>
-    <mergeCell ref="AC18:AC25"/>
-    <mergeCell ref="AA18:AA25"/>
-    <mergeCell ref="AA26:AA33"/>
-    <mergeCell ref="AB26:AB33"/>
-    <mergeCell ref="AC26:AC33"/>
+    <mergeCell ref="N54:N56"/>
+    <mergeCell ref="P54:P56"/>
+    <mergeCell ref="N57:N59"/>
+    <mergeCell ref="P57:P59"/>
+    <mergeCell ref="N60:N62"/>
+    <mergeCell ref="P60:P62"/>
+    <mergeCell ref="O57:O59"/>
+    <mergeCell ref="O60:O62"/>
     <mergeCell ref="O51:O53"/>
     <mergeCell ref="O54:O56"/>
     <mergeCell ref="P51:P53"/>
@@ -9506,14 +9533,42 @@
     <mergeCell ref="P48:P50"/>
     <mergeCell ref="O45:O47"/>
     <mergeCell ref="O48:O50"/>
-    <mergeCell ref="N54:N56"/>
-    <mergeCell ref="P54:P56"/>
-    <mergeCell ref="N57:N59"/>
-    <mergeCell ref="P57:P59"/>
-    <mergeCell ref="N60:N62"/>
-    <mergeCell ref="P60:P62"/>
-    <mergeCell ref="O57:O59"/>
-    <mergeCell ref="O60:O62"/>
+    <mergeCell ref="AB18:AB25"/>
+    <mergeCell ref="AC18:AC25"/>
+    <mergeCell ref="AA18:AA25"/>
+    <mergeCell ref="AA26:AA33"/>
+    <mergeCell ref="AB26:AB33"/>
+    <mergeCell ref="AC26:AC33"/>
+    <mergeCell ref="AA2:AA9"/>
+    <mergeCell ref="AB2:AB9"/>
+    <mergeCell ref="AC2:AC9"/>
+    <mergeCell ref="AA10:AA17"/>
+    <mergeCell ref="AB10:AB17"/>
+    <mergeCell ref="AC10:AC17"/>
+    <mergeCell ref="N18:N25"/>
+    <mergeCell ref="O18:O25"/>
+    <mergeCell ref="P18:P25"/>
+    <mergeCell ref="N26:N33"/>
+    <mergeCell ref="O26:O33"/>
+    <mergeCell ref="P26:P33"/>
+    <mergeCell ref="N2:N9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P2:P9"/>
+    <mergeCell ref="N10:N17"/>
+    <mergeCell ref="O10:O17"/>
+    <mergeCell ref="P10:P17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9522,10 +9577,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474392E9-0E45-4AEC-B8E4-8AB631FBD30B}">
-  <dimension ref="A1:AM291"/>
+  <dimension ref="A1:AU291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:C129"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9540,8 +9595,8 @@
     <col min="40" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -9577,7 +9632,7 @@
       <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="17" t="s">
         <v>22</v>
       </c>
       <c r="O1" s="7" t="s">
@@ -9613,7 +9668,7 @@
       <c r="Y1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AA1" s="17" t="s">
         <v>22</v>
       </c>
       <c r="AB1" s="7" t="s">
@@ -9650,41 +9705,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18">
-        <v>1</v>
-      </c>
-      <c r="C2" s="18">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26">
         <v>4</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="22">
         <v>0.22</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="22">
         <v>0.99</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="22">
         <v>0.50800000000000001</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="22">
         <v>0.623</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="22">
         <v>0.36599999999999999</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="22">
         <v>1.4E-2</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="22">
         <v>0.32400000000000001</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="22">
         <v>0.51500000000000001</v>
       </c>
       <c r="N2" s="2">
@@ -9699,28 +9754,28 @@
       <c r="Q2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="33">
+      <c r="R2" s="23">
         <v>0.30199999999999999</v>
       </c>
-      <c r="S2" s="33">
+      <c r="S2" s="23">
         <v>0.81699999999999995</v>
       </c>
-      <c r="T2" s="33">
+      <c r="T2" s="23">
         <v>0.54400000000000004</v>
       </c>
-      <c r="U2" s="33">
+      <c r="U2" s="23">
         <v>0.60599999999999998</v>
       </c>
-      <c r="V2" s="33">
+      <c r="V2" s="23">
         <v>0.57199999999999995</v>
       </c>
-      <c r="W2" s="33">
+      <c r="W2" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X2" s="33">
+      <c r="X2" s="23">
         <v>0.30299999999999999</v>
       </c>
-      <c r="Y2" s="33">
+      <c r="Y2" s="23">
         <v>0.58899999999999997</v>
       </c>
       <c r="Z2" s="2" t="s">
@@ -9738,63 +9793,63 @@
       <c r="AD2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="33">
+      <c r="AE2" s="23">
         <v>0.26700000000000002</v>
       </c>
-      <c r="AF2" s="33">
+      <c r="AF2" s="23">
         <v>0.90700000000000003</v>
       </c>
-      <c r="AG2" s="33">
+      <c r="AG2" s="23">
         <v>0.50900000000000001</v>
       </c>
-      <c r="AH2" s="33">
+      <c r="AH2" s="23">
         <v>0.61</v>
       </c>
-      <c r="AI2" s="33">
+      <c r="AI2" s="23">
         <v>0.51600000000000001</v>
       </c>
-      <c r="AJ2" s="33">
+      <c r="AJ2" s="23">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AK2" s="33">
+      <c r="AK2" s="23">
         <v>0.25900000000000001</v>
       </c>
-      <c r="AL2" s="33">
+      <c r="AL2" s="23">
         <v>0.60699999999999998</v>
       </c>
       <c r="AM2" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="22" t="s">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="3">
         <v>0.9</v>
       </c>
-      <c r="F3" s="23">
-        <v>1</v>
-      </c>
-      <c r="G3" s="23">
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
         <v>0.94989979999999996</v>
       </c>
-      <c r="H3" s="23">
-        <v>1</v>
-      </c>
-      <c r="I3" s="23">
-        <v>1</v>
-      </c>
-      <c r="J3" s="23">
-        <v>1</v>
-      </c>
-      <c r="K3" s="23">
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
         <v>1.5129399999999999E-2</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="3">
         <v>7.0233279999999997E-3</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -9852,35 +9907,35 @@
         <v>7.2313899999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="22" t="s">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="23">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23">
-        <v>1</v>
-      </c>
-      <c r="G4" s="23">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
         <v>0.50913350000000002</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="3">
         <v>0.63084609999999997</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="3">
         <v>1.7347202999999999E-2</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="3">
         <v>1.1768684999999999E-2</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="3">
         <v>0.37205460000000001</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="3">
         <v>0.41108850000000002</v>
       </c>
       <c r="Q4" s="2" t="s">
@@ -9938,35 +9993,35 @@
         <v>0.42100369999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="22" t="s">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="23">
-        <v>1</v>
-      </c>
-      <c r="F5" s="23">
-        <v>0</v>
-      </c>
-      <c r="G5" s="23">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
         <v>0.49982179999999998</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="3">
         <v>0.49930730000000001</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="3">
         <v>1.646698E-3</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="3">
         <v>0.42982942800000001</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="3">
         <v>0.18188789999999999</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="3">
         <v>0.52504569999999995</v>
       </c>
       <c r="Q5" s="2" t="s">
@@ -10024,35 +10079,35 @@
         <v>0.4722713</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="22" t="s">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="23">
-        <v>1</v>
-      </c>
-      <c r="F6" s="23">
-        <v>0</v>
-      </c>
-      <c r="G6" s="23">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
         <v>0.49945869999999998</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="3">
         <v>0.49923440000000002</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="3">
         <v>1.3033529999999999E-3</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="3">
         <v>0.42916938999999998</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="3">
         <v>0.18187690000000001</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="3">
         <v>0.25677929999999999</v>
       </c>
       <c r="Q6" s="2" t="s">
@@ -10110,29 +10165,29 @@
         <v>0.24773890000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="22" t="s">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23">
-        <v>1</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <v>0.63084609999999997</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
         <v>1.1768684999999999E-2</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="3">
         <v>0.37205460000000001</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="3">
         <v>0.41108850000000002</v>
       </c>
       <c r="Q7" s="2" t="s">
@@ -10178,29 +10233,29 @@
         <v>0.42100379999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="22" t="s">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23">
-        <v>1</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
         <v>0.60874200000000001</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
         <v>9.9180250000000005E-3</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="3">
         <v>1.0096540000000001</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="3">
         <v>0.81780949999999997</v>
       </c>
       <c r="Q8" s="2" t="s">
@@ -10246,29 +10301,29 @@
         <v>0.80892180000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24">
-        <v>1</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24">
+      <c r="E9" s="18"/>
+      <c r="F9" s="18">
+        <v>1</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18">
         <v>0.60957229999999996</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24">
+      <c r="I9" s="18"/>
+      <c r="J9" s="18">
         <v>1.0052073E-2</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="18">
         <v>0.9179254</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="18">
         <v>0.75462720000000005</v>
       </c>
       <c r="Q9" s="2" t="s">
@@ -10314,41 +10369,41 @@
         <v>0.82901279999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
-        <v>1</v>
-      </c>
-      <c r="B10" s="29">
-        <v>2</v>
-      </c>
-      <c r="C10" s="29">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
+        <v>1</v>
+      </c>
+      <c r="B10" s="28">
+        <v>2</v>
+      </c>
+      <c r="C10" s="28">
         <v>4</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="22">
         <v>0.42499999999999999</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="22">
         <v>0.5</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="22">
         <v>0.51100000000000001</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="22">
         <v>0.60299999999999998</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="22">
         <v>0.372</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="22">
         <v>0.11600000000000001</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="22">
         <v>1.3009999999999999</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="22">
         <v>2.1349999999999998</v>
       </c>
       <c r="N10" s="2">
@@ -10363,28 +10418,28 @@
       <c r="Q10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="33">
+      <c r="R10" s="23">
         <v>0.41699999999999998</v>
       </c>
-      <c r="S10" s="33">
+      <c r="S10" s="23">
         <v>0.58099999999999996</v>
       </c>
-      <c r="T10" s="33">
+      <c r="T10" s="23">
         <v>0.54</v>
       </c>
-      <c r="U10" s="33">
+      <c r="U10" s="23">
         <v>0.58199999999999996</v>
       </c>
-      <c r="V10" s="33">
+      <c r="V10" s="23">
         <v>0.50900000000000001</v>
       </c>
-      <c r="W10" s="33">
+      <c r="W10" s="23">
         <v>0.16400000000000001</v>
       </c>
-      <c r="X10" s="33">
+      <c r="X10" s="23">
         <v>1.294</v>
       </c>
-      <c r="Y10" s="33">
+      <c r="Y10" s="23">
         <v>2.8039999999999998</v>
       </c>
       <c r="Z10" s="2" t="s">
@@ -10402,63 +10457,87 @@
       <c r="AD10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AE10" s="33">
+      <c r="AE10" s="23">
         <v>0.20799999999999999</v>
       </c>
-      <c r="AF10" s="33">
+      <c r="AF10" s="23">
         <v>0.61699999999999999</v>
       </c>
-      <c r="AG10" s="33">
+      <c r="AG10" s="23">
         <v>0.54900000000000004</v>
       </c>
-      <c r="AH10" s="33">
+      <c r="AH10" s="23">
         <v>0.61699999999999999</v>
       </c>
-      <c r="AI10" s="33">
+      <c r="AI10" s="23">
         <v>0.17399999999999999</v>
       </c>
-      <c r="AJ10" s="33">
+      <c r="AJ10" s="23">
         <v>0.16700000000000001</v>
       </c>
-      <c r="AK10" s="33">
+      <c r="AK10" s="23">
         <v>1.0369999999999999</v>
       </c>
-      <c r="AL10" s="33">
+      <c r="AL10" s="23">
         <v>1.4550000000000001</v>
       </c>
       <c r="AM10" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="25" t="s">
+      <c r="AN10" s="2">
+        <v>0.214</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>0.252</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>1.3080000000000001</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>1.919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="19">
         <v>0.875</v>
       </c>
-      <c r="F11" s="26">
-        <v>1</v>
-      </c>
-      <c r="G11" s="26">
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
         <v>0.98434370000000004</v>
       </c>
-      <c r="H11" s="26">
-        <v>1</v>
-      </c>
-      <c r="I11" s="26">
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
         <v>0.96867150000000002</v>
       </c>
-      <c r="J11" s="26">
-        <v>1</v>
-      </c>
-      <c r="K11" s="26">
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19">
         <v>8.8676499999999997E-4</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="19">
         <v>1.765144E-3</v>
       </c>
       <c r="Q11" s="2" t="s">
@@ -10516,35 +10595,35 @@
         <v>4.6618519999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="25" t="s">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="26">
-        <v>0</v>
-      </c>
-      <c r="F12" s="26">
+      <c r="E12" s="19">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19">
         <v>0.98</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="19">
         <v>0.51089589999999996</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="19">
         <v>0.6326387</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="19">
         <v>2.0993962000000001E-2</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="19">
         <v>1.4544471999999999E-2</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="19">
         <v>1.465184</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="19">
         <v>1.616798</v>
       </c>
       <c r="Q12" s="2" t="s">
@@ -10602,35 +10681,35 @@
         <v>1.6576139999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="25" t="s">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="26">
-        <v>1</v>
-      </c>
-      <c r="F13" s="26">
-        <v>0</v>
-      </c>
-      <c r="G13" s="26">
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
         <v>0.4996758</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="19">
         <v>0.49938690000000002</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="19">
         <v>1.7441170000000001E-3</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="19">
         <v>0.42798228999999999</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="19">
         <v>1.089083</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="19">
         <v>1.6087819999999999</v>
       </c>
       <c r="Q13" s="2" t="s">
@@ -10688,35 +10767,35 @@
         <v>1.6345989999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="25" t="s">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="26">
-        <v>1</v>
-      </c>
-      <c r="F14" s="26">
-        <v>0</v>
-      </c>
-      <c r="G14" s="26">
+      <c r="E14" s="19">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
         <v>0.49956509999999998</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="19">
         <v>0.49921520000000003</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="19">
         <v>1.1173590000000001E-3</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="19">
         <v>0.42918186800000002</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="19">
         <v>1.077871</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="19">
         <v>1.319957</v>
       </c>
       <c r="Q14" s="2" t="s">
@@ -10774,29 +10853,29 @@
         <v>1.3235920000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="25" t="s">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19">
         <v>0.98</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26">
+      <c r="G15" s="19"/>
+      <c r="H15" s="19">
         <v>0.63104329999999997</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26">
+      <c r="I15" s="19"/>
+      <c r="J15" s="19">
         <v>1.8190031999999998E-2</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="19">
         <v>1.465184</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="19">
         <v>1.6168</v>
       </c>
       <c r="Q15" s="2" t="s">
@@ -10842,29 +10921,29 @@
         <v>1.6576150000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="25" t="s">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26">
-        <v>1</v>
-      </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19">
+        <v>1</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19">
         <v>0.60802330000000004</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26">
+      <c r="I16" s="19"/>
+      <c r="J16" s="19">
         <v>5.913041E-3</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="19">
         <v>6.0716320000000001</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="19">
         <v>5.0696870000000001</v>
       </c>
       <c r="Q16" s="2" t="s">
@@ -10911,28 +10990,28 @@
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="27" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26">
-        <v>1</v>
-      </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19">
         <v>0.60731420000000003</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26">
+      <c r="I17" s="19"/>
+      <c r="J17" s="19">
         <v>9.3500730000000004E-3</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="19">
         <v>4.6205939999999996</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="19">
         <v>3.6521439999999998</v>
       </c>
       <c r="Q17" s="2" t="s">
@@ -10979,40 +11058,40 @@
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="A18" s="26">
+        <v>1</v>
+      </c>
+      <c r="B18" s="26">
+        <v>1</v>
+      </c>
+      <c r="C18" s="26">
         <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="22">
         <v>0.44</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="22">
         <v>0.93300000000000005</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="22">
         <v>0.50700000000000001</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="22">
         <v>0.61899999999999999</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="22">
         <v>0.376</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="22">
         <v>2.4E-2</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="22">
         <v>0.30499999999999999</v>
       </c>
-      <c r="L18" s="32">
+      <c r="L18" s="22">
         <v>0.497</v>
       </c>
       <c r="M18" s="2" t="s">
@@ -11030,28 +11109,28 @@
       <c r="Q18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="33">
+      <c r="R18" s="23">
         <v>0.24299999999999999</v>
       </c>
-      <c r="S18" s="33">
+      <c r="S18" s="23">
         <v>0.85699999999999998</v>
       </c>
-      <c r="T18" s="33">
+      <c r="T18" s="23">
         <v>0.54</v>
       </c>
-      <c r="U18" s="33">
+      <c r="U18" s="23">
         <v>0.60699999999999998</v>
       </c>
-      <c r="V18" s="33">
+      <c r="V18" s="23">
         <v>0.57299999999999995</v>
       </c>
-      <c r="W18" s="33">
+      <c r="W18" s="23">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="X18" s="33">
+      <c r="X18" s="23">
         <v>0.309</v>
       </c>
-      <c r="Y18" s="33">
+      <c r="Y18" s="23">
         <v>0.58099999999999996</v>
       </c>
       <c r="Z18" s="2" t="s">
@@ -11069,28 +11148,28 @@
       <c r="AD18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AE18" s="33">
+      <c r="AE18" s="23">
         <v>0.31</v>
       </c>
-      <c r="AF18" s="33">
+      <c r="AF18" s="23">
         <v>0.84499999999999997</v>
       </c>
-      <c r="AG18" s="33">
+      <c r="AG18" s="23">
         <v>0.505</v>
       </c>
-      <c r="AH18" s="33">
+      <c r="AH18" s="23">
         <v>0.60499999999999998</v>
       </c>
-      <c r="AI18" s="33">
+      <c r="AI18" s="23">
         <v>0.59399999999999997</v>
       </c>
-      <c r="AJ18" s="33">
+      <c r="AJ18" s="23">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="AK18" s="33">
+      <c r="AK18" s="23">
         <v>0.23499999999999999</v>
       </c>
-      <c r="AL18" s="33">
+      <c r="AL18" s="23">
         <v>0.66700000000000004</v>
       </c>
       <c r="AM18" s="2" t="s">
@@ -11098,34 +11177,34 @@
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="22" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="3">
         <v>0.9</v>
       </c>
-      <c r="F19" s="23">
-        <v>1</v>
-      </c>
-      <c r="G19" s="23">
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
         <v>0.94989979999999996</v>
       </c>
-      <c r="H19" s="23">
-        <v>1</v>
-      </c>
-      <c r="I19" s="23">
-        <v>1</v>
-      </c>
-      <c r="J19" s="23">
-        <v>1</v>
-      </c>
-      <c r="K19" s="23">
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
         <v>1.5129399999999999E-2</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="3">
         <v>7.0233279999999997E-3</v>
       </c>
       <c r="Q19" s="2" t="s">
@@ -11184,34 +11263,34 @@
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="22" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="23" t="s">
+      <c r="K20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="23" t="s">
+      <c r="L20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="Q20" s="2" t="s">
@@ -11270,34 +11349,34 @@
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="22" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="23">
-        <v>1</v>
-      </c>
-      <c r="F21" s="23">
-        <v>0</v>
-      </c>
-      <c r="G21" s="23">
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>0.49982179999999998</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="3">
         <v>0.49930730000000001</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="3">
         <v>1.646698E-3</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="3">
         <v>0.42982942800000001</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="3">
         <v>0.18188789999999999</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="3">
         <v>0.52504569999999995</v>
       </c>
       <c r="Q21" s="2" t="s">
@@ -11356,34 +11435,34 @@
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="22" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="23">
-        <v>1</v>
-      </c>
-      <c r="F22" s="23">
-        <v>0</v>
-      </c>
-      <c r="G22" s="23">
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>0.49945869999999998</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="3">
         <v>0.49923440000000002</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="3">
         <v>1.3033529999999999E-3</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="3">
         <v>0.42916938999999998</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="3">
         <v>0.18187690000000001</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="3">
         <v>0.25677929999999999</v>
       </c>
       <c r="Q22" s="2" t="s">
@@ -11442,28 +11521,28 @@
       </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="22" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23">
-        <v>1</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
         <v>0.62990139999999994</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3">
         <v>9.3516680000000005E-3</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="3">
         <v>0.34950740000000002</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="3">
         <v>0.38780579999999998</v>
       </c>
       <c r="Q23" s="2" t="s">
@@ -11510,26 +11589,26 @@
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="22" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23">
-        <v>0</v>
-      </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
         <v>0.64835659999999995</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
         <v>7.0043659999999997E-3</v>
       </c>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
       <c r="Q24" s="2" t="s">
         <v>17</v>
       </c>
@@ -11566,26 +11645,26 @@
       <c r="AL24" s="3"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24">
-        <v>0</v>
-      </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24">
+      <c r="E25" s="18"/>
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18">
         <v>0.64776330000000004</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24">
+      <c r="I25" s="18"/>
+      <c r="J25" s="18">
         <v>7.7433759999999997E-3</v>
       </c>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
       <c r="Q25" s="2" t="s">
         <v>15</v>
       </c>
@@ -11622,40 +11701,40 @@
       <c r="AL25" s="3"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A26" s="18">
-        <v>1</v>
-      </c>
-      <c r="B26" s="18">
-        <v>2</v>
-      </c>
-      <c r="C26" s="18">
+      <c r="A26" s="26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="26">
         <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="22">
         <v>0.33100000000000002</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="22">
         <v>0.748</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="22">
         <v>0.50600000000000001</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="22">
         <v>0.60899999999999999</v>
       </c>
-      <c r="I26" s="32">
+      <c r="I26" s="22">
         <v>0.35</v>
       </c>
-      <c r="J26" s="32">
+      <c r="J26" s="22">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="K26" s="32">
+      <c r="K26" s="22">
         <v>1.4350000000000001</v>
       </c>
-      <c r="L26" s="32">
+      <c r="L26" s="22">
         <v>2.351</v>
       </c>
       <c r="N26" s="2">
@@ -11670,28 +11749,28 @@
       <c r="Q26" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="R26" s="33">
+      <c r="R26" s="23">
         <v>0.51900000000000002</v>
       </c>
-      <c r="S26" s="33">
+      <c r="S26" s="23">
         <v>0.63</v>
       </c>
-      <c r="T26" s="33">
+      <c r="T26" s="23">
         <v>0.53900000000000003</v>
       </c>
-      <c r="U26" s="33">
+      <c r="U26" s="23">
         <v>0.58599999999999997</v>
       </c>
-      <c r="V26" s="33">
+      <c r="V26" s="23">
         <v>0.40699999999999997</v>
       </c>
-      <c r="W26" s="33">
+      <c r="W26" s="23">
         <v>0.151</v>
       </c>
-      <c r="X26" s="33">
+      <c r="X26" s="23">
         <v>1.321</v>
       </c>
-      <c r="Y26" s="33">
+      <c r="Y26" s="23">
         <v>2.4830000000000001</v>
       </c>
       <c r="Z26" s="2" t="s">
@@ -11709,28 +11788,28 @@
       <c r="AD26" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AE26" s="33">
+      <c r="AE26" s="23">
         <v>0.33300000000000002</v>
       </c>
-      <c r="AF26" s="33">
-        <v>1</v>
-      </c>
-      <c r="AG26" s="33">
+      <c r="AF26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="23">
         <v>0.51100000000000001</v>
       </c>
-      <c r="AH26" s="33">
+      <c r="AH26" s="23">
         <v>0.61499999999999999</v>
       </c>
-      <c r="AI26" s="33">
+      <c r="AI26" s="23">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="AJ26" s="33">
+      <c r="AJ26" s="23">
         <v>1.2E-2</v>
       </c>
-      <c r="AK26" s="33">
+      <c r="AK26" s="23">
         <v>1.4610000000000001</v>
       </c>
-      <c r="AL26" s="33">
+      <c r="AL26" s="23">
         <v>2.206</v>
       </c>
       <c r="AM26" s="2" t="s">
@@ -11738,34 +11817,34 @@
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="22" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="19">
         <v>0.875</v>
       </c>
-      <c r="F27" s="26">
-        <v>1</v>
-      </c>
-      <c r="G27" s="26">
+      <c r="F27" s="19">
+        <v>1</v>
+      </c>
+      <c r="G27" s="19">
         <v>0.98434370000000004</v>
       </c>
-      <c r="H27" s="26">
-        <v>1</v>
-      </c>
-      <c r="I27" s="26">
+      <c r="H27" s="19">
+        <v>1</v>
+      </c>
+      <c r="I27" s="19">
         <v>0.96867150000000002</v>
       </c>
-      <c r="J27" s="26">
-        <v>1</v>
-      </c>
-      <c r="K27" s="26">
+      <c r="J27" s="19">
+        <v>1</v>
+      </c>
+      <c r="K27" s="19">
         <v>8.8676499999999997E-4</v>
       </c>
-      <c r="L27" s="26">
+      <c r="L27" s="19">
         <v>1.765144E-3</v>
       </c>
       <c r="Q27" s="2" t="s">
@@ -11824,34 +11903,34 @@
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="22" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="23" t="s">
+      <c r="I28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L28" s="23" t="s">
+      <c r="L28" s="3" t="s">
         <v>37</v>
       </c>
       <c r="Q28" s="2" t="s">
@@ -11910,34 +11989,34 @@
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="22" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="23">
-        <v>1</v>
-      </c>
-      <c r="F29" s="23">
-        <v>0</v>
-      </c>
-      <c r="G29" s="23">
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>0.4996758</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="3">
         <v>0.49938690000000002</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="3">
         <v>1.7441170000000001E-3</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="3">
         <v>0.42798228999999999</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="3">
         <v>1.089083</v>
       </c>
-      <c r="L29" s="23">
+      <c r="L29" s="3">
         <v>1.6087819999999999</v>
       </c>
       <c r="Q29" s="2" t="s">
@@ -11996,34 +12075,34 @@
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="22" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="23">
-        <v>1</v>
-      </c>
-      <c r="F30" s="23">
-        <v>0</v>
-      </c>
-      <c r="G30" s="23">
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
         <v>0.49956509999999998</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="3">
         <v>0.49921520000000003</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="3">
         <v>1.1173590000000001E-3</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="3">
         <v>0.42918186800000002</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="3">
         <v>1.077871</v>
       </c>
-      <c r="L30" s="23">
+      <c r="L30" s="3">
         <v>1.319957</v>
       </c>
       <c r="Q30" s="2" t="s">
@@ -12082,28 +12161,28 @@
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="22" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23">
-        <v>1</v>
-      </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
         <v>0.63056509999999999</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23">
+      <c r="I31" s="3"/>
+      <c r="J31" s="3">
         <v>1.101893E-2</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="3">
         <v>1.512615</v>
       </c>
-      <c r="L31" s="23">
+      <c r="L31" s="3">
         <v>1.785126</v>
       </c>
       <c r="Q31" s="2" t="s">
@@ -12150,26 +12229,26 @@
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="22" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23">
-        <v>0</v>
-      </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3">
         <v>0.64915979999999995</v>
       </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23">
+      <c r="I32" s="3"/>
+      <c r="J32" s="3">
         <v>4.2808849999999999E-3</v>
       </c>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
       <c r="Q32" s="2" t="s">
         <v>17</v>
       </c>
@@ -12206,26 +12285,26 @@
       <c r="AL32" s="3"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24">
-        <v>0</v>
-      </c>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24">
+      <c r="E33" s="18"/>
+      <c r="F33" s="18">
+        <v>0</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18">
         <v>0.6488874</v>
       </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24">
+      <c r="I33" s="18"/>
+      <c r="J33" s="18">
         <v>7.7437679999999998E-3</v>
       </c>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
       <c r="Q33" s="2" t="s">
         <v>15</v>
       </c>
@@ -12262,3426 +12341,3426 @@
       <c r="AL33" s="3"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="25" t="s">
+      <c r="C41" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I41" s="25" t="s">
+      <c r="I41" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J41" s="25" t="s">
+      <c r="J41" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K41" s="25" t="s">
+      <c r="K41" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L41" s="25" t="s">
+      <c r="L41" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A42" s="25">
-        <v>1</v>
-      </c>
-      <c r="B42" s="25">
-        <v>1</v>
-      </c>
-      <c r="C42" s="25">
+      <c r="A42" s="14">
+        <v>1</v>
+      </c>
+      <c r="B42" s="14">
+        <v>1</v>
+      </c>
+      <c r="C42" s="14">
         <v>4</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="26">
+      <c r="E42" s="19">
         <v>0.22</v>
       </c>
-      <c r="F42" s="26">
+      <c r="F42" s="19">
         <v>0.99</v>
       </c>
-      <c r="G42" s="26">
+      <c r="G42" s="19">
         <v>0.50800000000000001</v>
       </c>
-      <c r="H42" s="26">
+      <c r="H42" s="19">
         <v>0.623</v>
       </c>
-      <c r="I42" s="26">
+      <c r="I42" s="19">
         <v>0.36599999999999999</v>
       </c>
-      <c r="J42" s="26">
+      <c r="J42" s="19">
         <v>1.4E-2</v>
       </c>
-      <c r="K42" s="26">
+      <c r="K42" s="19">
         <v>0.32400000000000001</v>
       </c>
-      <c r="L42" s="26">
+      <c r="L42" s="19">
         <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A43" s="25">
-        <v>1</v>
-      </c>
-      <c r="B43" s="25">
-        <v>1</v>
-      </c>
-      <c r="C43" s="25">
+      <c r="A43" s="14">
+        <v>1</v>
+      </c>
+      <c r="B43" s="14">
+        <v>1</v>
+      </c>
+      <c r="C43" s="14">
         <v>4</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="26">
+      <c r="E43" s="19">
         <v>0.9</v>
       </c>
-      <c r="F43" s="26">
-        <v>1</v>
-      </c>
-      <c r="G43" s="26">
+      <c r="F43" s="19">
+        <v>1</v>
+      </c>
+      <c r="G43" s="19">
         <v>0.94989979999999996</v>
       </c>
-      <c r="H43" s="26">
-        <v>1</v>
-      </c>
-      <c r="I43" s="26">
-        <v>1</v>
-      </c>
-      <c r="J43" s="26">
-        <v>1</v>
-      </c>
-      <c r="K43" s="26">
+      <c r="H43" s="19">
+        <v>1</v>
+      </c>
+      <c r="I43" s="19">
+        <v>1</v>
+      </c>
+      <c r="J43" s="19">
+        <v>1</v>
+      </c>
+      <c r="K43" s="19">
         <v>1.5129399999999999E-2</v>
       </c>
-      <c r="L43" s="26">
+      <c r="L43" s="19">
         <v>7.0233279999999997E-3</v>
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A44" s="25">
-        <v>1</v>
-      </c>
-      <c r="B44" s="25">
-        <v>1</v>
-      </c>
-      <c r="C44" s="25">
+      <c r="A44" s="14">
+        <v>1</v>
+      </c>
+      <c r="B44" s="14">
+        <v>1</v>
+      </c>
+      <c r="C44" s="14">
         <v>4</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="26">
-        <v>0</v>
-      </c>
-      <c r="F44" s="26">
-        <v>1</v>
-      </c>
-      <c r="G44" s="26">
+      <c r="E44" s="19">
+        <v>0</v>
+      </c>
+      <c r="F44" s="19">
+        <v>1</v>
+      </c>
+      <c r="G44" s="19">
         <v>0.50913350000000002</v>
       </c>
-      <c r="H44" s="26">
+      <c r="H44" s="19">
         <v>0.63084609999999997</v>
       </c>
-      <c r="I44" s="26">
+      <c r="I44" s="19">
         <v>1.7347202999999999E-2</v>
       </c>
-      <c r="J44" s="26">
+      <c r="J44" s="19">
         <v>1.1768684999999999E-2</v>
       </c>
-      <c r="K44" s="26">
+      <c r="K44" s="19">
         <v>0.37205460000000001</v>
       </c>
-      <c r="L44" s="26">
+      <c r="L44" s="19">
         <v>0.41108850000000002</v>
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A45" s="25">
-        <v>1</v>
-      </c>
-      <c r="B45" s="25">
-        <v>1</v>
-      </c>
-      <c r="C45" s="25">
+      <c r="A45" s="14">
+        <v>1</v>
+      </c>
+      <c r="B45" s="14">
+        <v>1</v>
+      </c>
+      <c r="C45" s="14">
         <v>4</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="26">
-        <v>1</v>
-      </c>
-      <c r="F45" s="26">
-        <v>0</v>
-      </c>
-      <c r="G45" s="26">
+      <c r="E45" s="19">
+        <v>1</v>
+      </c>
+      <c r="F45" s="19">
+        <v>0</v>
+      </c>
+      <c r="G45" s="19">
         <v>0.49982179999999998</v>
       </c>
-      <c r="H45" s="26">
+      <c r="H45" s="19">
         <v>0.49930730000000001</v>
       </c>
-      <c r="I45" s="26">
+      <c r="I45" s="19">
         <v>1.646698E-3</v>
       </c>
-      <c r="J45" s="26">
+      <c r="J45" s="19">
         <v>0.42982942800000001</v>
       </c>
-      <c r="K45" s="26">
+      <c r="K45" s="19">
         <v>0.18188789999999999</v>
       </c>
-      <c r="L45" s="26">
+      <c r="L45" s="19">
         <v>0.52504569999999995</v>
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A46" s="25">
-        <v>1</v>
-      </c>
-      <c r="B46" s="25">
-        <v>1</v>
-      </c>
-      <c r="C46" s="25">
+      <c r="A46" s="14">
+        <v>1</v>
+      </c>
+      <c r="B46" s="14">
+        <v>1</v>
+      </c>
+      <c r="C46" s="14">
         <v>4</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="26">
-        <v>1</v>
-      </c>
-      <c r="F46" s="26">
-        <v>0</v>
-      </c>
-      <c r="G46" s="26">
+      <c r="E46" s="19">
+        <v>1</v>
+      </c>
+      <c r="F46" s="19">
+        <v>0</v>
+      </c>
+      <c r="G46" s="19">
         <v>0.49945869999999998</v>
       </c>
-      <c r="H46" s="26">
+      <c r="H46" s="19">
         <v>0.49923440000000002</v>
       </c>
-      <c r="I46" s="26">
+      <c r="I46" s="19">
         <v>1.3033529999999999E-3</v>
       </c>
-      <c r="J46" s="26">
+      <c r="J46" s="19">
         <v>0.42916938999999998</v>
       </c>
-      <c r="K46" s="26">
+      <c r="K46" s="19">
         <v>0.18187690000000001</v>
       </c>
-      <c r="L46" s="26">
+      <c r="L46" s="19">
         <v>0.25677929999999999</v>
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A47" s="25">
-        <v>1</v>
-      </c>
-      <c r="B47" s="25">
-        <v>1</v>
-      </c>
-      <c r="C47" s="25">
+      <c r="A47" s="14">
+        <v>1</v>
+      </c>
+      <c r="B47" s="14">
+        <v>1</v>
+      </c>
+      <c r="C47" s="14">
         <v>4</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26">
-        <v>1</v>
-      </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26">
+      <c r="E47" s="19"/>
+      <c r="F47" s="19">
+        <v>1</v>
+      </c>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19">
         <v>0.63084609999999997</v>
       </c>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26">
+      <c r="I47" s="19"/>
+      <c r="J47" s="19">
         <v>1.1768684999999999E-2</v>
       </c>
-      <c r="K47" s="26">
+      <c r="K47" s="19">
         <v>0.37205460000000001</v>
       </c>
-      <c r="L47" s="26">
+      <c r="L47" s="19">
         <v>0.41108850000000002</v>
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A48" s="25">
-        <v>1</v>
-      </c>
-      <c r="B48" s="25">
-        <v>1</v>
-      </c>
-      <c r="C48" s="25">
+      <c r="A48" s="14">
+        <v>1</v>
+      </c>
+      <c r="B48" s="14">
+        <v>1</v>
+      </c>
+      <c r="C48" s="14">
         <v>4</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26">
-        <v>1</v>
-      </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26">
+      <c r="E48" s="19"/>
+      <c r="F48" s="19">
+        <v>1</v>
+      </c>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19">
         <v>0.60874200000000001</v>
       </c>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26">
+      <c r="I48" s="19"/>
+      <c r="J48" s="19">
         <v>9.9180250000000005E-3</v>
       </c>
-      <c r="K48" s="26">
+      <c r="K48" s="19">
         <v>1.0096540000000001</v>
       </c>
-      <c r="L48" s="26">
+      <c r="L48" s="19">
         <v>0.81780949999999997</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="25">
-        <v>1</v>
-      </c>
-      <c r="B49" s="25">
-        <v>1</v>
-      </c>
-      <c r="C49" s="25">
+      <c r="A49" s="14">
+        <v>1</v>
+      </c>
+      <c r="B49" s="14">
+        <v>1</v>
+      </c>
+      <c r="C49" s="14">
         <v>4</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26">
-        <v>1</v>
-      </c>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26">
+      <c r="E49" s="19"/>
+      <c r="F49" s="19">
+        <v>1</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19">
         <v>0.60957229999999996</v>
       </c>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26">
+      <c r="I49" s="19"/>
+      <c r="J49" s="19">
         <v>1.0052073E-2</v>
       </c>
-      <c r="K49" s="26">
+      <c r="K49" s="19">
         <v>0.9179254</v>
       </c>
-      <c r="L49" s="26">
+      <c r="L49" s="19">
         <v>0.75462720000000005</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="25">
-        <v>1</v>
-      </c>
-      <c r="B50" s="25">
-        <v>2</v>
-      </c>
-      <c r="C50" s="25">
+      <c r="A50" s="14">
+        <v>1</v>
+      </c>
+      <c r="B50" s="14">
+        <v>2</v>
+      </c>
+      <c r="C50" s="14">
         <v>4</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="26">
+      <c r="E50" s="19">
         <v>0.42499999999999999</v>
       </c>
-      <c r="F50" s="26">
+      <c r="F50" s="19">
         <v>0.5</v>
       </c>
-      <c r="G50" s="26">
+      <c r="G50" s="19">
         <v>0.51100000000000001</v>
       </c>
-      <c r="H50" s="26">
+      <c r="H50" s="19">
         <v>0.60299999999999998</v>
       </c>
-      <c r="I50" s="26">
+      <c r="I50" s="19">
         <v>0.372</v>
       </c>
-      <c r="J50" s="26">
+      <c r="J50" s="19">
         <v>0.11600000000000001</v>
       </c>
-      <c r="K50" s="26">
+      <c r="K50" s="19">
         <v>1.3009999999999999</v>
       </c>
-      <c r="L50" s="26">
+      <c r="L50" s="19">
         <v>2.1349999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="25">
-        <v>1</v>
-      </c>
-      <c r="B51" s="25">
-        <v>2</v>
-      </c>
-      <c r="C51" s="25">
+      <c r="A51" s="14">
+        <v>1</v>
+      </c>
+      <c r="B51" s="14">
+        <v>2</v>
+      </c>
+      <c r="C51" s="14">
         <v>4</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="26">
+      <c r="E51" s="19">
         <v>0.875</v>
       </c>
-      <c r="F51" s="26">
-        <v>1</v>
-      </c>
-      <c r="G51" s="26">
+      <c r="F51" s="19">
+        <v>1</v>
+      </c>
+      <c r="G51" s="19">
         <v>0.98434370000000004</v>
       </c>
-      <c r="H51" s="26">
-        <v>1</v>
-      </c>
-      <c r="I51" s="26">
+      <c r="H51" s="19">
+        <v>1</v>
+      </c>
+      <c r="I51" s="19">
         <v>0.96867150000000002</v>
       </c>
-      <c r="J51" s="26">
-        <v>1</v>
-      </c>
-      <c r="K51" s="26">
+      <c r="J51" s="19">
+        <v>1</v>
+      </c>
+      <c r="K51" s="19">
         <v>8.8676499999999997E-4</v>
       </c>
-      <c r="L51" s="26">
+      <c r="L51" s="19">
         <v>1.765144E-3</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="25">
-        <v>1</v>
-      </c>
-      <c r="B52" s="25">
-        <v>2</v>
-      </c>
-      <c r="C52" s="25">
+      <c r="A52" s="14">
+        <v>1</v>
+      </c>
+      <c r="B52" s="14">
+        <v>2</v>
+      </c>
+      <c r="C52" s="14">
         <v>4</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="26">
-        <v>0</v>
-      </c>
-      <c r="F52" s="26">
+      <c r="E52" s="19">
+        <v>0</v>
+      </c>
+      <c r="F52" s="19">
         <v>0.98</v>
       </c>
-      <c r="G52" s="26">
+      <c r="G52" s="19">
         <v>0.51089589999999996</v>
       </c>
-      <c r="H52" s="26">
+      <c r="H52" s="19">
         <v>0.6326387</v>
       </c>
-      <c r="I52" s="26">
+      <c r="I52" s="19">
         <v>2.0993962000000001E-2</v>
       </c>
-      <c r="J52" s="26">
+      <c r="J52" s="19">
         <v>1.4544471999999999E-2</v>
       </c>
-      <c r="K52" s="26">
+      <c r="K52" s="19">
         <v>1.465184</v>
       </c>
-      <c r="L52" s="26">
+      <c r="L52" s="19">
         <v>1.616798</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="25">
-        <v>1</v>
-      </c>
-      <c r="B53" s="25">
-        <v>2</v>
-      </c>
-      <c r="C53" s="25">
+      <c r="A53" s="14">
+        <v>1</v>
+      </c>
+      <c r="B53" s="14">
+        <v>2</v>
+      </c>
+      <c r="C53" s="14">
         <v>4</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="26">
-        <v>1</v>
-      </c>
-      <c r="F53" s="26">
-        <v>0</v>
-      </c>
-      <c r="G53" s="26">
+      <c r="E53" s="19">
+        <v>1</v>
+      </c>
+      <c r="F53" s="19">
+        <v>0</v>
+      </c>
+      <c r="G53" s="19">
         <v>0.4996758</v>
       </c>
-      <c r="H53" s="26">
+      <c r="H53" s="19">
         <v>0.49938690000000002</v>
       </c>
-      <c r="I53" s="26">
+      <c r="I53" s="19">
         <v>1.7441170000000001E-3</v>
       </c>
-      <c r="J53" s="26">
+      <c r="J53" s="19">
         <v>0.42798228999999999</v>
       </c>
-      <c r="K53" s="26">
+      <c r="K53" s="19">
         <v>1.089083</v>
       </c>
-      <c r="L53" s="26">
+      <c r="L53" s="19">
         <v>1.6087819999999999</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="25">
-        <v>1</v>
-      </c>
-      <c r="B54" s="25">
-        <v>2</v>
-      </c>
-      <c r="C54" s="25">
+      <c r="A54" s="14">
+        <v>1</v>
+      </c>
+      <c r="B54" s="14">
+        <v>2</v>
+      </c>
+      <c r="C54" s="14">
         <v>4</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="D54" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="26">
-        <v>1</v>
-      </c>
-      <c r="F54" s="26">
-        <v>0</v>
-      </c>
-      <c r="G54" s="26">
+      <c r="E54" s="19">
+        <v>1</v>
+      </c>
+      <c r="F54" s="19">
+        <v>0</v>
+      </c>
+      <c r="G54" s="19">
         <v>0.49956509999999998</v>
       </c>
-      <c r="H54" s="26">
+      <c r="H54" s="19">
         <v>0.49921520000000003</v>
       </c>
-      <c r="I54" s="26">
+      <c r="I54" s="19">
         <v>1.1173590000000001E-3</v>
       </c>
-      <c r="J54" s="26">
+      <c r="J54" s="19">
         <v>0.42918186800000002</v>
       </c>
-      <c r="K54" s="26">
+      <c r="K54" s="19">
         <v>1.077871</v>
       </c>
-      <c r="L54" s="26">
+      <c r="L54" s="19">
         <v>1.319957</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="25">
-        <v>1</v>
-      </c>
-      <c r="B55" s="25">
-        <v>2</v>
-      </c>
-      <c r="C55" s="25">
+      <c r="A55" s="14">
+        <v>1</v>
+      </c>
+      <c r="B55" s="14">
+        <v>2</v>
+      </c>
+      <c r="C55" s="14">
         <v>4</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26">
+      <c r="E55" s="19"/>
+      <c r="F55" s="19">
         <v>0.98</v>
       </c>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26">
+      <c r="G55" s="19"/>
+      <c r="H55" s="19">
         <v>0.63104329999999997</v>
       </c>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26">
+      <c r="I55" s="19"/>
+      <c r="J55" s="19">
         <v>1.8190031999999998E-2</v>
       </c>
-      <c r="K55" s="26">
+      <c r="K55" s="19">
         <v>1.465184</v>
       </c>
-      <c r="L55" s="26">
+      <c r="L55" s="19">
         <v>1.6168</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="25">
-        <v>1</v>
-      </c>
-      <c r="B56" s="25">
-        <v>2</v>
-      </c>
-      <c r="C56" s="25">
+      <c r="A56" s="14">
+        <v>1</v>
+      </c>
+      <c r="B56" s="14">
+        <v>2</v>
+      </c>
+      <c r="C56" s="14">
         <v>4</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26">
-        <v>1</v>
-      </c>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26">
+      <c r="E56" s="19"/>
+      <c r="F56" s="19">
+        <v>1</v>
+      </c>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19">
         <v>0.60802330000000004</v>
       </c>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26">
+      <c r="I56" s="19"/>
+      <c r="J56" s="19">
         <v>5.913041E-3</v>
       </c>
-      <c r="K56" s="26">
+      <c r="K56" s="19">
         <v>6.0716320000000001</v>
       </c>
-      <c r="L56" s="26">
+      <c r="L56" s="19">
         <v>5.0696870000000001</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="25">
-        <v>1</v>
-      </c>
-      <c r="B57" s="25">
-        <v>2</v>
-      </c>
-      <c r="C57" s="25">
+      <c r="A57" s="14">
+        <v>1</v>
+      </c>
+      <c r="B57" s="14">
+        <v>2</v>
+      </c>
+      <c r="C57" s="14">
         <v>4</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26">
-        <v>1</v>
-      </c>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26">
+      <c r="E57" s="19"/>
+      <c r="F57" s="19">
+        <v>1</v>
+      </c>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19">
         <v>0.60731420000000003</v>
       </c>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26">
+      <c r="I57" s="19"/>
+      <c r="J57" s="19">
         <v>9.3500730000000004E-3</v>
       </c>
-      <c r="K57" s="26">
+      <c r="K57" s="19">
         <v>4.6205939999999996</v>
       </c>
-      <c r="L57" s="26">
+      <c r="L57" s="19">
         <v>3.6521439999999998</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="25">
-        <v>1</v>
-      </c>
-      <c r="B58" s="25">
-        <v>1</v>
-      </c>
-      <c r="C58" s="25">
+      <c r="A58" s="14">
+        <v>1</v>
+      </c>
+      <c r="B58" s="14">
+        <v>1</v>
+      </c>
+      <c r="C58" s="14">
         <v>6</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="26">
+      <c r="E58" s="19">
         <v>0.44</v>
       </c>
-      <c r="F58" s="26">
+      <c r="F58" s="19">
         <v>0.93300000000000005</v>
       </c>
-      <c r="G58" s="26">
+      <c r="G58" s="19">
         <v>0.50700000000000001</v>
       </c>
-      <c r="H58" s="26">
+      <c r="H58" s="19">
         <v>0.61899999999999999</v>
       </c>
-      <c r="I58" s="26">
+      <c r="I58" s="19">
         <v>0.376</v>
       </c>
-      <c r="J58" s="26">
+      <c r="J58" s="19">
         <v>2.4E-2</v>
       </c>
-      <c r="K58" s="26">
+      <c r="K58" s="19">
         <v>0.30499999999999999</v>
       </c>
-      <c r="L58" s="26">
+      <c r="L58" s="19">
         <v>0.497</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="25">
-        <v>1</v>
-      </c>
-      <c r="B59" s="25">
-        <v>1</v>
-      </c>
-      <c r="C59" s="25">
+      <c r="A59" s="14">
+        <v>1</v>
+      </c>
+      <c r="B59" s="14">
+        <v>1</v>
+      </c>
+      <c r="C59" s="14">
         <v>6</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="26">
+      <c r="E59" s="19">
         <v>0.9</v>
       </c>
-      <c r="F59" s="26">
-        <v>1</v>
-      </c>
-      <c r="G59" s="26">
+      <c r="F59" s="19">
+        <v>1</v>
+      </c>
+      <c r="G59" s="19">
         <v>0.94989979999999996</v>
       </c>
-      <c r="H59" s="26">
-        <v>1</v>
-      </c>
-      <c r="I59" s="26">
-        <v>1</v>
-      </c>
-      <c r="J59" s="26">
-        <v>1</v>
-      </c>
-      <c r="K59" s="26">
+      <c r="H59" s="19">
+        <v>1</v>
+      </c>
+      <c r="I59" s="19">
+        <v>1</v>
+      </c>
+      <c r="J59" s="19">
+        <v>1</v>
+      </c>
+      <c r="K59" s="19">
         <v>1.5129399999999999E-2</v>
       </c>
-      <c r="L59" s="26">
+      <c r="L59" s="19">
         <v>7.0233279999999997E-3</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="25">
-        <v>1</v>
-      </c>
-      <c r="B60" s="25">
-        <v>1</v>
-      </c>
-      <c r="C60" s="25">
+      <c r="A60" s="14">
+        <v>1</v>
+      </c>
+      <c r="B60" s="14">
+        <v>1</v>
+      </c>
+      <c r="C60" s="14">
         <v>6</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="D60" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="E60" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F60" s="26" t="s">
+      <c r="F60" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G60" s="26" t="s">
+      <c r="G60" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H60" s="26" t="s">
+      <c r="H60" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I60" s="26" t="s">
+      <c r="I60" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J60" s="26" t="s">
+      <c r="J60" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K60" s="26" t="s">
+      <c r="K60" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="L60" s="26" t="s">
+      <c r="L60" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="25">
-        <v>1</v>
-      </c>
-      <c r="B61" s="25">
-        <v>1</v>
-      </c>
-      <c r="C61" s="25">
+      <c r="A61" s="14">
+        <v>1</v>
+      </c>
+      <c r="B61" s="14">
+        <v>1</v>
+      </c>
+      <c r="C61" s="14">
         <v>6</v>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E61" s="26">
-        <v>1</v>
-      </c>
-      <c r="F61" s="26">
-        <v>0</v>
-      </c>
-      <c r="G61" s="26">
+      <c r="E61" s="19">
+        <v>1</v>
+      </c>
+      <c r="F61" s="19">
+        <v>0</v>
+      </c>
+      <c r="G61" s="19">
         <v>0.49982179999999998</v>
       </c>
-      <c r="H61" s="26">
+      <c r="H61" s="19">
         <v>0.49930730000000001</v>
       </c>
-      <c r="I61" s="26">
+      <c r="I61" s="19">
         <v>1.646698E-3</v>
       </c>
-      <c r="J61" s="26">
+      <c r="J61" s="19">
         <v>0.42982942800000001</v>
       </c>
-      <c r="K61" s="26">
+      <c r="K61" s="19">
         <v>0.18188789999999999</v>
       </c>
-      <c r="L61" s="26">
+      <c r="L61" s="19">
         <v>0.52504569999999995</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="25">
-        <v>1</v>
-      </c>
-      <c r="B62" s="25">
-        <v>1</v>
-      </c>
-      <c r="C62" s="25">
+      <c r="A62" s="14">
+        <v>1</v>
+      </c>
+      <c r="B62" s="14">
+        <v>1</v>
+      </c>
+      <c r="C62" s="14">
         <v>6</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D62" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="26">
-        <v>1</v>
-      </c>
-      <c r="F62" s="26">
-        <v>0</v>
-      </c>
-      <c r="G62" s="26">
+      <c r="E62" s="19">
+        <v>1</v>
+      </c>
+      <c r="F62" s="19">
+        <v>0</v>
+      </c>
+      <c r="G62" s="19">
         <v>0.49945869999999998</v>
       </c>
-      <c r="H62" s="26">
+      <c r="H62" s="19">
         <v>0.49923440000000002</v>
       </c>
-      <c r="I62" s="26">
+      <c r="I62" s="19">
         <v>1.3033529999999999E-3</v>
       </c>
-      <c r="J62" s="26">
+      <c r="J62" s="19">
         <v>0.42916938999999998</v>
       </c>
-      <c r="K62" s="26">
+      <c r="K62" s="19">
         <v>0.18187690000000001</v>
       </c>
-      <c r="L62" s="26">
+      <c r="L62" s="19">
         <v>0.25677929999999999</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="25">
-        <v>1</v>
-      </c>
-      <c r="B63" s="25">
-        <v>1</v>
-      </c>
-      <c r="C63" s="25">
+      <c r="A63" s="14">
+        <v>1</v>
+      </c>
+      <c r="B63" s="14">
+        <v>1</v>
+      </c>
+      <c r="C63" s="14">
         <v>6</v>
       </c>
-      <c r="D63" s="25" t="s">
+      <c r="D63" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26">
-        <v>1</v>
-      </c>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26">
+      <c r="E63" s="19"/>
+      <c r="F63" s="19">
+        <v>1</v>
+      </c>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19">
         <v>0.62990139999999994</v>
       </c>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26">
+      <c r="I63" s="19"/>
+      <c r="J63" s="19">
         <v>9.3516680000000005E-3</v>
       </c>
-      <c r="K63" s="26">
+      <c r="K63" s="19">
         <v>0.34950740000000002</v>
       </c>
-      <c r="L63" s="26">
+      <c r="L63" s="19">
         <v>0.38780579999999998</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="25">
-        <v>1</v>
-      </c>
-      <c r="B64" s="25">
-        <v>1</v>
-      </c>
-      <c r="C64" s="25">
+      <c r="A64" s="14">
+        <v>1</v>
+      </c>
+      <c r="B64" s="14">
+        <v>1</v>
+      </c>
+      <c r="C64" s="14">
         <v>6</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26">
-        <v>0</v>
-      </c>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26">
+      <c r="E64" s="19"/>
+      <c r="F64" s="19">
+        <v>0</v>
+      </c>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19">
         <v>0.64835659999999995</v>
       </c>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26">
+      <c r="I64" s="19"/>
+      <c r="J64" s="19">
         <v>7.0043659999999997E-3</v>
       </c>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="25">
-        <v>1</v>
-      </c>
-      <c r="B65" s="25">
-        <v>1</v>
-      </c>
-      <c r="C65" s="25">
+      <c r="A65" s="14">
+        <v>1</v>
+      </c>
+      <c r="B65" s="14">
+        <v>1</v>
+      </c>
+      <c r="C65" s="14">
         <v>6</v>
       </c>
-      <c r="D65" s="25" t="s">
+      <c r="D65" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26">
-        <v>0</v>
-      </c>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26">
+      <c r="E65" s="19"/>
+      <c r="F65" s="19">
+        <v>0</v>
+      </c>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19">
         <v>0.64776330000000004</v>
       </c>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26">
+      <c r="I65" s="19"/>
+      <c r="J65" s="19">
         <v>7.7433759999999997E-3</v>
       </c>
-      <c r="K65" s="26"/>
-      <c r="L65" s="26"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="25">
-        <v>1</v>
-      </c>
-      <c r="B66" s="25">
-        <v>2</v>
-      </c>
-      <c r="C66" s="25">
+      <c r="A66" s="14">
+        <v>1</v>
+      </c>
+      <c r="B66" s="14">
+        <v>2</v>
+      </c>
+      <c r="C66" s="14">
         <v>6</v>
       </c>
-      <c r="D66" s="25" t="s">
+      <c r="D66" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="26">
+      <c r="E66" s="19">
         <v>0.33100000000000002</v>
       </c>
-      <c r="F66" s="26">
+      <c r="F66" s="19">
         <v>0.748</v>
       </c>
-      <c r="G66" s="26">
+      <c r="G66" s="19">
         <v>0.50600000000000001</v>
       </c>
-      <c r="H66" s="26">
+      <c r="H66" s="19">
         <v>0.60899999999999999</v>
       </c>
-      <c r="I66" s="26">
+      <c r="I66" s="19">
         <v>0.35</v>
       </c>
-      <c r="J66" s="26">
+      <c r="J66" s="19">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="K66" s="26">
+      <c r="K66" s="19">
         <v>1.4350000000000001</v>
       </c>
-      <c r="L66" s="26">
+      <c r="L66" s="19">
         <v>2.351</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="25">
-        <v>1</v>
-      </c>
-      <c r="B67" s="25">
-        <v>2</v>
-      </c>
-      <c r="C67" s="25">
+      <c r="A67" s="14">
+        <v>1</v>
+      </c>
+      <c r="B67" s="14">
+        <v>2</v>
+      </c>
+      <c r="C67" s="14">
         <v>6</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="D67" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E67" s="26">
+      <c r="E67" s="19">
         <v>0.875</v>
       </c>
-      <c r="F67" s="26">
-        <v>1</v>
-      </c>
-      <c r="G67" s="26">
+      <c r="F67" s="19">
+        <v>1</v>
+      </c>
+      <c r="G67" s="19">
         <v>0.98434370000000004</v>
       </c>
-      <c r="H67" s="26">
-        <v>1</v>
-      </c>
-      <c r="I67" s="26">
+      <c r="H67" s="19">
+        <v>1</v>
+      </c>
+      <c r="I67" s="19">
         <v>0.96867150000000002</v>
       </c>
-      <c r="J67" s="26">
-        <v>1</v>
-      </c>
-      <c r="K67" s="26">
+      <c r="J67" s="19">
+        <v>1</v>
+      </c>
+      <c r="K67" s="19">
         <v>8.8676499999999997E-4</v>
       </c>
-      <c r="L67" s="26">
+      <c r="L67" s="19">
         <v>1.765144E-3</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="25">
-        <v>1</v>
-      </c>
-      <c r="B68" s="25">
-        <v>2</v>
-      </c>
-      <c r="C68" s="25">
+      <c r="A68" s="14">
+        <v>1</v>
+      </c>
+      <c r="B68" s="14">
+        <v>2</v>
+      </c>
+      <c r="C68" s="14">
         <v>6</v>
       </c>
-      <c r="D68" s="25" t="s">
+      <c r="D68" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E68" s="26" t="s">
+      <c r="E68" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F68" s="26" t="s">
+      <c r="F68" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G68" s="26" t="s">
+      <c r="G68" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H68" s="26" t="s">
+      <c r="H68" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I68" s="26" t="s">
+      <c r="I68" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J68" s="26" t="s">
+      <c r="J68" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K68" s="26" t="s">
+      <c r="K68" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="L68" s="26" t="s">
+      <c r="L68" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="25">
-        <v>1</v>
-      </c>
-      <c r="B69" s="25">
-        <v>2</v>
-      </c>
-      <c r="C69" s="25">
+      <c r="A69" s="14">
+        <v>1</v>
+      </c>
+      <c r="B69" s="14">
+        <v>2</v>
+      </c>
+      <c r="C69" s="14">
         <v>6</v>
       </c>
-      <c r="D69" s="25" t="s">
+      <c r="D69" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="26">
-        <v>1</v>
-      </c>
-      <c r="F69" s="26">
-        <v>0</v>
-      </c>
-      <c r="G69" s="26">
+      <c r="E69" s="19">
+        <v>1</v>
+      </c>
+      <c r="F69" s="19">
+        <v>0</v>
+      </c>
+      <c r="G69" s="19">
         <v>0.4996758</v>
       </c>
-      <c r="H69" s="26">
+      <c r="H69" s="19">
         <v>0.49938690000000002</v>
       </c>
-      <c r="I69" s="26">
+      <c r="I69" s="19">
         <v>1.7441170000000001E-3</v>
       </c>
-      <c r="J69" s="26">
+      <c r="J69" s="19">
         <v>0.42798228999999999</v>
       </c>
-      <c r="K69" s="26">
+      <c r="K69" s="19">
         <v>1.089083</v>
       </c>
-      <c r="L69" s="26">
+      <c r="L69" s="19">
         <v>1.6087819999999999</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="25">
-        <v>1</v>
-      </c>
-      <c r="B70" s="25">
-        <v>2</v>
-      </c>
-      <c r="C70" s="25">
+      <c r="A70" s="14">
+        <v>1</v>
+      </c>
+      <c r="B70" s="14">
+        <v>2</v>
+      </c>
+      <c r="C70" s="14">
         <v>6</v>
       </c>
-      <c r="D70" s="25" t="s">
+      <c r="D70" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="26">
-        <v>1</v>
-      </c>
-      <c r="F70" s="26">
-        <v>0</v>
-      </c>
-      <c r="G70" s="26">
+      <c r="E70" s="19">
+        <v>1</v>
+      </c>
+      <c r="F70" s="19">
+        <v>0</v>
+      </c>
+      <c r="G70" s="19">
         <v>0.49956509999999998</v>
       </c>
-      <c r="H70" s="26">
+      <c r="H70" s="19">
         <v>0.49921520000000003</v>
       </c>
-      <c r="I70" s="26">
+      <c r="I70" s="19">
         <v>1.1173590000000001E-3</v>
       </c>
-      <c r="J70" s="26">
+      <c r="J70" s="19">
         <v>0.42918186800000002</v>
       </c>
-      <c r="K70" s="26">
+      <c r="K70" s="19">
         <v>1.077871</v>
       </c>
-      <c r="L70" s="26">
+      <c r="L70" s="19">
         <v>1.319957</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="25">
-        <v>1</v>
-      </c>
-      <c r="B71" s="25">
-        <v>2</v>
-      </c>
-      <c r="C71" s="25">
+      <c r="A71" s="14">
+        <v>1</v>
+      </c>
+      <c r="B71" s="14">
+        <v>2</v>
+      </c>
+      <c r="C71" s="14">
         <v>6</v>
       </c>
-      <c r="D71" s="25" t="s">
+      <c r="D71" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26">
-        <v>1</v>
-      </c>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26">
+      <c r="E71" s="19"/>
+      <c r="F71" s="19">
+        <v>1</v>
+      </c>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19">
         <v>0.63056509999999999</v>
       </c>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26">
+      <c r="I71" s="19"/>
+      <c r="J71" s="19">
         <v>1.101893E-2</v>
       </c>
-      <c r="K71" s="26">
+      <c r="K71" s="19">
         <v>1.512615</v>
       </c>
-      <c r="L71" s="26">
+      <c r="L71" s="19">
         <v>1.785126</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="25">
-        <v>1</v>
-      </c>
-      <c r="B72" s="25">
-        <v>2</v>
-      </c>
-      <c r="C72" s="25">
+      <c r="A72" s="14">
+        <v>1</v>
+      </c>
+      <c r="B72" s="14">
+        <v>2</v>
+      </c>
+      <c r="C72" s="14">
         <v>6</v>
       </c>
-      <c r="D72" s="25" t="s">
+      <c r="D72" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26">
-        <v>0</v>
-      </c>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26">
+      <c r="E72" s="19"/>
+      <c r="F72" s="19">
+        <v>0</v>
+      </c>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19">
         <v>0.64915979999999995</v>
       </c>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26">
+      <c r="I72" s="19"/>
+      <c r="J72" s="19">
         <v>4.2808849999999999E-3</v>
       </c>
-      <c r="K72" s="26"/>
-      <c r="L72" s="26"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="25">
-        <v>1</v>
-      </c>
-      <c r="B73" s="25">
-        <v>2</v>
-      </c>
-      <c r="C73" s="25">
+      <c r="A73" s="14">
+        <v>1</v>
+      </c>
+      <c r="B73" s="14">
+        <v>2</v>
+      </c>
+      <c r="C73" s="14">
         <v>6</v>
       </c>
-      <c r="D73" s="25" t="s">
+      <c r="D73" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26">
-        <v>0</v>
-      </c>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26">
+      <c r="E73" s="19"/>
+      <c r="F73" s="19">
+        <v>0</v>
+      </c>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19">
         <v>0.6488874</v>
       </c>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26">
+      <c r="I73" s="19"/>
+      <c r="J73" s="19">
         <v>7.7437679999999998E-3</v>
       </c>
-      <c r="K73" s="26"/>
-      <c r="L73" s="26"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="25">
-        <v>2</v>
-      </c>
-      <c r="B74" s="25">
-        <v>1</v>
-      </c>
-      <c r="C74" s="25">
+      <c r="A74" s="14">
+        <v>2</v>
+      </c>
+      <c r="B74" s="14">
+        <v>1</v>
+      </c>
+      <c r="C74" s="14">
         <v>4</v>
       </c>
-      <c r="D74" s="25" t="s">
+      <c r="D74" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E74" s="26">
+      <c r="E74" s="19">
         <v>0.30199999999999999</v>
       </c>
-      <c r="F74" s="26">
+      <c r="F74" s="19">
         <v>0.81699999999999995</v>
       </c>
-      <c r="G74" s="26">
+      <c r="G74" s="19">
         <v>0.54400000000000004</v>
       </c>
-      <c r="H74" s="26">
+      <c r="H74" s="19">
         <v>0.60599999999999998</v>
       </c>
-      <c r="I74" s="26">
+      <c r="I74" s="19">
         <v>0.57199999999999995</v>
       </c>
-      <c r="J74" s="26">
+      <c r="J74" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K74" s="26">
+      <c r="K74" s="19">
         <v>0.30299999999999999</v>
       </c>
-      <c r="L74" s="26">
+      <c r="L74" s="19">
         <v>0.58899999999999997</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="25">
-        <v>2</v>
-      </c>
-      <c r="B75" s="25">
-        <v>1</v>
-      </c>
-      <c r="C75" s="25">
+      <c r="A75" s="14">
+        <v>2</v>
+      </c>
+      <c r="B75" s="14">
+        <v>1</v>
+      </c>
+      <c r="C75" s="14">
         <v>4</v>
       </c>
-      <c r="D75" s="25" t="s">
+      <c r="D75" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E75" s="26">
+      <c r="E75" s="19">
         <v>0.75</v>
       </c>
-      <c r="F75" s="26">
-        <v>1</v>
-      </c>
-      <c r="G75" s="26">
+      <c r="F75" s="19">
+        <v>1</v>
+      </c>
+      <c r="G75" s="19">
         <v>0.88855510000000004</v>
       </c>
-      <c r="H75" s="26">
-        <v>1</v>
-      </c>
-      <c r="I75" s="26">
-        <v>1</v>
-      </c>
-      <c r="J75" s="26">
-        <v>1</v>
-      </c>
-      <c r="K75" s="26">
+      <c r="H75" s="19">
+        <v>1</v>
+      </c>
+      <c r="I75" s="19">
+        <v>1</v>
+      </c>
+      <c r="J75" s="19">
+        <v>1</v>
+      </c>
+      <c r="K75" s="19">
         <v>4.218152E-2</v>
       </c>
-      <c r="L75" s="26">
+      <c r="L75" s="19">
         <v>1.1510090000000001E-2</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="25">
-        <v>2</v>
-      </c>
-      <c r="B76" s="25">
-        <v>1</v>
-      </c>
-      <c r="C76" s="25">
+      <c r="A76" s="14">
+        <v>2</v>
+      </c>
+      <c r="B76" s="14">
+        <v>1</v>
+      </c>
+      <c r="C76" s="14">
         <v>4</v>
       </c>
-      <c r="D76" s="25" t="s">
+      <c r="D76" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E76" s="26">
-        <v>0</v>
-      </c>
-      <c r="F76" s="26">
-        <v>1</v>
-      </c>
-      <c r="G76" s="26">
+      <c r="E76" s="19">
+        <v>0</v>
+      </c>
+      <c r="F76" s="19">
+        <v>1</v>
+      </c>
+      <c r="G76" s="19">
         <v>0.48514679999999999</v>
       </c>
-      <c r="H76" s="26">
+      <c r="H76" s="19">
         <v>0.61891649999999998</v>
       </c>
-      <c r="I76" s="26">
+      <c r="I76" s="19">
         <v>2.3543147E-2</v>
       </c>
-      <c r="J76" s="26">
+      <c r="J76" s="19">
         <v>1.641768E-2</v>
       </c>
-      <c r="K76" s="26">
+      <c r="K76" s="19">
         <v>0.35473640000000001</v>
       </c>
-      <c r="L76" s="26">
+      <c r="L76" s="19">
         <v>0.40268789999999999</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="25">
-        <v>2</v>
-      </c>
-      <c r="B77" s="25">
-        <v>1</v>
-      </c>
-      <c r="C77" s="25">
+      <c r="A77" s="14">
+        <v>2</v>
+      </c>
+      <c r="B77" s="14">
+        <v>1</v>
+      </c>
+      <c r="C77" s="14">
         <v>4</v>
       </c>
-      <c r="D77" s="25" t="s">
+      <c r="D77" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E77" s="26">
+      <c r="E77" s="19">
         <v>0.97</v>
       </c>
-      <c r="F77" s="26">
-        <v>0</v>
-      </c>
-      <c r="G77" s="26">
+      <c r="F77" s="19">
+        <v>0</v>
+      </c>
+      <c r="G77" s="19">
         <v>0.50299190000000005</v>
       </c>
-      <c r="H77" s="26">
+      <c r="H77" s="19">
         <v>0.50264589999999998</v>
       </c>
-      <c r="I77" s="26">
+      <c r="I77" s="19">
         <v>7.1949529999999996E-3</v>
       </c>
-      <c r="J77" s="26">
+      <c r="J77" s="19">
         <v>0.46699624000000001</v>
       </c>
-      <c r="K77" s="26">
+      <c r="K77" s="19">
         <v>0.16584389999999999</v>
       </c>
-      <c r="L77" s="26">
+      <c r="L77" s="19">
         <v>0.69085589999999997</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="25">
-        <v>2</v>
-      </c>
-      <c r="B78" s="25">
-        <v>1</v>
-      </c>
-      <c r="C78" s="25">
+      <c r="A78" s="14">
+        <v>2</v>
+      </c>
+      <c r="B78" s="14">
+        <v>1</v>
+      </c>
+      <c r="C78" s="14">
         <v>4</v>
       </c>
-      <c r="D78" s="25" t="s">
+      <c r="D78" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="26">
-        <v>1</v>
-      </c>
-      <c r="F78" s="26">
-        <v>0</v>
-      </c>
-      <c r="G78" s="26">
+      <c r="E78" s="19">
+        <v>1</v>
+      </c>
+      <c r="F78" s="19">
+        <v>0</v>
+      </c>
+      <c r="G78" s="19">
         <v>0.5001428</v>
       </c>
-      <c r="H78" s="26">
+      <c r="H78" s="19">
         <v>0.49940010000000001</v>
       </c>
-      <c r="I78" s="26">
+      <c r="I78" s="19">
         <v>1.310224E-3</v>
       </c>
-      <c r="J78" s="26">
+      <c r="J78" s="19">
         <v>0.46965412000000001</v>
       </c>
-      <c r="K78" s="26">
+      <c r="K78" s="19">
         <v>0.16423289999999999</v>
       </c>
-      <c r="L78" s="26">
+      <c r="L78" s="19">
         <v>0.25546540000000001</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="25">
-        <v>2</v>
-      </c>
-      <c r="B79" s="25">
-        <v>1</v>
-      </c>
-      <c r="C79" s="25">
+      <c r="A79" s="14">
+        <v>2</v>
+      </c>
+      <c r="B79" s="14">
+        <v>1</v>
+      </c>
+      <c r="C79" s="14">
         <v>4</v>
       </c>
-      <c r="D79" s="25" t="s">
+      <c r="D79" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26">
-        <v>1</v>
-      </c>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26">
+      <c r="E79" s="19"/>
+      <c r="F79" s="19">
+        <v>1</v>
+      </c>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19">
         <v>0.61891649999999998</v>
       </c>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26">
+      <c r="I79" s="19"/>
+      <c r="J79" s="19">
         <v>1.641768E-2</v>
       </c>
-      <c r="K79" s="26">
+      <c r="K79" s="19">
         <v>0.35473640000000001</v>
       </c>
-      <c r="L79" s="26">
+      <c r="L79" s="19">
         <v>0.40268809999999999</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="25">
-        <v>2</v>
-      </c>
-      <c r="B80" s="25">
-        <v>1</v>
-      </c>
-      <c r="C80" s="25">
+      <c r="A80" s="14">
+        <v>2</v>
+      </c>
+      <c r="B80" s="14">
+        <v>1</v>
+      </c>
+      <c r="C80" s="14">
         <v>4</v>
       </c>
-      <c r="D80" s="25" t="s">
+      <c r="D80" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26">
-        <v>1</v>
-      </c>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26">
+      <c r="E80" s="19"/>
+      <c r="F80" s="19">
+        <v>1</v>
+      </c>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19">
         <v>0.60306510000000002</v>
       </c>
-      <c r="I80" s="26"/>
-      <c r="J80" s="26">
+      <c r="I80" s="19"/>
+      <c r="J80" s="19">
         <v>4.6320840000000002E-2</v>
       </c>
-      <c r="K80" s="26">
+      <c r="K80" s="19">
         <v>0.88409870000000002</v>
       </c>
-      <c r="L80" s="26">
+      <c r="L80" s="19">
         <v>0.57254910000000003</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="25">
-        <v>2</v>
-      </c>
-      <c r="B81" s="25">
-        <v>1</v>
-      </c>
-      <c r="C81" s="25">
+      <c r="A81" s="14">
+        <v>2</v>
+      </c>
+      <c r="B81" s="14">
+        <v>1</v>
+      </c>
+      <c r="C81" s="14">
         <v>4</v>
       </c>
-      <c r="D81" s="25" t="s">
+      <c r="D81" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26">
-        <v>1</v>
-      </c>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26">
+      <c r="E81" s="19"/>
+      <c r="F81" s="19">
+        <v>1</v>
+      </c>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19">
         <v>0.59942859999999998</v>
       </c>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26">
+      <c r="I81" s="19"/>
+      <c r="J81" s="19">
         <v>1.275333E-2</v>
       </c>
-      <c r="K81" s="26">
+      <c r="K81" s="19">
         <v>0.90193089999999998</v>
       </c>
-      <c r="L81" s="26">
+      <c r="L81" s="19">
         <v>0.65962609999999999</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="25">
-        <v>2</v>
-      </c>
-      <c r="B82" s="25">
-        <v>2</v>
-      </c>
-      <c r="C82" s="25">
+      <c r="A82" s="14">
+        <v>2</v>
+      </c>
+      <c r="B82" s="14">
+        <v>2</v>
+      </c>
+      <c r="C82" s="14">
         <v>4</v>
       </c>
-      <c r="D82" s="25" t="s">
+      <c r="D82" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="26">
+      <c r="E82" s="19">
         <v>0.41699999999999998</v>
       </c>
-      <c r="F82" s="26">
+      <c r="F82" s="19">
         <v>0.58099999999999996</v>
       </c>
-      <c r="G82" s="26">
+      <c r="G82" s="19">
         <v>0.54</v>
       </c>
-      <c r="H82" s="26">
+      <c r="H82" s="19">
         <v>0.58199999999999996</v>
       </c>
-      <c r="I82" s="26">
+      <c r="I82" s="19">
         <v>0.50900000000000001</v>
       </c>
-      <c r="J82" s="26">
+      <c r="J82" s="19">
         <v>0.16400000000000001</v>
       </c>
-      <c r="K82" s="26">
+      <c r="K82" s="19">
         <v>1.294</v>
       </c>
-      <c r="L82" s="26">
+      <c r="L82" s="19">
         <v>2.8039999999999998</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="25">
-        <v>2</v>
-      </c>
-      <c r="B83" s="25">
-        <v>2</v>
-      </c>
-      <c r="C83" s="25">
+      <c r="A83" s="14">
+        <v>2</v>
+      </c>
+      <c r="B83" s="14">
+        <v>2</v>
+      </c>
+      <c r="C83" s="14">
         <v>4</v>
       </c>
-      <c r="D83" s="25" t="s">
+      <c r="D83" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E83" s="26">
+      <c r="E83" s="19">
         <v>0.8</v>
       </c>
-      <c r="F83" s="26">
-        <v>1</v>
-      </c>
-      <c r="G83" s="26">
+      <c r="F83" s="19">
+        <v>1</v>
+      </c>
+      <c r="G83" s="19">
         <v>0.98882239999999999</v>
       </c>
-      <c r="H83" s="26">
-        <v>1</v>
-      </c>
-      <c r="I83" s="26">
+      <c r="H83" s="19">
+        <v>1</v>
+      </c>
+      <c r="I83" s="19">
         <v>0.97765299999999999</v>
       </c>
-      <c r="J83" s="26">
-        <v>1</v>
-      </c>
-      <c r="K83" s="26">
+      <c r="J83" s="19">
+        <v>1</v>
+      </c>
+      <c r="K83" s="19">
         <v>2.4284129999999999E-3</v>
       </c>
-      <c r="L83" s="26">
+      <c r="L83" s="19">
         <v>8.4551399999999999E-3</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="25">
-        <v>2</v>
-      </c>
-      <c r="B84" s="25">
-        <v>2</v>
-      </c>
-      <c r="C84" s="25">
+      <c r="A84" s="14">
+        <v>2</v>
+      </c>
+      <c r="B84" s="14">
+        <v>2</v>
+      </c>
+      <c r="C84" s="14">
         <v>4</v>
       </c>
-      <c r="D84" s="25" t="s">
+      <c r="D84" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="26">
-        <v>0</v>
-      </c>
-      <c r="F84" s="26">
+      <c r="E84" s="19">
+        <v>0</v>
+      </c>
+      <c r="F84" s="19">
         <v>0.98</v>
       </c>
-      <c r="G84" s="26">
+      <c r="G84" s="19">
         <v>0.48614220000000002</v>
       </c>
-      <c r="H84" s="26">
+      <c r="H84" s="19">
         <v>0.61971670000000001</v>
       </c>
-      <c r="I84" s="26">
+      <c r="I84" s="19">
         <v>2.51334E-2</v>
       </c>
-      <c r="J84" s="26">
+      <c r="J84" s="19">
         <v>1.7100230000000001E-2</v>
       </c>
-      <c r="K84" s="26">
+      <c r="K84" s="19">
         <v>1.404069</v>
       </c>
-      <c r="L84" s="26">
+      <c r="L84" s="19">
         <v>1.58856</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="25">
-        <v>2</v>
-      </c>
-      <c r="B85" s="25">
-        <v>2</v>
-      </c>
-      <c r="C85" s="25">
+      <c r="A85" s="14">
+        <v>2</v>
+      </c>
+      <c r="B85" s="14">
+        <v>2</v>
+      </c>
+      <c r="C85" s="14">
         <v>4</v>
       </c>
-      <c r="D85" s="25" t="s">
+      <c r="D85" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E85" s="26">
-        <v>1</v>
-      </c>
-      <c r="F85" s="26">
-        <v>0</v>
-      </c>
-      <c r="G85" s="26">
+      <c r="E85" s="19">
+        <v>1</v>
+      </c>
+      <c r="F85" s="19">
+        <v>0</v>
+      </c>
+      <c r="G85" s="19">
         <v>0.5006024</v>
       </c>
-      <c r="H85" s="26">
+      <c r="H85" s="19">
         <v>0.50041639999999998</v>
       </c>
-      <c r="I85" s="26">
+      <c r="I85" s="19">
         <v>2.7489929999999999E-3</v>
       </c>
-      <c r="J85" s="26">
+      <c r="J85" s="19">
         <v>0.46782070999999997</v>
       </c>
-      <c r="K85" s="26">
+      <c r="K85" s="19">
         <v>1.0430090000000001</v>
       </c>
-      <c r="L85" s="26">
+      <c r="L85" s="19">
         <v>1.795995</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="25">
-        <v>2</v>
-      </c>
-      <c r="B86" s="25">
-        <v>2</v>
-      </c>
-      <c r="C86" s="25">
+      <c r="A86" s="14">
+        <v>2</v>
+      </c>
+      <c r="B86" s="14">
+        <v>2</v>
+      </c>
+      <c r="C86" s="14">
         <v>4</v>
       </c>
-      <c r="D86" s="25" t="s">
+      <c r="D86" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E86" s="26">
-        <v>1</v>
-      </c>
-      <c r="F86" s="26">
-        <v>0</v>
-      </c>
-      <c r="G86" s="26">
+      <c r="E86" s="19">
+        <v>1</v>
+      </c>
+      <c r="F86" s="19">
+        <v>0</v>
+      </c>
+      <c r="G86" s="19">
         <v>0.50019760000000002</v>
       </c>
-      <c r="H86" s="26">
+      <c r="H86" s="19">
         <v>0.49942180000000003</v>
       </c>
-      <c r="I86" s="26">
+      <c r="I86" s="19">
         <v>1.1534959999999999E-3</v>
       </c>
-      <c r="J86" s="26">
+      <c r="J86" s="19">
         <v>0.4690993</v>
       </c>
-      <c r="K86" s="26">
+      <c r="K86" s="19">
         <v>1.0126869999999999</v>
       </c>
-      <c r="L86" s="26">
+      <c r="L86" s="19">
         <v>1.3115190000000001</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="25">
-        <v>2</v>
-      </c>
-      <c r="B87" s="25">
-        <v>2</v>
-      </c>
-      <c r="C87" s="25">
+      <c r="A87" s="14">
+        <v>2</v>
+      </c>
+      <c r="B87" s="14">
+        <v>2</v>
+      </c>
+      <c r="C87" s="14">
         <v>4</v>
       </c>
-      <c r="D87" s="25" t="s">
+      <c r="D87" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26">
+      <c r="E87" s="19"/>
+      <c r="F87" s="19">
         <v>0.98</v>
       </c>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26">
+      <c r="G87" s="19"/>
+      <c r="H87" s="19">
         <v>0.61852850000000004</v>
       </c>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26">
+      <c r="I87" s="19"/>
+      <c r="J87" s="19">
         <v>2.188992E-2</v>
       </c>
-      <c r="K87" s="26">
+      <c r="K87" s="19">
         <v>1.404069</v>
       </c>
-      <c r="L87" s="26">
+      <c r="L87" s="19">
         <v>1.588557</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="25">
-        <v>2</v>
-      </c>
-      <c r="B88" s="25">
-        <v>2</v>
-      </c>
-      <c r="C88" s="25">
+      <c r="A88" s="14">
+        <v>2</v>
+      </c>
+      <c r="B88" s="14">
+        <v>2</v>
+      </c>
+      <c r="C88" s="14">
         <v>4</v>
       </c>
-      <c r="D88" s="25" t="s">
+      <c r="D88" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26">
-        <v>1</v>
-      </c>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26">
+      <c r="E88" s="19"/>
+      <c r="F88" s="19">
+        <v>1</v>
+      </c>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19">
         <v>0.60410399999999997</v>
       </c>
-      <c r="I88" s="26"/>
-      <c r="J88" s="26">
+      <c r="I88" s="19"/>
+      <c r="J88" s="19">
         <v>4.5042060000000002E-2</v>
       </c>
-      <c r="K88" s="26">
+      <c r="K88" s="19">
         <v>3.9956119999999999</v>
       </c>
-      <c r="L88" s="26">
+      <c r="L88" s="19">
         <v>3.2229019999999999</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" s="25">
-        <v>2</v>
-      </c>
-      <c r="B89" s="25">
-        <v>2</v>
-      </c>
-      <c r="C89" s="25">
+      <c r="A89" s="14">
+        <v>2</v>
+      </c>
+      <c r="B89" s="14">
+        <v>2</v>
+      </c>
+      <c r="C89" s="14">
         <v>4</v>
       </c>
-      <c r="D89" s="25" t="s">
+      <c r="D89" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26">
-        <v>1</v>
-      </c>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26">
+      <c r="E89" s="19"/>
+      <c r="F89" s="19">
+        <v>1</v>
+      </c>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19">
         <v>0.59895620000000005</v>
       </c>
-      <c r="I89" s="26"/>
-      <c r="J89" s="26">
+      <c r="I89" s="19"/>
+      <c r="J89" s="19">
         <v>1.253521E-2</v>
       </c>
-      <c r="K89" s="26">
+      <c r="K89" s="19">
         <v>4.3594790000000003</v>
       </c>
-      <c r="L89" s="26">
+      <c r="L89" s="19">
         <v>3.5113289999999999</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A90" s="25">
-        <v>2</v>
-      </c>
-      <c r="B90" s="25">
-        <v>1</v>
-      </c>
-      <c r="C90" s="25">
+      <c r="A90" s="14">
+        <v>2</v>
+      </c>
+      <c r="B90" s="14">
+        <v>1</v>
+      </c>
+      <c r="C90" s="14">
         <v>6</v>
       </c>
-      <c r="D90" s="25" t="s">
+      <c r="D90" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E90" s="26">
+      <c r="E90" s="19">
         <v>0.24299999999999999</v>
       </c>
-      <c r="F90" s="26">
+      <c r="F90" s="19">
         <v>0.85699999999999998</v>
       </c>
-      <c r="G90" s="26">
+      <c r="G90" s="19">
         <v>0.54</v>
       </c>
-      <c r="H90" s="26">
+      <c r="H90" s="19">
         <v>0.60699999999999998</v>
       </c>
-      <c r="I90" s="26">
+      <c r="I90" s="19">
         <v>0.57299999999999995</v>
       </c>
-      <c r="J90" s="26">
+      <c r="J90" s="19">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="K90" s="26">
+      <c r="K90" s="19">
         <v>0.309</v>
       </c>
-      <c r="L90" s="26">
+      <c r="L90" s="19">
         <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A91" s="25">
-        <v>2</v>
-      </c>
-      <c r="B91" s="25">
-        <v>1</v>
-      </c>
-      <c r="C91" s="25">
+      <c r="A91" s="14">
+        <v>2</v>
+      </c>
+      <c r="B91" s="14">
+        <v>1</v>
+      </c>
+      <c r="C91" s="14">
         <v>6</v>
       </c>
-      <c r="D91" s="25" t="s">
+      <c r="D91" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E91" s="26">
+      <c r="E91" s="19">
         <v>0.75</v>
       </c>
-      <c r="F91" s="26">
-        <v>1</v>
-      </c>
-      <c r="G91" s="26">
+      <c r="F91" s="19">
+        <v>1</v>
+      </c>
+      <c r="G91" s="19">
         <v>0.88855510000000004</v>
       </c>
-      <c r="H91" s="26">
-        <v>1</v>
-      </c>
-      <c r="I91" s="26">
-        <v>1</v>
-      </c>
-      <c r="J91" s="26">
-        <v>1</v>
-      </c>
-      <c r="K91" s="26">
+      <c r="H91" s="19">
+        <v>1</v>
+      </c>
+      <c r="I91" s="19">
+        <v>1</v>
+      </c>
+      <c r="J91" s="19">
+        <v>1</v>
+      </c>
+      <c r="K91" s="19">
         <v>4.218152E-2</v>
       </c>
-      <c r="L91" s="26">
+      <c r="L91" s="19">
         <v>1.1510090000000001E-2</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92" s="25">
-        <v>2</v>
-      </c>
-      <c r="B92" s="25">
-        <v>1</v>
-      </c>
-      <c r="C92" s="25">
+      <c r="A92" s="14">
+        <v>2</v>
+      </c>
+      <c r="B92" s="14">
+        <v>1</v>
+      </c>
+      <c r="C92" s="14">
         <v>6</v>
       </c>
-      <c r="D92" s="25" t="s">
+      <c r="D92" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E92" s="26" t="s">
+      <c r="E92" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F92" s="26" t="s">
+      <c r="F92" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G92" s="26" t="s">
+      <c r="G92" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H92" s="26" t="s">
+      <c r="H92" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I92" s="26" t="s">
+      <c r="I92" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J92" s="26" t="s">
+      <c r="J92" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K92" s="26" t="s">
+      <c r="K92" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="L92" s="26" t="s">
+      <c r="L92" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" s="25">
-        <v>2</v>
-      </c>
-      <c r="B93" s="25">
-        <v>1</v>
-      </c>
-      <c r="C93" s="25">
+      <c r="A93" s="14">
+        <v>2</v>
+      </c>
+      <c r="B93" s="14">
+        <v>1</v>
+      </c>
+      <c r="C93" s="14">
         <v>6</v>
       </c>
-      <c r="D93" s="25" t="s">
+      <c r="D93" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E93" s="26">
+      <c r="E93" s="19">
         <v>0.97</v>
       </c>
-      <c r="F93" s="26">
-        <v>0</v>
-      </c>
-      <c r="G93" s="26">
+      <c r="F93" s="19">
+        <v>0</v>
+      </c>
+      <c r="G93" s="19">
         <v>0.50299190000000005</v>
       </c>
-      <c r="H93" s="26">
+      <c r="H93" s="19">
         <v>0.50264589999999998</v>
       </c>
-      <c r="I93" s="26">
+      <c r="I93" s="19">
         <v>7.1949529999999996E-3</v>
       </c>
-      <c r="J93" s="26">
+      <c r="J93" s="19">
         <v>0.46699624299999998</v>
       </c>
-      <c r="K93" s="26">
+      <c r="K93" s="19">
         <v>0.16584389999999999</v>
       </c>
-      <c r="L93" s="26">
+      <c r="L93" s="19">
         <v>0.69085589999999997</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A94" s="25">
-        <v>2</v>
-      </c>
-      <c r="B94" s="25">
-        <v>1</v>
-      </c>
-      <c r="C94" s="25">
+      <c r="A94" s="14">
+        <v>2</v>
+      </c>
+      <c r="B94" s="14">
+        <v>1</v>
+      </c>
+      <c r="C94" s="14">
         <v>6</v>
       </c>
-      <c r="D94" s="25" t="s">
+      <c r="D94" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="26">
-        <v>1</v>
-      </c>
-      <c r="F94" s="26">
-        <v>0</v>
-      </c>
-      <c r="G94" s="26">
+      <c r="E94" s="19">
+        <v>1</v>
+      </c>
+      <c r="F94" s="19">
+        <v>0</v>
+      </c>
+      <c r="G94" s="19">
         <v>0.5001428</v>
       </c>
-      <c r="H94" s="26">
+      <c r="H94" s="19">
         <v>0.49940010000000001</v>
       </c>
-      <c r="I94" s="26">
+      <c r="I94" s="19">
         <v>1.310224E-3</v>
       </c>
-      <c r="J94" s="26">
+      <c r="J94" s="19">
         <v>0.46965411699999998</v>
       </c>
-      <c r="K94" s="26">
+      <c r="K94" s="19">
         <v>0.16423289999999999</v>
       </c>
-      <c r="L94" s="26">
+      <c r="L94" s="19">
         <v>0.25546540000000001</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A95" s="25">
-        <v>2</v>
-      </c>
-      <c r="B95" s="25">
-        <v>1</v>
-      </c>
-      <c r="C95" s="25">
+      <c r="A95" s="14">
+        <v>2</v>
+      </c>
+      <c r="B95" s="14">
+        <v>1</v>
+      </c>
+      <c r="C95" s="14">
         <v>6</v>
       </c>
-      <c r="D95" s="25" t="s">
+      <c r="D95" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26">
+      <c r="E95" s="19"/>
+      <c r="F95" s="19">
         <v>0.9375</v>
       </c>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26">
+      <c r="G95" s="19"/>
+      <c r="H95" s="19">
         <v>0.61811769999999999</v>
       </c>
-      <c r="I95" s="26"/>
-      <c r="J95" s="26">
+      <c r="I95" s="19"/>
+      <c r="J95" s="19">
         <v>3.5187431999999998E-2</v>
       </c>
-      <c r="K95" s="26">
+      <c r="K95" s="19">
         <v>0.34959499999999999</v>
       </c>
-      <c r="L95" s="26">
+      <c r="L95" s="19">
         <v>0.39149319999999999</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A96" s="25">
-        <v>2</v>
-      </c>
-      <c r="B96" s="25">
-        <v>1</v>
-      </c>
-      <c r="C96" s="25">
+      <c r="A96" s="14">
+        <v>2</v>
+      </c>
+      <c r="B96" s="14">
+        <v>1</v>
+      </c>
+      <c r="C96" s="14">
         <v>6</v>
       </c>
-      <c r="D96" s="25" t="s">
+      <c r="D96" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26">
-        <v>0</v>
-      </c>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26">
+      <c r="E96" s="19"/>
+      <c r="F96" s="19">
+        <v>0</v>
+      </c>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19">
         <v>0.64135560000000003</v>
       </c>
-      <c r="I96" s="26"/>
-      <c r="J96" s="26">
+      <c r="I96" s="19"/>
+      <c r="J96" s="19">
         <v>3.8120754999999999E-2</v>
       </c>
-      <c r="K96" s="26"/>
-      <c r="L96" s="26"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" s="25">
-        <v>2</v>
-      </c>
-      <c r="B97" s="25">
-        <v>1</v>
-      </c>
-      <c r="C97" s="25">
+      <c r="A97" s="14">
+        <v>2</v>
+      </c>
+      <c r="B97" s="14">
+        <v>1</v>
+      </c>
+      <c r="C97" s="14">
         <v>6</v>
       </c>
-      <c r="D97" s="25" t="s">
+      <c r="D97" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26">
-        <v>0</v>
-      </c>
-      <c r="G97" s="26"/>
-      <c r="H97" s="26">
+      <c r="E97" s="19"/>
+      <c r="F97" s="19">
+        <v>0</v>
+      </c>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19">
         <v>0.63485599999999998</v>
       </c>
-      <c r="I97" s="26"/>
-      <c r="J97" s="26">
+      <c r="I97" s="19"/>
+      <c r="J97" s="19">
         <v>9.5159560000000008E-3</v>
       </c>
-      <c r="K97" s="26"/>
-      <c r="L97" s="26"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98" s="25">
-        <v>2</v>
-      </c>
-      <c r="B98" s="25">
-        <v>2</v>
-      </c>
-      <c r="C98" s="25">
+      <c r="A98" s="14">
+        <v>2</v>
+      </c>
+      <c r="B98" s="14">
+        <v>2</v>
+      </c>
+      <c r="C98" s="14">
         <v>6</v>
       </c>
-      <c r="D98" s="25" t="s">
+      <c r="D98" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E98" s="26">
+      <c r="E98" s="19">
         <v>0.51900000000000002</v>
       </c>
-      <c r="F98" s="26">
+      <c r="F98" s="19">
         <v>0.63</v>
       </c>
-      <c r="G98" s="26">
+      <c r="G98" s="19">
         <v>0.53900000000000003</v>
       </c>
-      <c r="H98" s="26">
+      <c r="H98" s="19">
         <v>0.58599999999999997</v>
       </c>
-      <c r="I98" s="26">
+      <c r="I98" s="19">
         <v>0.40699999999999997</v>
       </c>
-      <c r="J98" s="26">
+      <c r="J98" s="19">
         <v>0.151</v>
       </c>
-      <c r="K98" s="26">
+      <c r="K98" s="19">
         <v>1.321</v>
       </c>
-      <c r="L98" s="26">
+      <c r="L98" s="19">
         <v>2.4830000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A99" s="25">
-        <v>2</v>
-      </c>
-      <c r="B99" s="25">
-        <v>2</v>
-      </c>
-      <c r="C99" s="25">
+      <c r="A99" s="14">
+        <v>2</v>
+      </c>
+      <c r="B99" s="14">
+        <v>2</v>
+      </c>
+      <c r="C99" s="14">
         <v>6</v>
       </c>
-      <c r="D99" s="25" t="s">
+      <c r="D99" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E99" s="26">
+      <c r="E99" s="19">
         <v>0.8</v>
       </c>
-      <c r="F99" s="26">
-        <v>1</v>
-      </c>
-      <c r="G99" s="26">
+      <c r="F99" s="19">
+        <v>1</v>
+      </c>
+      <c r="G99" s="19">
         <v>0.98882239999999999</v>
       </c>
-      <c r="H99" s="26">
-        <v>1</v>
-      </c>
-      <c r="I99" s="26">
+      <c r="H99" s="19">
+        <v>1</v>
+      </c>
+      <c r="I99" s="19">
         <v>0.97765299999999999</v>
       </c>
-      <c r="J99" s="26">
-        <v>1</v>
-      </c>
-      <c r="K99" s="26">
+      <c r="J99" s="19">
+        <v>1</v>
+      </c>
+      <c r="K99" s="19">
         <v>2.4284129999999999E-3</v>
       </c>
-      <c r="L99" s="26">
+      <c r="L99" s="19">
         <v>8.4551399999999999E-3</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A100" s="25">
-        <v>2</v>
-      </c>
-      <c r="B100" s="25">
-        <v>2</v>
-      </c>
-      <c r="C100" s="25">
+      <c r="A100" s="14">
+        <v>2</v>
+      </c>
+      <c r="B100" s="14">
+        <v>2</v>
+      </c>
+      <c r="C100" s="14">
         <v>6</v>
       </c>
-      <c r="D100" s="25" t="s">
+      <c r="D100" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E100" s="26" t="s">
+      <c r="E100" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F100" s="26" t="s">
+      <c r="F100" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G100" s="26" t="s">
+      <c r="G100" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H100" s="26" t="s">
+      <c r="H100" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I100" s="26" t="s">
+      <c r="I100" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J100" s="26" t="s">
+      <c r="J100" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K100" s="26" t="s">
+      <c r="K100" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="L100" s="26" t="s">
+      <c r="L100" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A101" s="25">
-        <v>2</v>
-      </c>
-      <c r="B101" s="25">
-        <v>2</v>
-      </c>
-      <c r="C101" s="25">
+      <c r="A101" s="14">
+        <v>2</v>
+      </c>
+      <c r="B101" s="14">
+        <v>2</v>
+      </c>
+      <c r="C101" s="14">
         <v>6</v>
       </c>
-      <c r="D101" s="25" t="s">
+      <c r="D101" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E101" s="26">
-        <v>1</v>
-      </c>
-      <c r="F101" s="26">
-        <v>0</v>
-      </c>
-      <c r="G101" s="26">
+      <c r="E101" s="19">
+        <v>1</v>
+      </c>
+      <c r="F101" s="19">
+        <v>0</v>
+      </c>
+      <c r="G101" s="19">
         <v>0.5006024</v>
       </c>
-      <c r="H101" s="26">
+      <c r="H101" s="19">
         <v>0.50041639999999998</v>
       </c>
-      <c r="I101" s="26">
+      <c r="I101" s="19">
         <v>2.7489929999999999E-3</v>
       </c>
-      <c r="J101" s="26">
+      <c r="J101" s="19">
         <v>0.46782070799999997</v>
       </c>
-      <c r="K101" s="26">
+      <c r="K101" s="19">
         <v>1.0430090000000001</v>
       </c>
-      <c r="L101" s="26">
+      <c r="L101" s="19">
         <v>1.795995</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A102" s="25">
-        <v>2</v>
-      </c>
-      <c r="B102" s="25">
-        <v>2</v>
-      </c>
-      <c r="C102" s="25">
+      <c r="A102" s="14">
+        <v>2</v>
+      </c>
+      <c r="B102" s="14">
+        <v>2</v>
+      </c>
+      <c r="C102" s="14">
         <v>6</v>
       </c>
-      <c r="D102" s="25" t="s">
+      <c r="D102" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E102" s="26">
-        <v>1</v>
-      </c>
-      <c r="F102" s="26">
-        <v>0</v>
-      </c>
-      <c r="G102" s="26">
+      <c r="E102" s="19">
+        <v>1</v>
+      </c>
+      <c r="F102" s="19">
+        <v>0</v>
+      </c>
+      <c r="G102" s="19">
         <v>0.50019760000000002</v>
       </c>
-      <c r="H102" s="26">
+      <c r="H102" s="19">
         <v>0.49942180000000003</v>
       </c>
-      <c r="I102" s="26">
+      <c r="I102" s="19">
         <v>1.1534959999999999E-3</v>
       </c>
-      <c r="J102" s="26">
+      <c r="J102" s="19">
         <v>0.46909929700000003</v>
       </c>
-      <c r="K102" s="26">
+      <c r="K102" s="19">
         <v>1.0126869999999999</v>
       </c>
-      <c r="L102" s="26">
+      <c r="L102" s="19">
         <v>1.3115190000000001</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A103" s="25">
-        <v>2</v>
-      </c>
-      <c r="B103" s="25">
-        <v>2</v>
-      </c>
-      <c r="C103" s="25">
+      <c r="A103" s="14">
+        <v>2</v>
+      </c>
+      <c r="B103" s="14">
+        <v>2</v>
+      </c>
+      <c r="C103" s="14">
         <v>6</v>
       </c>
-      <c r="D103" s="25" t="s">
+      <c r="D103" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26">
-        <v>1</v>
-      </c>
-      <c r="G103" s="26"/>
-      <c r="H103" s="26">
+      <c r="E103" s="19"/>
+      <c r="F103" s="19">
+        <v>1</v>
+      </c>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19">
         <v>0.62055879999999997</v>
       </c>
-      <c r="I103" s="26"/>
-      <c r="J103" s="26">
+      <c r="I103" s="19"/>
+      <c r="J103" s="19">
         <v>2.0735995E-2</v>
       </c>
-      <c r="K103" s="26">
+      <c r="K103" s="19">
         <v>1.46031</v>
       </c>
-      <c r="L103" s="26">
+      <c r="L103" s="19">
         <v>1.648676</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A104" s="25">
-        <v>2</v>
-      </c>
-      <c r="B104" s="25">
-        <v>2</v>
-      </c>
-      <c r="C104" s="25">
+      <c r="A104" s="14">
+        <v>2</v>
+      </c>
+      <c r="B104" s="14">
+        <v>2</v>
+      </c>
+      <c r="C104" s="14">
         <v>6</v>
       </c>
-      <c r="D104" s="25" t="s">
+      <c r="D104" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26">
-        <v>0</v>
-      </c>
-      <c r="G104" s="26"/>
-      <c r="H104" s="26">
+      <c r="E104" s="19"/>
+      <c r="F104" s="19">
+        <v>0</v>
+      </c>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19">
         <v>0.64036340000000003</v>
       </c>
-      <c r="I104" s="26"/>
-      <c r="J104" s="26">
+      <c r="I104" s="19"/>
+      <c r="J104" s="19">
         <v>3.9284652000000003E-2</v>
       </c>
-      <c r="K104" s="26"/>
-      <c r="L104" s="26"/>
+      <c r="K104" s="19"/>
+      <c r="L104" s="19"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A105" s="25">
-        <v>2</v>
-      </c>
-      <c r="B105" s="25">
-        <v>2</v>
-      </c>
-      <c r="C105" s="25">
+      <c r="A105" s="14">
+        <v>2</v>
+      </c>
+      <c r="B105" s="14">
+        <v>2</v>
+      </c>
+      <c r="C105" s="14">
         <v>6</v>
       </c>
-      <c r="D105" s="25" t="s">
+      <c r="D105" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E105" s="26"/>
-      <c r="F105" s="26">
-        <v>0</v>
-      </c>
-      <c r="G105" s="26"/>
-      <c r="H105" s="26">
+      <c r="E105" s="19"/>
+      <c r="F105" s="19">
+        <v>0</v>
+      </c>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19">
         <v>0.63417820000000003</v>
       </c>
-      <c r="I105" s="26"/>
-      <c r="J105" s="26">
+      <c r="I105" s="19"/>
+      <c r="J105" s="19">
         <v>9.7139489999999995E-3</v>
       </c>
-      <c r="K105" s="26"/>
-      <c r="L105" s="26"/>
+      <c r="K105" s="19"/>
+      <c r="L105" s="19"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A106" s="25">
+      <c r="A106" s="14">
         <v>3</v>
       </c>
-      <c r="B106" s="25">
-        <v>1</v>
-      </c>
-      <c r="C106" s="25">
+      <c r="B106" s="14">
+        <v>1</v>
+      </c>
+      <c r="C106" s="14">
         <v>4</v>
       </c>
-      <c r="D106" s="25" t="s">
+      <c r="D106" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E106" s="26">
+      <c r="E106" s="19">
         <v>0.26700000000000002</v>
       </c>
-      <c r="F106" s="26">
+      <c r="F106" s="19">
         <v>0.90700000000000003</v>
       </c>
-      <c r="G106" s="26">
+      <c r="G106" s="19">
         <v>0.50900000000000001</v>
       </c>
-      <c r="H106" s="26">
+      <c r="H106" s="19">
         <v>0.61</v>
       </c>
-      <c r="I106" s="26">
+      <c r="I106" s="19">
         <v>0.51600000000000001</v>
       </c>
-      <c r="J106" s="26">
+      <c r="J106" s="19">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="K106" s="26">
+      <c r="K106" s="19">
         <v>0.25900000000000001</v>
       </c>
-      <c r="L106" s="26">
+      <c r="L106" s="19">
         <v>0.60699999999999998</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A107" s="25">
+      <c r="A107" s="14">
         <v>3</v>
       </c>
-      <c r="B107" s="25">
-        <v>1</v>
-      </c>
-      <c r="C107" s="25">
+      <c r="B107" s="14">
+        <v>1</v>
+      </c>
+      <c r="C107" s="14">
         <v>4</v>
       </c>
-      <c r="D107" s="25" t="s">
+      <c r="D107" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E107" s="26">
+      <c r="E107" s="19">
         <v>0.2</v>
       </c>
-      <c r="F107" s="26">
-        <v>1</v>
-      </c>
-      <c r="G107" s="26">
+      <c r="F107" s="19">
+        <v>1</v>
+      </c>
+      <c r="G107" s="19">
         <v>0.91057960000000004</v>
       </c>
-      <c r="H107" s="26">
-        <v>1</v>
-      </c>
-      <c r="I107" s="26">
+      <c r="H107" s="19">
+        <v>1</v>
+      </c>
+      <c r="I107" s="19">
         <v>0.82107819999999998</v>
       </c>
-      <c r="J107" s="26">
-        <v>1</v>
-      </c>
-      <c r="K107" s="26">
+      <c r="J107" s="19">
+        <v>1</v>
+      </c>
+      <c r="K107" s="19">
         <v>2.5128239999999999E-3</v>
       </c>
-      <c r="L107" s="26">
+      <c r="L107" s="19">
         <v>7.2313899999999999E-3</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A108" s="25">
+      <c r="A108" s="14">
         <v>3</v>
       </c>
-      <c r="B108" s="25">
-        <v>1</v>
-      </c>
-      <c r="C108" s="25">
+      <c r="B108" s="14">
+        <v>1</v>
+      </c>
+      <c r="C108" s="14">
         <v>4</v>
       </c>
-      <c r="D108" s="25" t="s">
+      <c r="D108" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E108" s="26">
-        <v>0</v>
-      </c>
-      <c r="F108" s="26">
+      <c r="E108" s="19">
+        <v>0</v>
+      </c>
+      <c r="F108" s="19">
         <v>0.99</v>
       </c>
-      <c r="G108" s="26">
+      <c r="G108" s="19">
         <v>0.509324</v>
       </c>
-      <c r="H108" s="26">
+      <c r="H108" s="19">
         <v>0.61830839999999998</v>
       </c>
-      <c r="I108" s="26">
+      <c r="I108" s="19">
         <v>1.7839302000000001E-2</v>
       </c>
-      <c r="J108" s="26">
+      <c r="J108" s="19">
         <v>1.3347727E-2</v>
       </c>
-      <c r="K108" s="26">
+      <c r="K108" s="19">
         <v>0.37302750000000001</v>
       </c>
-      <c r="L108" s="26">
+      <c r="L108" s="19">
         <v>0.42100369999999998</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A109" s="25">
+      <c r="A109" s="14">
         <v>3</v>
       </c>
-      <c r="B109" s="25">
-        <v>1</v>
-      </c>
-      <c r="C109" s="25">
+      <c r="B109" s="14">
+        <v>1</v>
+      </c>
+      <c r="C109" s="14">
         <v>4</v>
       </c>
-      <c r="D109" s="25" t="s">
+      <c r="D109" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E109" s="26">
-        <v>1</v>
-      </c>
-      <c r="F109" s="26">
-        <v>0</v>
-      </c>
-      <c r="G109" s="26">
+      <c r="E109" s="19">
+        <v>1</v>
+      </c>
+      <c r="F109" s="19">
+        <v>0</v>
+      </c>
+      <c r="G109" s="19">
         <v>0.4996314</v>
       </c>
-      <c r="H109" s="26">
+      <c r="H109" s="19">
         <v>0.49861270000000002</v>
       </c>
-      <c r="I109" s="26">
+      <c r="I109" s="19">
         <v>1.5362559999999999E-3</v>
       </c>
-      <c r="J109" s="26">
+      <c r="J109" s="19">
         <v>0.45310223199999999</v>
       </c>
-      <c r="K109" s="26">
+      <c r="K109" s="19">
         <v>0.18516199999999999</v>
       </c>
-      <c r="L109" s="26">
+      <c r="L109" s="19">
         <v>0.4722713</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A110" s="25">
+      <c r="A110" s="14">
         <v>3</v>
       </c>
-      <c r="B110" s="25">
-        <v>1</v>
-      </c>
-      <c r="C110" s="25">
+      <c r="B110" s="14">
+        <v>1</v>
+      </c>
+      <c r="C110" s="14">
         <v>4</v>
       </c>
-      <c r="D110" s="25" t="s">
+      <c r="D110" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E110" s="26">
-        <v>1</v>
-      </c>
-      <c r="F110" s="26">
-        <v>0</v>
-      </c>
-      <c r="G110" s="26">
+      <c r="E110" s="19">
+        <v>1</v>
+      </c>
+      <c r="F110" s="19">
+        <v>0</v>
+      </c>
+      <c r="G110" s="19">
         <v>0.49987609999999999</v>
       </c>
-      <c r="H110" s="26">
+      <c r="H110" s="19">
         <v>0.49874869999999999</v>
       </c>
-      <c r="I110" s="26">
+      <c r="I110" s="19">
         <v>1.3176419999999999E-3</v>
       </c>
-      <c r="J110" s="26">
+      <c r="J110" s="19">
         <v>0.45335917199999998</v>
       </c>
-      <c r="K110" s="26">
+      <c r="K110" s="19">
         <v>0.1819547</v>
       </c>
-      <c r="L110" s="26">
+      <c r="L110" s="19">
         <v>0.24773890000000001</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A111" s="25">
+      <c r="A111" s="14">
         <v>3</v>
       </c>
-      <c r="B111" s="25">
-        <v>1</v>
-      </c>
-      <c r="C111" s="25">
+      <c r="B111" s="14">
+        <v>1</v>
+      </c>
+      <c r="C111" s="14">
         <v>4</v>
       </c>
-      <c r="D111" s="25" t="s">
+      <c r="D111" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26">
+      <c r="E111" s="19"/>
+      <c r="F111" s="19">
         <v>0.99</v>
       </c>
-      <c r="G111" s="26"/>
-      <c r="H111" s="26">
+      <c r="G111" s="19"/>
+      <c r="H111" s="19">
         <v>0.61756960000000005</v>
       </c>
-      <c r="I111" s="26"/>
-      <c r="J111" s="26">
+      <c r="I111" s="19"/>
+      <c r="J111" s="19">
         <v>1.5629875000000001E-2</v>
       </c>
-      <c r="K111" s="26">
+      <c r="K111" s="19">
         <v>0.37302750000000001</v>
       </c>
-      <c r="L111" s="26">
+      <c r="L111" s="19">
         <v>0.42100379999999998</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" s="25">
+      <c r="A112" s="14">
         <v>3</v>
       </c>
-      <c r="B112" s="25">
-        <v>1</v>
-      </c>
-      <c r="C112" s="25">
+      <c r="B112" s="14">
+        <v>1</v>
+      </c>
+      <c r="C112" s="14">
         <v>4</v>
       </c>
-      <c r="D112" s="25" t="s">
+      <c r="D112" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26">
-        <v>1</v>
-      </c>
-      <c r="G112" s="26"/>
-      <c r="H112" s="26">
+      <c r="E112" s="19"/>
+      <c r="F112" s="19">
+        <v>1</v>
+      </c>
+      <c r="G112" s="19"/>
+      <c r="H112" s="19">
         <v>0.59760919999999995</v>
       </c>
-      <c r="I112" s="26"/>
-      <c r="J112" s="26">
+      <c r="I112" s="19"/>
+      <c r="J112" s="19">
         <v>7.8452420000000005E-3</v>
       </c>
-      <c r="K112" s="26">
+      <c r="K112" s="19">
         <v>0.99845050000000002</v>
       </c>
-      <c r="L112" s="26">
+      <c r="L112" s="19">
         <v>0.80892180000000002</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A113" s="25">
+      <c r="A113" s="14">
         <v>3</v>
       </c>
-      <c r="B113" s="25">
-        <v>1</v>
-      </c>
-      <c r="C113" s="25">
+      <c r="B113" s="14">
+        <v>1</v>
+      </c>
+      <c r="C113" s="14">
         <v>4</v>
       </c>
-      <c r="D113" s="25" t="s">
+      <c r="D113" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E113" s="26"/>
-      <c r="F113" s="26">
-        <v>1</v>
-      </c>
-      <c r="G113" s="26"/>
-      <c r="H113" s="26">
+      <c r="E113" s="19"/>
+      <c r="F113" s="19">
+        <v>1</v>
+      </c>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19">
         <v>0.59809959999999995</v>
       </c>
-      <c r="I113" s="26"/>
-      <c r="J113" s="26">
+      <c r="I113" s="19"/>
+      <c r="J113" s="19">
         <v>1.0433082E-2</v>
       </c>
-      <c r="K113" s="26">
+      <c r="K113" s="19">
         <v>0.89865110000000004</v>
       </c>
-      <c r="L113" s="26">
+      <c r="L113" s="19">
         <v>0.82901279999999999</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A114" s="25">
+      <c r="A114" s="14">
         <v>3</v>
       </c>
-      <c r="B114" s="25">
-        <v>2</v>
-      </c>
-      <c r="C114" s="25">
+      <c r="B114" s="14">
+        <v>2</v>
+      </c>
+      <c r="C114" s="14">
         <v>4</v>
       </c>
-      <c r="D114" s="25" t="s">
+      <c r="D114" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E114" s="26">
+      <c r="E114" s="19">
         <v>0.20799999999999999</v>
       </c>
-      <c r="F114" s="26">
+      <c r="F114" s="19">
         <v>0.61699999999999999</v>
       </c>
-      <c r="G114" s="26">
+      <c r="G114" s="19">
         <v>0.54900000000000004</v>
       </c>
-      <c r="H114" s="26">
+      <c r="H114" s="19">
         <v>0.61699999999999999</v>
       </c>
-      <c r="I114" s="26">
+      <c r="I114" s="19">
         <v>0.17399999999999999</v>
       </c>
-      <c r="J114" s="26">
+      <c r="J114" s="19">
         <v>0.16700000000000001</v>
       </c>
-      <c r="K114" s="26">
+      <c r="K114" s="19">
         <v>1.0369999999999999</v>
       </c>
-      <c r="L114" s="26">
+      <c r="L114" s="19">
         <v>1.4550000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A115" s="25">
+      <c r="A115" s="14">
         <v>3</v>
       </c>
-      <c r="B115" s="25">
-        <v>2</v>
-      </c>
-      <c r="C115" s="25">
+      <c r="B115" s="14">
+        <v>2</v>
+      </c>
+      <c r="C115" s="14">
         <v>4</v>
       </c>
-      <c r="D115" s="25" t="s">
+      <c r="D115" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E115" s="26">
-        <v>0</v>
-      </c>
-      <c r="F115" s="26">
-        <v>1</v>
-      </c>
-      <c r="G115" s="26">
+      <c r="E115" s="19">
+        <v>0</v>
+      </c>
+      <c r="F115" s="19">
+        <v>1</v>
+      </c>
+      <c r="G115" s="19">
         <v>0.82115910000000003</v>
       </c>
-      <c r="H115" s="26">
-        <v>1</v>
-      </c>
-      <c r="I115" s="26">
+      <c r="H115" s="19">
+        <v>1</v>
+      </c>
+      <c r="I115" s="19">
         <v>0.6420361</v>
       </c>
-      <c r="J115" s="26">
-        <v>1</v>
-      </c>
-      <c r="K115" s="26">
+      <c r="J115" s="19">
+        <v>1</v>
+      </c>
+      <c r="K115" s="19">
         <v>4.2946480000000002E-2</v>
       </c>
-      <c r="L115" s="26">
+      <c r="L115" s="19">
         <v>4.6618519999999997E-2</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A116" s="25">
+      <c r="A116" s="14">
         <v>3</v>
       </c>
-      <c r="B116" s="25">
-        <v>2</v>
-      </c>
-      <c r="C116" s="25">
+      <c r="B116" s="14">
+        <v>2</v>
+      </c>
+      <c r="C116" s="14">
         <v>4</v>
       </c>
-      <c r="D116" s="25" t="s">
+      <c r="D116" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E116" s="26">
-        <v>0</v>
-      </c>
-      <c r="F116" s="26">
+      <c r="E116" s="19">
+        <v>0</v>
+      </c>
+      <c r="F116" s="19">
         <v>0.99</v>
       </c>
-      <c r="G116" s="26">
+      <c r="G116" s="19">
         <v>0.50999640000000002</v>
       </c>
-      <c r="H116" s="26">
+      <c r="H116" s="19">
         <v>0.61889470000000002</v>
       </c>
-      <c r="I116" s="26">
+      <c r="I116" s="19">
         <v>1.9203184000000002E-2</v>
       </c>
-      <c r="J116" s="26">
+      <c r="J116" s="19">
         <v>1.4781588999999999E-2</v>
       </c>
-      <c r="K116" s="26">
+      <c r="K116" s="19">
         <v>1.4676290000000001</v>
       </c>
-      <c r="L116" s="26">
+      <c r="L116" s="19">
         <v>1.6576139999999999</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A117" s="25">
+      <c r="A117" s="14">
         <v>3</v>
       </c>
-      <c r="B117" s="25">
-        <v>2</v>
-      </c>
-      <c r="C117" s="25">
+      <c r="B117" s="14">
+        <v>2</v>
+      </c>
+      <c r="C117" s="14">
         <v>4</v>
       </c>
-      <c r="D117" s="25" t="s">
+      <c r="D117" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E117" s="26">
-        <v>1</v>
-      </c>
-      <c r="F117" s="26">
-        <v>0</v>
-      </c>
-      <c r="G117" s="26">
+      <c r="E117" s="19">
+        <v>1</v>
+      </c>
+      <c r="F117" s="19">
+        <v>0</v>
+      </c>
+      <c r="G117" s="19">
         <v>0.49965769999999998</v>
       </c>
-      <c r="H117" s="26">
+      <c r="H117" s="19">
         <v>0.49907449999999998</v>
       </c>
-      <c r="I117" s="26">
+      <c r="I117" s="19">
         <v>1.6990779999999999E-3</v>
       </c>
-      <c r="J117" s="26">
+      <c r="J117" s="19">
         <v>0.45216907899999997</v>
       </c>
-      <c r="K117" s="26">
+      <c r="K117" s="19">
         <v>1.0738019999999999</v>
       </c>
-      <c r="L117" s="26">
+      <c r="L117" s="19">
         <v>1.6345989999999999</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A118" s="25">
+      <c r="A118" s="14">
         <v>3</v>
       </c>
-      <c r="B118" s="25">
-        <v>2</v>
-      </c>
-      <c r="C118" s="25">
+      <c r="B118" s="14">
+        <v>2</v>
+      </c>
+      <c r="C118" s="14">
         <v>4</v>
       </c>
-      <c r="D118" s="25" t="s">
+      <c r="D118" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E118" s="26">
-        <v>1</v>
-      </c>
-      <c r="F118" s="26">
-        <v>0</v>
-      </c>
-      <c r="G118" s="26">
+      <c r="E118" s="19">
+        <v>1</v>
+      </c>
+      <c r="F118" s="19">
+        <v>0</v>
+      </c>
+      <c r="G118" s="19">
         <v>0.49992760000000003</v>
       </c>
-      <c r="H118" s="26">
+      <c r="H118" s="19">
         <v>0.49863289999999999</v>
       </c>
-      <c r="I118" s="26">
+      <c r="I118" s="19">
         <v>1.530238E-3</v>
       </c>
-      <c r="J118" s="26">
+      <c r="J118" s="19">
         <v>0.45410774999999998</v>
       </c>
-      <c r="K118" s="26">
+      <c r="K118" s="19">
         <v>1.0995760000000001</v>
       </c>
-      <c r="L118" s="26">
+      <c r="L118" s="19">
         <v>1.3235920000000001</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A119" s="25">
+      <c r="A119" s="14">
         <v>3</v>
       </c>
-      <c r="B119" s="25">
-        <v>2</v>
-      </c>
-      <c r="C119" s="25">
+      <c r="B119" s="14">
+        <v>2</v>
+      </c>
+      <c r="C119" s="14">
         <v>4</v>
       </c>
-      <c r="D119" s="25" t="s">
+      <c r="D119" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E119" s="26"/>
-      <c r="F119" s="26">
+      <c r="E119" s="19"/>
+      <c r="F119" s="19">
         <v>0.99</v>
       </c>
-      <c r="G119" s="26"/>
-      <c r="H119" s="26">
+      <c r="G119" s="19"/>
+      <c r="H119" s="19">
         <v>0.61823050000000002</v>
       </c>
-      <c r="I119" s="26"/>
-      <c r="J119" s="26">
+      <c r="I119" s="19"/>
+      <c r="J119" s="19">
         <v>1.7036754000000001E-2</v>
       </c>
-      <c r="K119" s="26">
+      <c r="K119" s="19">
         <v>1.4676290000000001</v>
       </c>
-      <c r="L119" s="26">
+      <c r="L119" s="19">
         <v>1.6576150000000001</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A120" s="25">
+      <c r="A120" s="14">
         <v>3</v>
       </c>
-      <c r="B120" s="25">
-        <v>2</v>
-      </c>
-      <c r="C120" s="25">
+      <c r="B120" s="14">
+        <v>2</v>
+      </c>
+      <c r="C120" s="14">
         <v>4</v>
       </c>
-      <c r="D120" s="25" t="s">
+      <c r="D120" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E120" s="26"/>
-      <c r="F120" s="26">
-        <v>1</v>
-      </c>
-      <c r="G120" s="26"/>
-      <c r="H120" s="26">
+      <c r="E120" s="19"/>
+      <c r="F120" s="19">
+        <v>1</v>
+      </c>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19">
         <v>0.59646010000000005</v>
       </c>
-      <c r="I120" s="26"/>
-      <c r="J120" s="26">
+      <c r="I120" s="19"/>
+      <c r="J120" s="19">
         <v>5.2598829999999999E-3</v>
       </c>
-      <c r="K120" s="26">
+      <c r="K120" s="19">
         <v>5.5891390000000003</v>
       </c>
-      <c r="L120" s="26">
+      <c r="L120" s="19">
         <v>5.431514</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A121" s="25">
+      <c r="A121" s="14">
         <v>3</v>
       </c>
-      <c r="B121" s="25">
-        <v>2</v>
-      </c>
-      <c r="C121" s="25">
+      <c r="B121" s="14">
+        <v>2</v>
+      </c>
+      <c r="C121" s="14">
         <v>4</v>
       </c>
-      <c r="D121" s="25" t="s">
+      <c r="D121" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E121" s="26"/>
-      <c r="F121" s="26">
-        <v>1</v>
-      </c>
-      <c r="G121" s="26"/>
-      <c r="H121" s="26">
+      <c r="E121" s="19"/>
+      <c r="F121" s="19">
+        <v>1</v>
+      </c>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19">
         <v>0.59716279999999999</v>
       </c>
-      <c r="I121" s="26"/>
-      <c r="J121" s="26">
+      <c r="I121" s="19"/>
+      <c r="J121" s="19">
         <v>9.9719060000000009E-3</v>
       </c>
-      <c r="K121" s="26">
+      <c r="K121" s="19">
         <v>4.4678139999999997</v>
       </c>
-      <c r="L121" s="26">
+      <c r="L121" s="19">
         <v>3.479406</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A122" s="25">
+      <c r="A122" s="14">
         <v>3</v>
       </c>
-      <c r="B122" s="25">
-        <v>1</v>
-      </c>
-      <c r="C122" s="25">
+      <c r="B122" s="14">
+        <v>1</v>
+      </c>
+      <c r="C122" s="14">
         <v>6</v>
       </c>
-      <c r="D122" s="25" t="s">
+      <c r="D122" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E122" s="26">
+      <c r="E122" s="19">
         <v>0.31</v>
       </c>
-      <c r="F122" s="26">
+      <c r="F122" s="19">
         <v>0.84499999999999997</v>
       </c>
-      <c r="G122" s="26">
+      <c r="G122" s="19">
         <v>0.505</v>
       </c>
-      <c r="H122" s="26">
+      <c r="H122" s="19">
         <v>0.60499999999999998</v>
       </c>
-      <c r="I122" s="26">
+      <c r="I122" s="19">
         <v>0.59399999999999997</v>
       </c>
-      <c r="J122" s="26">
+      <c r="J122" s="19">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="K122" s="26">
+      <c r="K122" s="19">
         <v>0.23499999999999999</v>
       </c>
-      <c r="L122" s="26">
+      <c r="L122" s="19">
         <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A123" s="25">
+      <c r="A123" s="14">
         <v>3</v>
       </c>
-      <c r="B123" s="25">
-        <v>1</v>
-      </c>
-      <c r="C123" s="25">
+      <c r="B123" s="14">
+        <v>1</v>
+      </c>
+      <c r="C123" s="14">
         <v>6</v>
       </c>
-      <c r="D123" s="25" t="s">
+      <c r="D123" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E123" s="26">
+      <c r="E123" s="19">
         <v>0.2</v>
       </c>
-      <c r="F123" s="26">
-        <v>1</v>
-      </c>
-      <c r="G123" s="26">
+      <c r="F123" s="19">
+        <v>1</v>
+      </c>
+      <c r="G123" s="19">
         <v>0.91057960000000004</v>
       </c>
-      <c r="H123" s="26">
-        <v>1</v>
-      </c>
-      <c r="I123" s="26">
+      <c r="H123" s="19">
+        <v>1</v>
+      </c>
+      <c r="I123" s="19">
         <v>0.82107819999999998</v>
       </c>
-      <c r="J123" s="26">
-        <v>1</v>
-      </c>
-      <c r="K123" s="26">
+      <c r="J123" s="19">
+        <v>1</v>
+      </c>
+      <c r="K123" s="19">
         <v>2.5128239999999999E-3</v>
       </c>
-      <c r="L123" s="26">
+      <c r="L123" s="19">
         <v>7.2313899999999999E-3</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A124" s="25">
+      <c r="A124" s="14">
         <v>3</v>
       </c>
-      <c r="B124" s="25">
-        <v>1</v>
-      </c>
-      <c r="C124" s="25">
+      <c r="B124" s="14">
+        <v>1</v>
+      </c>
+      <c r="C124" s="14">
         <v>6</v>
       </c>
-      <c r="D124" s="25" t="s">
+      <c r="D124" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E124" s="26" t="s">
+      <c r="E124" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F124" s="26" t="s">
+      <c r="F124" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G124" s="26" t="s">
+      <c r="G124" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H124" s="26" t="s">
+      <c r="H124" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I124" s="26" t="s">
+      <c r="I124" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J124" s="26" t="s">
+      <c r="J124" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K124" s="26" t="s">
+      <c r="K124" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="L124" s="26" t="s">
+      <c r="L124" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A125" s="25">
+      <c r="A125" s="14">
         <v>3</v>
       </c>
-      <c r="B125" s="25">
-        <v>1</v>
-      </c>
-      <c r="C125" s="25">
+      <c r="B125" s="14">
+        <v>1</v>
+      </c>
+      <c r="C125" s="14">
         <v>6</v>
       </c>
-      <c r="D125" s="25" t="s">
+      <c r="D125" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E125" s="26">
-        <v>1</v>
-      </c>
-      <c r="F125" s="26">
-        <v>0</v>
-      </c>
-      <c r="G125" s="26">
+      <c r="E125" s="19">
+        <v>1</v>
+      </c>
+      <c r="F125" s="19">
+        <v>0</v>
+      </c>
+      <c r="G125" s="19">
         <v>0.4996314</v>
       </c>
-      <c r="H125" s="26">
+      <c r="H125" s="19">
         <v>0.49861270000000002</v>
       </c>
-      <c r="I125" s="26">
+      <c r="I125" s="19">
         <v>1.5362559999999999E-3</v>
       </c>
-      <c r="J125" s="26">
+      <c r="J125" s="19">
         <v>0.45310223199999999</v>
       </c>
-      <c r="K125" s="26">
+      <c r="K125" s="19">
         <v>0.18516199999999999</v>
       </c>
-      <c r="L125" s="26">
+      <c r="L125" s="19">
         <v>0.4722713</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A126" s="25">
+      <c r="A126" s="14">
         <v>3</v>
       </c>
-      <c r="B126" s="25">
-        <v>1</v>
-      </c>
-      <c r="C126" s="25">
+      <c r="B126" s="14">
+        <v>1</v>
+      </c>
+      <c r="C126" s="14">
         <v>6</v>
       </c>
-      <c r="D126" s="25" t="s">
+      <c r="D126" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E126" s="26">
-        <v>1</v>
-      </c>
-      <c r="F126" s="26">
-        <v>0</v>
-      </c>
-      <c r="G126" s="26">
+      <c r="E126" s="19">
+        <v>1</v>
+      </c>
+      <c r="F126" s="19">
+        <v>0</v>
+      </c>
+      <c r="G126" s="19">
         <v>0.49987609999999999</v>
       </c>
-      <c r="H126" s="26">
+      <c r="H126" s="19">
         <v>0.49874869999999999</v>
       </c>
-      <c r="I126" s="26">
+      <c r="I126" s="19">
         <v>1.3176419999999999E-3</v>
       </c>
-      <c r="J126" s="26">
+      <c r="J126" s="19">
         <v>0.45335917199999998</v>
       </c>
-      <c r="K126" s="26">
+      <c r="K126" s="19">
         <v>0.1819547</v>
       </c>
-      <c r="L126" s="26">
+      <c r="L126" s="19">
         <v>0.24773890000000001</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A127" s="25">
+      <c r="A127" s="14">
         <v>3</v>
       </c>
-      <c r="B127" s="25">
-        <v>1</v>
-      </c>
-      <c r="C127" s="25">
+      <c r="B127" s="14">
+        <v>1</v>
+      </c>
+      <c r="C127" s="14">
         <v>6</v>
       </c>
-      <c r="D127" s="25" t="s">
+      <c r="D127" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E127" s="26"/>
-      <c r="F127" s="26">
-        <v>1</v>
-      </c>
-      <c r="G127" s="26"/>
-      <c r="H127" s="26">
+      <c r="E127" s="19"/>
+      <c r="F127" s="19">
+        <v>1</v>
+      </c>
+      <c r="G127" s="19"/>
+      <c r="H127" s="19">
         <v>0.6175832</v>
       </c>
-      <c r="I127" s="26"/>
-      <c r="J127" s="26">
+      <c r="I127" s="19"/>
+      <c r="J127" s="19">
         <v>1.2067694E-2</v>
       </c>
-      <c r="K127" s="26">
+      <c r="K127" s="19">
         <v>0.33534170000000002</v>
       </c>
-      <c r="L127" s="26">
+      <c r="L127" s="19">
         <v>0.43632710000000002</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A128" s="25">
+      <c r="A128" s="14">
         <v>3</v>
       </c>
-      <c r="B128" s="25">
-        <v>1</v>
-      </c>
-      <c r="C128" s="25">
+      <c r="B128" s="14">
+        <v>1</v>
+      </c>
+      <c r="C128" s="14">
         <v>6</v>
       </c>
-      <c r="D128" s="25" t="s">
+      <c r="D128" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E128" s="26"/>
-      <c r="F128" s="26">
-        <v>0</v>
-      </c>
-      <c r="G128" s="26"/>
-      <c r="H128" s="26">
+      <c r="E128" s="19"/>
+      <c r="F128" s="19">
+        <v>0</v>
+      </c>
+      <c r="G128" s="19"/>
+      <c r="H128" s="19">
         <v>0.63480899999999996</v>
       </c>
-      <c r="I128" s="26"/>
-      <c r="J128" s="26">
+      <c r="I128" s="19"/>
+      <c r="J128" s="19">
         <v>5.9267809999999999E-3</v>
       </c>
-      <c r="K128" s="26"/>
-      <c r="L128" s="26"/>
+      <c r="K128" s="19"/>
+      <c r="L128" s="19"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A129" s="25">
+      <c r="A129" s="14">
         <v>3</v>
       </c>
-      <c r="B129" s="25">
-        <v>1</v>
-      </c>
-      <c r="C129" s="25">
+      <c r="B129" s="14">
+        <v>1</v>
+      </c>
+      <c r="C129" s="14">
         <v>6</v>
       </c>
-      <c r="D129" s="25" t="s">
+      <c r="D129" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E129" s="26"/>
-      <c r="F129" s="26">
-        <v>0</v>
-      </c>
-      <c r="G129" s="26"/>
-      <c r="H129" s="26">
+      <c r="E129" s="19"/>
+      <c r="F129" s="19">
+        <v>0</v>
+      </c>
+      <c r="G129" s="19"/>
+      <c r="H129" s="19">
         <v>0.63306189999999996</v>
       </c>
-      <c r="I129" s="26"/>
-      <c r="J129" s="26">
+      <c r="I129" s="19"/>
+      <c r="J129" s="19">
         <v>7.6598179999999997E-3</v>
       </c>
-      <c r="K129" s="26"/>
-      <c r="L129" s="26"/>
+      <c r="K129" s="19"/>
+      <c r="L129" s="19"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A130" s="25">
+      <c r="A130" s="14">
         <v>3</v>
       </c>
-      <c r="B130" s="25">
-        <v>2</v>
-      </c>
-      <c r="C130" s="25">
+      <c r="B130" s="14">
+        <v>2</v>
+      </c>
+      <c r="C130" s="14">
         <v>6</v>
       </c>
-      <c r="D130" s="25" t="s">
+      <c r="D130" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E130" s="26">
+      <c r="E130" s="19">
         <v>0.33300000000000002</v>
       </c>
-      <c r="F130" s="26">
-        <v>1</v>
-      </c>
-      <c r="G130" s="26">
+      <c r="F130" s="19">
+        <v>1</v>
+      </c>
+      <c r="G130" s="19">
         <v>0.51100000000000001</v>
       </c>
-      <c r="H130" s="26">
+      <c r="H130" s="19">
         <v>0.61499999999999999</v>
       </c>
-      <c r="I130" s="26">
+      <c r="I130" s="19">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="J130" s="26">
+      <c r="J130" s="19">
         <v>1.2E-2</v>
       </c>
-      <c r="K130" s="26">
+      <c r="K130" s="19">
         <v>1.4610000000000001</v>
       </c>
-      <c r="L130" s="26">
+      <c r="L130" s="19">
         <v>2.206</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A131" s="25">
+      <c r="A131" s="14">
         <v>3</v>
       </c>
-      <c r="B131" s="25">
-        <v>2</v>
-      </c>
-      <c r="C131" s="25">
+      <c r="B131" s="14">
+        <v>2</v>
+      </c>
+      <c r="C131" s="14">
         <v>6</v>
       </c>
-      <c r="D131" s="25" t="s">
+      <c r="D131" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E131" s="26">
-        <v>0</v>
-      </c>
-      <c r="F131" s="26">
-        <v>1</v>
-      </c>
-      <c r="G131" s="26">
+      <c r="E131" s="19">
+        <v>0</v>
+      </c>
+      <c r="F131" s="19">
+        <v>1</v>
+      </c>
+      <c r="G131" s="19">
         <v>0.82115910000000003</v>
       </c>
-      <c r="H131" s="26">
-        <v>1</v>
-      </c>
-      <c r="I131" s="26">
+      <c r="H131" s="19">
+        <v>1</v>
+      </c>
+      <c r="I131" s="19">
         <v>0.6420361</v>
       </c>
-      <c r="J131" s="26">
-        <v>1</v>
-      </c>
-      <c r="K131" s="26">
+      <c r="J131" s="19">
+        <v>1</v>
+      </c>
+      <c r="K131" s="19">
         <v>4.2946480000000002E-2</v>
       </c>
-      <c r="L131" s="26">
+      <c r="L131" s="19">
         <v>4.6618519999999997E-2</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A132" s="25">
+      <c r="A132" s="14">
         <v>3</v>
       </c>
-      <c r="B132" s="25">
-        <v>2</v>
-      </c>
-      <c r="C132" s="25">
+      <c r="B132" s="14">
+        <v>2</v>
+      </c>
+      <c r="C132" s="14">
         <v>6</v>
       </c>
-      <c r="D132" s="25" t="s">
+      <c r="D132" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E132" s="26" t="s">
+      <c r="E132" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F132" s="26" t="s">
+      <c r="F132" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G132" s="26" t="s">
+      <c r="G132" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H132" s="26" t="s">
+      <c r="H132" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I132" s="26" t="s">
+      <c r="I132" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J132" s="26" t="s">
+      <c r="J132" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K132" s="26" t="s">
+      <c r="K132" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="L132" s="26" t="s">
+      <c r="L132" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A133" s="25">
+      <c r="A133" s="14">
         <v>3</v>
       </c>
-      <c r="B133" s="25">
-        <v>2</v>
-      </c>
-      <c r="C133" s="25">
+      <c r="B133" s="14">
+        <v>2</v>
+      </c>
+      <c r="C133" s="14">
         <v>6</v>
       </c>
-      <c r="D133" s="25" t="s">
+      <c r="D133" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E133" s="26">
-        <v>1</v>
-      </c>
-      <c r="F133" s="26">
-        <v>0</v>
-      </c>
-      <c r="G133" s="26">
+      <c r="E133" s="19">
+        <v>1</v>
+      </c>
+      <c r="F133" s="19">
+        <v>0</v>
+      </c>
+      <c r="G133" s="19">
         <v>0.49965769999999998</v>
       </c>
-      <c r="H133" s="26">
+      <c r="H133" s="19">
         <v>0.49907449999999998</v>
       </c>
-      <c r="I133" s="26">
+      <c r="I133" s="19">
         <v>1.6990779999999999E-3</v>
       </c>
-      <c r="J133" s="26">
+      <c r="J133" s="19">
         <v>0.45216907899999997</v>
       </c>
-      <c r="K133" s="26">
+      <c r="K133" s="19">
         <v>1.0738019999999999</v>
       </c>
-      <c r="L133" s="26">
+      <c r="L133" s="19">
         <v>1.6345989999999999</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A134" s="25">
+      <c r="A134" s="14">
         <v>3</v>
       </c>
-      <c r="B134" s="25">
-        <v>2</v>
-      </c>
-      <c r="C134" s="25">
+      <c r="B134" s="14">
+        <v>2</v>
+      </c>
+      <c r="C134" s="14">
         <v>6</v>
       </c>
-      <c r="D134" s="25" t="s">
+      <c r="D134" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E134" s="26">
-        <v>1</v>
-      </c>
-      <c r="F134" s="26">
-        <v>0</v>
-      </c>
-      <c r="G134" s="26">
+      <c r="E134" s="19">
+        <v>1</v>
+      </c>
+      <c r="F134" s="19">
+        <v>0</v>
+      </c>
+      <c r="G134" s="19">
         <v>0.49992760000000003</v>
       </c>
-      <c r="H134" s="26">
+      <c r="H134" s="19">
         <v>0.49863289999999999</v>
       </c>
-      <c r="I134" s="26">
+      <c r="I134" s="19">
         <v>1.530238E-3</v>
       </c>
-      <c r="J134" s="26">
+      <c r="J134" s="19">
         <v>0.45410774999999998</v>
       </c>
-      <c r="K134" s="26">
+      <c r="K134" s="19">
         <v>1.0995760000000001</v>
       </c>
-      <c r="L134" s="26">
+      <c r="L134" s="19">
         <v>1.3235920000000001</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A135" s="25">
+      <c r="A135" s="14">
         <v>3</v>
       </c>
-      <c r="B135" s="25">
-        <v>2</v>
-      </c>
-      <c r="C135" s="25">
+      <c r="B135" s="14">
+        <v>2</v>
+      </c>
+      <c r="C135" s="14">
         <v>6</v>
       </c>
-      <c r="D135" s="25" t="s">
+      <c r="D135" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E135" s="26"/>
-      <c r="F135" s="26">
-        <v>1</v>
-      </c>
-      <c r="G135" s="26"/>
-      <c r="H135" s="26">
+      <c r="E135" s="19"/>
+      <c r="F135" s="19">
+        <v>1</v>
+      </c>
+      <c r="G135" s="19"/>
+      <c r="H135" s="19">
         <v>0.62117169999999999</v>
       </c>
-      <c r="I135" s="26"/>
-      <c r="J135" s="26">
+      <c r="I135" s="19"/>
+      <c r="J135" s="19">
         <v>2.133641E-2</v>
       </c>
-      <c r="K135" s="26">
+      <c r="K135" s="19">
         <v>1.4469719999999999</v>
       </c>
-      <c r="L135" s="26">
+      <c r="L135" s="19">
         <v>1.593059</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A136" s="25">
+      <c r="A136" s="14">
         <v>3</v>
       </c>
-      <c r="B136" s="25">
-        <v>2</v>
-      </c>
-      <c r="C136" s="25">
+      <c r="B136" s="14">
+        <v>2</v>
+      </c>
+      <c r="C136" s="14">
         <v>6</v>
       </c>
-      <c r="D136" s="25" t="s">
+      <c r="D136" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E136" s="26"/>
-      <c r="F136" s="26">
-        <v>0</v>
-      </c>
-      <c r="G136" s="26"/>
-      <c r="H136" s="26">
+      <c r="E136" s="19"/>
+      <c r="F136" s="19">
+        <v>0</v>
+      </c>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19">
         <v>0.63331740000000003</v>
       </c>
-      <c r="I136" s="26"/>
-      <c r="J136" s="26">
+      <c r="I136" s="19"/>
+      <c r="J136" s="19">
         <v>5.060335E-3</v>
       </c>
-      <c r="K136" s="26"/>
-      <c r="L136" s="26"/>
+      <c r="K136" s="19"/>
+      <c r="L136" s="19"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A137" s="25">
+      <c r="A137" s="14">
         <v>3</v>
       </c>
-      <c r="B137" s="25">
-        <v>2</v>
-      </c>
-      <c r="C137" s="25">
+      <c r="B137" s="14">
+        <v>2</v>
+      </c>
+      <c r="C137" s="14">
         <v>6</v>
       </c>
-      <c r="D137" s="25" t="s">
+      <c r="D137" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E137" s="26"/>
-      <c r="F137" s="26">
-        <v>0</v>
-      </c>
-      <c r="G137" s="26"/>
-      <c r="H137" s="26">
+      <c r="E137" s="19"/>
+      <c r="F137" s="19">
+        <v>0</v>
+      </c>
+      <c r="G137" s="19"/>
+      <c r="H137" s="19">
         <v>0.63432569999999999</v>
       </c>
-      <c r="I137" s="26"/>
-      <c r="J137" s="26">
+      <c r="I137" s="19"/>
+      <c r="J137" s="19">
         <v>8.7049750000000002E-3</v>
       </c>
-      <c r="K137" s="26"/>
-      <c r="L137" s="26"/>
+      <c r="K137" s="19"/>
+      <c r="L137" s="19"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E138" s="3"/>
@@ -17222,6 +17301,652 @@
       <c r="J291" s="3"/>
       <c r="K291" s="3"/>
       <c r="L291" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C26:C33"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35332D4-D31E-417F-BC99-783C137DAF1F}">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="27.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28">
+        <v>1</v>
+      </c>
+      <c r="C2" s="28">
+        <v>4</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="39">
+        <v>0.32</v>
+      </c>
+      <c r="F2" s="39">
+        <v>0.86</v>
+      </c>
+      <c r="G2" s="39">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="H2" s="39">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="I2" s="39">
+        <v>0.372</v>
+      </c>
+      <c r="J2" s="39">
+        <v>0.06</v>
+      </c>
+      <c r="K2" s="39">
+        <v>2.1120000000000001</v>
+      </c>
+      <c r="L2" s="39">
+        <v>3.3969999999999998</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="35"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="30">
+        <v>1</v>
+      </c>
+      <c r="B10" s="28">
+        <v>2</v>
+      </c>
+      <c r="C10" s="28">
+        <v>4</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="30">
+        <v>1</v>
+      </c>
+      <c r="B18" s="28">
+        <v>1</v>
+      </c>
+      <c r="C18" s="28">
+        <v>6</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="39">
+        <v>0.188</v>
+      </c>
+      <c r="F18" s="39">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="G18" s="39">
+        <v>0.503</v>
+      </c>
+      <c r="H18" s="39">
+        <v>0.62</v>
+      </c>
+      <c r="I18" s="39">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="J18" s="39">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K18" s="39">
+        <v>2.0979999999999999</v>
+      </c>
+      <c r="L18" s="39">
+        <v>3.484</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="35"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="30">
+        <v>1</v>
+      </c>
+      <c r="B26" s="28">
+        <v>2</v>
+      </c>
+      <c r="C26" s="28">
+        <v>6</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="35"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -17240,6 +17965,5 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/code_v2/summary_data/result.xlsx
+++ b/code_v2/summary_data/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RY\git\hierarchical-gene\code_v2\summary_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460C27A2-BE5A-4BEA-8E38-40C4B190D016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDDC304-4E5B-48F2-942B-26A6D0AFAF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" activeTab="2" xr2:uid="{EBE4CFCB-469C-4867-8775-907539EE1541}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="60">
   <si>
     <t>balance
 type</t>
@@ -192,7 +191,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rownumber=8</t>
+    <t>SubGroup 1</t>
+  </si>
+  <si>
+    <t>SubGroup 2</t>
+  </si>
+  <si>
+    <t>SubGroup 3</t>
+  </si>
+  <si>
+    <t>SubGroup 4</t>
+  </si>
+  <si>
+    <t>SubGroup 5</t>
+  </si>
+  <si>
+    <t>SubGroup 6</t>
+  </si>
+  <si>
+    <t>MLN</t>
+  </si>
+  <si>
+    <t>MAP7D2</t>
+  </si>
+  <si>
+    <t>PRDM16</t>
+  </si>
+  <si>
+    <t>ST3GAL6</t>
+  </si>
+  <si>
+    <t>DNAJA1</t>
+  </si>
+  <si>
+    <t>RAD23B</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>Gene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLCO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rownumber=7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rownumber=5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +374,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -393,16 +447,37 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -417,31 +492,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -882,13 +933,13 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="24">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24">
-        <v>1</v>
-      </c>
-      <c r="C2" s="24">
+      <c r="A2" s="33">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33">
+        <v>1</v>
+      </c>
+      <c r="C2" s="33">
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -918,13 +969,13 @@
       <c r="L2" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N2" s="24">
-        <v>2</v>
-      </c>
-      <c r="O2" s="26">
-        <v>1</v>
-      </c>
-      <c r="P2" s="26">
+      <c r="N2" s="33">
+        <v>2</v>
+      </c>
+      <c r="O2" s="32">
+        <v>1</v>
+      </c>
+      <c r="P2" s="32">
         <v>4</v>
       </c>
       <c r="Q2" s="11" t="s">
@@ -954,13 +1005,13 @@
       <c r="Y2" s="12">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AA2" s="24">
+      <c r="AA2" s="33">
         <v>3</v>
       </c>
-      <c r="AB2" s="26">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="26">
+      <c r="AB2" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="32">
         <v>4</v>
       </c>
       <c r="AD2" s="9" t="s">
@@ -992,9 +1043,9 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1022,9 +1073,9 @@
       <c r="L3" s="4">
         <v>3.2573913611296701E-3</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
       <c r="Q3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1052,9 +1103,9 @@
       <c r="Y3" s="4">
         <v>1.2544281421158199E-3</v>
       </c>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
       <c r="AD3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1084,9 +1135,9 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1114,9 +1165,9 @@
       <c r="L4" s="4">
         <v>1.1029581E-2</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
       <c r="Q4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1144,9 +1195,9 @@
       <c r="Y4" s="4">
         <v>0.12626270000000001</v>
       </c>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
       <c r="AD4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1176,9 +1227,9 @@
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1206,9 +1257,9 @@
       <c r="L5" s="4">
         <v>2.3114084519999998</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
       <c r="Q5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1236,9 +1287,9 @@
       <c r="Y5" s="4">
         <v>2.1625823999999998</v>
       </c>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
       <c r="AD5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1268,9 +1319,9 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1298,9 +1349,9 @@
       <c r="L6" s="4">
         <v>2.4000908600000002</v>
       </c>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
       <c r="Q6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1328,9 +1379,9 @@
       <c r="Y6" s="4">
         <v>2.3797085</v>
       </c>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
       <c r="AD6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1360,9 +1411,9 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1384,9 +1435,9 @@
       <c r="L7" s="4">
         <v>0.128</v>
       </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
       <c r="Q7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1408,9 +1459,9 @@
       <c r="Y7" s="4">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
       <c r="AD7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1434,9 +1485,9 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1458,9 +1509,9 @@
       <c r="L8" s="4">
         <v>2.4419679649999999</v>
       </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
       <c r="Q8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1482,9 +1533,9 @@
       <c r="Y8" s="4">
         <v>2.4508101</v>
       </c>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
       <c r="AD8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1508,9 +1559,9 @@
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1532,9 +1583,9 @@
       <c r="L9" s="6">
         <v>2.4555734390000001</v>
       </c>
-      <c r="N9" s="24"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
       <c r="Q9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1556,9 +1607,9 @@
       <c r="Y9" s="6">
         <v>2.4518627999999998</v>
       </c>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
       <c r="AD9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1582,13 +1633,13 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="24">
-        <v>1</v>
-      </c>
-      <c r="B10" s="26">
-        <v>2</v>
-      </c>
-      <c r="C10" s="26">
+      <c r="A10" s="33">
+        <v>1</v>
+      </c>
+      <c r="B10" s="32">
+        <v>2</v>
+      </c>
+      <c r="C10" s="32">
         <v>4</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -1618,13 +1669,13 @@
       <c r="L10" s="12">
         <v>0.183</v>
       </c>
-      <c r="N10" s="24">
-        <v>2</v>
-      </c>
-      <c r="O10" s="26">
-        <v>2</v>
-      </c>
-      <c r="P10" s="26">
+      <c r="N10" s="33">
+        <v>2</v>
+      </c>
+      <c r="O10" s="32">
+        <v>2</v>
+      </c>
+      <c r="P10" s="32">
         <v>4</v>
       </c>
       <c r="Q10" s="11" t="s">
@@ -1654,13 +1705,13 @@
       <c r="Y10" s="12">
         <v>0.11700000000000001</v>
       </c>
-      <c r="AA10" s="26">
+      <c r="AA10" s="32">
         <v>3</v>
       </c>
-      <c r="AB10" s="26">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="26">
+      <c r="AB10" s="32">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="32">
         <v>4</v>
       </c>
       <c r="AD10" s="11" t="s">
@@ -1692,9 +1743,9 @@
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1722,9 +1773,9 @@
       <c r="L11" s="4">
         <v>7.1128534862121102E-3</v>
       </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
       <c r="Q11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1752,9 +1803,9 @@
       <c r="Y11" s="4">
         <v>1.1391810450488099E-3</v>
       </c>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
       <c r="AD11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1784,9 +1835,9 @@
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1814,9 +1865,9 @@
       <c r="L12" s="4">
         <v>1.1029581E-2</v>
       </c>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
       <c r="Q12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1844,9 +1895,9 @@
       <c r="Y12" s="4">
         <v>0.87840470000000004</v>
       </c>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
       <c r="AD12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1876,9 +1927,9 @@
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1906,9 +1957,9 @@
       <c r="L13" s="4">
         <v>2.3114084519999998</v>
       </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
       <c r="Q13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1936,9 +1987,9 @@
       <c r="Y13" s="4">
         <v>8.2694804000000008</v>
       </c>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
       <c r="AD13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1968,9 +2019,9 @@
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1998,9 +2049,9 @@
       <c r="L14" s="4">
         <v>2.4000908600000002</v>
       </c>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
       <c r="Q14" s="2" t="s">
         <v>16</v>
       </c>
@@ -2028,9 +2079,9 @@
       <c r="Y14" s="4">
         <v>10.112000800000001</v>
       </c>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="24"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
       <c r="AD14" s="2" t="s">
         <v>16</v>
       </c>
@@ -2060,9 +2111,9 @@
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
@@ -2084,9 +2135,9 @@
       <c r="L15" s="4">
         <v>0.51</v>
       </c>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
       <c r="Q15" s="2" t="s">
         <v>4</v>
       </c>
@@ -2108,9 +2159,9 @@
       <c r="Y15" s="4">
         <v>1.284</v>
       </c>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
       <c r="AD15" s="2" t="s">
         <v>4</v>
       </c>
@@ -2134,9 +2185,9 @@
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2158,9 +2209,9 @@
       <c r="L16" s="4">
         <v>2.4419679649999999</v>
       </c>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
       <c r="Q16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2182,9 +2233,9 @@
       <c r="Y16" s="4">
         <v>10.6932793</v>
       </c>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
       <c r="AD16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2208,9 +2259,9 @@
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2232,9 +2283,9 @@
       <c r="L17" s="6">
         <v>2.4555734390000001</v>
       </c>
-      <c r="N17" s="24"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
       <c r="Q17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2256,9 +2307,9 @@
       <c r="Y17" s="6">
         <v>10.4442507</v>
       </c>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
       <c r="AD17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2282,13 +2333,13 @@
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
-        <v>1</v>
-      </c>
-      <c r="B18" s="26">
-        <v>1</v>
-      </c>
-      <c r="C18" s="26">
+      <c r="A18" s="33">
+        <v>1</v>
+      </c>
+      <c r="B18" s="32">
+        <v>1</v>
+      </c>
+      <c r="C18" s="32">
         <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -2318,13 +2369,13 @@
       <c r="L18" s="12">
         <v>1.2E-2</v>
       </c>
-      <c r="N18" s="24">
-        <v>2</v>
-      </c>
-      <c r="O18" s="26">
-        <v>1</v>
-      </c>
-      <c r="P18" s="26">
+      <c r="N18" s="33">
+        <v>2</v>
+      </c>
+      <c r="O18" s="32">
+        <v>1</v>
+      </c>
+      <c r="P18" s="32">
         <v>6</v>
       </c>
       <c r="Q18" s="11" t="s">
@@ -2354,13 +2405,13 @@
       <c r="Y18" s="12">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="AA18" s="26">
+      <c r="AA18" s="32">
         <v>3</v>
       </c>
-      <c r="AB18" s="26">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="26">
+      <c r="AB18" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="32">
         <v>6</v>
       </c>
       <c r="AD18" s="11" t="s">
@@ -2392,9 +2443,9 @@
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
@@ -2422,9 +2473,9 @@
       <c r="L19" s="4">
         <v>3.2573913611296701E-3</v>
       </c>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
       <c r="Q19" s="2" t="s">
         <v>19</v>
       </c>
@@ -2452,9 +2503,9 @@
       <c r="Y19" s="4">
         <v>1.2544281421158199E-3</v>
       </c>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
       <c r="AD19" s="2" t="s">
         <v>19</v>
       </c>
@@ -2484,9 +2535,9 @@
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2514,9 +2565,9 @@
       <c r="L20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
       <c r="Q20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2544,9 +2595,9 @@
       <c r="Y20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
       <c r="AD20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2576,9 +2627,9 @@
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2606,9 +2657,9 @@
       <c r="L21" s="4">
         <v>2.3114084500000001</v>
       </c>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
       <c r="Q21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2636,9 +2687,9 @@
       <c r="Y21" s="4">
         <v>2.1625823999999998</v>
       </c>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
       <c r="AD21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2668,9 +2719,9 @@
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2698,9 +2749,9 @@
       <c r="L22" s="4">
         <v>2.4000908600000002</v>
       </c>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
       <c r="Q22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2728,9 +2779,9 @@
       <c r="Y22" s="4">
         <v>2.3797085</v>
       </c>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="24"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
       <c r="AD22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2760,9 +2811,9 @@
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
@@ -2784,9 +2835,9 @@
       <c r="L23" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
       <c r="Q23" s="2" t="s">
         <v>4</v>
       </c>
@@ -2808,9 +2859,9 @@
       <c r="Y23" s="4">
         <v>0.16400000000000001</v>
       </c>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
       <c r="AD23" s="2" t="s">
         <v>4</v>
       </c>
@@ -2834,9 +2885,9 @@
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2852,9 +2903,9 @@
       <c r="J24" s="4">
         <v>8.6977740000000001E-3</v>
       </c>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
       <c r="Q24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2872,9 +2923,9 @@
       </c>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="24"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
       <c r="AD24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2894,9 +2945,9 @@
       <c r="AL24" s="4"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="5" t="s">
         <v>15</v>
       </c>
@@ -2914,9 +2965,9 @@
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
       <c r="Q25" s="5" t="s">
         <v>15</v>
       </c>
@@ -2934,9 +2985,9 @@
       </c>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="25"/>
-      <c r="AC25" s="25"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
       <c r="AD25" s="5" t="s">
         <v>15</v>
       </c>
@@ -2956,13 +3007,13 @@
       <c r="AL25" s="6"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="24">
-        <v>1</v>
-      </c>
-      <c r="B26" s="26">
-        <v>2</v>
-      </c>
-      <c r="C26" s="26">
+      <c r="A26" s="33">
+        <v>1</v>
+      </c>
+      <c r="B26" s="32">
+        <v>2</v>
+      </c>
+      <c r="C26" s="32">
         <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
@@ -2992,13 +3043,13 @@
       <c r="L26" s="12">
         <v>0.111</v>
       </c>
-      <c r="N26" s="24">
-        <v>2</v>
-      </c>
-      <c r="O26" s="26">
-        <v>2</v>
-      </c>
-      <c r="P26" s="26">
+      <c r="N26" s="33">
+        <v>2</v>
+      </c>
+      <c r="O26" s="32">
+        <v>2</v>
+      </c>
+      <c r="P26" s="32">
         <v>6</v>
       </c>
       <c r="Q26" s="11" t="s">
@@ -3028,13 +3079,13 @@
       <c r="Y26" s="12">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AA26" s="26">
+      <c r="AA26" s="32">
         <v>3</v>
       </c>
-      <c r="AB26" s="26">
-        <v>2</v>
-      </c>
-      <c r="AC26" s="26">
+      <c r="AB26" s="32">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="32">
         <v>6</v>
       </c>
       <c r="AD26" s="11" t="s">
@@ -3066,9 +3117,9 @@
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3096,9 +3147,9 @@
       <c r="L27" s="4">
         <v>7.1128534862121102E-3</v>
       </c>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
       <c r="Q27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3126,9 +3177,9 @@
       <c r="Y27" s="4">
         <v>1.1391810450488099E-3</v>
       </c>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="33"/>
       <c r="AD27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3158,9 +3209,9 @@
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="2" t="s">
         <v>14</v>
       </c>
@@ -3188,9 +3239,9 @@
       <c r="L28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
       <c r="Q28" s="2" t="s">
         <v>14</v>
       </c>
@@ -3218,9 +3269,9 @@
       <c r="Y28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="33"/>
       <c r="AD28" s="2" t="s">
         <v>14</v>
       </c>
@@ -3250,9 +3301,9 @@
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="2" t="s">
         <v>18</v>
       </c>
@@ -3280,9 +3331,9 @@
       <c r="L29" s="4">
         <v>9.047183768</v>
       </c>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
       <c r="Q29" s="2" t="s">
         <v>18</v>
       </c>
@@ -3310,9 +3361,9 @@
       <c r="Y29" s="4">
         <v>8.2694804000000008</v>
       </c>
-      <c r="AA29" s="24"/>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="24"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="33"/>
+      <c r="AC29" s="33"/>
       <c r="AD29" s="2" t="s">
         <v>18</v>
       </c>
@@ -3342,9 +3393,9 @@
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="2" t="s">
         <v>16</v>
       </c>
@@ -3372,9 +3423,9 @@
       <c r="L30" s="4">
         <v>9.2430258779999992</v>
       </c>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
       <c r="Q30" s="2" t="s">
         <v>16</v>
       </c>
@@ -3402,9 +3453,9 @@
       <c r="Y30" s="4">
         <v>10.112000800000001</v>
       </c>
-      <c r="AA30" s="24"/>
-      <c r="AB30" s="24"/>
-      <c r="AC30" s="24"/>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="33"/>
+      <c r="AC30" s="33"/>
       <c r="AD30" s="2" t="s">
         <v>16</v>
       </c>
@@ -3434,9 +3485,9 @@
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="2" t="s">
         <v>4</v>
       </c>
@@ -3458,9 +3509,9 @@
       <c r="L31" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
       <c r="Q31" s="2" t="s">
         <v>4</v>
       </c>
@@ -3482,9 +3533,9 @@
       <c r="Y31" s="4">
         <v>0.316</v>
       </c>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="24"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="33"/>
       <c r="AD31" s="2" t="s">
         <v>4</v>
       </c>
@@ -3508,9 +3559,9 @@
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="2" t="s">
         <v>17</v>
       </c>
@@ -3526,9 +3577,9 @@
       <c r="J32" s="4">
         <v>9.2121930000000005E-3</v>
       </c>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
       <c r="Q32" s="2" t="s">
         <v>17</v>
       </c>
@@ -3546,9 +3597,9 @@
       </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="AA32" s="24"/>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="24"/>
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="33"/>
       <c r="AD32" s="2" t="s">
         <v>17</v>
       </c>
@@ -3568,9 +3619,9 @@
       <c r="AL32" s="4"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="5" t="s">
         <v>15</v>
       </c>
@@ -3588,9 +3639,9 @@
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
       <c r="Q33" s="5" t="s">
         <v>15</v>
       </c>
@@ -3608,9 +3659,9 @@
       </c>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="25"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="34"/>
       <c r="AD33" s="5" t="s">
         <v>15</v>
       </c>
@@ -3698,13 +3749,13 @@
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N39" s="27">
-        <v>2</v>
-      </c>
-      <c r="O39" s="27">
-        <v>1</v>
-      </c>
-      <c r="P39" s="27">
+      <c r="N39" s="31">
+        <v>2</v>
+      </c>
+      <c r="O39" s="31">
+        <v>1</v>
+      </c>
+      <c r="P39" s="31">
         <v>4</v>
       </c>
       <c r="Q39" s="14" t="s">
@@ -3766,9 +3817,9 @@
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
       <c r="Q40" s="14" t="s">
         <v>19</v>
       </c>
@@ -3828,9 +3879,9 @@
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
       <c r="Q41" s="14" t="s">
         <v>14</v>
       </c>
@@ -3890,13 +3941,13 @@
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N42" s="27">
-        <v>2</v>
-      </c>
-      <c r="O42" s="27">
-        <v>2</v>
-      </c>
-      <c r="P42" s="27">
+      <c r="N42" s="31">
+        <v>2</v>
+      </c>
+      <c r="O42" s="31">
+        <v>2</v>
+      </c>
+      <c r="P42" s="31">
         <v>4</v>
       </c>
       <c r="Q42" s="14" t="s">
@@ -3958,9 +4009,9 @@
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
       <c r="Q43" s="14" t="s">
         <v>19</v>
       </c>
@@ -4020,9 +4071,9 @@
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
       <c r="Q44" s="14" t="s">
         <v>14</v>
       </c>
@@ -4076,13 +4127,13 @@
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N45" s="27">
-        <v>2</v>
-      </c>
-      <c r="O45" s="27">
-        <v>1</v>
-      </c>
-      <c r="P45" s="27">
+      <c r="N45" s="31">
+        <v>2</v>
+      </c>
+      <c r="O45" s="31">
+        <v>1</v>
+      </c>
+      <c r="P45" s="31">
         <v>6</v>
       </c>
       <c r="Q45" s="14" t="s">
@@ -4138,9 +4189,9 @@
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
       <c r="Q46" s="14" t="s">
         <v>19</v>
       </c>
@@ -4194,9 +4245,9 @@
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
       <c r="Q47" s="14" t="s">
         <v>14</v>
       </c>
@@ -4256,13 +4307,13 @@
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="N48" s="27">
-        <v>2</v>
-      </c>
-      <c r="O48" s="27">
-        <v>2</v>
-      </c>
-      <c r="P48" s="27">
+      <c r="N48" s="31">
+        <v>2</v>
+      </c>
+      <c r="O48" s="31">
+        <v>2</v>
+      </c>
+      <c r="P48" s="31">
         <v>6</v>
       </c>
       <c r="Q48" s="14" t="s">
@@ -4324,9 +4375,9 @@
       </c>
     </row>
     <row r="49" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
       <c r="Q49" s="14" t="s">
         <v>19</v>
       </c>
@@ -4386,9 +4437,9 @@
       </c>
     </row>
     <row r="50" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
       <c r="Q50" s="14" t="s">
         <v>14</v>
       </c>
@@ -4448,13 +4499,13 @@
       </c>
     </row>
     <row r="51" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N51" s="27">
+      <c r="N51" s="31">
         <v>3</v>
       </c>
-      <c r="O51" s="27">
-        <v>1</v>
-      </c>
-      <c r="P51" s="27">
+      <c r="O51" s="31">
+        <v>1</v>
+      </c>
+      <c r="P51" s="31">
         <v>4</v>
       </c>
       <c r="Q51" s="14" t="s">
@@ -4516,9 +4567,9 @@
       </c>
     </row>
     <row r="52" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
       <c r="Q52" s="14" t="s">
         <v>19</v>
       </c>
@@ -4572,9 +4623,9 @@
       </c>
     </row>
     <row r="53" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
       <c r="Q53" s="14" t="s">
         <v>14</v>
       </c>
@@ -4628,13 +4679,13 @@
       </c>
     </row>
     <row r="54" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N54" s="27">
+      <c r="N54" s="31">
         <v>3</v>
       </c>
-      <c r="O54" s="27">
-        <v>2</v>
-      </c>
-      <c r="P54" s="27">
+      <c r="O54" s="31">
+        <v>2</v>
+      </c>
+      <c r="P54" s="31">
         <v>4</v>
       </c>
       <c r="Q54" s="14" t="s">
@@ -4690,9 +4741,9 @@
       </c>
     </row>
     <row r="55" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
       <c r="Q55" s="14" t="s">
         <v>19</v>
       </c>
@@ -4752,9 +4803,9 @@
       </c>
     </row>
     <row r="56" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
       <c r="Q56" s="14" t="s">
         <v>14</v>
       </c>
@@ -4814,13 +4865,13 @@
       </c>
     </row>
     <row r="57" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N57" s="27">
+      <c r="N57" s="31">
         <v>3</v>
       </c>
-      <c r="O57" s="27">
-        <v>1</v>
-      </c>
-      <c r="P57" s="27">
+      <c r="O57" s="31">
+        <v>1</v>
+      </c>
+      <c r="P57" s="31">
         <v>6</v>
       </c>
       <c r="Q57" s="14" t="s">
@@ -4882,9 +4933,9 @@
       </c>
     </row>
     <row r="58" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
       <c r="Q58" s="14" t="s">
         <v>19</v>
       </c>
@@ -4944,9 +4995,9 @@
       </c>
     </row>
     <row r="59" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
       <c r="Q59" s="14" t="s">
         <v>14</v>
       </c>
@@ -5006,13 +5057,13 @@
       </c>
     </row>
     <row r="60" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N60" s="27">
+      <c r="N60" s="31">
         <v>3</v>
       </c>
-      <c r="O60" s="27">
-        <v>2</v>
-      </c>
-      <c r="P60" s="27">
+      <c r="O60" s="31">
+        <v>2</v>
+      </c>
+      <c r="P60" s="31">
         <v>6</v>
       </c>
       <c r="Q60" s="14" t="s">
@@ -5068,9 +5119,9 @@
       </c>
     </row>
     <row r="61" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
       <c r="Q61" s="14" t="s">
         <v>19</v>
       </c>
@@ -5120,9 +5171,9 @@
       <c r="AJ61" s="14"/>
     </row>
     <row r="62" spans="14:36" x14ac:dyDescent="0.3">
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
       <c r="Q62" s="14" t="s">
         <v>14</v>
       </c>
@@ -9509,14 +9560,42 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="N54:N56"/>
-    <mergeCell ref="P54:P56"/>
-    <mergeCell ref="N57:N59"/>
-    <mergeCell ref="P57:P59"/>
-    <mergeCell ref="N60:N62"/>
-    <mergeCell ref="P60:P62"/>
-    <mergeCell ref="O57:O59"/>
-    <mergeCell ref="O60:O62"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="N2:N9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P2:P9"/>
+    <mergeCell ref="N10:N17"/>
+    <mergeCell ref="O10:O17"/>
+    <mergeCell ref="P10:P17"/>
+    <mergeCell ref="N18:N25"/>
+    <mergeCell ref="O18:O25"/>
+    <mergeCell ref="P18:P25"/>
+    <mergeCell ref="N26:N33"/>
+    <mergeCell ref="O26:O33"/>
+    <mergeCell ref="P26:P33"/>
+    <mergeCell ref="AA2:AA9"/>
+    <mergeCell ref="AB2:AB9"/>
+    <mergeCell ref="AC2:AC9"/>
+    <mergeCell ref="AA10:AA17"/>
+    <mergeCell ref="AB10:AB17"/>
+    <mergeCell ref="AC10:AC17"/>
+    <mergeCell ref="AB18:AB25"/>
+    <mergeCell ref="AC18:AC25"/>
+    <mergeCell ref="AA18:AA25"/>
+    <mergeCell ref="AA26:AA33"/>
+    <mergeCell ref="AB26:AB33"/>
+    <mergeCell ref="AC26:AC33"/>
     <mergeCell ref="O51:O53"/>
     <mergeCell ref="O54:O56"/>
     <mergeCell ref="P51:P53"/>
@@ -9533,42 +9612,14 @@
     <mergeCell ref="P48:P50"/>
     <mergeCell ref="O45:O47"/>
     <mergeCell ref="O48:O50"/>
-    <mergeCell ref="AB18:AB25"/>
-    <mergeCell ref="AC18:AC25"/>
-    <mergeCell ref="AA18:AA25"/>
-    <mergeCell ref="AA26:AA33"/>
-    <mergeCell ref="AB26:AB33"/>
-    <mergeCell ref="AC26:AC33"/>
-    <mergeCell ref="AA2:AA9"/>
-    <mergeCell ref="AB2:AB9"/>
-    <mergeCell ref="AC2:AC9"/>
-    <mergeCell ref="AA10:AA17"/>
-    <mergeCell ref="AB10:AB17"/>
-    <mergeCell ref="AC10:AC17"/>
-    <mergeCell ref="N18:N25"/>
-    <mergeCell ref="O18:O25"/>
-    <mergeCell ref="P18:P25"/>
-    <mergeCell ref="N26:N33"/>
-    <mergeCell ref="O26:O33"/>
-    <mergeCell ref="P26:P33"/>
-    <mergeCell ref="N2:N9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="P2:P9"/>
-    <mergeCell ref="N10:N17"/>
-    <mergeCell ref="O10:O17"/>
-    <mergeCell ref="P10:P17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="N54:N56"/>
+    <mergeCell ref="P54:P56"/>
+    <mergeCell ref="N57:N59"/>
+    <mergeCell ref="P57:P59"/>
+    <mergeCell ref="N60:N62"/>
+    <mergeCell ref="P60:P62"/>
+    <mergeCell ref="O57:O59"/>
+    <mergeCell ref="O60:O62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9706,13 +9757,13 @@
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A2" s="26">
-        <v>1</v>
-      </c>
-      <c r="B2" s="26">
-        <v>1</v>
-      </c>
-      <c r="C2" s="26">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32">
         <v>4</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -9822,9 +9873,9 @@
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
@@ -9908,9 +9959,9 @@
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
@@ -9994,9 +10045,9 @@
       </c>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
@@ -10080,9 +10131,9 @@
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
@@ -10166,9 +10217,9 @@
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
@@ -10234,9 +10285,9 @@
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
@@ -10302,9 +10353,9 @@
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="5" t="s">
         <v>34</v>
       </c>
@@ -10370,13 +10421,13 @@
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
-        <v>1</v>
-      </c>
-      <c r="B10" s="28">
-        <v>2</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="A10" s="35">
+        <v>1</v>
+      </c>
+      <c r="B10" s="35">
+        <v>2</v>
+      </c>
+      <c r="C10" s="35">
         <v>4</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -10510,9 +10561,9 @@
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="14" t="s">
         <v>36</v>
       </c>
@@ -10596,9 +10647,9 @@
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="14" t="s">
         <v>24</v>
       </c>
@@ -10682,9 +10733,9 @@
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="14" t="s">
         <v>26</v>
       </c>
@@ -10768,9 +10819,9 @@
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="14" t="s">
         <v>28</v>
       </c>
@@ -10854,9 +10905,9 @@
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="14" t="s">
         <v>23</v>
       </c>
@@ -10922,9 +10973,9 @@
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="14" t="s">
         <v>25</v>
       </c>
@@ -10990,9 +11041,9 @@
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="20" t="s">
         <v>27</v>
       </c>
@@ -11058,13 +11109,13 @@
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
-        <v>1</v>
-      </c>
-      <c r="B18" s="26">
-        <v>1</v>
-      </c>
-      <c r="C18" s="26">
+      <c r="A18" s="32">
+        <v>1</v>
+      </c>
+      <c r="B18" s="32">
+        <v>1</v>
+      </c>
+      <c r="C18" s="32">
         <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -11177,9 +11228,9 @@
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="2" t="s">
         <v>36</v>
       </c>
@@ -11263,9 +11314,9 @@
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
@@ -11349,9 +11400,9 @@
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
@@ -11435,9 +11486,9 @@
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="2" t="s">
         <v>16</v>
       </c>
@@ -11521,9 +11572,9 @@
       </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
@@ -11589,9 +11640,9 @@
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
@@ -11645,9 +11696,9 @@
       <c r="AL24" s="3"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="5" t="s">
         <v>15</v>
       </c>
@@ -11701,13 +11752,13 @@
       <c r="AL25" s="3"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A26" s="26">
-        <v>1</v>
-      </c>
-      <c r="B26" s="26">
-        <v>2</v>
-      </c>
-      <c r="C26" s="26">
+      <c r="A26" s="32">
+        <v>1</v>
+      </c>
+      <c r="B26" s="32">
+        <v>2</v>
+      </c>
+      <c r="C26" s="32">
         <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
@@ -11817,9 +11868,9 @@
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="2" t="s">
         <v>36</v>
       </c>
@@ -11903,9 +11954,9 @@
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="2" t="s">
         <v>14</v>
       </c>
@@ -11989,9 +12040,9 @@
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="2" t="s">
         <v>18</v>
       </c>
@@ -12075,9 +12126,9 @@
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="2" t="s">
         <v>16</v>
       </c>
@@ -12161,9 +12212,9 @@
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="2" t="s">
         <v>4</v>
       </c>
@@ -12229,9 +12280,9 @@
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="2" t="s">
         <v>17</v>
       </c>
@@ -12285,9 +12336,9 @@
       <c r="AL32" s="3"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="5" t="s">
         <v>15</v>
       </c>
@@ -17301,6 +17352,1026 @@
       <c r="J291" s="3"/>
       <c r="K291" s="3"/>
       <c r="L291" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:C17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35332D4-D31E-417F-BC99-783C137DAF1F}">
+  <dimension ref="A1:U56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="27.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="37">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35">
+        <v>1</v>
+      </c>
+      <c r="C2" s="35">
+        <v>4</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="27">
+        <v>0.22</v>
+      </c>
+      <c r="F2" s="27">
+        <v>0.92</v>
+      </c>
+      <c r="G2" s="27">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="H2" s="27">
+        <v>0.62</v>
+      </c>
+      <c r="I2" s="27">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="J2" s="27">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K2" s="27">
+        <v>2.149</v>
+      </c>
+      <c r="L2" s="27">
+        <v>3.117</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="38"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="38"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="38"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="38"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="38"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="39"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="37">
+        <v>1</v>
+      </c>
+      <c r="B10" s="35">
+        <v>2</v>
+      </c>
+      <c r="C10" s="35">
+        <v>4</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="38"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="38"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="38"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="38"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="39"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="37">
+        <v>1</v>
+      </c>
+      <c r="B18" s="35">
+        <v>1</v>
+      </c>
+      <c r="C18" s="35">
+        <v>6</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="27">
+        <v>0.125</v>
+      </c>
+      <c r="F18" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="G18" s="27">
+        <v>0.502</v>
+      </c>
+      <c r="H18" s="27">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="I18" s="27">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="J18" s="27">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K18" s="27">
+        <v>2.1680000000000001</v>
+      </c>
+      <c r="L18" s="27">
+        <v>3.72</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="38"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="38"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="38"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="38"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="38"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="39"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="37">
+        <v>1</v>
+      </c>
+      <c r="B26" s="35">
+        <v>2</v>
+      </c>
+      <c r="C26" s="35">
+        <v>6</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="38"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="38"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="38"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="38"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="38"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="38"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" s="39"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N41" t="s">
+        <v>56</v>
+      </c>
+      <c r="O41" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O42" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P42" s="3">
+        <v>-3.1395729999999999</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>-2.9037380000000002</v>
+      </c>
+      <c r="R42" s="3">
+        <v>-3.2972845</v>
+      </c>
+      <c r="S42" s="3">
+        <v>-3.9082189999999999</v>
+      </c>
+      <c r="T42" s="3">
+        <v>-4.2290850000000004</v>
+      </c>
+      <c r="U42" s="3">
+        <v>-7.4333130000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O43" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="P43" s="3">
+        <v>-3.39133</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>-4.8398300000000001</v>
+      </c>
+      <c r="R43" s="3">
+        <v>-3.9645785</v>
+      </c>
+      <c r="S43" s="3">
+        <v>-2.5631200000000001</v>
+      </c>
+      <c r="T43" s="3">
+        <v>-4.7578050000000003</v>
+      </c>
+      <c r="U43" s="3">
+        <v>-5.6283130000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O44" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="P44" s="3">
+        <v>-8.8937709999999992</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>-8.060632</v>
+      </c>
+      <c r="R44" s="3">
+        <v>-5.9526696000000001</v>
+      </c>
+      <c r="S44" s="3">
+        <v>-2.5493760000000001</v>
+      </c>
+      <c r="T44" s="3">
+        <v>-5.5016980000000002</v>
+      </c>
+      <c r="U44" s="3">
+        <v>-9.6497679999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O45" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="P45" s="3">
+        <v>3.5392739999999998</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>1.466553</v>
+      </c>
+      <c r="R45" s="3">
+        <v>1.9519983000000001</v>
+      </c>
+      <c r="S45" s="3">
+        <v>2.4878360000000002</v>
+      </c>
+      <c r="T45" s="3">
+        <v>3.8043360000000002</v>
+      </c>
+      <c r="U45" s="3">
+        <v>5.8849650000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O46" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>4.5900879999999997</v>
+      </c>
+      <c r="R46" s="3">
+        <v>2.1665409000000002</v>
+      </c>
+      <c r="S46" s="3">
+        <v>2.6521520000000001</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>5.2347320000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O47" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>4.7119926000000003</v>
+      </c>
+      <c r="S47" s="3">
+        <v>5.2725369999999998</v>
+      </c>
+      <c r="T47" s="3">
+        <v>2.442787</v>
+      </c>
+      <c r="U47" s="3">
+        <v>5.4161250000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O48" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="P48" s="3">
+        <v>1.4221269999999999</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0.94195930000000005</v>
+      </c>
+      <c r="S48" s="3">
+        <v>2.0396139999999998</v>
+      </c>
+      <c r="T48" s="3">
+        <v>1.306578</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="N49" t="s">
+        <v>57</v>
+      </c>
+      <c r="O49" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P49" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>43</v>
+      </c>
+      <c r="R49" t="s">
+        <v>44</v>
+      </c>
+      <c r="S49" t="s">
+        <v>45</v>
+      </c>
+      <c r="T49" t="s">
+        <v>46</v>
+      </c>
+      <c r="U49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="O50" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P50" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="30">
+        <v>0</v>
+      </c>
+      <c r="R50" s="30">
+        <v>-5.6350278999999999</v>
+      </c>
+      <c r="S50" s="30">
+        <v>-1.8005100000000001</v>
+      </c>
+      <c r="T50" s="30">
+        <v>-2.7683949999999999</v>
+      </c>
+      <c r="U50" s="30">
+        <v>-2.5257133000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="O51" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="P51" s="30">
+        <v>-2.1386419999999999</v>
+      </c>
+      <c r="Q51" s="30">
+        <v>-2.541677</v>
+      </c>
+      <c r="R51" s="30">
+        <v>0</v>
+      </c>
+      <c r="S51" s="30">
+        <v>-6.1956100000000003</v>
+      </c>
+      <c r="T51" s="30">
+        <v>-2.3156400000000001</v>
+      </c>
+      <c r="U51" s="30">
+        <v>-0.63170440000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="O52" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="P52" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="30">
+        <v>0</v>
+      </c>
+      <c r="R52" s="30">
+        <v>0.81268689999999999</v>
+      </c>
+      <c r="S52" s="30">
+        <v>0</v>
+      </c>
+      <c r="T52" s="30">
+        <v>0</v>
+      </c>
+      <c r="U52" s="30">
+        <v>0.4917126</v>
+      </c>
+    </row>
+    <row r="53" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="O53" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="P53" s="30">
+        <v>2.9868109999999999</v>
+      </c>
+      <c r="Q53" s="30">
+        <v>4.8421859999999999</v>
+      </c>
+      <c r="R53" s="30">
+        <v>1.3107476</v>
+      </c>
+      <c r="S53" s="30">
+        <v>4.9952030000000001</v>
+      </c>
+      <c r="T53" s="30">
+        <v>4.2036740000000004</v>
+      </c>
+      <c r="U53" s="30">
+        <v>3.0425586999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="O54" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" s="30">
+        <v>-4.3939659999999998</v>
+      </c>
+      <c r="Q54" s="30">
+        <v>0</v>
+      </c>
+      <c r="R54" s="30">
+        <v>-6.0074715000000003</v>
+      </c>
+      <c r="S54" s="30">
+        <v>-4.4074900000000001</v>
+      </c>
+      <c r="T54" s="30">
+        <v>-5.1673850000000003</v>
+      </c>
+      <c r="U54" s="30">
+        <v>-4.7882151000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="O55" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" s="30">
+        <v>1.957646</v>
+      </c>
+      <c r="Q55" s="30">
+        <v>2.5572010000000001</v>
+      </c>
+      <c r="R55" s="30">
+        <v>3.7718186</v>
+      </c>
+      <c r="S55" s="30">
+        <v>6.0158129999999996</v>
+      </c>
+      <c r="T55" s="30">
+        <v>3.7804920000000002</v>
+      </c>
+      <c r="U55" s="30">
+        <v>3.5486696000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="O56" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="P56" s="30">
+        <v>3.331172</v>
+      </c>
+      <c r="Q56" s="30">
+        <v>4.5677089999999998</v>
+      </c>
+      <c r="R56" s="30">
+        <v>7.6897197000000004</v>
+      </c>
+      <c r="S56" s="30">
+        <v>3.6636000000000002</v>
+      </c>
+      <c r="T56" s="30">
+        <v>4.8723669999999997</v>
+      </c>
+      <c r="U56" s="30">
+        <v>7.6755234000000003</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -17321,649 +18392,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35332D4-D31E-417F-BC99-783C137DAF1F}">
-  <dimension ref="A1:M33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="13" max="13" width="27.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
-        <v>1</v>
-      </c>
-      <c r="B2" s="28">
-        <v>1</v>
-      </c>
-      <c r="C2" s="28">
-        <v>4</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="39">
-        <v>0.32</v>
-      </c>
-      <c r="F2" s="39">
-        <v>0.86</v>
-      </c>
-      <c r="G2" s="39">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="H2" s="39">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="I2" s="39">
-        <v>0.372</v>
-      </c>
-      <c r="J2" s="39">
-        <v>0.06</v>
-      </c>
-      <c r="K2" s="39">
-        <v>2.1120000000000001</v>
-      </c>
-      <c r="L2" s="39">
-        <v>3.3969999999999998</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
-        <v>1</v>
-      </c>
-      <c r="B10" s="28">
-        <v>2</v>
-      </c>
-      <c r="C10" s="28">
-        <v>4</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="30">
-        <v>1</v>
-      </c>
-      <c r="B18" s="28">
-        <v>1</v>
-      </c>
-      <c r="C18" s="28">
-        <v>6</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="39">
-        <v>0.188</v>
-      </c>
-      <c r="F18" s="39">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="G18" s="39">
-        <v>0.503</v>
-      </c>
-      <c r="H18" s="39">
-        <v>0.62</v>
-      </c>
-      <c r="I18" s="39">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="J18" s="39">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="K18" s="39">
-        <v>2.0979999999999999</v>
-      </c>
-      <c r="L18" s="39">
-        <v>3.484</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="30">
-        <v>1</v>
-      </c>
-      <c r="B26" s="28">
-        <v>2</v>
-      </c>
-      <c r="C26" s="28">
-        <v>6</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="C10:C17"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/code_v2/summary_data/result.xlsx
+++ b/code_v2/summary_data/result.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RY\git\hierarchical-gene\code_v2\summary_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDDC304-4E5B-48F2-942B-26A6D0AFAF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1D536F-D202-447C-AD9D-C968725173A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" activeTab="2" xr2:uid="{EBE4CFCB-469C-4867-8775-907539EE1541}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" activeTab="3" xr2:uid="{EBE4CFCB-469C-4867-8775-907539EE1541}"/>
   </bookViews>
   <sheets>
     <sheet name="n=500_p=8-3_q=4-2" sheetId="1" r:id="rId1"/>
     <sheet name="n=500_p=80-3_q=40-2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="对照表" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="65">
   <si>
     <t>balance
 type</t>
@@ -247,6 +248,26 @@
   </si>
   <si>
     <t>rownumber=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -17378,8 +17399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35332D4-D31E-417F-BC99-783C137DAF1F}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17489,14 +17510,30 @@
       <c r="D4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.98888889999999996</v>
+      </c>
+      <c r="G4">
+        <v>0.50991359999999997</v>
+      </c>
+      <c r="H4">
+        <v>0.61859569999999997</v>
+      </c>
+      <c r="I4">
+        <v>1.905724E-2</v>
+      </c>
+      <c r="J4">
+        <v>1.4080317E-2</v>
+      </c>
+      <c r="K4">
+        <v>2.1931050000000001</v>
+      </c>
+      <c r="L4">
+        <v>2.2444480000000002</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="38"/>
@@ -17505,14 +17542,30 @@
       <c r="D5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.50014559999999997</v>
+      </c>
+      <c r="H5">
+        <v>0.49807580000000001</v>
+      </c>
+      <c r="I5">
+        <v>2.3444609999999999E-3</v>
+      </c>
+      <c r="J5">
+        <v>0.45382426799999998</v>
+      </c>
+      <c r="K5">
+        <v>1.7992090000000001</v>
+      </c>
+      <c r="L5">
+        <v>2.4543469999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="38"/>
@@ -17521,14 +17574,30 @@
       <c r="D6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.49963980000000002</v>
+      </c>
+      <c r="H6">
+        <v>0.49962669999999998</v>
+      </c>
+      <c r="I6">
+        <v>1.231748E-3</v>
+      </c>
+      <c r="J6">
+        <v>0.45209897100000002</v>
+      </c>
+      <c r="K6">
+        <v>1.740246</v>
+      </c>
+      <c r="L6">
+        <v>1.888004</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="38"/>
@@ -17537,14 +17606,30 @@
       <c r="D7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>0.98888889999999996</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>0.61779799999999996</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7">
+        <v>1.6607008999999999E-2</v>
+      </c>
+      <c r="K7">
+        <v>2.1931050000000001</v>
+      </c>
+      <c r="L7">
+        <v>2.2444480000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="38"/>
@@ -17553,14 +17638,30 @@
       <c r="D8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>0.59825309999999998</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>5.1369140000000002E-3</v>
+      </c>
+      <c r="K8">
+        <v>8.3284129999999994</v>
+      </c>
+      <c r="L8">
+        <v>7.4546409999999996</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="39"/>
@@ -17569,14 +17670,30 @@
       <c r="D9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>0.59587159999999995</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9">
+        <v>7.0785229999999998E-3</v>
+      </c>
+      <c r="K9">
+        <v>5.7405059999999999</v>
+      </c>
+      <c r="L9">
+        <v>4.2891779999999997</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="37">
@@ -18392,4 +18509,373 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE62691-3190-4184-AF72-A0B9F1B1B503}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/code_v2/summary_data/result.xlsx
+++ b/code_v2/summary_data/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RY\git\hierarchical-gene\code_v2\summary_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1D536F-D202-447C-AD9D-C968725173A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D838542-59C1-4F2A-9894-1752B7D92036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" activeTab="3" xr2:uid="{EBE4CFCB-469C-4867-8775-907539EE1541}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" activeTab="1" xr2:uid="{EBE4CFCB-469C-4867-8775-907539EE1541}"/>
   </bookViews>
   <sheets>
     <sheet name="n=500_p=8-3_q=4-2" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="87">
   <si>
     <t>balance
 type</t>
@@ -269,6 +269,76 @@
   <si>
     <t>high</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-02-26_n500_p8_q4_ss1_bl3_al2_eps0.5_epi0.5_rr0.2_Kup4_fminit.csv</t>
+  </si>
+  <si>
+    <t>2024-02-26_n500_p8_q4_ss2_bl3_al2_eps0.5_epi0.5_rr0.2_Kup4_fminit.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-02-27_n500_p8_q4_b2_ss1_bl3_al2_eps0.5_epi0.5_rr0.2_Kup4_ctEn_fminit.csv</t>
+  </si>
+  <si>
+    <t>2024-02-27_n500_p8_q4_b2_ss1_bl3_al2_eps0.5_epi0.5_rr0.2_Kup6_ctEn_fminit.csv</t>
+  </si>
+  <si>
+    <t>2024-02-27_n500_p8_q4_b2_ss2_bl3_al2_eps0.5_epi0.5_rr0.2_Kup4_ctEn_fminit.csv</t>
+  </si>
+  <si>
+    <t>2024-02-27_n500_p8_q4_b2_ss2_bl3_al2_eps0.5_epi0.5_rr0.2_Kup6_ctEn_fminit.csv</t>
+  </si>
+  <si>
+    <t>2024-02-27_n500_p8_q4_b3_ss1_bl3_al2_eps0.5_epi0.5_rr0.2_Kup6_ctEn_fminit.csv</t>
+  </si>
+  <si>
+    <t>2024-02-27_n500_p8_q4_b3_ss1_bl3_al2_eps0.5_epi0.5_rr0.2_Kup4_ctEn_fminit.csv</t>
+  </si>
+  <si>
+    <t>2024-02-27_n500_p8_q4_b3_ss2_bl3_al2_eps0.5_epi0.5_rr0.2_Kup4_ctEn_fminit.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-02-27_n500_p8_q4_b3_ss2_bl3_al2_eps0.5_epi0.5_rr0.2_Kup6_ctEn_fminit.csv</t>
+  </si>
+  <si>
+    <t>2024-03-06_n500_p80_q40_b1_ss1_bl3_al2_eps0.5_epi0.5_rr0.1_Kup4_ctEn_fminit.csv</t>
+  </si>
+  <si>
+    <t>2024-03-08_n500_p80_q40_b1_ss1_bl3_al2_eps0.5_epi0.5_rr0.1_Kup6_ctEn_fminit.csv</t>
+  </si>
+  <si>
+    <t>2024-03-06_n500_p80_q40_b1_ss2_bl3_al2_eps0.5_epi0.5_rr0.1_Kup4_ctEn_fminit.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-03-09_n500_p80_q40_b1_ss2_bl3_al2_eps0.5_epi0.5_rr0.1_Kup6_ctEn_fminit.csv</t>
+  </si>
+  <si>
+    <t>2024-03-10_n500_p80_q40_b2_ss1_bl3_al2_eps0.5_epi0.5_rr0.1_Kup4_ctEn_fminit.csv</t>
+  </si>
+  <si>
+    <t>2024-03-10_n500_p80_q40_b2_ss1_bl3_al2_eps0.5_epi0.5_rr0.1_Kup6_ctEn_fminit.csv</t>
+  </si>
+  <si>
+    <t>2024-03-10_n500_p80_q40_b2_ss2_bl3_al2_eps0.5_epi0.5_rr0.1_Kup4_ctEn_fminit.csv</t>
+  </si>
+  <si>
+    <t>2024-03-10_n500_p80_q40_b2_ss2_bl3_al2_eps0.5_epi0.5_rr0.1_Kup6_ctEn_fminit.csv</t>
+  </si>
+  <si>
+    <t>2024-03-11_n500_p80_q40_b3_ss1_bl3_al2_eps0.5_epi0.5_rr0.1_Kup4_ctEn_fminit.csv</t>
+  </si>
+  <si>
+    <t>2024-03-11_n500_p80_q40_b3_ss1_bl3_al2_eps0.5_epi0.5_rr0.1_Kup6_ctEn_fminit.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-03-12_n500_p80_q40_b3_ss2_bl3_al2_eps0.5_epi0.5_rr0.1_Kup4_ctEn_fminit.csv</t>
+  </si>
+  <si>
+    <t>2024-03-12_n500_p80_q40_b3_ss2_bl3_al2_eps0.5_epi0.5_rr0.1_Kup6_ctEn_fminit.csv</t>
   </si>
 </sst>
 </file>
@@ -832,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9D3AE6-56CA-42EC-92E1-A32B46A3D8A1}">
   <dimension ref="A1:AL290"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9651,8 +9721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474392E9-0E45-4AEC-B8E4-8AB631FBD30B}">
   <dimension ref="A1:AU291"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -18515,11 +18585,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE62691-3190-4184-AF72-A0B9F1B1B503}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -18551,6 +18628,9 @@
       <c r="D2">
         <v>4</v>
       </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -18565,6 +18645,9 @@
       <c r="D3">
         <v>4</v>
       </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -18579,6 +18662,9 @@
       <c r="D4">
         <v>6</v>
       </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -18593,6 +18679,9 @@
       <c r="D5">
         <v>6</v>
       </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -18607,6 +18696,9 @@
       <c r="D6">
         <v>4</v>
       </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -18621,6 +18713,9 @@
       <c r="D7">
         <v>4</v>
       </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -18635,6 +18730,9 @@
       <c r="D8">
         <v>6</v>
       </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -18649,6 +18747,9 @@
       <c r="D9">
         <v>6</v>
       </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -18663,6 +18764,9 @@
       <c r="D10">
         <v>4</v>
       </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -18677,6 +18781,9 @@
       <c r="D11">
         <v>4</v>
       </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -18691,6 +18798,9 @@
       <c r="D12">
         <v>6</v>
       </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -18705,6 +18815,9 @@
       <c r="D13">
         <v>6</v>
       </c>
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -18719,6 +18832,9 @@
       <c r="D14">
         <v>4</v>
       </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -18733,6 +18849,9 @@
       <c r="D15">
         <v>4</v>
       </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -18747,8 +18866,11 @@
       <c r="D16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -18761,8 +18883,11 @@
       <c r="D17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -18775,8 +18900,11 @@
       <c r="D18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -18789,8 +18917,11 @@
       <c r="D19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -18803,8 +18934,11 @@
       <c r="D20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -18817,8 +18951,11 @@
       <c r="D21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -18831,8 +18968,11 @@
       <c r="D22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -18845,8 +18985,11 @@
       <c r="D23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -18859,8 +19002,11 @@
       <c r="D24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -18872,6 +19018,9 @@
       </c>
       <c r="D25">
         <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
